--- a/correlation/data/nav.xlsx
+++ b/correlation/data/nav.xlsx
@@ -423,7 +423,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>43164</v>
+        <v>43185</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -446,5568 +446,5568 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>43165</v>
+        <v>43186</v>
       </c>
       <c r="B3">
-        <v>1.013436210293623</v>
+        <v>1.022330530241885</v>
       </c>
       <c r="C3">
-        <v>1.012062351904397</v>
+        <v>1.008602273310115</v>
       </c>
       <c r="D3">
-        <v>1.020890445450253</v>
+        <v>1.007923723279202</v>
       </c>
       <c r="E3">
-        <v>0.9965452607593076</v>
+        <v>0.9997082208767963</v>
       </c>
       <c r="F3">
-        <v>1.000083010416924</v>
+        <v>0.9992550364014309</v>
       </c>
       <c r="G3">
-        <v>1.000051419102968</v>
+        <v>0.9998307162753477</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>43166</v>
+        <v>43187</v>
       </c>
       <c r="B4">
-        <v>1.003692074054934</v>
+        <v>1.011923274816013</v>
       </c>
       <c r="C4">
-        <v>1.004618255855944</v>
+        <v>0.9904179058546203</v>
       </c>
       <c r="D4">
-        <v>1.010390348248818</v>
+        <v>0.9827737745251282</v>
       </c>
       <c r="E4">
-        <v>1.000771803447389</v>
+        <v>0.9939455831935224</v>
       </c>
       <c r="F4">
-        <v>1.000558112590384</v>
+        <v>0.9991874719761189</v>
       </c>
       <c r="G4">
-        <v>1.000260951947563</v>
+        <v>1.000255208039438</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>43167</v>
+        <v>43188</v>
       </c>
       <c r="B5">
-        <v>1.011117217542466</v>
+        <v>1.022344455461895</v>
       </c>
       <c r="C5">
-        <v>1.014808776393402</v>
+        <v>1.003648760416846</v>
       </c>
       <c r="D5">
-        <v>1.025701665540736</v>
+        <v>0.9850930168383212</v>
       </c>
       <c r="E5">
-        <v>1.000441030541365</v>
+        <v>0.9843898169086001</v>
       </c>
       <c r="F5">
-        <v>1.000785949692155</v>
+        <v>0.998869831431146</v>
       </c>
       <c r="G5">
-        <v>1.000326511303847</v>
+        <v>1.000442446098523</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>43168</v>
+        <v>43189</v>
       </c>
       <c r="B6">
-        <v>1.023561145108746</v>
+        <v>1.035876821637312</v>
       </c>
       <c r="C6">
-        <v>1.022589847880726</v>
+        <v>1.004795158010801</v>
       </c>
       <c r="D6">
-        <v>1.037134628839415</v>
+        <v>0.9850930168383212</v>
       </c>
       <c r="E6">
-        <v>0.9945238707780517</v>
+        <v>0.9867969946750309</v>
       </c>
       <c r="F6">
-        <v>1.001095914121308</v>
+        <v>0.9988593019103182</v>
       </c>
       <c r="G6">
-        <v>1.000065559356284</v>
+        <v>1.000332155187007</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>43171</v>
+        <v>43192</v>
       </c>
       <c r="B7">
-        <v>1.038205069993671</v>
+        <v>1.037100953508264</v>
       </c>
       <c r="C7">
-        <v>1.027268928550008</v>
+        <v>1.001810848907431</v>
       </c>
       <c r="D7">
-        <v>1.057147751869664</v>
+        <v>0.9850930168383212</v>
       </c>
       <c r="E7">
-        <v>0.9952589216803267</v>
+        <v>0.9878182216062439</v>
       </c>
       <c r="F7">
-        <v>1.00133434829758</v>
+        <v>0.999121662470945</v>
       </c>
       <c r="G7">
-        <v>1.00013754610044</v>
+        <v>1.000987488393805</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>43172</v>
+        <v>43193</v>
       </c>
       <c r="B8">
-        <v>1.03133976241777</v>
+        <v>1.026554496704263</v>
       </c>
       <c r="C8">
-        <v>1.018206703322493</v>
+        <v>0.9955118865391389</v>
       </c>
       <c r="D8">
-        <v>1.057385987400954</v>
+        <v>0.9879317563358523</v>
       </c>
       <c r="E8">
-        <v>0.9948913962291891</v>
+        <v>0.9936538040703187</v>
       </c>
       <c r="F8">
-        <v>1.000979346301798</v>
+        <v>0.9992532814812928</v>
       </c>
       <c r="G8">
-        <v>0.9998817360631734</v>
+        <v>1.001482515043167</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>43173</v>
+        <v>43194</v>
       </c>
       <c r="B9">
-        <v>1.020649187035771</v>
+        <v>1.019435592198272</v>
       </c>
       <c r="C9">
-        <v>1.013749717839067</v>
+        <v>0.9935486622955838</v>
       </c>
       <c r="D9">
-        <v>1.051816897256577</v>
+        <v>0.9662808027950059</v>
       </c>
       <c r="E9">
-        <v>0.9964350031239666</v>
+        <v>0.9926325771391057</v>
       </c>
       <c r="F9">
-        <v>1.000903400601208</v>
+        <v>0.999794674343857</v>
       </c>
       <c r="G9">
-        <v>1.000011569298168</v>
+        <v>1.001964717167934</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>43174</v>
+        <v>43199</v>
       </c>
       <c r="B10">
-        <v>1.019131038822376</v>
+        <v>1.02078457671092</v>
       </c>
       <c r="C10">
-        <v>1.019428525493536</v>
+        <v>0.9930503753582893</v>
       </c>
       <c r="D10">
-        <v>1.055366673592896</v>
+        <v>0.9895514614827371</v>
       </c>
       <c r="E10">
-        <v>0.9958837149472604</v>
+        <v>0.9902253993726748</v>
       </c>
       <c r="F10">
-        <v>1.001123289897103</v>
+        <v>1.002464785333781</v>
       </c>
       <c r="G10">
-        <v>0.9999138730025284</v>
+        <v>1.002890647843684</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>43175</v>
+        <v>43200</v>
       </c>
       <c r="B11">
-        <v>1.013556426022975</v>
+        <v>1.027237781161542</v>
       </c>
       <c r="C11">
-        <v>1.009538246587875</v>
+        <v>1.012185877290946</v>
       </c>
       <c r="D11">
-        <v>1.054057381972195</v>
+        <v>1.005891235555474</v>
       </c>
       <c r="E11">
-        <v>0.9930905215186152</v>
+        <v>0.9919396017214968</v>
       </c>
       <c r="F11">
-        <v>1.001836826246834</v>
+        <v>1.00241389264978</v>
       </c>
       <c r="G11">
-        <v>0.9999061601370833</v>
+        <v>1.003495965404562</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>43178</v>
+        <v>43201</v>
       </c>
       <c r="B12">
-        <v>1.01479784719189</v>
+        <v>1.031112160227173</v>
       </c>
       <c r="C12">
-        <v>1.013974500864464</v>
+        <v>1.015064951533457</v>
       </c>
       <c r="D12">
-        <v>1.054451875920779</v>
+        <v>1.011422391147008</v>
       </c>
       <c r="E12">
-        <v>0.9871733617553017</v>
+        <v>0.9953315340287401</v>
       </c>
       <c r="F12">
-        <v>1.001661974517568</v>
+        <v>1.002857887444687</v>
       </c>
       <c r="G12">
-        <v>0.999776326902089</v>
+        <v>1.003583172171807</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>43179</v>
+        <v>43202</v>
       </c>
       <c r="B13">
-        <v>1.018073602138013</v>
+        <v>1.025135835269594</v>
       </c>
       <c r="C13">
-        <v>1.014834659292695</v>
+        <v>1.00483064868026</v>
       </c>
       <c r="D13">
-        <v>1.055662125803752</v>
+        <v>1.009247835510235</v>
       </c>
       <c r="E13">
-        <v>0.9905178433606526</v>
+        <v>0.9996352760959952</v>
       </c>
       <c r="F13">
-        <v>1.002439976403847</v>
+        <v>1.00337383396525</v>
       </c>
       <c r="G13">
-        <v>0.9998123202741667</v>
+        <v>1.003971755267032</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>43180</v>
+        <v>43203</v>
       </c>
       <c r="B14">
-        <v>1.010736287042049</v>
+        <v>1.021045022370815</v>
       </c>
       <c r="C14">
-        <v>1.010689936056795</v>
+        <v>0.9977451182287757</v>
       </c>
       <c r="D14">
-        <v>1.051131300903187</v>
+        <v>1.008498214494397</v>
       </c>
       <c r="E14">
-        <v>0.9913631518982688</v>
+        <v>0.992413742796703</v>
       </c>
       <c r="F14">
-        <v>1.003190602514332</v>
+        <v>1.004195136589821</v>
       </c>
       <c r="G14">
-        <v>0.9999845742691095</v>
+        <v>1.004196184447442</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>43181</v>
+        <v>43206</v>
       </c>
       <c r="B15">
-        <v>1.006122806419546</v>
+        <v>1.018540956104928</v>
       </c>
       <c r="C15">
-        <v>1.000560464319304</v>
+        <v>0.9816927941054041</v>
       </c>
       <c r="D15">
-        <v>1.039638778721686</v>
+        <v>0.9923669594553232</v>
       </c>
       <c r="E15">
-        <v>1.000036752545114</v>
+        <v>0.9952950616383397</v>
       </c>
       <c r="F15">
-        <v>1.004353631440814</v>
+        <v>1.005711387589029</v>
       </c>
       <c r="G15">
-        <v>1.000278948633602</v>
+        <v>1.004761745982076</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>43182</v>
+        <v>43207</v>
       </c>
       <c r="B16">
-        <v>0.9543302258144464</v>
+        <v>0.9979498925183076</v>
       </c>
       <c r="C16">
-        <v>0.9718370412660522</v>
+        <v>0.9661712835895213</v>
       </c>
       <c r="D16">
-        <v>1.014150253677343</v>
+        <v>0.9840903578114599</v>
       </c>
       <c r="E16">
-        <v>1.01058473299276</v>
+        <v>0.9975198774527682</v>
       </c>
       <c r="F16">
-        <v>1.006948148514467</v>
+        <v>1.006480042609461</v>
       </c>
       <c r="G16">
-        <v>1.001618416265919</v>
+        <v>1.005169565864193</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>43185</v>
+        <v>43208</v>
       </c>
       <c r="B17">
-        <v>0.9734272942112433</v>
+        <v>1.01146863840554</v>
       </c>
       <c r="C17">
-        <v>0.9656046133281503</v>
+        <v>0.9707180069141078</v>
       </c>
       <c r="D17">
-        <v>1.022163265620237</v>
+        <v>0.991341058903517</v>
       </c>
       <c r="E17">
-        <v>1.007681281928773</v>
+        <v>0.9958421474943467</v>
       </c>
       <c r="F17">
-        <v>1.006415645520793</v>
+        <v>1.015683721273054</v>
       </c>
       <c r="G17">
-        <v>1.002358851348659</v>
+        <v>1.009343948619824</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43186</v>
+        <v>43209</v>
       </c>
       <c r="B18">
-        <v>0.9951644418429033</v>
+        <v>1.017241285844651</v>
       </c>
       <c r="C18">
-        <v>0.9739110081215065</v>
+        <v>0.9824608565236203</v>
       </c>
       <c r="D18">
-        <v>1.030262604483178</v>
+        <v>1.005226724349294</v>
       </c>
       <c r="E18">
-        <v>1.007387261567864</v>
+        <v>0.9996717484863956</v>
       </c>
       <c r="F18">
-        <v>1.00566590249985</v>
+        <v>1.014435973054956</v>
       </c>
       <c r="G18">
-        <v>1.002189168308864</v>
+        <v>1.009414483505096</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>43187</v>
+        <v>43210</v>
       </c>
       <c r="B19">
-        <v>0.9850337353535314</v>
+        <v>0.9962522354043872</v>
       </c>
       <c r="C19">
-        <v>0.956352099016027</v>
+        <v>0.9693190765827817</v>
       </c>
       <c r="D19">
-        <v>1.004555250734532</v>
+        <v>0.9957301063185193</v>
       </c>
       <c r="E19">
-        <v>1.001580359439891</v>
+        <v>0.9952585892479392</v>
       </c>
       <c r="F19">
-        <v>1.005597904605135</v>
+        <v>1.014694823775307</v>
       </c>
       <c r="G19">
-        <v>1.002614661385925</v>
+        <v>1.009419613314934</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>43188</v>
+        <v>43213</v>
       </c>
       <c r="B20">
-        <v>0.9951779970321392</v>
+        <v>0.9866103927406709</v>
       </c>
       <c r="C20">
-        <v>0.9691278732195865</v>
+        <v>0.9707292701113145</v>
       </c>
       <c r="D20">
-        <v>1.00692589503115</v>
+        <v>0.9903639328195536</v>
       </c>
       <c r="E20">
-        <v>0.9919511926200888</v>
+        <v>0.9900430374206723</v>
       </c>
       <c r="F20">
-        <v>1.005278226191023</v>
+        <v>1.011876422033724</v>
       </c>
       <c r="G20">
-        <v>1.002802341111758</v>
+        <v>1.009034877577087</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>43189</v>
+        <v>43214</v>
       </c>
       <c r="B21">
-        <v>1.008350771622551</v>
+        <v>1.009187578947696</v>
       </c>
       <c r="C21">
-        <v>0.9702348400250171</v>
+        <v>0.9906171639269431</v>
       </c>
       <c r="D21">
-        <v>1.00692589503115</v>
+        <v>1.002863290404163</v>
       </c>
       <c r="E21">
-        <v>0.9943768605975963</v>
+        <v>0.9887300313662555</v>
       </c>
       <c r="F21">
-        <v>1.005267629116522</v>
+        <v>1.012611733571534</v>
       </c>
       <c r="G21">
-        <v>1.002691790040377</v>
+        <v>1.008693745222864</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>43192</v>
+        <v>43215</v>
       </c>
       <c r="B22">
-        <v>1.00954237499745</v>
+        <v>1.009565237013004</v>
       </c>
       <c r="C22">
-        <v>0.9673531773872063</v>
+        <v>0.9868059505764718</v>
       </c>
       <c r="D22">
-        <v>1.00692589503115</v>
+        <v>0.9927781053050581</v>
       </c>
       <c r="E22">
-        <v>0.9954059318607813</v>
+        <v>0.9866146327230284</v>
       </c>
       <c r="F22">
-        <v>1.005531672889504</v>
+        <v>1.011586860210959</v>
       </c>
       <c r="G22">
-        <v>1.003348669080794</v>
+        <v>1.008793776514704</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>43193</v>
+        <v>43216</v>
       </c>
       <c r="B23">
-        <v>0.9992761660872154</v>
+        <v>0.9906856541163728</v>
       </c>
       <c r="C23">
-        <v>0.961270870265203</v>
+        <v>0.9679375436384453</v>
       </c>
       <c r="D23">
-        <v>1.009827550266192</v>
+        <v>0.9822876665738096</v>
       </c>
       <c r="E23">
-        <v>1.001286339078981</v>
+        <v>0.9893865343934638</v>
       </c>
       <c r="F23">
-        <v>1.005664136320766</v>
+        <v>1.01094543690053</v>
       </c>
       <c r="G23">
-        <v>1.003844863424435</v>
+        <v>1.008208978193178</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>43194</v>
+        <v>43217</v>
       </c>
       <c r="B24">
-        <v>0.9923464301362004</v>
+        <v>0.9928891253654013</v>
       </c>
       <c r="C24">
-        <v>0.9593751718786284</v>
+        <v>0.9682938421239963</v>
       </c>
       <c r="D24">
-        <v>0.9876967408910881</v>
+        <v>0.9912238692425258</v>
       </c>
       <c r="E24">
-        <v>1.000257267815796</v>
+        <v>0.9858487125246187</v>
       </c>
       <c r="F24">
-        <v>1.006209002568024</v>
+        <v>1.010191698701271</v>
       </c>
       <c r="G24">
-        <v>1.004328202992335</v>
+        <v>1.00770369192414</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>43199</v>
+        <v>43222</v>
       </c>
       <c r="B25">
-        <v>0.9936595684802803</v>
+        <v>0.9919302333602598</v>
       </c>
       <c r="C25">
-        <v>0.9588940237132157</v>
+        <v>0.9700386325086797</v>
       </c>
       <c r="D25">
-        <v>1.011483153368473</v>
+        <v>1.005732145680497</v>
       </c>
       <c r="E25">
-        <v>0.9978315998382888</v>
+        <v>0.9841709825661971</v>
       </c>
       <c r="F25">
-        <v>1.008896244043561</v>
+        <v>1.009099260915384</v>
       </c>
       <c r="G25">
-        <v>1.005256317800908</v>
+        <v>1.006621302048332</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>43200</v>
+        <v>43223</v>
       </c>
       <c r="B26">
-        <v>0.9999412938276415</v>
+        <v>1.001295452036697</v>
       </c>
       <c r="C26">
-        <v>0.9773713526577386</v>
+        <v>0.9776043050671757</v>
       </c>
       <c r="D26">
-        <v>1.028185070194159</v>
+        <v>0.9922942887716918</v>
       </c>
       <c r="E26">
-        <v>0.9995589694586351</v>
+        <v>0.9825661973885765</v>
       </c>
       <c r="F26">
-        <v>1.00884502485014</v>
+        <v>1.009376538297183</v>
       </c>
       <c r="G26">
-        <v>1.005863063215931</v>
+        <v>1.006198092736702</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>43201</v>
+        <v>43224</v>
       </c>
       <c r="B27">
-        <v>1.003712720158247</v>
+        <v>1.001073292261501</v>
       </c>
       <c r="C27">
-        <v>0.9801514000284218</v>
+        <v>0.9728613907651575</v>
       </c>
       <c r="D27">
-        <v>1.033838814256255</v>
+        <v>0.9796302764399352</v>
       </c>
       <c r="E27">
-        <v>1.002976956154214</v>
+        <v>0.9828579765117804</v>
       </c>
       <c r="F27">
-        <v>1.009291868158264</v>
+        <v>1.010024981288164</v>
       </c>
       <c r="G27">
-        <v>1.005950475690976</v>
+        <v>1.005948014507102</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>43202</v>
+        <v>43227</v>
       </c>
       <c r="B28">
-        <v>0.9978952023254637</v>
+        <v>1.019682010994215</v>
       </c>
       <c r="C28">
-        <v>0.970269109979177</v>
+        <v>0.9882199586431891</v>
       </c>
       <c r="D28">
-        <v>1.031616063365298</v>
+        <v>0.9818483690178031</v>
       </c>
       <c r="E28">
-        <v>1.007313756477636</v>
+        <v>0.9847180684222041</v>
       </c>
       <c r="F28">
-        <v>1.009811124808811</v>
+        <v>1.009449367482909</v>
       </c>
       <c r="G28">
-        <v>1.006339975395959</v>
+        <v>1.005914670743155</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>43203</v>
+        <v>43228</v>
       </c>
       <c r="B29">
-        <v>0.993913093394281</v>
+        <v>1.023523033906318</v>
       </c>
       <c r="C29">
-        <v>0.9634272890873469</v>
+        <v>0.999686511973397</v>
       </c>
       <c r="D29">
-        <v>1.030849828299771</v>
+        <v>0.9952220662239428</v>
       </c>
       <c r="E29">
-        <v>1.000036752545114</v>
+        <v>0.986031074476621</v>
       </c>
       <c r="F29">
-        <v>1.010637696619886</v>
+        <v>1.007967337426392</v>
       </c>
       <c r="G29">
-        <v>1.006564933971445</v>
+        <v>1.004991304972324</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>43206</v>
+        <v>43229</v>
       </c>
       <c r="B30">
-        <v>0.9914755669445532</v>
+        <v>1.021391662093254</v>
       </c>
       <c r="C30">
-        <v>0.9479270908591806</v>
+        <v>0.9978664875551979</v>
       </c>
       <c r="D30">
-        <v>1.014361051970479</v>
+        <v>0.9995865627323129</v>
       </c>
       <c r="E30">
-        <v>1.0029402036091</v>
+        <v>0.9833321175869864</v>
       </c>
       <c r="F30">
-        <v>1.012163675348026</v>
+        <v>1.007199559866029</v>
       </c>
       <c r="G30">
-        <v>1.007131829581667</v>
+        <v>1.004189772185144</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>43207</v>
+        <v>43230</v>
       </c>
       <c r="B31">
-        <v>0.9714316636324977</v>
+        <v>1.023312512362444</v>
       </c>
       <c r="C31">
-        <v>0.9329394486992229</v>
+        <v>1.003392748202077</v>
       </c>
       <c r="D31">
-        <v>1.00590101380595</v>
+        <v>1.008525711509825</v>
       </c>
       <c r="E31">
-        <v>1.005182108861039</v>
+        <v>0.9851192647166093</v>
       </c>
       <c r="F31">
-        <v>1.012937261786596</v>
+        <v>1.007594416897073</v>
       </c>
       <c r="G31">
-        <v>1.007540611450263</v>
+        <v>1.003545981050482</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>43208</v>
+        <v>43231</v>
       </c>
       <c r="B32">
-        <v>0.9845911798626352</v>
+        <v>1.014972762472948</v>
       </c>
       <c r="C32">
-        <v>0.9373297857169703</v>
+        <v>0.998181728207453</v>
       </c>
       <c r="D32">
-        <v>1.013312414112243</v>
+        <v>1.018766385684268</v>
       </c>
       <c r="E32">
-        <v>1.003491491785806</v>
+        <v>0.9876358596542414</v>
       </c>
       <c r="F32">
-        <v>1.022199987989982</v>
+        <v>1.008106853577361</v>
       </c>
       <c r="G32">
-        <v>1.011724840954287</v>
+        <v>1.003072756092931</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>43209</v>
+        <v>43234</v>
       </c>
       <c r="B33">
-        <v>0.990210432439725</v>
+        <v>1.010942868176549</v>
       </c>
       <c r="C33">
-        <v>0.9486687354735341</v>
+        <v>1.007577605877275</v>
       </c>
       <c r="D33">
-        <v>1.027505831249609</v>
+        <v>1.032482813546994</v>
       </c>
       <c r="E33">
-        <v>1.00735050902275</v>
+        <v>0.9866511051134286</v>
       </c>
       <c r="F33">
-        <v>1.020944234661618</v>
+        <v>1.007661103862316</v>
       </c>
       <c r="G33">
-        <v>1.011795542220868</v>
+        <v>1.002804723528898</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>43210</v>
+        <v>43235</v>
       </c>
       <c r="B34">
-        <v>0.9697791178615955</v>
+        <v>1.019924059100667</v>
       </c>
       <c r="C34">
-        <v>0.9359789721353171</v>
+        <v>1.011393226565784</v>
       </c>
       <c r="D34">
-        <v>1.017798737150924</v>
+        <v>1.019747439913293</v>
       </c>
       <c r="E34">
-        <v>1.002903451063986</v>
+        <v>0.9828215041213797</v>
       </c>
       <c r="F34">
-        <v>1.021204746076433</v>
+        <v>1.006720466668363</v>
       </c>
       <c r="G34">
-        <v>1.011800684131165</v>
+        <v>1.002316109141834</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>43213</v>
+        <v>43236</v>
       </c>
       <c r="B35">
-        <v>0.9603934850462436</v>
+        <v>1.017128833763841</v>
       </c>
       <c r="C35">
-        <v>0.9373406615121539</v>
+        <v>1.003338030198256</v>
       </c>
       <c r="D35">
-        <v>1.012313631723336</v>
+        <v>1.018378154014057</v>
       </c>
       <c r="E35">
-        <v>0.9976478371127199</v>
+        <v>0.974177547596469</v>
       </c>
       <c r="F35">
-        <v>1.018368262468341</v>
+        <v>1.006654657163189</v>
       </c>
       <c r="G35">
-        <v>1.011415040858905</v>
+        <v>1.001953175095799</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>43214</v>
+        <v>43237</v>
       </c>
       <c r="B36">
-        <v>0.9823707343266518</v>
+        <v>1.011997322427526</v>
       </c>
       <c r="C36">
-        <v>0.9565445035299053</v>
+        <v>0.9959168203865415</v>
       </c>
       <c r="D36">
-        <v>1.025090015890176</v>
+        <v>1.012877114201325</v>
       </c>
       <c r="E36">
-        <v>0.9963247454886248</v>
+        <v>0.9683054927419938</v>
       </c>
       <c r="F36">
-        <v>1.019108291504325</v>
+        <v>1.006012356392691</v>
       </c>
       <c r="G36">
-        <v>1.011073103824167</v>
+        <v>1.001754394964578</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>43215</v>
+        <v>43238</v>
       </c>
       <c r="B37">
-        <v>0.9827383569953014</v>
+        <v>1.015617744104872</v>
       </c>
       <c r="C37">
-        <v>0.9528643783363124</v>
+        <v>1.005971994588511</v>
       </c>
       <c r="D37">
-        <v>1.01478131015489</v>
+        <v>1.016339119381893</v>
       </c>
       <c r="E37">
-        <v>0.9941930978720275</v>
+        <v>0.9694361368444083</v>
       </c>
       <c r="F37">
-        <v>1.018076842919564</v>
+        <v>1.006641495262154</v>
       </c>
       <c r="G37">
-        <v>1.011173371074955</v>
+        <v>1.001665905744874</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>43216</v>
+        <v>43241</v>
       </c>
       <c r="B38">
-        <v>0.9643604557003966</v>
+        <v>1.028670418638192</v>
       </c>
       <c r="C38">
-        <v>0.9346449575508012</v>
+        <v>1.010657278435256</v>
       </c>
       <c r="D38">
-        <v>1.004058369043568</v>
+        <v>1.022442147425248</v>
       </c>
       <c r="E38">
-        <v>0.9969862913006723</v>
+        <v>0.9676854621051858</v>
       </c>
       <c r="F38">
-        <v>1.017431304464547</v>
+        <v>1.007180255744511</v>
       </c>
       <c r="G38">
-        <v>1.010587193301119</v>
+        <v>1.001681295174387</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>43217</v>
+        <v>43242</v>
       </c>
       <c r="B39">
-        <v>0.9665053747562107</v>
+        <v>1.032178455997355</v>
       </c>
       <c r="C39">
-        <v>0.9349890010121711</v>
+        <v>1.006782429309262</v>
       </c>
       <c r="D39">
-        <v>1.013192627145667</v>
+        <v>1.022442147425248</v>
       </c>
       <c r="E39">
-        <v>0.9934212944246388</v>
+        <v>0.9702020570428179</v>
       </c>
       <c r="F39">
-        <v>1.016672730548187</v>
+        <v>1.008277958290813</v>
       </c>
       <c r="G39">
-        <v>1.010080715136884</v>
+        <v>1.001514576354654</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>43222</v>
+        <v>43243</v>
       </c>
       <c r="B40">
-        <v>0.965571963106205</v>
+        <v>1.01878522343744</v>
       </c>
       <c r="C40">
-        <v>0.936673778656912</v>
+        <v>0.9934764953569598</v>
       </c>
       <c r="D40">
-        <v>1.028022454368025</v>
+        <v>1.003825685944148</v>
       </c>
       <c r="E40">
-        <v>0.9917306773494061</v>
+        <v>0.9719527317820404</v>
       </c>
       <c r="F40">
-        <v>1.015573284068712</v>
+        <v>1.009152785979591</v>
       </c>
       <c r="G40">
-        <v>1.008995772064258</v>
+        <v>1.001540225403844</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>43223</v>
+        <v>43244</v>
       </c>
       <c r="B41">
-        <v>0.974688322582106</v>
+        <v>1.015189348772009</v>
       </c>
       <c r="C41">
-        <v>0.9439792269823258</v>
+        <v>0.9864233369322301</v>
       </c>
       <c r="D41">
-        <v>1.014286770667183</v>
+        <v>1.006927938506198</v>
       </c>
       <c r="E41">
-        <v>0.9901135653644012</v>
+        <v>0.9761835290684945</v>
       </c>
       <c r="F41">
-        <v>1.015852340363903</v>
+        <v>1.009168580260833</v>
       </c>
       <c r="G41">
-        <v>1.008571564464772</v>
+        <v>1.001804410610498</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>43224</v>
+        <v>43245</v>
       </c>
       <c r="B42">
-        <v>0.9744720661932542</v>
+        <v>1.002513824084288</v>
       </c>
       <c r="C42">
-        <v>0.939399447051677</v>
+        <v>0.9836606318782505</v>
       </c>
       <c r="D42">
-        <v>1.0013420824663</v>
+        <v>1.001285485471265</v>
       </c>
       <c r="E42">
-        <v>0.9904075857253113</v>
+        <v>0.9806331606973516</v>
       </c>
       <c r="F42">
-        <v>1.016504943535254</v>
+        <v>1.010726071883283</v>
       </c>
       <c r="G42">
-        <v>1.008320896337803</v>
+        <v>1.001714638938334</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>43227</v>
+        <v>43248</v>
       </c>
       <c r="B43">
-        <v>0.9925863009179784</v>
+        <v>0.9980186038228831</v>
       </c>
       <c r="C43">
-        <v>0.9542297510488178</v>
+        <v>0.9879808283372765</v>
       </c>
       <c r="D43">
-        <v>1.003609335219142</v>
+        <v>1.007970533674515</v>
       </c>
       <c r="E43">
-        <v>0.9922819655261124</v>
+        <v>0.9767306149245017</v>
       </c>
       <c r="F43">
-        <v>1.015925636795868</v>
+        <v>1.010759415365905</v>
       </c>
       <c r="G43">
-        <v>1.008287473920874</v>
+        <v>1.001612042741575</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>43228</v>
+        <v>43249</v>
       </c>
       <c r="B44">
-        <v>0.9963252574583102</v>
+        <v>0.9885628203944098</v>
       </c>
       <c r="C44">
-        <v>0.9653019078434398</v>
+        <v>0.9804418059982585</v>
       </c>
       <c r="D44">
-        <v>1.017279437228786</v>
+        <v>0.9978987697377015</v>
       </c>
       <c r="E44">
-        <v>0.9936050571502074</v>
+        <v>0.9789189583485296</v>
       </c>
       <c r="F44">
-        <v>1.014434098559857</v>
+        <v>1.010594452872935</v>
       </c>
       <c r="G44">
-        <v>1.007361930067449</v>
+        <v>1.001291429626703</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>43229</v>
+        <v>43250</v>
       </c>
       <c r="B45">
-        <v>0.9942505219613609</v>
+        <v>0.9626677557024454</v>
       </c>
       <c r="C45">
-        <v>0.9635444838688569</v>
+        <v>0.9596585266655553</v>
       </c>
       <c r="D45">
-        <v>1.021740665232569</v>
+        <v>0.9838952599400893</v>
       </c>
       <c r="E45">
-        <v>0.9908853688117899</v>
+        <v>0.9805602159165507</v>
       </c>
       <c r="F45">
-        <v>1.013661395210829</v>
+        <v>1.010837509312044</v>
       </c>
       <c r="G45">
-        <v>1.006558506583573</v>
+        <v>1.001113168734834</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>43230</v>
+        <v>43251</v>
       </c>
       <c r="B46">
-        <v>0.9961203300414839</v>
+        <v>0.9748458010582761</v>
       </c>
       <c r="C46">
-        <v>0.9688806666439368</v>
+        <v>0.9800208150070121</v>
       </c>
       <c r="D46">
-        <v>1.030877934738856</v>
+        <v>0.9973743623720367</v>
       </c>
       <c r="E46">
-        <v>0.9926862435223637</v>
+        <v>0.9830768108541829</v>
       </c>
       <c r="F46">
-        <v>1.014058785504615</v>
+        <v>1.010025858748232</v>
       </c>
       <c r="G46">
-        <v>1.005913196841324</v>
+        <v>1.000468095147713</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>43231</v>
+        <v>43252</v>
       </c>
       <c r="B47">
-        <v>0.9880021898721533</v>
+        <v>0.9630959138661107</v>
       </c>
       <c r="C47">
-        <v>0.963848881696983</v>
+        <v>0.9718281148474974</v>
       </c>
       <c r="D47">
-        <v>1.041345575695158</v>
+        <v>0.9981714484740302</v>
       </c>
       <c r="E47">
-        <v>0.9952221691352122</v>
+        <v>0.9814355532861617</v>
       </c>
       <c r="F47">
-        <v>1.014574509796996</v>
+        <v>1.009223860245179</v>
       </c>
       <c r="G47">
-        <v>1.005438855616444</v>
+        <v>1.000175695986949</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>43234</v>
+        <v>43255</v>
       </c>
       <c r="B48">
-        <v>0.984079380771252</v>
+        <v>0.9627627080846305</v>
       </c>
       <c r="C48">
-        <v>0.9729215845212305</v>
+        <v>0.9813616251788391</v>
       </c>
       <c r="D48">
-        <v>1.055366004391966</v>
+        <v>1.014704683691029</v>
       </c>
       <c r="E48">
-        <v>0.9942298504171408</v>
+        <v>0.9772412283901082</v>
       </c>
       <c r="F48">
-        <v>1.014125900309788</v>
+        <v>1.007504915970036</v>
       </c>
       <c r="G48">
-        <v>1.005170190803436</v>
+        <v>0.9999217703999707</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>43235</v>
+        <v>43256</v>
       </c>
       <c r="B49">
-        <v>0.9928219171513103</v>
+        <v>0.9790137447681323</v>
       </c>
       <c r="C49">
-        <v>0.9766059654607647</v>
+        <v>0.9910882593927207</v>
       </c>
       <c r="D49">
-        <v>1.042348373289648</v>
+        <v>1.017829850432603</v>
       </c>
       <c r="E49">
-        <v>0.9903708331801974</v>
+        <v>0.9756364432124877</v>
       </c>
       <c r="F49">
-        <v>1.013179228321035</v>
+        <v>1.006952116126575</v>
       </c>
       <c r="G49">
-        <v>1.004680423847666</v>
+        <v>0.9992843915276055</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>43236</v>
+        <v>43257</v>
       </c>
       <c r="B50">
-        <v>0.990100968514973</v>
+        <v>0.9781971542813411</v>
       </c>
       <c r="C50">
-        <v>0.9688278306870149</v>
+        <v>0.9890352904062047</v>
       </c>
       <c r="D50">
-        <v>1.040948739543317</v>
+        <v>1.023252327344112</v>
       </c>
       <c r="E50">
-        <v>0.9816604799882388</v>
+        <v>0.9769859216573049</v>
       </c>
       <c r="F50">
-        <v>1.013112996605404</v>
+        <v>1.006279104253662</v>
       </c>
       <c r="G50">
-        <v>1.004316633694167</v>
+        <v>0.9992779792653083</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>43237</v>
+        <v>43258</v>
       </c>
       <c r="B51">
-        <v>0.9851058153196497</v>
+        <v>0.9720578771445941</v>
       </c>
       <c r="C51">
-        <v>0.9616618762563478</v>
+        <v>0.9874016628809096</v>
       </c>
       <c r="D51">
-        <v>1.035325778724028</v>
+        <v>1.031551515822077</v>
       </c>
       <c r="E51">
-        <v>0.9757433202249252</v>
+        <v>0.9777883142461151</v>
       </c>
       <c r="F51">
-        <v>1.012466575060845</v>
+        <v>1.006057106856209</v>
       </c>
       <c r="G51">
-        <v>1.004117384670165</v>
+        <v>0.9988752891930291</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>43238</v>
+        <v>43259</v>
       </c>
       <c r="B52">
-        <v>0.9886300325969323</v>
+        <v>0.9604171894271057</v>
       </c>
       <c r="C52">
-        <v>0.9713711988535872</v>
+        <v>0.9741546738531194</v>
       </c>
       <c r="D52">
-        <v>1.038864513244992</v>
+        <v>1.013402830948676</v>
       </c>
       <c r="E52">
-        <v>0.9768826491234515</v>
+        <v>0.977934203807717</v>
       </c>
       <c r="F52">
-        <v>1.013099750262278</v>
+        <v>1.006763462211743</v>
       </c>
       <c r="G52">
-        <v>1.004028686717546</v>
+        <v>0.9985020955273183</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>43241</v>
+        <v>43262</v>
       </c>
       <c r="B53">
-        <v>1.001335862250122</v>
+        <v>0.9541582096083748</v>
       </c>
       <c r="C53">
-        <v>0.9758953305507563</v>
+        <v>0.9742489805775574</v>
       </c>
       <c r="D53">
-        <v>1.04510280431996</v>
+        <v>1.016855997802858</v>
       </c>
       <c r="E53">
-        <v>0.9751185269579914</v>
+        <v>0.9784083448829231</v>
       </c>
       <c r="F53">
-        <v>1.01364196724091</v>
+        <v>1.006565156236152</v>
       </c>
       <c r="G53">
-        <v>1.004044112448436</v>
+        <v>0.9979442287074413</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>43242</v>
+        <v>43263</v>
       </c>
       <c r="B54">
-        <v>1.004750681564645</v>
+        <v>0.9644902315767476</v>
       </c>
       <c r="C54">
-        <v>0.972153758358746</v>
+        <v>0.9860976578477811</v>
       </c>
       <c r="D54">
-        <v>1.04510280431996</v>
+        <v>1.018144429382918</v>
       </c>
       <c r="E54">
-        <v>0.9776544525708399</v>
+        <v>0.9778612590269161</v>
       </c>
       <c r="F54">
-        <v>1.014746712257636</v>
+        <v>1.00527792231495</v>
       </c>
       <c r="G54">
-        <v>1.00387700036379</v>
+        <v>0.9976979978352197</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>43243</v>
+        <v>43264</v>
       </c>
       <c r="B55">
-        <v>0.991713343433104</v>
+        <v>0.9498655657227357</v>
       </c>
       <c r="C55">
-        <v>0.9593054871497633</v>
+        <v>0.9764029832781475</v>
       </c>
       <c r="D55">
-        <v>1.026073741258145</v>
+        <v>1.005773718549061</v>
       </c>
       <c r="E55">
-        <v>0.9794185747363</v>
+        <v>0.9769494492669045</v>
       </c>
       <c r="F55">
-        <v>1.015627152530758</v>
+        <v>1.006037802734691</v>
       </c>
       <c r="G55">
-        <v>1.003902709915274</v>
+        <v>0.9973196743596709</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>43244</v>
+        <v>43265</v>
       </c>
       <c r="B56">
-        <v>0.9882130208872112</v>
+        <v>0.9464628823091229</v>
       </c>
       <c r="C56">
-        <v>0.9524949248363099</v>
+        <v>0.9725437015917709</v>
       </c>
       <c r="D56">
-        <v>1.029244749867749</v>
+        <v>0.9964450287196506</v>
       </c>
       <c r="E56">
-        <v>0.9836818699694948</v>
+        <v>0.9808519950397545</v>
       </c>
       <c r="F56">
-        <v>1.015643048142509</v>
+        <v>1.006996866590093</v>
       </c>
       <c r="G56">
-        <v>1.004167518295559</v>
+        <v>0.9972799183334268</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>43245</v>
+        <v>43266</v>
       </c>
       <c r="B57">
-        <v>0.9758743191877352</v>
+        <v>0.9290162418209662</v>
       </c>
       <c r="C57">
-        <v>0.9498272440909222</v>
+        <v>0.967406523839704</v>
       </c>
       <c r="D57">
-        <v>1.023477241647453</v>
+        <v>0.9921672787480479</v>
       </c>
       <c r="E57">
-        <v>0.9881656804733724</v>
+        <v>0.9799037128893424</v>
       </c>
       <c r="F57">
-        <v>1.017210532079111</v>
+        <v>1.008076142474945</v>
       </c>
       <c r="G57">
-        <v>1.004077534865365</v>
+        <v>0.9972414447596422</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>43248</v>
+        <v>43270</v>
       </c>
       <c r="B58">
-        <v>0.9714985490917919</v>
+        <v>0.8710393675795265</v>
       </c>
       <c r="C58">
-        <v>0.9539988457222417</v>
+        <v>0.9333032122277601</v>
       </c>
       <c r="D58">
-        <v>1.030310452349716</v>
+        <v>0.9646263990334146</v>
       </c>
       <c r="E58">
-        <v>0.9842331581462013</v>
+        <v>0.9768035597053026</v>
       </c>
       <c r="F58">
-        <v>1.017244089481697</v>
+        <v>1.009934602901057</v>
       </c>
       <c r="G58">
-        <v>1.003974696659429</v>
+        <v>0.9973453234088608</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>43249</v>
+        <v>43271</v>
       </c>
       <c r="B59">
-        <v>0.9622940314143656</v>
+        <v>0.8806420095630688</v>
       </c>
       <c r="C59">
-        <v>0.9467191309717019</v>
+        <v>0.9369958398337277</v>
       </c>
       <c r="D59">
-        <v>1.020015465233507</v>
+        <v>0.9720905293404613</v>
       </c>
       <c r="E59">
-        <v>0.986438310853026</v>
+        <v>0.9712597563644317</v>
       </c>
       <c r="F59">
-        <v>1.017078068647848</v>
+        <v>1.008806189252341</v>
       </c>
       <c r="G59">
-        <v>1.003653327265879</v>
+        <v>0.9971452608251807</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>43250</v>
+        <v>43272</v>
       </c>
       <c r="B60">
-        <v>0.9370870686578417</v>
+        <v>0.8621527563431411</v>
       </c>
       <c r="C60">
-        <v>0.9266507005679561</v>
+        <v>0.9260474451228426</v>
       </c>
       <c r="D60">
-        <v>1.005701591928634</v>
+        <v>0.9589927843248681</v>
       </c>
       <c r="E60">
-        <v>0.9880921753831449</v>
+        <v>0.9692537748924061</v>
       </c>
       <c r="F60">
-        <v>1.017322684450912</v>
+        <v>1.009426553521114</v>
       </c>
       <c r="G60">
-        <v>1.003474645883065</v>
+        <v>0.9971016574415581</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>43251</v>
+        <v>43273</v>
       </c>
       <c r="B61">
-        <v>0.9489415103973498</v>
+        <v>0.8741587015650527</v>
       </c>
       <c r="C61">
-        <v>0.9463126201283848</v>
+        <v>0.9301557027474729</v>
       </c>
       <c r="D61">
-        <v>1.019479435288103</v>
+        <v>0.9603889125486885</v>
       </c>
       <c r="E61">
-        <v>0.9906281009959935</v>
+        <v>0.9726457071996496</v>
       </c>
       <c r="F61">
-        <v>1.016505826624796</v>
+        <v>1.009811758491399</v>
       </c>
       <c r="G61">
-        <v>1.002828050663242</v>
+        <v>0.9967874565889836</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="B62">
-        <v>0.9375038495005928</v>
+        <v>0.8682143097458179</v>
       </c>
       <c r="C62">
-        <v>0.9384017110587431</v>
+        <v>0.9176741987472338</v>
       </c>
       <c r="D62">
-        <v>1.020294187421098</v>
+        <v>0.9480378424401374</v>
       </c>
       <c r="E62">
-        <v>0.9889742364658747</v>
+        <v>0.9743963819388721</v>
       </c>
       <c r="F62">
-        <v>1.015698682783639</v>
+        <v>1.009468671604426</v>
       </c>
       <c r="G62">
-        <v>1.002534961776324</v>
+        <v>0.9964052857560565</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>43255</v>
+        <v>43277</v>
       </c>
       <c r="B63">
-        <v>0.937179497898311</v>
+        <v>0.8741858235568242</v>
       </c>
       <c r="C63">
-        <v>0.9476073126158983</v>
+        <v>0.9101053044504065</v>
       </c>
       <c r="D63">
-        <v>1.037193853121773</v>
+        <v>0.9454194064114528</v>
       </c>
       <c r="E63">
-        <v>0.9847476937777936</v>
+        <v>0.9745422715004738</v>
       </c>
       <c r="F63">
-        <v>1.013968710371357</v>
+        <v>1.009744194066087</v>
       </c>
       <c r="G63">
-        <v>1.002280437216632</v>
+        <v>0.9960564586870758</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>43256</v>
+        <v>43278</v>
       </c>
       <c r="B64">
-        <v>0.9529987005652598</v>
+        <v>0.865582443163927</v>
       </c>
       <c r="C64">
-        <v>0.9569993954849777</v>
+        <v>0.8915869844864281</v>
       </c>
       <c r="D64">
-        <v>1.040388283763948</v>
+        <v>0.9282291889329749</v>
       </c>
       <c r="E64">
-        <v>0.9831305817927887</v>
+        <v>0.9758552775548908</v>
       </c>
       <c r="F64">
-        <v>1.013412363960056</v>
+        <v>1.01020047330196</v>
       </c>
       <c r="G64">
-        <v>1.001641554862254</v>
+        <v>0.9960256798280481</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>43257</v>
+        <v>43279</v>
       </c>
       <c r="B65">
-        <v>0.952203809097224</v>
+        <v>0.856368724782562</v>
       </c>
       <c r="C65">
-        <v>0.9550170391605783</v>
+        <v>0.8823762665619906</v>
       </c>
       <c r="D65">
-        <v>1.045930940471566</v>
+        <v>0.9328467234523681</v>
       </c>
       <c r="E65">
-        <v>0.9844904259619973</v>
+        <v>0.9738128236924646</v>
       </c>
       <c r="F65">
-        <v>1.012735034281536</v>
+        <v>1.012152821955454</v>
       </c>
       <c r="G65">
-        <v>1.001635127474383</v>
+        <v>0.9964116980183538</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>43258</v>
+        <v>43280</v>
       </c>
       <c r="B66">
-        <v>0.9462276691655874</v>
+        <v>0.8839235503388575</v>
       </c>
       <c r="C66">
-        <v>0.9534396008856935</v>
+        <v>0.9049178675803692</v>
       </c>
       <c r="D66">
-        <v>1.054414066068201</v>
+        <v>0.9478322695152702</v>
       </c>
       <c r="E66">
-        <v>0.9852989819544997</v>
+        <v>0.9751987745276823</v>
       </c>
       <c r="F66">
-        <v>1.012511612627474</v>
+        <v>1.015923267871886</v>
       </c>
       <c r="G66">
-        <v>1.001231487516084</v>
+        <v>0.9968426020447414</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>43259</v>
+        <v>43283</v>
       </c>
       <c r="B67">
-        <v>0.9348963060179947</v>
+        <v>0.8705435314913601</v>
       </c>
       <c r="C67">
-        <v>0.9406482471677519</v>
+        <v>0.8783654085305964</v>
       </c>
       <c r="D67">
-        <v>1.035863147071293</v>
+        <v>0.9478322695152702</v>
       </c>
       <c r="E67">
-        <v>0.9854459921349547</v>
+        <v>0.9753446640892843</v>
       </c>
       <c r="F67">
-        <v>1.01322249970858</v>
+        <v>1.016406748369898</v>
       </c>
       <c r="G67">
-        <v>1.000857413541992</v>
+        <v>0.9976184857827312</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>43262</v>
+        <v>43284</v>
       </c>
       <c r="B68">
-        <v>0.9288036442285247</v>
+        <v>0.8804281845910904</v>
       </c>
       <c r="C68">
-        <v>0.940739310175937</v>
+        <v>0.8787046704638507</v>
       </c>
       <c r="D68">
-        <v>1.039392847379694</v>
+        <v>0.9344261651123761</v>
       </c>
       <c r="E68">
-        <v>0.9859237752214334</v>
+        <v>0.9768765044861037</v>
       </c>
       <c r="F68">
-        <v>1.013022921472145</v>
+        <v>1.016440969312588</v>
       </c>
       <c r="G68">
-        <v>1.000298230797214</v>
+        <v>0.9982238033436092</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>43263</v>
+        <v>43285</v>
       </c>
       <c r="B69">
-        <v>0.9388611164169289</v>
+        <v>0.8675892503264637</v>
       </c>
       <c r="C69">
-        <v>0.9521804476099015</v>
+        <v>0.866969089096014</v>
       </c>
       <c r="D69">
-        <v>1.040709834811097</v>
+        <v>0.9244781377449894</v>
       </c>
       <c r="E69">
-        <v>0.9853724870447271</v>
+        <v>0.9789189583485298</v>
       </c>
       <c r="F69">
-        <v>1.011727429114402</v>
+        <v>1.016108411946442</v>
       </c>
       <c r="G69">
-        <v>1.000051419102968</v>
+        <v>0.9983520485895578</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>43264</v>
+        <v>43286</v>
       </c>
       <c r="B70">
-        <v>0.9246250675059146</v>
+        <v>0.8441127354641205</v>
       </c>
       <c r="C70">
-        <v>0.9428192251207481</v>
+        <v>0.8614768242320087</v>
       </c>
       <c r="D70">
-        <v>1.028064948627118</v>
+        <v>0.9225278137221238</v>
       </c>
       <c r="E70">
-        <v>0.9844536734168835</v>
+        <v>0.9785177620541248</v>
       </c>
       <c r="F70">
-        <v>1.012492184657555</v>
+        <v>1.016779668899216</v>
       </c>
       <c r="G70">
-        <v>0.9996722032185784</v>
+        <v>0.9991215200652503</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>43265</v>
+        <v>43287</v>
       </c>
       <c r="B71">
-        <v>0.921312802597544</v>
+        <v>0.8464619302442025</v>
       </c>
       <c r="C71">
-        <v>0.9390926849202501</v>
+        <v>0.8673235834080992</v>
       </c>
       <c r="D71">
-        <v>1.01852950456713</v>
+        <v>0.9268988571389289</v>
       </c>
       <c r="E71">
-        <v>0.9883861957440547</v>
+        <v>0.9818732219709675</v>
       </c>
       <c r="F71">
-        <v>1.013457401526685</v>
+        <v>1.015703025394571</v>
       </c>
       <c r="G71">
-        <v>0.9996323534137782</v>
+        <v>0.9994293086555274</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>43266</v>
+        <v>43290</v>
       </c>
       <c r="B72">
-        <v>0.9043297665540814</v>
+        <v>0.8652526424544926</v>
       </c>
       <c r="C72">
-        <v>0.9341322023833676</v>
+        <v>0.891566777743613</v>
       </c>
       <c r="D72">
-        <v>1.014156945686649</v>
+        <v>0.9391049132256388</v>
       </c>
       <c r="E72">
-        <v>0.9874306295710973</v>
+        <v>0.9814720256765626</v>
       </c>
       <c r="F72">
-        <v>1.014543601663034</v>
+        <v>1.014960694176209</v>
       </c>
       <c r="G72">
-        <v>0.9995937890865522</v>
+        <v>0.9995319048522864</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>43270</v>
+        <v>43291</v>
       </c>
       <c r="B73">
-        <v>0.8478934947344111</v>
+        <v>0.8701623667100642</v>
       </c>
       <c r="C73">
-        <v>0.9012018873611071</v>
+        <v>0.8937142080980068</v>
       </c>
       <c r="D73">
-        <v>0.9860056701394855</v>
+        <v>0.9389003223370368</v>
       </c>
       <c r="E73">
-        <v>0.9843066632364286</v>
+        <v>0.9783718724925228</v>
       </c>
       <c r="F73">
-        <v>1.016413985312455</v>
+        <v>1.014684294254478</v>
       </c>
       <c r="G73">
-        <v>0.9996979127700627</v>
+        <v>0.9995498591867191</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>43271</v>
+        <v>43292</v>
       </c>
       <c r="B74">
-        <v>0.85724096853773</v>
+        <v>0.8531579959528095</v>
       </c>
       <c r="C74">
-        <v>0.9047675056127322</v>
+        <v>0.8782535240018218</v>
       </c>
       <c r="D74">
-        <v>0.9936352299491513</v>
+        <v>0.926770210388176</v>
       </c>
       <c r="E74">
-        <v>0.9787202763791387</v>
+        <v>0.9811073017725579</v>
       </c>
       <c r="F74">
-        <v>1.015278332161768</v>
+        <v>1.015317820424286</v>
       </c>
       <c r="G74">
-        <v>0.9994973782684872</v>
+        <v>0.9995601188063951</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>43272</v>
+        <v>43293</v>
       </c>
       <c r="B75">
-        <v>0.8392430248038693</v>
+        <v>0.8762560226576546</v>
       </c>
       <c r="C75">
-        <v>0.8941956851713642</v>
+        <v>0.8972040981542532</v>
       </c>
       <c r="D75">
-        <v>0.9802471961317515</v>
+        <v>0.9323069308518805</v>
       </c>
       <c r="E75">
-        <v>0.9766988863978825</v>
+        <v>0.9774235903421108</v>
       </c>
       <c r="F75">
-        <v>1.015902676467783</v>
+        <v>1.015399424210701</v>
       </c>
       <c r="G75">
-        <v>0.9994536720309644</v>
+        <v>0.9996114169047745</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>43273</v>
+        <v>43294</v>
       </c>
       <c r="B76">
-        <v>0.850929939575683</v>
+        <v>0.8816232124134088</v>
       </c>
       <c r="C76">
-        <v>0.8981626376864478</v>
+        <v>0.9002025829062811</v>
       </c>
       <c r="D76">
-        <v>0.9816742671162364</v>
+        <v>0.9337672187783665</v>
       </c>
       <c r="E76">
-        <v>0.9801168730934613</v>
+        <v>0.976730614924502</v>
       </c>
       <c r="F76">
-        <v>1.01629035277661</v>
+        <v>1.016961303133497</v>
       </c>
       <c r="G76">
-        <v>0.9991387300252851</v>
+        <v>0.9993549264128769</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>43276</v>
+        <v>43297</v>
       </c>
       <c r="B77">
-        <v>0.8451435063313538</v>
+        <v>0.8801010435647969</v>
       </c>
       <c r="C77">
-        <v>0.886110439842543</v>
+        <v>0.8948921787276092</v>
       </c>
       <c r="D77">
-        <v>0.9690494569601753</v>
+        <v>0.9342327039681141</v>
       </c>
       <c r="E77">
-        <v>0.9818809952589214</v>
+        <v>0.9780071485885183</v>
       </c>
       <c r="F77">
-        <v>1.015945064765787</v>
+        <v>1.017487779174888</v>
       </c>
       <c r="G77">
-        <v>0.9987556577081733</v>
+        <v>0.9997127306490741</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>43277</v>
+        <v>43298</v>
       </c>
       <c r="B78">
-        <v>0.8509563408627466</v>
+        <v>0.8802698910925824</v>
       </c>
       <c r="C78">
-        <v>0.8788018805917335</v>
+        <v>0.8890392853617355</v>
       </c>
       <c r="D78">
-        <v>0.9663729878382774</v>
+        <v>0.9225143925598315</v>
       </c>
       <c r="E78">
-        <v>0.9820280054393761</v>
+        <v>0.9769859216573054</v>
       </c>
       <c r="F78">
-        <v>1.016222354881895</v>
+        <v>1.017380729046472</v>
       </c>
       <c r="G78">
-        <v>0.9984060078079906</v>
+        <v>0.9993946824391213</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>43278</v>
+        <v>43299</v>
       </c>
       <c r="B79">
-        <v>0.8425815755658187</v>
+        <v>0.8735680655606136</v>
       </c>
       <c r="C79">
-        <v>0.8609205054034291</v>
+        <v>0.8843859096114248</v>
       </c>
       <c r="D79">
-        <v>0.9488017790037543</v>
+        <v>0.9204108708795805</v>
       </c>
       <c r="E79">
-        <v>0.9833510970634711</v>
+        <v>0.9682325479611934</v>
       </c>
       <c r="F79">
-        <v>1.016681561443604</v>
+        <v>1.018020397436763</v>
       </c>
       <c r="G79">
-        <v>0.9983751563462099</v>
+        <v>0.9993869877243645</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>43279</v>
+        <v>43300</v>
       </c>
       <c r="B80">
-        <v>0.8336126906122222</v>
+        <v>0.8658923894234195</v>
       </c>
       <c r="C80">
-        <v>0.852026593683528</v>
+        <v>0.8836179245149286</v>
       </c>
       <c r="D80">
-        <v>0.9535216531672114</v>
+        <v>0.9169226780652708</v>
       </c>
       <c r="E80">
-        <v>0.9812929545371012</v>
+        <v>0.9712232839740316</v>
       </c>
       <c r="F80">
-        <v>1.018646435673991</v>
+        <v>1.019255861213895</v>
       </c>
       <c r="G80">
-        <v>0.9987620850960445</v>
+        <v>1.000486049482145</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>43280</v>
+        <v>43301</v>
       </c>
       <c r="B81">
-        <v>0.8604353098959497</v>
+        <v>0.8767216196731714</v>
       </c>
       <c r="C81">
-        <v>0.8737928676186768</v>
+        <v>0.9002551874497571</v>
       </c>
       <c r="D81">
-        <v>0.9688393278679699</v>
+        <v>0.9239154309649784</v>
       </c>
       <c r="E81">
-        <v>0.9826895512514237</v>
+        <v>0.975563498431687</v>
       </c>
       <c r="F81">
-        <v>1.022441071434879</v>
+        <v>1.017584299782476</v>
       </c>
       <c r="G81">
-        <v>0.9991940055609758</v>
+        <v>1.001613325194034</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>43283</v>
+        <v>43304</v>
       </c>
       <c r="B82">
-        <v>0.8474108343527349</v>
+        <v>0.883286496934385</v>
       </c>
       <c r="C82">
-        <v>0.8481536906650095</v>
+        <v>0.9087235910887236</v>
       </c>
       <c r="D82">
-        <v>0.9688393278679699</v>
+        <v>0.9249511518794375</v>
       </c>
       <c r="E82">
-        <v>0.9828365614318788</v>
+        <v>0.9789189583485297</v>
       </c>
       <c r="F82">
-        <v>1.022927653772382</v>
+        <v>1.016920939970323</v>
       </c>
       <c r="G82">
-        <v>0.9999717194933674</v>
+        <v>1.0020006258368</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>43284</v>
+        <v>43305</v>
       </c>
       <c r="B83">
-        <v>0.8570328254738221</v>
+        <v>0.8986410340522791</v>
       </c>
       <c r="C83">
-        <v>0.8484812835528863</v>
+        <v>0.9231454836512246</v>
       </c>
       <c r="D83">
-        <v>0.9551361004122618</v>
+        <v>0.9382561065470069</v>
       </c>
       <c r="E83">
-        <v>0.9843801683266561</v>
+        <v>0.9790283755197313</v>
       </c>
       <c r="F83">
-        <v>1.02296209426451</v>
+        <v>1.015251133459043</v>
       </c>
       <c r="G83">
-        <v>1.00057846490839</v>
+        <v>1.002611073207516</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>43285</v>
+        <v>43306</v>
       </c>
       <c r="B84">
-        <v>0.8445350564320505</v>
+        <v>0.8993213538945929</v>
       </c>
       <c r="C84">
-        <v>0.8371493520440154</v>
+        <v>0.9221265122517556</v>
       </c>
       <c r="D84">
-        <v>0.9449675922719344</v>
+        <v>0.9467124208274182</v>
       </c>
       <c r="E84">
-        <v>0.986438310853026</v>
+        <v>0.9774600627325112</v>
       </c>
       <c r="F84">
-        <v>1.022627403328188</v>
+        <v>1.015071254144901</v>
       </c>
       <c r="G84">
-        <v>1.00070701266581</v>
+        <v>1.002868846151872</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>43286</v>
+        <v>43307</v>
       </c>
       <c r="B85">
-        <v>0.8216823760920897</v>
+        <v>0.8933619695939605</v>
       </c>
       <c r="C85">
-        <v>0.8318459957537118</v>
+        <v>0.9114286399135236</v>
       </c>
       <c r="D85">
-        <v>0.9429740426997044</v>
+        <v>0.9421374412128544</v>
       </c>
       <c r="E85">
-        <v>0.9860340328567749</v>
+        <v>0.9795754613757381</v>
       </c>
       <c r="F85">
-        <v>1.023302966827624</v>
+        <v>1.015508229259255</v>
       </c>
       <c r="G85">
-        <v>1.001478299210331</v>
+        <v>1.004121802204792</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>43287</v>
+        <v>43308</v>
       </c>
       <c r="B86">
-        <v>0.8239691464104402</v>
+        <v>0.8892642787884614</v>
       </c>
       <c r="C86">
-        <v>0.8374916533871636</v>
+        <v>0.9075577341952473</v>
       </c>
       <c r="D86">
-        <v>0.9474419627127939</v>
+        <v>0.9428949185188147</v>
       </c>
       <c r="E86">
-        <v>0.9894152670072396</v>
+        <v>0.9783718724925228</v>
       </c>
       <c r="F86">
-        <v>1.0222194159599</v>
+        <v>1.016805115241217</v>
       </c>
       <c r="G86">
-        <v>1.001786813828139</v>
+        <v>1.004502690585259</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>43290</v>
+        <v>43311</v>
       </c>
       <c r="B87">
-        <v>0.8422605385536052</v>
+        <v>0.8783986430669313</v>
       </c>
       <c r="C87">
-        <v>0.8609009936793467</v>
+        <v>0.9059732832838433</v>
       </c>
       <c r="D87">
-        <v>0.9599185448627291</v>
+        <v>0.9405658558429689</v>
       </c>
       <c r="E87">
-        <v>0.9890109890109885</v>
+        <v>0.9785177620541247</v>
       </c>
       <c r="F87">
-        <v>1.021472322207582</v>
+        <v>1.017339488423229</v>
       </c>
       <c r="G87">
-        <v>1.001889652034075</v>
+        <v>1.005155458887138</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>43291</v>
+        <v>43312</v>
       </c>
       <c r="B88">
-        <v>0.8470397981510296</v>
+        <v>0.8790026791310149</v>
       </c>
       <c r="C88">
-        <v>0.8629745623363503</v>
+        <v>0.9066375799538804</v>
       </c>
       <c r="D88">
-        <v>0.9597094195719195</v>
+        <v>0.9356517463714582</v>
       </c>
       <c r="E88">
-        <v>0.9858870226763197</v>
+        <v>0.9798307681085414</v>
       </c>
       <c r="F88">
-        <v>1.021194149001932</v>
+        <v>1.019111080302511</v>
       </c>
       <c r="G88">
-        <v>1.001907648720114</v>
+        <v>1.006066000133374</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>43292</v>
+        <v>43313</v>
       </c>
       <c r="B89">
-        <v>0.8304872795350303</v>
+        <v>0.8648839121153956</v>
       </c>
       <c r="C89">
-        <v>0.8480456544478648</v>
+        <v>0.8885266165845297</v>
       </c>
       <c r="D89">
-        <v>0.9473104647299327</v>
+        <v>0.927721148838399</v>
       </c>
       <c r="E89">
-        <v>0.988643463559851</v>
+        <v>0.9783354001021224</v>
       </c>
       <c r="F89">
-        <v>1.021831739651073</v>
+        <v>1.020049962576326</v>
       </c>
       <c r="G89">
-        <v>1.001917932540707</v>
+        <v>1.00715351981902</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>43293</v>
+        <v>43314</v>
       </c>
       <c r="B90">
-        <v>0.8529715291719467</v>
+        <v>0.8463572539249301</v>
       </c>
       <c r="C90">
-        <v>0.8663444162746698</v>
+        <v>0.8688275424090305</v>
       </c>
       <c r="D90">
-        <v>0.9529698969999394</v>
+        <v>0.9072234332184247</v>
       </c>
       <c r="E90">
-        <v>0.9849314565033623</v>
+        <v>0.9772047559997079</v>
       </c>
       <c r="F90">
-        <v>1.021913866978456</v>
+        <v>1.020184213966881</v>
       </c>
       <c r="G90">
-        <v>1.001969351643676</v>
+        <v>1.008201283478421</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>43294</v>
+        <v>43315</v>
       </c>
       <c r="B91">
-        <v>0.8581960981734089</v>
+        <v>0.8351320358190542</v>
       </c>
       <c r="C91">
-        <v>0.8692397669842221</v>
+        <v>0.8544781776198469</v>
       </c>
       <c r="D91">
-        <v>0.9544625496756221</v>
+        <v>0.9059716643256017</v>
       </c>
       <c r="E91">
-        <v>0.9842331581462012</v>
+        <v>0.9767670873149022</v>
       </c>
       <c r="F91">
-        <v>1.023485766362766</v>
+        <v>1.021073081016764</v>
       </c>
       <c r="G91">
-        <v>1.001712256128835</v>
+        <v>1.008791211609785</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>43297</v>
+        <v>43318</v>
       </c>
       <c r="B92">
-        <v>0.856714377469772</v>
+        <v>0.817429184835239</v>
       </c>
       <c r="C92">
-        <v>0.8641120162106594</v>
+        <v>0.8436502759225579</v>
       </c>
       <c r="D92">
-        <v>0.9549383515372722</v>
+        <v>0.9106605601469393</v>
       </c>
       <c r="E92">
-        <v>0.9855194972251824</v>
+        <v>0.9760011671164925</v>
       </c>
       <c r="F92">
-        <v>1.024015620087814</v>
+        <v>1.02136176537946</v>
       </c>
       <c r="G92">
-        <v>1.002070904372037</v>
+        <v>1.00992874694135</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>43298</v>
+        <v>43319</v>
       </c>
       <c r="B93">
-        <v>0.8568787382618784</v>
+        <v>0.8397266469147643</v>
       </c>
       <c r="C93">
-        <v>0.858460435375254</v>
+        <v>0.8682892801425195</v>
       </c>
       <c r="D93">
-        <v>0.9429603240806272</v>
+        <v>0.9247141537940813</v>
       </c>
       <c r="E93">
-        <v>0.9844904259619975</v>
+        <v>0.976037639506893</v>
       </c>
       <c r="F93">
-        <v>1.023907883163721</v>
+        <v>1.021149420042766</v>
       </c>
       <c r="G93">
-        <v>1.001752105933636</v>
+        <v>1.011188115256567</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>43299</v>
+        <v>43320</v>
       </c>
       <c r="B94">
-        <v>0.8503549983680183</v>
+        <v>0.8268005190888341</v>
       </c>
       <c r="C94">
-        <v>0.8539671142832047</v>
+        <v>0.8542780690086044</v>
       </c>
       <c r="D94">
-        <v>0.9408101814906389</v>
+        <v>0.9283234644144434</v>
       </c>
       <c r="E94">
-        <v>0.9756698151346979</v>
+        <v>0.9745422715004738</v>
       </c>
       <c r="F94">
-        <v>1.024551655439654</v>
+        <v>1.019312018658309</v>
       </c>
       <c r="G94">
-        <v>1.001744393068191</v>
+        <v>1.011366376148436</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>43300</v>
+        <v>43321</v>
       </c>
       <c r="B95">
-        <v>0.8428832857145477</v>
+        <v>0.8478414757019821</v>
       </c>
       <c r="C95">
-        <v>0.8532255443310607</v>
+        <v>0.8756761591105736</v>
       </c>
       <c r="D95">
-        <v>0.9372446789324511</v>
+        <v>0.9364468684009214</v>
       </c>
       <c r="E95">
-        <v>0.9786835238340251</v>
+        <v>0.974323437158071</v>
       </c>
       <c r="F95">
-        <v>1.025795045514434</v>
+        <v>1.016462905814312</v>
       </c>
       <c r="G95">
-        <v>1.002846047349281</v>
+        <v>1.01070463067934</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>43301</v>
+        <v>43322</v>
       </c>
       <c r="B96">
-        <v>0.8534247540149543</v>
+        <v>0.85220225490986</v>
       </c>
       <c r="C96">
-        <v>0.8692905621740844</v>
+        <v>0.8776064443014282</v>
       </c>
       <c r="D96">
-        <v>0.9443924140720915</v>
+        <v>0.9285683187899223</v>
       </c>
       <c r="E96">
-        <v>0.9830570767025612</v>
+        <v>0.9746881610620758</v>
       </c>
       <c r="F96">
-        <v>1.024112759937406</v>
+        <v>1.015976792936094</v>
       </c>
       <c r="G96">
-        <v>1.003975982137004</v>
+        <v>1.009560683085478</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>43304</v>
+        <v>43325</v>
       </c>
       <c r="B97">
-        <v>0.8598151847241664</v>
+        <v>0.856396846273093</v>
       </c>
       <c r="C97">
-        <v>0.8774676917953954</v>
+        <v>0.8738241235003132</v>
       </c>
       <c r="D97">
-        <v>0.9454510899442862</v>
+        <v>0.9144908289269916</v>
       </c>
       <c r="E97">
-        <v>0.9864383108530259</v>
+        <v>0.9764388358012983</v>
       </c>
       <c r="F97">
-        <v>1.023445144243845</v>
+        <v>1.013553248225555</v>
       </c>
       <c r="G97">
-        <v>1.004364196364412</v>
+        <v>1.008606538455619</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>43305</v>
+        <v>43326</v>
       </c>
       <c r="B98">
-        <v>0.8747617102447042</v>
+        <v>0.8534504933356474</v>
       </c>
       <c r="C98">
-        <v>0.8913935377866693</v>
+        <v>0.8693316284753216</v>
       </c>
       <c r="D98">
-        <v>0.9590509258562181</v>
+        <v>0.9084794576017304</v>
       </c>
       <c r="E98">
-        <v>0.9865485684883674</v>
+        <v>0.9683784375227951</v>
       </c>
       <c r="F98">
-        <v>1.0217646248459</v>
+        <v>1.014250828980398</v>
       </c>
       <c r="G98">
-        <v>1.004976083689732</v>
+        <v>1.007985831465227</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>43306</v>
+        <v>43327</v>
       </c>
       <c r="B99">
-        <v>0.8754239521480058</v>
+        <v>0.8356497931173095</v>
       </c>
       <c r="C99">
-        <v>0.8904096143024925</v>
+        <v>0.8484708212314106</v>
       </c>
       <c r="D99">
-        <v>0.9676946596761945</v>
+        <v>0.894425209263745</v>
       </c>
       <c r="E99">
-        <v>0.9849682090484762</v>
+        <v>0.96640892844117</v>
       </c>
       <c r="F99">
-        <v>1.021583591489842</v>
+        <v>1.01377349070287</v>
       </c>
       <c r="G99">
-        <v>1.005234464682146</v>
+        <v>1.007935815819307</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>43307</v>
+        <v>43328</v>
       </c>
       <c r="B100">
-        <v>0.8696229248130762</v>
+        <v>0.8281221952624844</v>
       </c>
       <c r="C100">
-        <v>0.8800796994199002</v>
+        <v>0.8445407128495558</v>
       </c>
       <c r="D100">
-        <v>0.9630182835732258</v>
+        <v>0.88710805705107</v>
       </c>
       <c r="E100">
-        <v>0.9870998566650735</v>
+        <v>0.9569990517178494</v>
       </c>
       <c r="F100">
-        <v>1.022023370081632</v>
+        <v>1.012533639625393</v>
       </c>
       <c r="G100">
-        <v>1.00649037627214</v>
+        <v>1.00752799593719</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>43308</v>
+        <v>43329</v>
       </c>
       <c r="B101">
-        <v>0.8656341207397649</v>
+        <v>0.8136645812266217</v>
       </c>
       <c r="C101">
-        <v>0.8763419350005742</v>
+        <v>0.8323991924519571</v>
       </c>
       <c r="D101">
-        <v>0.9637925490499194</v>
+        <v>0.890818517406757</v>
       </c>
       <c r="E101">
-        <v>0.9858870226763198</v>
+        <v>0.954081260485812</v>
       </c>
       <c r="F101">
-        <v>1.023328576424334</v>
+        <v>1.007688305124453</v>
       </c>
       <c r="G101">
-        <v>1.006872163111678</v>
+        <v>1.006473820015492</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>43311</v>
+        <v>43332</v>
       </c>
       <c r="B102">
-        <v>0.8550572143594708</v>
+        <v>0.8186828612119063</v>
       </c>
       <c r="C102">
-        <v>0.8748119818909306</v>
+        <v>0.8420979135249352</v>
       </c>
       <c r="D102">
-        <v>0.9614118667393426</v>
+        <v>0.9034085496731953</v>
       </c>
       <c r="E102">
-        <v>0.9860340328567748</v>
+        <v>0.9598803705594863</v>
       </c>
       <c r="F102">
-        <v>1.023866377955258</v>
+        <v>1.007821679054939</v>
       </c>
       <c r="G102">
-        <v>1.007526471196946</v>
+        <v>1.005924930362831</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>43312</v>
+        <v>43333</v>
       </c>
       <c r="B103">
-        <v>0.8556451995509378</v>
+        <v>0.8287335666310258</v>
       </c>
       <c r="C103">
-        <v>0.875453429820137</v>
+        <v>0.8574073821107957</v>
       </c>
       <c r="D103">
-        <v>0.9563888445543279</v>
+        <v>0.9084748747658258</v>
       </c>
       <c r="E103">
-        <v>0.9873571244808698</v>
+        <v>0.9647311984827482</v>
       </c>
       <c r="F103">
-        <v>1.025649335740046</v>
+        <v>1.00661780384029</v>
       </c>
       <c r="G103">
-        <v>1.008439160274629</v>
+        <v>1.004978480447729</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>43313</v>
+        <v>43334</v>
       </c>
       <c r="B104">
-        <v>0.8419016063773245</v>
+        <v>0.8194226766414159</v>
       </c>
       <c r="C104">
-        <v>0.8579654000388748</v>
+        <v>0.8525891049057284</v>
       </c>
       <c r="D104">
-        <v>0.9482824790816162</v>
+        <v>0.9141965453928265</v>
       </c>
       <c r="E104">
-        <v>0.9858502701312062</v>
+        <v>0.9632358304763292</v>
       </c>
       <c r="F104">
-        <v>1.026594241549715</v>
+        <v>1.007726035907419</v>
       </c>
       <c r="G104">
-        <v>1.009529245257551</v>
+        <v>1.004636065641046</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>43314</v>
+        <v>43335</v>
       </c>
       <c r="B105">
-        <v>0.823867251624203</v>
+        <v>0.8239368196166303</v>
       </c>
       <c r="C105">
-        <v>0.8389438831367193</v>
+        <v>0.8557003247254503</v>
       </c>
       <c r="D105">
-        <v>0.9273304671457484</v>
+        <v>0.909707984969608</v>
       </c>
       <c r="E105">
-        <v>0.98471094123268</v>
+        <v>0.9638193887227364</v>
       </c>
       <c r="F105">
-        <v>1.026729354249603</v>
+        <v>1.008800924491927</v>
       </c>
       <c r="G105">
-        <v>1.010579480435673</v>
+        <v>1.004996434782162</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>43315</v>
+        <v>43336</v>
       </c>
       <c r="B106">
-        <v>0.8129403179364691</v>
+        <v>0.8220095827197711</v>
       </c>
       <c r="C106">
-        <v>0.8250880702979551</v>
+        <v>0.8570686614295809</v>
       </c>
       <c r="D106">
-        <v>0.9260509549664587</v>
+        <v>0.905825995612917</v>
       </c>
       <c r="E106">
-        <v>0.984269910691315</v>
+        <v>0.9650594499963524</v>
       </c>
       <c r="F106">
-        <v>1.027623923955393</v>
+        <v>1.008639471839234</v>
       </c>
       <c r="G106">
-        <v>1.011170800119806</v>
+        <v>1.005536347267607</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>43318</v>
+        <v>43339</v>
       </c>
       <c r="B107">
-        <v>0.7957078796034691</v>
+        <v>0.8402676806756639</v>
       </c>
       <c r="C107">
-        <v>0.814632598466389</v>
+        <v>0.87800707390642</v>
       </c>
       <c r="D107">
-        <v>0.9308437720313502</v>
+        <v>0.9254470801934092</v>
       </c>
       <c r="E107">
-        <v>0.9834981072439264</v>
+        <v>0.967612517324385</v>
       </c>
       <c r="F107">
-        <v>1.027914460414627</v>
+        <v>1.008388518259504</v>
       </c>
       <c r="G107">
-        <v>1.012311018728122</v>
+        <v>1.005740257208665</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>43319</v>
+        <v>43340</v>
       </c>
       <c r="B108">
-        <v>0.8174128377833192</v>
+        <v>0.8426633775590643</v>
       </c>
       <c r="C108">
-        <v>0.8384241346089957</v>
+        <v>0.8763567706635214</v>
       </c>
       <c r="D108">
-        <v>0.9452088392074126</v>
+        <v>0.9280773006572772</v>
       </c>
       <c r="E108">
-        <v>0.9835348597890402</v>
+        <v>0.9714056459260334</v>
       </c>
       <c r="F108">
-        <v>1.027700752745524</v>
+        <v>1.008636839459027</v>
       </c>
       <c r="G108">
-        <v>1.013573357705988</v>
+        <v>1.005343979398684</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>43320</v>
+        <v>43341</v>
       </c>
       <c r="B109">
-        <v>0.8048301921490953</v>
+        <v>0.8372006086168179</v>
       </c>
       <c r="C109">
-        <v>0.8248948444997725</v>
+        <v>0.8728523183500168</v>
       </c>
       <c r="D109">
-        <v>0.9488981439377597</v>
+        <v>0.9301991536811468</v>
       </c>
       <c r="E109">
-        <v>0.9820280054393764</v>
+        <v>0.9690349405500032</v>
       </c>
       <c r="F109">
-        <v>1.025851563245106</v>
+        <v>1.008381498578952</v>
       </c>
       <c r="G109">
-        <v>1.013752039088802</v>
+        <v>1.005154176434679</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>43321</v>
+        <v>43342</v>
       </c>
       <c r="B110">
-        <v>0.8253120336126482</v>
+        <v>0.8245223395426716</v>
       </c>
       <c r="C110">
-        <v>0.8455569390186454</v>
+        <v>0.8637078909134869</v>
       </c>
       <c r="D110">
-        <v>0.9572015890845306</v>
+        <v>0.921937282581263</v>
       </c>
       <c r="E110">
-        <v>0.9818074901686938</v>
+        <v>0.9701655846524176</v>
       </c>
       <c r="F110">
-        <v>1.022984171503053</v>
+        <v>1.0095599274516</v>
       </c>
       <c r="G110">
-        <v>1.013088732660514</v>
+        <v>1.005469659739713</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>43322</v>
+        <v>43343</v>
       </c>
       <c r="B111">
-        <v>0.8295569351176254</v>
+        <v>0.8156627655947728</v>
       </c>
       <c r="C111">
-        <v>0.8474208313039736</v>
+        <v>0.8594318451565549</v>
       </c>
       <c r="D111">
-        <v>0.9491484250858007</v>
+        <v>0.9129189162116841</v>
       </c>
       <c r="E111">
-        <v>0.9821750156198314</v>
+        <v>0.9718797870012396</v>
       </c>
       <c r="F111">
-        <v>1.022494939896925</v>
+        <v>1.010073241591956</v>
       </c>
       <c r="G111">
-        <v>1.011942086664327</v>
+        <v>1.005880044526749</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>43325</v>
+        <v>43346</v>
       </c>
       <c r="B112">
-        <v>0.833640064838659</v>
+        <v>0.8197368750058024</v>
       </c>
       <c r="C112">
-        <v>0.84376860488933</v>
+        <v>0.8561640230800183</v>
       </c>
       <c r="D112">
-        <v>0.9347589320757718</v>
+        <v>0.9071573094432284</v>
       </c>
       <c r="E112">
-        <v>0.9839391377852915</v>
+        <v>0.9665183456123708</v>
       </c>
       <c r="F112">
-        <v>1.020055846582619</v>
+        <v>1.00895360254393</v>
       </c>
       <c r="G112">
-        <v>1.010985691349121</v>
+        <v>1.005708195897178</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>43326</v>
+        <v>43347</v>
       </c>
       <c r="B113">
-        <v>0.83077200447097</v>
+        <v>0.8284456601662207</v>
       </c>
       <c r="C113">
-        <v>0.8394306309678443</v>
+        <v>0.8670080334689646</v>
       </c>
       <c r="D113">
-        <v>0.9286143291310869</v>
+        <v>0.9156944780428152</v>
       </c>
       <c r="E113">
-        <v>0.9758168253151529</v>
+        <v>0.9633817200379307</v>
       </c>
       <c r="F113">
-        <v>1.020757902768308</v>
+        <v>1.008013842810046</v>
       </c>
       <c r="G113">
-        <v>1.010363520203208</v>
+        <v>1.005745387018503</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>43327</v>
+        <v>43348</v>
       </c>
       <c r="B114">
-        <v>0.8134443170223679</v>
+        <v>0.8156984426183022</v>
       </c>
       <c r="C114">
-        <v>0.8192873392553744</v>
+        <v>0.850059834124292</v>
       </c>
       <c r="D114">
-        <v>0.9142485927540939</v>
+        <v>0.8918149568706043</v>
       </c>
       <c r="E114">
-        <v>0.9738321878790106</v>
+        <v>0.9625428550587201</v>
       </c>
       <c r="F114">
-        <v>1.020277502057598</v>
+        <v>1.007977866947218</v>
       </c>
       <c r="G114">
-        <v>1.010313386577814</v>
+        <v>1.005982640723508</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>43328</v>
+        <v>43349</v>
       </c>
       <c r="B115">
-        <v>0.8061167478106351</v>
+        <v>0.8120242004738372</v>
       </c>
       <c r="C115">
-        <v>0.8154924084709758</v>
+        <v>0.840971851543329</v>
       </c>
       <c r="D115">
-        <v>0.9067692685533456</v>
+        <v>0.8830083829889064</v>
       </c>
       <c r="E115">
-        <v>0.9643500312396632</v>
+        <v>0.9657888978043615</v>
       </c>
       <c r="F115">
-        <v>1.019029696535109</v>
+        <v>1.007726913367488</v>
       </c>
       <c r="G115">
-        <v>1.009904604709218</v>
+        <v>1.006239131215406</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>43329</v>
+        <v>43350</v>
       </c>
       <c r="B116">
-        <v>0.7920433116989548</v>
+        <v>0.8117586556762011</v>
       </c>
       <c r="C116">
-        <v>0.8037685003622367</v>
+        <v>0.8447768533822972</v>
       </c>
       <c r="D116">
-        <v>0.9105619648274691</v>
+        <v>0.8829641913569684</v>
       </c>
       <c r="E116">
-        <v>0.9614098276305633</v>
+        <v>0.9673207382011813</v>
       </c>
       <c r="F116">
-        <v>1.014153276085581</v>
+        <v>1.007167971303544</v>
       </c>
       <c r="G116">
-        <v>1.008847942143225</v>
+        <v>1.006160901615377</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>43332</v>
+        <v>43353</v>
       </c>
       <c r="B117">
-        <v>0.7969282424066249</v>
+        <v>0.7970372756116816</v>
       </c>
       <c r="C117">
-        <v>0.8131336301736873</v>
+        <v>0.8325147368754761</v>
       </c>
       <c r="D117">
-        <v>0.9234310333231958</v>
+        <v>0.8711781194463807</v>
       </c>
       <c r="E117">
-        <v>0.9672534823036494</v>
+        <v>0.9672113210299798</v>
       </c>
       <c r="F117">
-        <v>1.014287505695926</v>
+        <v>1.004981340811631</v>
       </c>
       <c r="G117">
-        <v>1.008297757741467</v>
+        <v>1.005976228461211</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>43333</v>
+        <v>43354</v>
       </c>
       <c r="B118">
-        <v>0.8067118733876727</v>
+        <v>0.7967026976369885</v>
       </c>
       <c r="C118">
-        <v>0.8279165236677966</v>
+        <v>0.831005288032428</v>
       </c>
       <c r="D118">
-        <v>0.9286096447245727</v>
+        <v>0.8649300773811847</v>
       </c>
       <c r="E118">
-        <v>0.9721415708037779</v>
+        <v>0.9679042964475886</v>
       </c>
       <c r="F118">
-        <v>1.013075906844649</v>
+        <v>1.003984546173263</v>
       </c>
       <c r="G118">
-        <v>1.007349075291706</v>
+        <v>1.005544041982363</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>43334</v>
+        <v>43355</v>
       </c>
       <c r="B119">
-        <v>0.7976483989383881</v>
+        <v>0.7951900833188944</v>
       </c>
       <c r="C119">
-        <v>0.8232639729702896</v>
+        <v>0.8252868829114621</v>
       </c>
       <c r="D119">
-        <v>0.9344581262574712</v>
+        <v>0.8623928230170974</v>
       </c>
       <c r="E119">
-        <v>0.9706347164541144</v>
+        <v>0.9672477934203801</v>
       </c>
       <c r="F119">
-        <v>1.014191248935876</v>
+        <v>1.004375015903962</v>
       </c>
       <c r="G119">
-        <v>1.007005852779395</v>
+        <v>1.00537732316263</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>43335</v>
+        <v>43356</v>
       </c>
       <c r="B120">
-        <v>0.8020425889204339</v>
+        <v>0.7998043455766625</v>
       </c>
       <c r="C120">
-        <v>0.8262681811812911</v>
+        <v>0.8341895511036004</v>
       </c>
       <c r="D120">
-        <v>0.9298700846773404</v>
+        <v>0.8843069622770414</v>
       </c>
       <c r="E120">
-        <v>0.9712227571759341</v>
+        <v>0.9707126705084245</v>
       </c>
       <c r="F120">
-        <v>1.015273033624516</v>
+        <v>1.004838314820386</v>
       </c>
       <c r="G120">
-        <v>1.007367071977745</v>
+        <v>1.005364498638035</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>43336</v>
+        <v>43357</v>
       </c>
       <c r="B121">
-        <v>0.8001665639226201</v>
+        <v>0.7911422149854749</v>
       </c>
       <c r="C121">
-        <v>0.8275894534153858</v>
+        <v>0.835613301707032</v>
       </c>
       <c r="D121">
-        <v>0.9259020577594022</v>
+        <v>0.8932081389856289</v>
       </c>
       <c r="E121">
-        <v>0.9724723437098016</v>
+        <v>0.9727915967612514</v>
       </c>
       <c r="F121">
-        <v>1.015110545148835</v>
+        <v>1.005692960927578</v>
       </c>
       <c r="G121">
-        <v>1.007908258036484</v>
+        <v>1.005472224644632</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>43339</v>
+        <v>43360</v>
       </c>
       <c r="B122">
-        <v>0.8179394948132688</v>
+        <v>0.779675118179717</v>
       </c>
       <c r="C122">
-        <v>0.8478076810987892</v>
+        <v>0.8260337076305974</v>
       </c>
       <c r="D122">
-        <v>0.9459580096492088</v>
+        <v>0.8816345142537657</v>
       </c>
       <c r="E122">
-        <v>0.975045021867764</v>
+        <v>0.9690349405500032</v>
       </c>
       <c r="F122">
-        <v>1.014857981539895</v>
+        <v>1.006179073805797</v>
       </c>
       <c r="G122">
-        <v>1.008112648970782</v>
+        <v>1.005845418310343</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>43340</v>
+        <v>43361</v>
       </c>
       <c r="B123">
-        <v>0.8202715315482275</v>
+        <v>0.7934166167651384</v>
       </c>
       <c r="C123">
-        <v>0.8462141406740559</v>
+        <v>0.8426603259419786</v>
       </c>
       <c r="D123">
-        <v>0.9486465243878573</v>
+        <v>0.8866039451015545</v>
       </c>
       <c r="E123">
-        <v>0.9788672865595937</v>
+        <v>0.9693996644540079</v>
       </c>
       <c r="F123">
-        <v>1.01510789588021</v>
+        <v>1.006108877000278</v>
       </c>
       <c r="G123">
-        <v>1.007715436400354</v>
+        <v>1.006068565038294</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>43341</v>
+        <v>43362</v>
       </c>
       <c r="B124">
-        <v>0.8149539231578754</v>
+        <v>0.8024608608144108</v>
       </c>
       <c r="C124">
-        <v>0.8428302253529474</v>
+        <v>0.8537560958510971</v>
       </c>
       <c r="D124">
-        <v>0.9508154046039021</v>
+        <v>0.8971677092072778</v>
       </c>
       <c r="E124">
-        <v>0.9764783711272</v>
+        <v>0.97268217959005</v>
       </c>
       <c r="F124">
-        <v>1.014850916823561</v>
+        <v>1.005093655700461</v>
       </c>
       <c r="G124">
-        <v>1.007525185719372</v>
+        <v>1.006130122756349</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>43342</v>
+        <v>43363</v>
       </c>
       <c r="B125">
-        <v>0.8026125499977471</v>
+        <v>0.8018827100741414</v>
       </c>
       <c r="C125">
-        <v>0.8340003240339896</v>
+        <v>0.8531487337408533</v>
       </c>
       <c r="D125">
-        <v>0.9423704234603114</v>
+        <v>0.8994689475222738</v>
       </c>
       <c r="E125">
-        <v>0.9776177000257263</v>
+        <v>0.9721350937340431</v>
       </c>
       <c r="F125">
-        <v>1.016036906078128</v>
+        <v>1.004467149211205</v>
       </c>
       <c r="G125">
-        <v>1.007841413202626</v>
+        <v>1.006041633536645</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>43343</v>
+        <v>43364</v>
       </c>
       <c r="B126">
-        <v>0.7939883989017796</v>
+        <v>0.8140350056314134</v>
       </c>
       <c r="C126">
-        <v>0.8298713545242938</v>
+        <v>0.8790153749085351</v>
       </c>
       <c r="D126">
-        <v>0.9331521806414229</v>
+        <v>0.915047643489411</v>
       </c>
       <c r="E126">
-        <v>0.9793450696460726</v>
+        <v>0.9763658910204971</v>
       </c>
       <c r="F126">
-        <v>1.01655351346005</v>
+        <v>1.005278799775017</v>
       </c>
       <c r="G126">
-        <v>1.00825276602637</v>
+        <v>1.00590441112348</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>43346</v>
+        <v>43368</v>
       </c>
       <c r="B127">
-        <v>0.7979542482020787</v>
+        <v>0.8118895730730834</v>
       </c>
       <c r="C127">
-        <v>0.8267159304516545</v>
+        <v>0.8711076052870532</v>
       </c>
       <c r="D127">
-        <v>0.9272628778517585</v>
+        <v>0.9001799417783437</v>
       </c>
       <c r="E127">
-        <v>0.9739424455143514</v>
+        <v>0.9720986213436424</v>
       </c>
       <c r="F127">
-        <v>1.01542669120478</v>
+        <v>1.005701735528268</v>
       </c>
       <c r="G127">
-        <v>1.008080512031427</v>
+        <v>1.00580309737918</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>43347</v>
+        <v>43369</v>
       </c>
       <c r="B128">
-        <v>0.8064316173766517</v>
+        <v>0.8157994597556739</v>
       </c>
       <c r="C128">
-        <v>0.8371869569101995</v>
+        <v>0.880756582720194</v>
       </c>
       <c r="D128">
-        <v>0.9359892579866628</v>
+        <v>0.9105725042284849</v>
       </c>
       <c r="E128">
-        <v>0.970781726634569</v>
+        <v>0.9741775475964692</v>
       </c>
       <c r="F128">
-        <v>1.014480902305569</v>
+        <v>1.00661780384029</v>
       </c>
       <c r="G128">
-        <v>1.008117790881079</v>
+        <v>1.005909540933318</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>43348</v>
+        <v>43370</v>
       </c>
       <c r="B129">
-        <v>0.7940231278902593</v>
+        <v>0.8055926631234492</v>
       </c>
       <c r="C129">
-        <v>0.8208216974353785</v>
+        <v>0.8772381609492843</v>
       </c>
       <c r="D129">
-        <v>0.9115804886438281</v>
+        <v>0.9072597685602404</v>
       </c>
       <c r="E129">
-        <v>0.969936418096953</v>
+        <v>0.9712597563644318</v>
       </c>
       <c r="F129">
-        <v>1.014444695634358</v>
+        <v>1.007763766690386</v>
       </c>
       <c r="G129">
-        <v>1.008355604232306</v>
+        <v>1.006237848762947</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>43349</v>
+        <v>43371</v>
       </c>
       <c r="B130">
-        <v>0.7904465203012959</v>
+        <v>0.8132749799981664</v>
       </c>
       <c r="C130">
-        <v>0.8120462995293547</v>
+        <v>0.8863298291988985</v>
       </c>
       <c r="D130">
-        <v>0.9025787323259858</v>
+        <v>0.909644479957786</v>
       </c>
       <c r="E130">
-        <v>0.9732073946120766</v>
+        <v>0.9630899409147272</v>
       </c>
       <c r="F130">
-        <v>1.014192132025418</v>
+        <v>1.008237595127638</v>
       </c>
       <c r="G130">
-        <v>1.008612699747147</v>
+        <v>1.006582828474549</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>43350</v>
+        <v>43381</v>
       </c>
       <c r="B131">
-        <v>0.7901880317474411</v>
+        <v>0.7871464222315089</v>
       </c>
       <c r="C131">
-        <v>0.8157204268587845</v>
+        <v>0.8481931847089602</v>
       </c>
       <c r="D131">
-        <v>0.902533561263171</v>
+        <v>0.8577291327932356</v>
       </c>
       <c r="E131">
-        <v>0.9747510015068542</v>
+        <v>0.9737398789116637</v>
       </c>
       <c r="F131">
-        <v>1.013629603987325</v>
+        <v>1.008521892189989</v>
       </c>
       <c r="G131">
-        <v>1.00853428561512</v>
+        <v>1.006821364632013</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>43353</v>
+        <v>43382</v>
       </c>
       <c r="B132">
-        <v>0.7758578385841806</v>
+        <v>0.7851814754322867</v>
       </c>
       <c r="C132">
-        <v>0.8038800705906308</v>
+        <v>0.8476240453022807</v>
       </c>
       <c r="D132">
-        <v>0.8904862715102098</v>
+        <v>0.8567582262722857</v>
       </c>
       <c r="E132">
-        <v>0.9746407438715129</v>
+        <v>0.9727915967612515</v>
       </c>
       <c r="F132">
-        <v>1.011428944849291</v>
+        <v>1.008568397573646</v>
       </c>
       <c r="G132">
-        <v>1.008349176844435</v>
+        <v>1.007002190428801</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>43354</v>
+        <v>43383</v>
       </c>
       <c r="B133">
-        <v>0.7755321512515725</v>
+        <v>0.784333392264232</v>
       </c>
       <c r="C133">
-        <v>0.8024225398242009</v>
+        <v>0.8457959536512997</v>
       </c>
       <c r="D133">
-        <v>0.8840997524291164</v>
+        <v>0.8574181546425604</v>
       </c>
       <c r="E133">
-        <v>0.9753390422286741</v>
+        <v>0.9718433146108392</v>
       </c>
       <c r="F133">
-        <v>1.010425755129866</v>
+        <v>1.008921136521378</v>
       </c>
       <c r="G133">
-        <v>1.00791597090193</v>
+        <v>1.007433094455189</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>43355</v>
+        <v>43384</v>
       </c>
       <c r="B134">
-        <v>0.774059731188725</v>
+        <v>0.7297053809692862</v>
       </c>
       <c r="C134">
-        <v>0.7969008214585168</v>
+        <v>0.8052062002740802</v>
       </c>
       <c r="D134">
-        <v>0.8815062642226118</v>
+        <v>0.8270830544077555</v>
       </c>
       <c r="E134">
-        <v>0.9746774964166266</v>
+        <v>0.9784812896637241</v>
       </c>
       <c r="F134">
-        <v>1.010818729975944</v>
+        <v>1.010807675669698</v>
       </c>
       <c r="G134">
-        <v>1.007748858817284</v>
+        <v>1.007876823006171</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>43356</v>
+        <v>43385</v>
       </c>
       <c r="B135">
-        <v>0.7785513800130852</v>
+        <v>0.7247272842222785</v>
       </c>
       <c r="C135">
-        <v>0.8054972789357753</v>
+        <v>0.8172200109642204</v>
       </c>
       <c r="D135">
-        <v>0.9039060923718127</v>
+        <v>0.8445999626171533</v>
       </c>
       <c r="E135">
-        <v>0.9781689882024327</v>
+        <v>0.9896783135166675</v>
       </c>
       <c r="F135">
-        <v>1.011285001253986</v>
+        <v>1.010953334041149</v>
       </c>
       <c r="G135">
-        <v>1.007736004041542</v>
+        <v>1.008362872488317</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>43357</v>
+        <v>43388</v>
       </c>
       <c r="B136">
-        <v>0.7701194256696011</v>
+        <v>0.7113641382690999</v>
       </c>
       <c r="C136">
-        <v>0.8068720590866775</v>
+        <v>0.8058087168898734</v>
       </c>
       <c r="D136">
-        <v>0.9130045482241254</v>
+        <v>0.832932389749244</v>
       </c>
       <c r="E136">
-        <v>0.9802638832739167</v>
+        <v>1.000984754540812</v>
       </c>
       <c r="F136">
-        <v>1.012145130467648</v>
+        <v>1.010646223017004</v>
       </c>
       <c r="G136">
-        <v>1.007843984157774</v>
+        <v>1.008548828094943</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>43360</v>
+        <v>43389</v>
       </c>
       <c r="B137">
-        <v>0.7589570406535139</v>
+        <v>0.6945132498637803</v>
       </c>
       <c r="C137">
-        <v>0.7976219588526612</v>
+        <v>0.7992420925010051</v>
       </c>
       <c r="D137">
-        <v>0.9011744141731409</v>
+        <v>0.8334954238746768</v>
       </c>
       <c r="E137">
-        <v>0.9764783711272004</v>
+        <v>1.000255306732803</v>
       </c>
       <c r="F137">
-        <v>1.012634362073776</v>
+        <v>1.010939294680046</v>
       </c>
       <c r="G137">
-        <v>1.008218058131867</v>
+        <v>1.008861746495058</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>43361</v>
+        <v>43390</v>
       </c>
       <c r="B138">
-        <v>0.7723333904399282</v>
+        <v>0.7002222681954007</v>
       </c>
       <c r="C138">
-        <v>0.8136766981981772</v>
+        <v>0.8036938905273938</v>
       </c>
       <c r="D138">
-        <v>0.9062539838367907</v>
+        <v>0.8334954238746768</v>
       </c>
       <c r="E138">
-        <v>0.976845896578338</v>
+        <v>0.998395214822379</v>
       </c>
       <c r="F138">
-        <v>1.012563714910436</v>
+        <v>1.010995452124461</v>
       </c>
       <c r="G138">
-        <v>1.008441731229778</v>
+        <v>1.009082328318089</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>43362</v>
+        <v>43391</v>
       </c>
       <c r="B139">
-        <v>0.7811373044529976</v>
+        <v>0.6807537603006818</v>
       </c>
       <c r="C139">
-        <v>0.8243908248108498</v>
+        <v>0.7846587006394252</v>
       </c>
       <c r="D139">
-        <v>0.9170518754523387</v>
+        <v>0.8332430405544973</v>
       </c>
       <c r="E139">
-        <v>0.9801536256385753</v>
+        <v>0.9980669633087748</v>
       </c>
       <c r="F139">
-        <v>1.011541980310634</v>
+        <v>1.012281808585594</v>
       </c>
       <c r="G139">
-        <v>1.00850343415334</v>
+        <v>1.00953246913137</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>43363</v>
+        <v>43392</v>
       </c>
       <c r="B140">
-        <v>0.7805745167422508</v>
+        <v>0.6993078454147436</v>
       </c>
       <c r="C140">
-        <v>0.8238043531552376</v>
+        <v>0.8079979267469494</v>
       </c>
       <c r="D140">
-        <v>0.9194041167233653</v>
+        <v>0.8367407263860381</v>
       </c>
       <c r="E140">
-        <v>0.9796023374618692</v>
+        <v>1.000072944780801</v>
       </c>
       <c r="F140">
-        <v>1.010911454377827</v>
+        <v>1.012892520793609</v>
       </c>
       <c r="G140">
-        <v>1.00841473620072</v>
+        <v>1.009660714377318</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>43364</v>
+        <v>43395</v>
       </c>
       <c r="B141">
-        <v>0.7924038929250214</v>
+        <v>0.7340631447402277</v>
       </c>
       <c r="C141">
-        <v>0.8487813011980551</v>
+        <v>0.8428771618186383</v>
       </c>
       <c r="D141">
-        <v>0.9353280874672392</v>
+        <v>0.8561113917188813</v>
       </c>
       <c r="E141">
-        <v>0.983865632695064</v>
+        <v>1.001896564300824</v>
       </c>
       <c r="F141">
-        <v>1.011728312203943</v>
+        <v>1.01207823784959</v>
       </c>
       <c r="G141">
-        <v>1.008277190100281</v>
+        <v>1.009785112265889</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>43368</v>
+        <v>43396</v>
       </c>
       <c r="B142">
-        <v>0.7903154703148536</v>
+        <v>0.7205803469270361</v>
       </c>
       <c r="C142">
-        <v>0.841145522370416</v>
+        <v>0.8204931682394339</v>
       </c>
       <c r="D142">
-        <v>0.920130868933987</v>
+        <v>0.8297077099994535</v>
       </c>
       <c r="E142">
-        <v>0.9795655849167553</v>
+        <v>1.0078050915457</v>
       </c>
       <c r="F142">
-        <v>1.012153961363065</v>
+        <v>1.012374819352907</v>
       </c>
       <c r="G142">
-        <v>1.008175637371919</v>
+        <v>1.009746638692104</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>43369</v>
+        <v>43397</v>
       </c>
       <c r="B143">
-        <v>0.7941214607289603</v>
+        <v>0.7192136255465651</v>
       </c>
       <c r="C143">
-        <v>0.8504626194937559</v>
+        <v>0.8217241557950185</v>
       </c>
       <c r="D143">
-        <v>0.9307537645061856</v>
+        <v>0.8265399883530501</v>
       </c>
       <c r="E143">
-        <v>0.9816604799882392</v>
+        <v>1.007403895251294</v>
       </c>
       <c r="F143">
-        <v>1.013075906844649</v>
+        <v>1.013629587251557</v>
       </c>
       <c r="G143">
-        <v>1.008282332010578</v>
+        <v>1.009918487321675</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>43370</v>
+        <v>43398</v>
       </c>
       <c r="B144">
-        <v>0.7841858863006894</v>
+        <v>0.7173387013983565</v>
       </c>
       <c r="C144">
-        <v>0.8470652152001313</v>
+        <v>0.823298065178602</v>
       </c>
       <c r="D144">
-        <v>0.9273676077973961</v>
+        <v>0.8181822050445896</v>
       </c>
       <c r="E144">
-        <v>0.9787202763791393</v>
+        <v>1.008461594572908</v>
       </c>
       <c r="F144">
-        <v>1.014229221786171</v>
+        <v>1.014416668933437</v>
       </c>
       <c r="G144">
-        <v>1.008611414269573</v>
+        <v>1.01015574102668</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>43371</v>
+        <v>43399</v>
       </c>
       <c r="B145">
-        <v>0.7916640632293187</v>
+        <v>0.7172603847412929</v>
       </c>
       <c r="C145">
-        <v>0.8558441720048079</v>
+        <v>0.8179697223609007</v>
       </c>
       <c r="D145">
-        <v>0.9298051721870731</v>
+        <v>0.8091203017339162</v>
       </c>
       <c r="E145">
-        <v>0.9704877062736594</v>
+        <v>1.012035888832154</v>
       </c>
       <c r="F145">
-        <v>1.014706090138715</v>
+        <v>1.01466499013296</v>
       </c>
       <c r="G145">
-        <v>1.008957207737033</v>
+        <v>1.010028778233191</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>43381</v>
+        <v>43402</v>
       </c>
       <c r="B146">
-        <v>0.7662298119408791</v>
+        <v>0.7051591652647146</v>
       </c>
       <c r="C146">
-        <v>0.8190192521484679</v>
+        <v>0.793034472857886</v>
       </c>
       <c r="D146">
-        <v>0.876739211393548</v>
+        <v>0.8122107698607834</v>
       </c>
       <c r="E146">
-        <v>0.9812194494468743</v>
+        <v>1.011014661900941</v>
       </c>
       <c r="F146">
-        <v>1.014992211150241</v>
+        <v>1.015840786625401</v>
       </c>
       <c r="G146">
-        <v>1.009196306565834</v>
+        <v>1.010489178666147</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>43382</v>
+        <v>43403</v>
       </c>
       <c r="B147">
-        <v>0.7643170790948433</v>
+        <v>0.71227710415326</v>
       </c>
       <c r="C147">
-        <v>0.8184696885117514</v>
+        <v>0.8016356378900145</v>
       </c>
       <c r="D147">
-        <v>0.8757467864134819</v>
+        <v>0.8047960687124229</v>
       </c>
       <c r="E147">
-        <v>0.9802638832739169</v>
+        <v>1.005908527244875</v>
       </c>
       <c r="F147">
-        <v>1.015039014895953</v>
+        <v>1.016550651821211</v>
       </c>
       <c r="G147">
-        <v>1.009377558903797</v>
+        <v>1.011152206587702</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>43383</v>
+        <v>43404</v>
       </c>
       <c r="B148">
-        <v>0.7634915317912977</v>
+        <v>0.7237983432986187</v>
       </c>
       <c r="C148">
-        <v>0.8167044747799774</v>
+        <v>0.8128634990707224</v>
       </c>
       <c r="D148">
-        <v>0.8764213409515174</v>
+        <v>0.8176987158566451</v>
       </c>
       <c r="E148">
-        <v>0.9793083171009592</v>
+        <v>0.998614049164782</v>
       </c>
       <c r="F148">
-        <v>1.015394016891736</v>
+        <v>1.016695432732593</v>
       </c>
       <c r="G148">
-        <v>1.009809479368728</v>
+        <v>1.011153489040162</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>43384</v>
+        <v>43405</v>
       </c>
       <c r="B149">
-        <v>0.7103151345683173</v>
+        <v>0.7282760808020551</v>
       </c>
       <c r="C149">
-        <v>0.7775108216650823</v>
+        <v>0.8188457259001736</v>
       </c>
       <c r="D149">
-        <v>0.845413915832592</v>
+        <v>0.8319811239535996</v>
       </c>
       <c r="E149">
-        <v>0.9859972803116615</v>
+        <v>1.002443650156831</v>
       </c>
       <c r="F149">
-        <v>1.017292659406492</v>
+        <v>1.017128020546604</v>
       </c>
       <c r="G149">
-        <v>1.010254254609402</v>
+        <v>1.011617736830496</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>43385</v>
+        <v>43406</v>
       </c>
       <c r="B150">
-        <v>0.7054693193215559</v>
+        <v>0.7518171395673645</v>
       </c>
       <c r="C150">
-        <v>0.7891114126911328</v>
+        <v>0.8480248037768057</v>
       </c>
       <c r="D150">
-        <v>0.86331905593148</v>
+        <v>0.8670185411720341</v>
       </c>
       <c r="E150">
-        <v>0.9972803116615826</v>
+        <v>1.000583558246407</v>
       </c>
       <c r="F150">
-        <v>1.017439252270422</v>
+        <v>1.015352041366976</v>
       </c>
       <c r="G150">
-        <v>1.010741450610024</v>
+        <v>1.01143178122387</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>43388</v>
+        <v>43409</v>
       </c>
       <c r="B151">
-        <v>0.6924612683142033</v>
+        <v>0.752305335419248</v>
       </c>
       <c r="C151">
-        <v>0.7780926144888992</v>
+        <v>0.8409600728679893</v>
       </c>
       <c r="D151">
-        <v>0.8513928915469557</v>
+        <v>0.8489503832723871</v>
       </c>
       <c r="E151">
-        <v>1.008673600646845</v>
+        <v>1.004887300313662</v>
       </c>
       <c r="F151">
-        <v>1.017130170930811</v>
+        <v>1.015610892087327</v>
       </c>
       <c r="G151">
-        <v>1.010927844858283</v>
+        <v>1.01138176557795</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>43389</v>
+        <v>43410</v>
       </c>
       <c r="B152">
-        <v>0.6760581536087573</v>
+        <v>0.7518427030186966</v>
       </c>
       <c r="C152">
-        <v>0.7717518516850148</v>
+        <v>0.8358865566653518</v>
       </c>
       <c r="D152">
-        <v>0.8519684043472637</v>
+        <v>0.8550576668062251</v>
       </c>
       <c r="E152">
-        <v>1.00793854974457</v>
+        <v>1.002480122547232</v>
       </c>
       <c r="F152">
-        <v>1.017425122837754</v>
+        <v>1.016403238529621</v>
       </c>
       <c r="G152">
-        <v>1.011241501386388</v>
+        <v>1.011506163466521</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>43390</v>
+        <v>43411</v>
       </c>
       <c r="B153">
-        <v>0.681615467875909</v>
+        <v>0.7479530434805004</v>
       </c>
       <c r="C153">
-        <v>0.7760505283969009</v>
+        <v>0.8304121015708428</v>
       </c>
       <c r="D153">
-        <v>0.8519684043472637</v>
+        <v>0.8559326611185983</v>
       </c>
       <c r="E153">
-        <v>1.006064169943769</v>
+        <v>1.003793128601649</v>
       </c>
       <c r="F153">
-        <v>1.017481640568426</v>
+        <v>1.018172198028697</v>
       </c>
       <c r="G153">
-        <v>1.011462603529151</v>
+        <v>1.011997342758505</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>43391</v>
+        <v>43412</v>
       </c>
       <c r="B154">
-        <v>0.6626642909136226</v>
+        <v>0.7423952543934411</v>
       </c>
       <c r="C154">
-        <v>0.7576700612255012</v>
+        <v>0.8280572943635307</v>
       </c>
       <c r="D154">
-        <v>0.851710427388521</v>
+        <v>0.85855240652897</v>
       </c>
       <c r="E154">
-        <v>1.005733397037745</v>
+        <v>0.998832883507185</v>
       </c>
       <c r="F154">
-        <v>1.018776249836628</v>
+        <v>1.018504755394842</v>
       </c>
       <c r="G154">
-        <v>1.011913806157695</v>
+        <v>1.012470567716055</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>43392</v>
+        <v>43413</v>
       </c>
       <c r="B155">
-        <v>0.6807253437827688</v>
+        <v>0.7400719618778302</v>
       </c>
       <c r="C155">
-        <v>0.7802065256264353</v>
+        <v>0.8163741113479165</v>
       </c>
       <c r="D155">
-        <v>0.8552856333602025</v>
+        <v>0.8380671300350226</v>
       </c>
       <c r="E155">
-        <v>1.007754787019001</v>
+        <v>0.9974469326719674</v>
       </c>
       <c r="F155">
-        <v>1.019390880157684</v>
+        <v>1.018741669613469</v>
       </c>
       <c r="G155">
-        <v>1.012042353915115</v>
+        <v>1.012789898378467</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>43395</v>
+        <v>43416</v>
       </c>
       <c r="B156">
-        <v>0.7145571007646767</v>
+        <v>0.7592274064321781</v>
       </c>
       <c r="C156">
-        <v>0.8138860759210151</v>
+        <v>0.8260899720688177</v>
       </c>
       <c r="D156">
-        <v>0.8750856158940582</v>
+        <v>0.8390904118234547</v>
       </c>
       <c r="E156">
-        <v>1.009592414274689</v>
+        <v>0.9893135896126632</v>
       </c>
       <c r="F156">
-        <v>1.018571373062942</v>
+        <v>1.018989113352923</v>
       </c>
       <c r="G156">
-        <v>1.012167045239813</v>
+        <v>1.012980983794931</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>43396</v>
+        <v>43417</v>
       </c>
       <c r="B157">
-        <v>0.7014325773709843</v>
+        <v>0.7730928259231629</v>
       </c>
       <c r="C157">
-        <v>0.7922719884562276</v>
+        <v>0.8343998919557838</v>
       </c>
       <c r="D157">
-        <v>0.8480967423633305</v>
+        <v>0.8443177908635927</v>
       </c>
       <c r="E157">
-        <v>1.015546326583116</v>
+        <v>0.986942884236633</v>
       </c>
       <c r="F157">
-        <v>1.018869857328053</v>
+        <v>1.019770930274389</v>
       </c>
       <c r="G157">
-        <v>1.012128480912587</v>
+        <v>1.013151549972043</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>43397</v>
+        <v>43418</v>
       </c>
       <c r="B158">
-        <v>0.7001021734756517</v>
+        <v>0.7700390692206767</v>
       </c>
       <c r="C158">
-        <v>0.7934606357188496</v>
+        <v>0.8260389397336477</v>
       </c>
       <c r="D158">
-        <v>0.8448588136606668</v>
+        <v>0.8397860208447017</v>
       </c>
       <c r="E158">
-        <v>1.015142048586865</v>
+        <v>0.985228681887811</v>
       </c>
       <c r="F158">
-        <v>1.020132675372751</v>
+        <v>1.023099136316052</v>
       </c>
       <c r="G158">
-        <v>1.012300734907529</v>
+        <v>1.01400951066744</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>43398</v>
+        <v>43419</v>
       </c>
       <c r="B159">
-        <v>0.6982770711352098</v>
+        <v>0.7826268582460718</v>
       </c>
       <c r="C159">
-        <v>0.7949804098805984</v>
+        <v>0.8356858037064429</v>
       </c>
       <c r="D159">
-        <v>0.8363157945807446</v>
+        <v>0.8544808841730779</v>
       </c>
       <c r="E159">
-        <v>1.016207872395164</v>
+        <v>0.9923772704063023</v>
       </c>
       <c r="F159">
-        <v>1.020924806691698</v>
+        <v>1.025000592285545</v>
       </c>
       <c r="G159">
-        <v>1.012538548258757</v>
+        <v>1.01435962018888</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>43399</v>
+        <v>43420</v>
       </c>
       <c r="B160">
-        <v>0.6982008355636327</v>
+        <v>0.7892815548704156</v>
       </c>
       <c r="C160">
-        <v>0.789835337474432</v>
+        <v>0.8396297269022629</v>
       </c>
       <c r="D160">
-        <v>0.8270530498999719</v>
+        <v>0.8571058671101978</v>
       </c>
       <c r="E160">
-        <v>1.019809621816311</v>
+        <v>0.9945656138303304</v>
       </c>
       <c r="F160">
-        <v>1.021174721032013</v>
+        <v>1.028048011105133</v>
       </c>
       <c r="G160">
-        <v>1.012411285978911</v>
+        <v>1.015188084477709</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>43402</v>
+        <v>43423</v>
       </c>
       <c r="B161">
-        <v>0.6864211782318905</v>
+        <v>0.7912535320422706</v>
       </c>
       <c r="C161">
-        <v>0.7657577455198326</v>
+        <v>0.8491479275330535</v>
       </c>
       <c r="D161">
-        <v>0.8302120128928258</v>
+        <v>0.8632753462741706</v>
       </c>
       <c r="E161">
-        <v>1.018780550553126</v>
+        <v>0.9982857976511779</v>
       </c>
       <c r="F161">
-        <v>1.022358061017954</v>
+        <v>1.027907617494095</v>
       </c>
       <c r="G161">
-        <v>1.012872772428049</v>
+        <v>1.016078106484593</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>43403</v>
+        <v>43424</v>
       </c>
       <c r="B162">
-        <v>0.6933499742245283</v>
+        <v>0.7686737200334183</v>
       </c>
       <c r="C162">
-        <v>0.7740630701548527</v>
+        <v>0.8295093704903722</v>
       </c>
       <c r="D162">
-        <v>0.8226329777534195</v>
+        <v>0.8458716995807031</v>
       </c>
       <c r="E162">
-        <v>1.013635194237201</v>
+        <v>1.000875337369611</v>
       </c>
       <c r="F162">
-        <v>1.023072480457228</v>
+        <v>1.026435239498337</v>
       </c>
       <c r="G162">
-        <v>1.013537364333911</v>
+        <v>1.01643719317325</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>43404</v>
+        <v>43425</v>
       </c>
       <c r="B163">
-        <v>0.7045650628717555</v>
+        <v>0.7715918159550771</v>
       </c>
       <c r="C163">
-        <v>0.7849047447087523</v>
+        <v>0.8315929846518967</v>
       </c>
       <c r="D163">
-        <v>0.8358215896935033</v>
+        <v>0.8501641800962852</v>
       </c>
       <c r="E163">
-        <v>1.006284685214451</v>
+        <v>1.000729447808009</v>
       </c>
       <c r="F163">
-        <v>1.023218190231616</v>
+        <v>1.027130187872974</v>
       </c>
       <c r="G163">
-        <v>1.013538649811485</v>
+        <v>1.016479514104413</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>43405</v>
+        <v>43426</v>
       </c>
       <c r="B164">
-        <v>0.7089238147739138</v>
+        <v>0.7710245919385382</v>
       </c>
       <c r="C164">
-        <v>0.7906812105332457</v>
+        <v>0.8284834916839205</v>
       </c>
       <c r="D164">
-        <v>0.8504205425948071</v>
+        <v>0.8517334740482184</v>
       </c>
       <c r="E164">
-        <v>1.010143702451395</v>
+        <v>1.001714202348822</v>
       </c>
       <c r="F164">
-        <v>1.023653553375697</v>
+        <v>1.026471215361165</v>
       </c>
       <c r="G164">
-        <v>1.014003992693346</v>
+        <v>1.016632125947092</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>43406</v>
+        <v>43427</v>
       </c>
       <c r="B165">
-        <v>0.7318393239106968</v>
+        <v>0.7411138292206958</v>
       </c>
       <c r="C165">
-        <v>0.818856662743583</v>
+        <v>0.8101963636626065</v>
       </c>
       <c r="D165">
-        <v>0.8862345033977009</v>
+        <v>0.8487307344943837</v>
       </c>
       <c r="E165">
-        <v>1.008269322650594</v>
+        <v>1.00156831278722</v>
       </c>
       <c r="F165">
-        <v>1.021866180143201</v>
+        <v>1.025611304493559</v>
       </c>
       <c r="G165">
-        <v>1.013817598445087</v>
+        <v>1.016551331442144</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>43409</v>
+        <v>43430</v>
       </c>
       <c r="B166">
-        <v>0.732314547077841</v>
+        <v>0.7398767377471792</v>
       </c>
       <c r="C166">
-        <v>0.812034925986108</v>
+        <v>0.8096211416139572</v>
       </c>
       <c r="D166">
-        <v>0.8677658961152557</v>
+        <v>0.8634121766604677</v>
       </c>
       <c r="E166">
-        <v>1.012606122974016</v>
+        <v>1.002990736012838</v>
       </c>
       <c r="F166">
-        <v>1.022126691558016</v>
+        <v>1.024984798004303</v>
       </c>
       <c r="G166">
-        <v>1.013767464819693</v>
+        <v>1.016448735245385</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>43410</v>
+        <v>43431</v>
       </c>
       <c r="B167">
-        <v>0.7318642080719578</v>
+        <v>0.7432969886220455</v>
       </c>
       <c r="C167">
-        <v>0.8071359153350461</v>
+        <v>0.8085896440958555</v>
       </c>
       <c r="D167">
-        <v>0.8740085369962721</v>
+        <v>0.8619646552054303</v>
       </c>
       <c r="E167">
-        <v>1.010180454996509</v>
+        <v>1.0000364723904</v>
       </c>
       <c r="F167">
-        <v>1.022924121414214</v>
+        <v>1.025260320465965</v>
       </c>
       <c r="G167">
-        <v>1.01389215614439</v>
+        <v>1.016383330169951</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>43411</v>
+        <v>43432</v>
       </c>
       <c r="B168">
-        <v>0.7280779073122885</v>
+        <v>0.7524797394825122</v>
       </c>
       <c r="C168">
-        <v>0.8018497562403304</v>
+        <v>0.819335120839673</v>
       </c>
       <c r="D168">
-        <v>0.8749029240400068</v>
+        <v>0.8734413856924517</v>
       </c>
       <c r="E168">
-        <v>1.011503546620604</v>
+        <v>0.99533153402874</v>
       </c>
       <c r="F168">
-        <v>1.024704429930376</v>
+        <v>1.02611233419295</v>
       </c>
       <c r="G168">
-        <v>1.01438449405531</v>
+        <v>1.016621866327416</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>43412</v>
+        <v>43433</v>
       </c>
       <c r="B169">
-        <v>0.7226678037194756</v>
+        <v>0.7361906371428517</v>
       </c>
       <c r="C169">
-        <v>0.7995759435374514</v>
+        <v>0.8086960645564197</v>
       </c>
       <c r="D169">
-        <v>0.877580731563766</v>
+        <v>0.8658623571423659</v>
       </c>
       <c r="E169">
-        <v>1.006505200485134</v>
+        <v>1.00153184039682</v>
       </c>
       <c r="F169">
-        <v>1.025039120866698</v>
+        <v>1.027420627155808</v>
       </c>
       <c r="G169">
-        <v>1.014858835280189</v>
+        <v>1.016668034615957</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>43413</v>
+        <v>43434</v>
       </c>
       <c r="B170">
-        <v>0.7204062473723433</v>
+        <v>0.7414334485953049</v>
       </c>
       <c r="C170">
-        <v>0.7882946081192173</v>
+        <v>0.8177261589430433</v>
       </c>
       <c r="D170">
-        <v>0.8566414344455793</v>
+        <v>0.8676863258324311</v>
       </c>
       <c r="E170">
-        <v>1.005108603770811</v>
+        <v>1.001714202348822</v>
       </c>
       <c r="F170">
-        <v>1.02527755504297</v>
+        <v>1.027711066438642</v>
       </c>
       <c r="G170">
-        <v>1.015178919196166</v>
+        <v>1.016965563586558</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
-        <v>43416</v>
+        <v>43437</v>
       </c>
       <c r="B171">
-        <v>0.7390526799342957</v>
+        <v>0.7649000531733345</v>
       </c>
       <c r="C171">
-        <v>0.7976762880537733</v>
+        <v>0.8404742605015143</v>
       </c>
       <c r="D171">
-        <v>0.8576873955000928</v>
+        <v>0.889791634818685</v>
       </c>
       <c r="E171">
-        <v>0.9969127862104454</v>
+        <v>1.000328251513604</v>
       </c>
       <c r="F171">
-        <v>1.025526586293743</v>
+        <v>1.027760204202505</v>
       </c>
       <c r="G171">
-        <v>1.015370455354722</v>
+        <v>1.017014296780019</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
-        <v>43417</v>
+        <v>43438</v>
       </c>
       <c r="B172">
-        <v>0.7525496577125088</v>
+        <v>0.7684638422345085</v>
       </c>
       <c r="C172">
-        <v>0.8057003850330151</v>
+        <v>0.8422163961738124</v>
       </c>
       <c r="D172">
-        <v>0.8630306303303951</v>
+        <v>0.8923580229253092</v>
       </c>
       <c r="E172">
-        <v>0.9945238707780518</v>
+        <v>0.9995623313151946</v>
       </c>
       <c r="F172">
-        <v>1.02631341907544</v>
+        <v>1.030400481550084</v>
       </c>
       <c r="G172">
-        <v>1.01554142387209</v>
+        <v>1.017119457881697</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
-        <v>43418</v>
+        <v>43439</v>
       </c>
       <c r="B173">
-        <v>0.7495770475884281</v>
+        <v>0.7627873160829115</v>
       </c>
       <c r="C173">
-        <v>0.7976270109955043</v>
+        <v>0.83816850103856</v>
       </c>
       <c r="D173">
-        <v>0.8583984214888455</v>
+        <v>0.8779299461156701</v>
       </c>
       <c r="E173">
-        <v>0.9927965011577056</v>
+        <v>1.000364723904005</v>
       </c>
       <c r="F173">
-        <v>1.029662977707287</v>
+        <v>1.031628048186595</v>
       </c>
       <c r="G173">
-        <v>1.016401408369231</v>
+        <v>1.018298031691966</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
-        <v>43419</v>
+        <v>43440</v>
       </c>
       <c r="B174">
-        <v>0.7618303449995205</v>
+        <v>0.7472673534499348</v>
       </c>
       <c r="C174">
-        <v>0.8069420673517844</v>
+        <v>0.8200414289775521</v>
       </c>
       <c r="D174">
-        <v>0.8734189709764216</v>
+        <v>0.8562171242901105</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>1.004084907724852</v>
       </c>
       <c r="F174">
-        <v>1.031576632744253</v>
+        <v>1.033071470000077</v>
       </c>
       <c r="G174">
-        <v>1.016752343746988</v>
+        <v>1.018251863403424</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
-        <v>43420</v>
+        <v>43441</v>
       </c>
       <c r="B175">
-        <v>0.7683082083283522</v>
+        <v>0.747245483061817</v>
       </c>
       <c r="C175">
-        <v>0.8107503377842801</v>
+        <v>0.8200134900627418</v>
       </c>
       <c r="D175">
-        <v>0.8761021321076256</v>
+        <v>0.8531852509937388</v>
       </c>
       <c r="E175">
-        <v>1.002205152706825</v>
+        <v>1.005908527244876</v>
       </c>
       <c r="F175">
-        <v>1.034643602722741</v>
+        <v>1.034001577673202</v>
       </c>
       <c r="G175">
-        <v>1.017582762259922</v>
+        <v>1.018759714577381</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>43423</v>
+        <v>43444</v>
       </c>
       <c r="B176">
-        <v>0.7702277847309973</v>
+        <v>0.738496125028012</v>
       </c>
       <c r="C176">
-        <v>0.8199411562239544</v>
+        <v>0.8105283058063719</v>
       </c>
       <c r="D176">
-        <v>0.8824083470770481</v>
+        <v>0.8429923692508733</v>
       </c>
       <c r="E176">
-        <v>1.005953912308428</v>
+        <v>1.016959661536217</v>
       </c>
       <c r="F176">
-        <v>1.034502308396061</v>
+        <v>1.035042245315019</v>
       </c>
       <c r="G176">
-        <v>1.018474883696417</v>
+        <v>1.018993120925008</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2">
-        <v>43424</v>
+        <v>43445</v>
       </c>
       <c r="B177">
-        <v>0.7482479794234217</v>
+        <v>0.7446384684236664</v>
       </c>
       <c r="C177">
-        <v>0.8009780749444333</v>
+        <v>0.8144079746529096</v>
       </c>
       <c r="D177">
-        <v>0.8646189787391525</v>
+        <v>0.8436238185694545</v>
       </c>
       <c r="E177">
-        <v>1.008563343011504</v>
+        <v>1.014260704646583</v>
       </c>
       <c r="F177">
-        <v>1.033020484145009</v>
+        <v>1.035788086373657</v>
       </c>
       <c r="G177">
-        <v>1.018834817417194</v>
+        <v>1.019202160675904</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
-        <v>43425</v>
+        <v>43446</v>
       </c>
       <c r="B178">
-        <v>0.7510885336406908</v>
+        <v>0.7442579473873345</v>
       </c>
       <c r="C178">
-        <v>0.8029900223911972</v>
+        <v>0.817189855493438</v>
       </c>
       <c r="D178">
-        <v>0.8690065946405712</v>
+        <v>0.8572099629543185</v>
       </c>
       <c r="E178">
-        <v>1.008416332831049</v>
+        <v>1.011926471660953</v>
       </c>
       <c r="F178">
-        <v>1.033719891062073</v>
+        <v>1.035806513035106</v>
       </c>
       <c r="G178">
-        <v>1.018877238177142</v>
+        <v>1.019308604230042</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
-        <v>43426</v>
+        <v>43447</v>
       </c>
       <c r="B179">
-        <v>0.7505363823010598</v>
+        <v>0.7527000188447873</v>
       </c>
       <c r="C179">
-        <v>0.799987481636208</v>
+        <v>0.8298405136430314</v>
       </c>
       <c r="D179">
-        <v>0.8706106692711973</v>
+        <v>0.8682624537747345</v>
       </c>
       <c r="E179">
-        <v>1.00940865154912</v>
+        <v>1.01488073528339</v>
       </c>
       <c r="F179">
-        <v>1.033056690816221</v>
+        <v>1.032354585123715</v>
       </c>
       <c r="G179">
-        <v>1.019030210008472</v>
+        <v>1.018914891324979</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
-        <v>43427</v>
+        <v>43448</v>
       </c>
       <c r="B180">
-        <v>0.7214204294808358</v>
+        <v>0.7347336559421698</v>
       </c>
       <c r="C180">
-        <v>0.7823293464543047</v>
+        <v>0.8159789200372283</v>
       </c>
       <c r="D180">
-        <v>0.8675413792030426</v>
+        <v>0.8542010038374703</v>
       </c>
       <c r="E180">
-        <v>1.009261641368665</v>
+        <v>1.012035888832154</v>
       </c>
       <c r="F180">
-        <v>1.032191263065309</v>
+        <v>1.031841270983358</v>
       </c>
       <c r="G180">
-        <v>1.018949224921298</v>
+        <v>1.018380108649373</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2">
-        <v>43430</v>
+        <v>43451</v>
       </c>
       <c r="B181">
-        <v>0.7202162108750788</v>
+        <v>0.733639967129705</v>
       </c>
       <c r="C181">
-        <v>0.7817739093904409</v>
+        <v>0.8147638607559543</v>
       </c>
       <c r="D181">
-        <v>0.8825482100715417</v>
+        <v>0.8539780816052495</v>
       </c>
       <c r="E181">
-        <v>1.010694990628101</v>
+        <v>1.009555766284922</v>
       </c>
       <c r="F181">
-        <v>1.031560737132502</v>
+        <v>1.030497879617741</v>
       </c>
       <c r="G181">
-        <v>1.018846386715362</v>
+        <v>1.017869692570497</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
-        <v>43431</v>
+        <v>43452</v>
       </c>
       <c r="B182">
-        <v>0.7235455764297236</v>
+        <v>0.7296794109421877</v>
       </c>
       <c r="C182">
-        <v>0.7807778906283255</v>
+        <v>0.8063177257723348</v>
       </c>
       <c r="D182">
-        <v>0.8810686068140055</v>
+        <v>0.8450176553753227</v>
       </c>
       <c r="E182">
-        <v>1.007718034473887</v>
+        <v>1.016084324166606</v>
       </c>
       <c r="F182">
-        <v>1.03183802724861</v>
+        <v>1.03069794051347</v>
       </c>
       <c r="G182">
-        <v>1.018780827359077</v>
+        <v>1.017200252386645</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
-        <v>43432</v>
+        <v>43453</v>
       </c>
       <c r="B183">
-        <v>0.7324843167532438</v>
+        <v>0.7196220139635742</v>
       </c>
       <c r="C183">
-        <v>0.7911537725445659</v>
+        <v>0.7967038008522405</v>
       </c>
       <c r="D183">
-        <v>0.8927996991272626</v>
+        <v>0.8466916998622201</v>
       </c>
       <c r="E183">
-        <v>1.002976956154214</v>
+        <v>1.01717849587862</v>
       </c>
       <c r="F183">
-        <v>1.032695507193647</v>
+        <v>1.031252495277069</v>
       </c>
       <c r="G183">
-        <v>1.019019926187879</v>
+        <v>1.017191275219428</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2">
-        <v>43433</v>
+        <v>43454</v>
       </c>
       <c r="B184">
-        <v>0.716628059937618</v>
+        <v>0.7216315655125364</v>
       </c>
       <c r="C184">
-        <v>0.7808806507159988</v>
+        <v>0.7905931684198512</v>
       </c>
       <c r="D184">
-        <v>0.885052694554278</v>
+        <v>0.838774523491453</v>
       </c>
       <c r="E184">
-        <v>1.009224888823551</v>
+        <v>1.017543219782625</v>
       </c>
       <c r="F184">
-        <v>1.034012193700392</v>
+        <v>1.033022332236213</v>
       </c>
       <c r="G184">
-        <v>1.01906620338055</v>
+        <v>1.017708103560601</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2">
-        <v>43434</v>
+        <v>43455</v>
       </c>
       <c r="B185">
-        <v>0.7217315557038393</v>
+        <v>0.7167835899515347</v>
       </c>
       <c r="C185">
-        <v>0.7896001515145112</v>
+        <v>0.7807934651806124</v>
       </c>
       <c r="D185">
-        <v>0.8869170883469041</v>
+        <v>0.8430264131747365</v>
       </c>
       <c r="E185">
-        <v>1.00940865154912</v>
+        <v>1.024728280691517</v>
       </c>
       <c r="F185">
-        <v>1.03430449633871</v>
+        <v>1.033270653435736</v>
       </c>
       <c r="G185">
-        <v>1.019364434177764</v>
+        <v>1.017894059167227</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2">
-        <v>43437</v>
+        <v>43458</v>
       </c>
       <c r="B186">
-        <v>0.7445745891025559</v>
+        <v>0.7241659555543574</v>
       </c>
       <c r="C186">
-        <v>0.8115658233238281</v>
+        <v>0.7830623421831484</v>
       </c>
       <c r="D186">
-        <v>0.9095123231678377</v>
+        <v>0.8396861804910638</v>
       </c>
       <c r="E186">
-        <v>1.008012054834798</v>
+        <v>1.027646071923554</v>
       </c>
       <c r="F186">
-        <v>1.034353949353048</v>
+        <v>1.03264414694648</v>
       </c>
       <c r="G186">
-        <v>1.019413282325584</v>
+        <v>1.017791462970468</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2">
-        <v>43438</v>
+        <v>43459</v>
       </c>
       <c r="B187">
-        <v>0.7480436786455141</v>
+        <v>0.7158295599149366</v>
       </c>
       <c r="C187">
-        <v>0.8132480375660427</v>
+        <v>0.7776713172244704</v>
       </c>
       <c r="D187">
-        <v>0.9121355908157537</v>
+        <v>0.8396861804910638</v>
       </c>
       <c r="E187">
-        <v>1.007240251387409</v>
+        <v>1.033627543949231</v>
       </c>
       <c r="F187">
-        <v>1.037011165784165</v>
+        <v>1.032931076389038</v>
       </c>
       <c r="G187">
-        <v>1.019518691486669</v>
+        <v>1.017706821108142</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="2">
-        <v>43439</v>
+        <v>43460</v>
       </c>
       <c r="B188">
-        <v>0.7425179931532457</v>
+        <v>0.7129315047904455</v>
       </c>
       <c r="C188">
-        <v>0.8093393713491744</v>
+        <v>0.773741105746989</v>
       </c>
       <c r="D188">
-        <v>0.8973877407073934</v>
+        <v>0.8396861804910638</v>
       </c>
       <c r="E188">
-        <v>1.008048807379911</v>
+        <v>1.036581807571668</v>
       </c>
       <c r="F188">
-        <v>1.038246608053069</v>
+        <v>1.033707628550091</v>
       </c>
       <c r="G188">
-        <v>1.020700045377359</v>
+        <v>1.017518300596598</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="2">
-        <v>43440</v>
+        <v>43461</v>
       </c>
       <c r="B189">
-        <v>0.7274104379211677</v>
+        <v>0.7049465091980656</v>
       </c>
       <c r="C189">
-        <v>0.7918357869409333</v>
+        <v>0.7707701475272648</v>
       </c>
       <c r="D189">
-        <v>0.875193691844349</v>
+        <v>0.834039471965647</v>
       </c>
       <c r="E189">
-        <v>1.011797566981514</v>
+        <v>1.031694507258006</v>
       </c>
       <c r="F189">
-        <v>1.039699290349244</v>
+        <v>1.035282669373921</v>
       </c>
       <c r="G189">
-        <v>1.020653768184688</v>
+        <v>1.017505476072003</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="2">
-        <v>43441</v>
+        <v>43462</v>
       </c>
       <c r="B190">
-        <v>0.7273891486884388</v>
+        <v>0.7060927309877213</v>
       </c>
       <c r="C190">
-        <v>0.7918088089959011</v>
+        <v>0.7759630484655122</v>
       </c>
       <c r="D190">
-        <v>0.8720946223347829</v>
+        <v>0.8348683105735517</v>
       </c>
       <c r="E190">
-        <v>1.013635194237201</v>
+        <v>1.038004230797287</v>
       </c>
       <c r="F190">
-        <v>1.040635365263496</v>
+        <v>1.037901887679844</v>
       </c>
       <c r="G190">
-        <v>1.021162817304071</v>
+        <v>1.01858914840027</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2">
-        <v>43444</v>
+        <v>43467</v>
       </c>
       <c r="B191">
-        <v>0.7188722847715066</v>
+        <v>0.6999806097240594</v>
       </c>
       <c r="C191">
-        <v>0.7826498713196828</v>
+        <v>0.7653652562068082</v>
       </c>
       <c r="D191">
-        <v>0.8616758330464146</v>
+        <v>0.8226305019809307</v>
       </c>
       <c r="E191">
-        <v>1.024771215406667</v>
+        <v>1.042380917645343</v>
       </c>
       <c r="F191">
-        <v>1.041682709460008</v>
+        <v>1.041230093721507</v>
       </c>
       <c r="G191">
-        <v>1.021396774222576</v>
+        <v>1.019680515443293</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="2">
-        <v>43445</v>
+        <v>43468</v>
       </c>
       <c r="B192">
-        <v>0.7248514094832548</v>
+        <v>0.6967365247407795</v>
       </c>
       <c r="C192">
-        <v>0.786396097456085</v>
+        <v>0.7641556352198376</v>
       </c>
       <c r="D192">
-        <v>0.8623212773439692</v>
+        <v>0.8204703495427148</v>
       </c>
       <c r="E192">
-        <v>1.02205152706825</v>
+        <v>1.047888248595813</v>
       </c>
       <c r="F192">
-        <v>1.042433335570493</v>
+        <v>1.041774118964278</v>
       </c>
       <c r="G192">
-        <v>1.021606307067171</v>
+        <v>1.02083985246667</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2">
-        <v>43446</v>
+        <v>43469</v>
       </c>
       <c r="B193">
-        <v>0.7244809999204678</v>
+        <v>0.7133504980587028</v>
       </c>
       <c r="C193">
-        <v>0.7890822944294283</v>
+        <v>0.7824633565925663</v>
       </c>
       <c r="D193">
-        <v>0.8762085350555899</v>
+        <v>0.838856359846894</v>
       </c>
       <c r="E193">
-        <v>1.01969936418097</v>
+        <v>1.048544751623022</v>
       </c>
       <c r="F193">
-        <v>1.04245188045087</v>
+        <v>1.041185343257989</v>
       </c>
       <c r="G193">
-        <v>1.02171300170583</v>
+        <v>1.021887616126071</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2">
-        <v>43447</v>
+        <v>43472</v>
       </c>
       <c r="B194">
-        <v>0.7326987426968341</v>
+        <v>0.7264701559495896</v>
       </c>
       <c r="C194">
-        <v>0.8012978283003129</v>
+        <v>0.7872132040754736</v>
       </c>
       <c r="D194">
-        <v>0.887505985165824</v>
+        <v>0.8457198113050052</v>
       </c>
       <c r="E194">
-        <v>1.022676320335183</v>
+        <v>1.043766868480561</v>
       </c>
       <c r="F194">
-        <v>1.038977806193636</v>
+        <v>1.040676416417977</v>
       </c>
       <c r="G194">
-        <v>1.02131836009055</v>
+        <v>1.022762248703442</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="2">
-        <v>43448</v>
+        <v>43473</v>
       </c>
       <c r="B195">
-        <v>0.7152097946697218</v>
+        <v>0.7246021605300722</v>
       </c>
       <c r="C195">
-        <v>0.7879130095664695</v>
+        <v>0.7855122551060046</v>
       </c>
       <c r="D195">
-        <v>0.8731328875785946</v>
+        <v>0.8470210093565143</v>
       </c>
       <c r="E195">
-        <v>1.019809621816311</v>
+        <v>1.038551316653294</v>
       </c>
       <c r="F195">
-        <v>1.038461198811714</v>
+        <v>1.042830580887338</v>
       </c>
       <c r="G195">
-        <v>1.020782315942108</v>
+        <v>1.023881829700574</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="2">
-        <v>43451</v>
+        <v>43474</v>
       </c>
       <c r="B196">
-        <v>0.7141451681282952</v>
+        <v>0.7265461009146806</v>
       </c>
       <c r="C196">
-        <v>0.7867397427190042</v>
+        <v>0.793443504756446</v>
       </c>
       <c r="D196">
-        <v>0.8729050246617284</v>
+        <v>0.8662319301235369</v>
       </c>
       <c r="E196">
-        <v>1.017310448748576</v>
+        <v>1.035378218688453</v>
       </c>
       <c r="F196">
-        <v>1.037109188723299</v>
+        <v>1.042042621745388</v>
       </c>
       <c r="G196">
-        <v>1.020270695867576</v>
+        <v>1.024229374317095</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="2">
-        <v>43452</v>
+        <v>43475</v>
       </c>
       <c r="B197">
-        <v>0.7102898546351085</v>
+        <v>0.7253753151724525</v>
       </c>
       <c r="C197">
-        <v>0.778584115814029</v>
+        <v>0.7919513244308546</v>
       </c>
       <c r="D197">
-        <v>0.8637460061251973</v>
+        <v>0.8681668689115798</v>
       </c>
       <c r="E197">
-        <v>1.023889154323937</v>
+        <v>1.035232329126851</v>
       </c>
       <c r="F197">
-        <v>1.037310533138817</v>
+        <v>1.041486312061651</v>
       </c>
       <c r="G197">
-        <v>1.019599676573843</v>
+        <v>1.02471798870416</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="2">
-        <v>43453</v>
+        <v>43476</v>
       </c>
       <c r="B198">
-        <v>0.7004997099074084</v>
+        <v>0.7309682900039894</v>
       </c>
       <c r="C198">
-        <v>0.7693008655589954</v>
+        <v>0.7976452443405017</v>
       </c>
       <c r="D198">
-        <v>0.8654571529047179</v>
+        <v>0.8729408745425759</v>
       </c>
       <c r="E198">
-        <v>1.024991730677349</v>
+        <v>1.032898096141222</v>
       </c>
       <c r="F198">
-        <v>1.037868645729201</v>
+        <v>1.041408218115511</v>
       </c>
       <c r="G198">
-        <v>1.019590678230824</v>
+        <v>1.024933440717353</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="2">
-        <v>43454</v>
+        <v>43479</v>
       </c>
       <c r="B199">
-        <v>0.7024558622342927</v>
+        <v>0.7261692898822202</v>
       </c>
       <c r="C199">
-        <v>0.7634004106919277</v>
+        <v>0.7906879133007024</v>
       </c>
       <c r="D199">
-        <v>0.8573645060510832</v>
+        <v>0.8608637925520408</v>
       </c>
       <c r="E199">
-        <v>1.025359256128487</v>
+        <v>1.033992267853236</v>
       </c>
       <c r="F199">
-        <v>1.039649837334905</v>
+        <v>1.040430727598661</v>
       </c>
       <c r="G199">
-        <v>1.020108725693227</v>
+        <v>1.0249667844813</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="2">
-        <v>43455</v>
+        <v>43480</v>
       </c>
       <c r="B200">
-        <v>0.6977367105015445</v>
+        <v>0.736470581498892</v>
       </c>
       <c r="C200">
-        <v>0.7539377720348719</v>
+        <v>0.8062053257654277</v>
       </c>
       <c r="D200">
-        <v>0.8617106314948053</v>
+        <v>0.8782772596081612</v>
       </c>
       <c r="E200">
-        <v>1.032599507515896</v>
+        <v>1.02968852578598</v>
       </c>
       <c r="F200">
-        <v>1.03989975167522</v>
+        <v>1.039932330279477</v>
       </c>
       <c r="G200">
-        <v>1.020295119941486</v>
+        <v>1.024751332468106</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="2">
-        <v>43458</v>
+        <v>43481</v>
       </c>
       <c r="B201">
-        <v>0.7049229066751784</v>
+        <v>0.7346956072266678</v>
       </c>
       <c r="C201">
-        <v>0.7561286101355947</v>
+        <v>0.8063757686101143</v>
       </c>
       <c r="D201">
-        <v>0.858296368346931</v>
+        <v>0.8806279270818433</v>
       </c>
       <c r="E201">
-        <v>1.035539711124996</v>
+        <v>1.032059231162011</v>
       </c>
       <c r="F201">
-        <v>1.039269225742412</v>
+        <v>1.043234212519071</v>
       </c>
       <c r="G201">
-        <v>1.02019228173555</v>
+        <v>1.025033472009193</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="2">
-        <v>43459</v>
+        <v>43482</v>
       </c>
       <c r="B202">
-        <v>0.6968080316244226</v>
+        <v>0.7290802707279613</v>
       </c>
       <c r="C202">
-        <v>0.750923011564928</v>
+        <v>0.8019336615726265</v>
       </c>
       <c r="D202">
-        <v>0.858296368346931</v>
+        <v>0.8758332986892764</v>
       </c>
       <c r="E202">
-        <v>1.041567128523651</v>
+        <v>1.032533372237217</v>
       </c>
       <c r="F202">
-        <v>1.039557996022564</v>
+        <v>1.043630824470253</v>
       </c>
       <c r="G202">
-        <v>1.020107440215653</v>
+        <v>1.025619552783179</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="2">
-        <v>43460</v>
+        <v>43483</v>
       </c>
       <c r="B203">
-        <v>0.6939869856661143</v>
+        <v>0.736547780072597</v>
       </c>
       <c r="C203">
-        <v>0.7471279812309167</v>
+        <v>0.816562183544753</v>
       </c>
       <c r="D203">
-        <v>0.858296368346931</v>
+        <v>0.8868052625359387</v>
       </c>
       <c r="E203">
-        <v>1.044544084677864</v>
+        <v>1.033189875264425</v>
       </c>
       <c r="F203">
-        <v>1.04033953026701</v>
+        <v>1.04250855304202</v>
       </c>
       <c r="G203">
-        <v>1.019918475012245</v>
+        <v>1.025755492743885</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="2">
-        <v>43461</v>
+        <v>43486</v>
       </c>
       <c r="B204">
-        <v>0.6862141730123351</v>
+        <v>0.7409222134499739</v>
       </c>
       <c r="C204">
-        <v>0.7442592102679459</v>
+        <v>0.8210629519937799</v>
       </c>
       <c r="D204">
-        <v>0.8525245103205853</v>
+        <v>0.8902662856802421</v>
       </c>
       <c r="E204">
-        <v>1.039619243632622</v>
+        <v>1.029177912320374</v>
       </c>
       <c r="F204">
-        <v>1.041924675994446</v>
+        <v>1.042003136042284</v>
       </c>
       <c r="G204">
-        <v>1.019905620236503</v>
+        <v>1.025525933753636</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2">
-        <v>43462</v>
+        <v>43487</v>
       </c>
       <c r="B205">
-        <v>0.6873299365876057</v>
+        <v>0.7298461578285116</v>
       </c>
       <c r="C205">
-        <v>0.7492734993704737</v>
+        <v>0.8101556151161908</v>
       </c>
       <c r="D205">
-        <v>0.8533717186987133</v>
+        <v>0.8840110420157672</v>
       </c>
       <c r="E205">
-        <v>1.045977433937301</v>
+        <v>1.031512145306004</v>
       </c>
       <c r="F205">
-        <v>1.044560698276562</v>
+        <v>1.041948733518007</v>
       </c>
       <c r="G205">
-        <v>1.020991848786703</v>
+        <v>1.025319458907659</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="2">
-        <v>43467</v>
+        <v>43488</v>
       </c>
       <c r="B206">
-        <v>0.6813802309240282</v>
+        <v>0.7311053229780294</v>
       </c>
       <c r="C206">
-        <v>0.7390402222743757</v>
+        <v>0.8095721196435063</v>
       </c>
       <c r="D206">
-        <v>0.8408626803036444</v>
+        <v>0.8841010620067521</v>
       </c>
       <c r="E206">
-        <v>1.050387739350951</v>
+        <v>1.029761470566781</v>
       </c>
       <c r="F206">
-        <v>1.047910256908409</v>
+        <v>1.041831153868763</v>
       </c>
       <c r="G206">
-        <v>1.022085790202348</v>
+        <v>1.025224557425657</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="2">
-        <v>43468</v>
+        <v>43489</v>
       </c>
       <c r="B207">
-        <v>0.6782223500565627</v>
+        <v>0.7349144974550731</v>
       </c>
       <c r="C207">
-        <v>0.7378722066689785</v>
+        <v>0.8141414466842263</v>
       </c>
       <c r="D207">
-        <v>0.8386546518331601</v>
+        <v>0.8877928636733986</v>
       </c>
       <c r="E207">
-        <v>1.055937373663127</v>
+        <v>1.030709752717194</v>
       </c>
       <c r="F207">
-        <v>1.048457772424292</v>
+        <v>1.040998444263295</v>
       </c>
       <c r="G207">
-        <v>1.023247861929426</v>
+        <v>1.025024494841977</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2">
-        <v>43469</v>
+        <v>43490</v>
       </c>
       <c r="B208">
-        <v>0.6943948451495267</v>
+        <v>0.7315723938307008</v>
       </c>
       <c r="C208">
-        <v>0.7555502268860116</v>
+        <v>0.8207622220509696</v>
       </c>
       <c r="D208">
-        <v>0.8574481561674072</v>
+        <v>0.9024648128222514</v>
       </c>
       <c r="E208">
-        <v>1.056598919475174</v>
+        <v>1.029943832518784</v>
       </c>
       <c r="F208">
-        <v>1.04786521934178</v>
+        <v>1.040484252662869</v>
       </c>
       <c r="G208">
-        <v>1.024298097107548</v>
+        <v>1.024748767563187</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2">
-        <v>43472</v>
+        <v>43493</v>
       </c>
       <c r="B209">
-        <v>0.7071658782312298</v>
+        <v>0.72967129636751</v>
       </c>
       <c r="C209">
-        <v>0.760136701528112</v>
+        <v>0.8205838923908476</v>
       </c>
       <c r="D209">
-        <v>0.8644637241232561</v>
+        <v>0.9027191602149615</v>
       </c>
       <c r="E209">
-        <v>1.051784336065273</v>
+        <v>1.03745714494128</v>
       </c>
       <c r="F209">
-        <v>1.047353027407566</v>
+        <v>1.039609424974091</v>
       </c>
       <c r="G209">
-        <v>1.025174792813153</v>
+        <v>1.024605132887724</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="2">
-        <v>43473</v>
+        <v>43494</v>
       </c>
       <c r="B210">
-        <v>0.70534752050441</v>
+        <v>0.7207042508919428</v>
       </c>
       <c r="C210">
-        <v>0.7584942573561569</v>
+        <v>0.82321079473068</v>
       </c>
       <c r="D210">
-        <v>0.8657937609728054</v>
+        <v>0.9012369401452173</v>
       </c>
       <c r="E210">
-        <v>1.046528722114007</v>
+        <v>1.042818586330148</v>
       </c>
       <c r="F210">
-        <v>1.049521012232556</v>
+        <v>1.040994934423019</v>
       </c>
       <c r="G210">
-        <v>1.02629701473543</v>
+        <v>1.024605132887724</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2">
-        <v>43474</v>
+        <v>43495</v>
       </c>
       <c r="B211">
-        <v>0.7072398051331074</v>
+        <v>0.7134766890122968</v>
       </c>
       <c r="C211">
-        <v>0.7661527086080804</v>
+        <v>0.8166418249163063</v>
       </c>
       <c r="D211">
-        <v>0.8854304584795969</v>
+        <v>0.9048760391989598</v>
       </c>
       <c r="E211">
-        <v>1.043331250689111</v>
+        <v>1.045736377562186</v>
       </c>
       <c r="F211">
-        <v>1.048727997824066</v>
+        <v>1.041790790705589</v>
       </c>
       <c r="G211">
-        <v>1.026645379158039</v>
+        <v>1.024902661858325</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="2">
-        <v>43475</v>
+        <v>43496</v>
       </c>
       <c r="B212">
-        <v>0.7061001303359491</v>
+        <v>0.7075221158582372</v>
       </c>
       <c r="C212">
-        <v>0.7647118524017719</v>
+        <v>0.8251859265191083</v>
       </c>
       <c r="D212">
-        <v>0.887408281829958</v>
+        <v>0.9146839627258317</v>
       </c>
       <c r="E212">
-        <v>1.043184240508656</v>
+        <v>1.045663432781385</v>
       </c>
       <c r="F212">
-        <v>1.048168119054599</v>
+        <v>1.042297085165394</v>
       </c>
       <c r="G212">
-        <v>1.027135146113809</v>
+        <v>1.025313046645361</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="2">
-        <v>43476</v>
+        <v>43497</v>
       </c>
       <c r="B213">
-        <v>0.7115444846928037</v>
+        <v>0.7274774812929408</v>
       </c>
       <c r="C213">
-        <v>0.7702099277344481</v>
+        <v>0.8369810971591234</v>
       </c>
       <c r="D213">
-        <v>0.8922880950158263</v>
+        <v>0.9142999865461034</v>
       </c>
       <c r="E213">
-        <v>1.040832077621376</v>
+        <v>1.048289444890218</v>
       </c>
       <c r="F213">
-        <v>1.048089524085383</v>
+        <v>1.042375179111534</v>
       </c>
       <c r="G213">
-        <v>1.027351106346275</v>
+        <v>1.025727278789776</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2">
-        <v>43479</v>
+        <v>43507</v>
       </c>
       <c r="B214">
-        <v>0.7068730069893504</v>
+        <v>0.7458745603984226</v>
       </c>
       <c r="C214">
-        <v>0.7634918967859667</v>
+        <v>0.8522071356091526</v>
       </c>
       <c r="D214">
-        <v>0.8799433454492176</v>
+        <v>0.9212757174838793</v>
       </c>
       <c r="E214">
-        <v>1.041934653974788</v>
+        <v>1.048325917280619</v>
       </c>
       <c r="F214">
-        <v>1.047105762335877</v>
+        <v>1.043444802935628</v>
       </c>
       <c r="G214">
-        <v>1.027384528763204</v>
+        <v>1.026037632284971</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2">
-        <v>43480</v>
+        <v>43508</v>
       </c>
       <c r="B215">
-        <v>0.7169005654146483</v>
+        <v>0.7520779240403982</v>
       </c>
       <c r="C215">
-        <v>0.7784755818488212</v>
+        <v>0.8583575114055986</v>
       </c>
       <c r="D215">
-        <v>0.8977427518010721</v>
+        <v>0.9221755900483065</v>
       </c>
       <c r="E215">
-        <v>1.037597853651366</v>
+        <v>1.049675395725436</v>
       </c>
       <c r="F215">
-        <v>1.046604167476165</v>
+        <v>1.043638721610873</v>
       </c>
       <c r="G215">
-        <v>1.027168568530738</v>
+        <v>1.026572414960578</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="2">
-        <v>43481</v>
+        <v>43509</v>
       </c>
       <c r="B216">
-        <v>0.7151727570115426</v>
+        <v>0.7644316948307348</v>
       </c>
       <c r="C216">
-        <v>0.7786401622459593</v>
+        <v>0.8755467225513698</v>
       </c>
       <c r="D216">
-        <v>0.9001455177423583</v>
+        <v>0.9328555617787559</v>
       </c>
       <c r="E216">
-        <v>1.039986769083759</v>
+        <v>1.047012911226202</v>
       </c>
       <c r="F216">
-        <v>1.049927233421759</v>
+        <v>1.043931793273915</v>
       </c>
       <c r="G216">
-        <v>1.027451373597063</v>
+        <v>1.026814798475421</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2">
-        <v>43482</v>
+        <v>43510</v>
       </c>
       <c r="B217">
-        <v>0.7097066351975211</v>
+        <v>0.7677793549905854</v>
       </c>
       <c r="C217">
-        <v>0.7743508431976636</v>
+        <v>0.8768644650767435</v>
       </c>
       <c r="D217">
-        <v>0.8952446247271765</v>
+        <v>0.9307101398845192</v>
       </c>
       <c r="E217">
-        <v>1.040464552170238</v>
+        <v>1.044933984973375</v>
       </c>
       <c r="F217">
-        <v>1.050326389894629</v>
+        <v>1.043556240364389</v>
       </c>
       <c r="G217">
-        <v>1.028038836848472</v>
+        <v>1.027112327446022</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="2">
-        <v>43483</v>
+        <v>43511</v>
       </c>
       <c r="B218">
-        <v>0.716975712613367</v>
+        <v>0.7627928556777324</v>
       </c>
       <c r="C218">
-        <v>0.788476211500121</v>
+        <v>0.8605146327488932</v>
       </c>
       <c r="D218">
-        <v>0.9064597631229481</v>
+        <v>0.9133212237350311</v>
       </c>
       <c r="E218">
-        <v>1.041126097982285</v>
+        <v>1.051900211539865</v>
       </c>
       <c r="F218">
-        <v>1.049196918370734</v>
+        <v>1.04332195852597</v>
       </c>
       <c r="G218">
-        <v>1.028175097471338</v>
+        <v>1.027272634003458</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2">
-        <v>43486</v>
+        <v>43514</v>
       </c>
       <c r="B219">
-        <v>0.7212339054596143</v>
+        <v>0.7896038508688219</v>
       </c>
       <c r="C219">
-        <v>0.7928221742780232</v>
+        <v>0.8881030482026184</v>
       </c>
       <c r="D219">
-        <v>0.9099974938425165</v>
+        <v>0.9279263944178442</v>
       </c>
       <c r="E219">
-        <v>1.037083318019773</v>
+        <v>1.057626376832738</v>
       </c>
       <c r="F219">
-        <v>1.048688258794688</v>
+        <v>1.041907492894764</v>
       </c>
       <c r="G219">
-        <v>1.027944996985556</v>
+        <v>1.027399596796947</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="2">
-        <v>43487</v>
+        <v>43515</v>
       </c>
       <c r="B220">
-        <v>0.710452170605481</v>
+        <v>0.7906685033952804</v>
       </c>
       <c r="C220">
-        <v>0.7822899994698989</v>
+        <v>0.8865213035514129</v>
       </c>
       <c r="D220">
-        <v>0.9036036135511866</v>
+        <v>0.9240349120439222</v>
       </c>
       <c r="E220">
-        <v>1.039435480907053</v>
+        <v>1.06014297177037</v>
       </c>
       <c r="F220">
-        <v>1.0486335072431</v>
+        <v>1.041828521488555</v>
       </c>
       <c r="G220">
-        <v>1.027738035096109</v>
+        <v>1.027225183262457</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="2">
-        <v>43488</v>
+        <v>43516</v>
       </c>
       <c r="B221">
-        <v>0.7116778763299413</v>
+        <v>0.7907262202134971</v>
       </c>
       <c r="C221">
-        <v>0.7817265735496186</v>
+        <v>0.8896965199813505</v>
       </c>
       <c r="D221">
-        <v>0.9036956286791429</v>
+        <v>0.9333943723429784</v>
       </c>
       <c r="E221">
-        <v>1.037671358741593</v>
+        <v>1.066197388576847</v>
       </c>
       <c r="F221">
-        <v>1.048515173244506</v>
+        <v>1.041879414172557</v>
       </c>
       <c r="G221">
-        <v>1.027642909755618</v>
+        <v>1.027482956206814</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="2">
-        <v>43489</v>
+        <v>43517</v>
       </c>
       <c r="B222">
-        <v>0.7153858307343084</v>
+        <v>0.7892894492165523</v>
       </c>
       <c r="C222">
-        <v>0.786138736819943</v>
+        <v>0.8873197276316646</v>
       </c>
       <c r="D222">
-        <v>0.9074692527267445</v>
+        <v>0.9371873237449497</v>
       </c>
       <c r="E222">
-        <v>1.038626924914551</v>
+        <v>1.060288861331972</v>
       </c>
       <c r="F222">
-        <v>1.047677121269388</v>
+        <v>1.041572303148412</v>
       </c>
       <c r="G222">
-        <v>1.027442375254043</v>
+        <v>1.02751758242322</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="2">
-        <v>43490</v>
+        <v>43518</v>
       </c>
       <c r="B223">
-        <v>0.7121325358462621</v>
+        <v>0.8093056146690369</v>
       </c>
       <c r="C223">
-        <v>0.7925317880578797</v>
+        <v>0.907271978892202</v>
       </c>
       <c r="D223">
-        <v>0.92246638018175</v>
+        <v>0.9432883877157742</v>
       </c>
       <c r="E223">
-        <v>1.037855121467162</v>
+        <v>1.053723831059888</v>
       </c>
       <c r="F223">
-        <v>1.047159630797924</v>
+        <v>1.041939958917317</v>
       </c>
       <c r="G223">
-        <v>1.02716599757559</v>
+        <v>1.027314954934621</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2">
-        <v>43493</v>
+        <v>43521</v>
       </c>
       <c r="B224">
-        <v>0.7102819556866364</v>
+        <v>0.854545452697383</v>
       </c>
       <c r="C224">
-        <v>0.7923595921153727</v>
+        <v>0.9612334927793118</v>
       </c>
       <c r="D224">
-        <v>0.9227263647432845</v>
+        <v>0.9479694272469894</v>
       </c>
       <c r="E224">
-        <v>1.045426145760594</v>
+        <v>1.051608432416661</v>
       </c>
       <c r="F224">
-        <v>1.046279190524802</v>
+        <v>1.039028546408422</v>
       </c>
       <c r="G224">
-        <v>1.027022024087279</v>
+        <v>1.026900722790206</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2">
-        <v>43494</v>
+        <v>43522</v>
       </c>
       <c r="B225">
-        <v>0.7015531888722858</v>
+        <v>0.8535623694341219</v>
       </c>
       <c r="C225">
-        <v>0.7948961411334774</v>
+        <v>0.9496894630857095</v>
       </c>
       <c r="D225">
-        <v>0.921211293836427</v>
+        <v>0.9418402115698935</v>
       </c>
       <c r="E225">
-        <v>1.050828769892315</v>
+        <v>1.050404843533445</v>
       </c>
       <c r="F225">
-        <v>1.047673588911221</v>
+        <v>1.037542129051559</v>
       </c>
       <c r="G225">
-        <v>1.027022024087279</v>
+        <v>1.025688805215991</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2">
-        <v>43495</v>
+        <v>43523</v>
       </c>
       <c r="B226">
-        <v>0.6945176828680377</v>
+        <v>0.8500625482935781</v>
       </c>
       <c r="C226">
-        <v>0.7885531135759047</v>
+        <v>0.9480653461319687</v>
       </c>
       <c r="D226">
-        <v>0.9249310472091159</v>
+        <v>0.9413616325632755</v>
       </c>
       <c r="E226">
-        <v>1.053768973501415</v>
+        <v>1.05000364723904</v>
       </c>
       <c r="F226">
-        <v>1.048474551125585</v>
+        <v>1.03861438525586</v>
       </c>
       <c r="G226">
-        <v>1.027320254884494</v>
+        <v>1.025546452992988</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B227">
-        <v>0.6887213388344986</v>
+        <v>0.8513173596942606</v>
       </c>
       <c r="C227">
-        <v>0.7968033375003147</v>
+        <v>0.9457400758216792</v>
       </c>
       <c r="D227">
-        <v>0.934956346350297</v>
+        <v>0.9372940383524448</v>
       </c>
       <c r="E227">
-        <v>1.053695468411188</v>
+        <v>1.043183310234153</v>
       </c>
       <c r="F227">
-        <v>1.048984093791173</v>
+        <v>1.038077379693641</v>
       </c>
       <c r="G227">
-        <v>1.027731607708238</v>
+        <v>1.025191213661709</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B228">
-        <v>0.7081464362145987</v>
+        <v>0.8584212039562263</v>
       </c>
       <c r="C228">
-        <v>0.8081928086853061</v>
+        <v>0.9664478633818</v>
       </c>
       <c r="D228">
-        <v>0.9345638600045055</v>
+        <v>0.943153194056586</v>
       </c>
       <c r="E228">
-        <v>1.056341651659378</v>
+        <v>1.037603034502881</v>
       </c>
       <c r="F228">
-        <v>1.049062688760389</v>
+        <v>1.037373656718314</v>
       </c>
       <c r="G228">
-        <v>1.028146816964705</v>
+        <v>1.024648736271346</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2">
-        <v>43507</v>
+        <v>43528</v>
       </c>
       <c r="B229">
-        <v>0.7260546551496382</v>
+        <v>0.8738408779000795</v>
       </c>
       <c r="C229">
-        <v>0.8228951416553661</v>
+        <v>0.9778888232227028</v>
       </c>
       <c r="D229">
-        <v>0.9416941959199506</v>
+        <v>0.9479789202642207</v>
       </c>
       <c r="E229">
-        <v>1.056378404204491</v>
+        <v>1.023816470931505</v>
       </c>
       <c r="F229">
-        <v>1.050139174911779</v>
+        <v>1.036764699430438</v>
       </c>
       <c r="G229">
-        <v>1.028457902537662</v>
+        <v>1.023644575995568</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2">
-        <v>43508</v>
+        <v>43529</v>
       </c>
       <c r="B230">
-        <v>0.7320931786346548</v>
+        <v>0.8970565405267609</v>
       </c>
       <c r="C230">
-        <v>0.8288339728981161</v>
+        <v>0.9835356799788041</v>
       </c>
       <c r="D230">
-        <v>0.9426140125990476</v>
+        <v>0.948044716693995</v>
       </c>
       <c r="E230">
-        <v>1.0577382483737</v>
+        <v>1.019403311693049</v>
       </c>
       <c r="F230">
-        <v>1.050334337700505</v>
+        <v>1.036014471071455</v>
       </c>
       <c r="G230">
-        <v>1.028993946686104</v>
+        <v>1.022940509595309</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2">
-        <v>43509</v>
+        <v>43530</v>
       </c>
       <c r="B231">
-        <v>0.7441186763083981</v>
+        <v>0.9131063899683665</v>
       </c>
       <c r="C231">
-        <v>0.8454319544799445</v>
+        <v>0.9918032017893283</v>
       </c>
       <c r="D231">
-        <v>0.9535306873797756</v>
+        <v>0.9505325418993961</v>
       </c>
       <c r="E231">
-        <v>1.055055312580396</v>
+        <v>1.02578598001313</v>
       </c>
       <c r="F231">
-        <v>1.050629289607448</v>
+        <v>1.035996921870076</v>
       </c>
       <c r="G231">
-        <v>1.029236901947628</v>
+        <v>1.022481391614813</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2">
-        <v>43510</v>
+        <v>43531</v>
       </c>
       <c r="B232">
-        <v>0.7473773800797403</v>
+        <v>0.9247252920010217</v>
       </c>
       <c r="C232">
-        <v>0.846704372741624</v>
+        <v>0.9816893661758206</v>
       </c>
       <c r="D232">
-        <v>0.9513377159302295</v>
+        <v>0.9420821198365765</v>
       </c>
       <c r="E232">
-        <v>1.052960417508912</v>
+        <v>1.021226931213072</v>
       </c>
       <c r="F232">
-        <v>1.05025132728358</v>
+        <v>1.037527212230387</v>
       </c>
       <c r="G232">
-        <v>1.029535132744842</v>
+        <v>1.022723775129656</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2">
-        <v>43511</v>
+        <v>43532</v>
       </c>
       <c r="B233">
-        <v>0.7425233855460436</v>
+        <v>0.8886560245007978</v>
       </c>
       <c r="C233">
-        <v>0.83091689921871</v>
+        <v>0.9427009971666752</v>
       </c>
       <c r="D233">
-        <v>0.9335634046132723</v>
+        <v>0.9240444050611534</v>
       </c>
       <c r="E233">
-        <v>1.059980153625639</v>
+        <v>1.030490918374791</v>
       </c>
       <c r="F233">
-        <v>1.050015542375934</v>
+        <v>1.038564370031928</v>
       </c>
       <c r="G233">
-        <v>1.029695817441617</v>
+        <v>1.023252145542965</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2">
-        <v>43514</v>
+        <v>43535</v>
       </c>
       <c r="B234">
-        <v>0.7686219400500165</v>
+        <v>0.9243467869028666</v>
       </c>
       <c r="C234">
-        <v>0.8575564004552407</v>
+        <v>0.961355016749174</v>
       </c>
       <c r="D234">
-        <v>0.9484922735733575</v>
+        <v>0.933042476014583</v>
       </c>
       <c r="E234">
-        <v>1.065750303208497</v>
+        <v>1.033992267853235</v>
       </c>
       <c r="F234">
-        <v>1.048592002034637</v>
+        <v>1.038784612509244</v>
       </c>
       <c r="G234">
-        <v>1.029823079721463</v>
+        <v>1.023594560349648</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="2">
-        <v>43515</v>
+        <v>43536</v>
       </c>
       <c r="B235">
-        <v>0.7696583018781221</v>
+        <v>0.9403763583781073</v>
       </c>
       <c r="C235">
-        <v>0.8560290605229296</v>
+        <v>0.9679008931431881</v>
       </c>
       <c r="D235">
-        <v>0.9445145432419257</v>
+        <v>0.9467114387911529</v>
       </c>
       <c r="E235">
-        <v>1.068286228821346</v>
+        <v>1.031439200525203</v>
       </c>
       <c r="F235">
-        <v>1.04851252397588</v>
+        <v>1.03850207036703</v>
       </c>
       <c r="G235">
-        <v>1.029648254771372</v>
+        <v>1.023391932861049</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2">
-        <v>43516</v>
+        <v>43537</v>
       </c>
       <c r="B236">
-        <v>0.7697144850043094</v>
+        <v>0.9190076339343588</v>
       </c>
       <c r="C236">
-        <v>0.8590950641559927</v>
+        <v>0.9598703108565116</v>
       </c>
       <c r="D236">
-        <v>0.954081439745652</v>
+        <v>0.9429986870175137</v>
       </c>
       <c r="E236">
-        <v>1.074387151310228</v>
+        <v>1.038952512947699</v>
       </c>
       <c r="F236">
-        <v>1.048563743169302</v>
+        <v>1.038471359264616</v>
       </c>
       <c r="G236">
-        <v>1.029906635763786</v>
+        <v>1.023248298185586</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2">
-        <v>43517</v>
+        <v>43538</v>
       </c>
       <c r="B237">
-        <v>0.7683158929003522</v>
+        <v>0.8976011148849629</v>
       </c>
       <c r="C237">
-        <v>0.8568000224982129</v>
+        <v>0.9532442776128113</v>
       </c>
       <c r="D237">
-        <v>0.9579584553370298</v>
+        <v>0.9444370428007415</v>
       </c>
       <c r="E237">
-        <v>1.068433239001801</v>
+        <v>1.036326500838865</v>
       </c>
       <c r="F237">
-        <v>1.04825466182969</v>
+        <v>1.03795716766419</v>
       </c>
       <c r="G237">
-        <v>1.02994134365829</v>
+        <v>1.023130312559314</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2">
-        <v>43518</v>
+        <v>43539</v>
       </c>
       <c r="B238">
-        <v>0.7878001746772489</v>
+        <v>0.9078512795989704</v>
       </c>
       <c r="C238">
-        <v>0.8760660083616701</v>
+        <v>0.965234092795859</v>
       </c>
       <c r="D238">
-        <v>0.9641947388092057</v>
+        <v>0.9497030486006476</v>
       </c>
       <c r="E238">
-        <v>1.061817780881326</v>
+        <v>1.036873586694872</v>
       </c>
       <c r="F238">
-        <v>1.048624676347682</v>
+        <v>1.038245852026886</v>
       </c>
       <c r="G238">
-        <v>1.029738238201566</v>
+        <v>1.022857150185443</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2">
-        <v>43521</v>
+        <v>43542</v>
       </c>
       <c r="B239">
-        <v>0.8318378677997368</v>
+        <v>0.9319365400280285</v>
       </c>
       <c r="C239">
-        <v>0.9281714951132344</v>
+        <v>0.9927459081990156</v>
       </c>
       <c r="D239">
-        <v>0.9689795254629301</v>
+        <v>0.9626904782091065</v>
       </c>
       <c r="E239">
-        <v>1.059686133264729</v>
+        <v>1.036837114304472</v>
       </c>
       <c r="F239">
-        <v>1.045694585248165</v>
+        <v>1.038201979023437</v>
       </c>
       <c r="G239">
-        <v>1.029323028945099</v>
+        <v>1.022845608113307</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2">
-        <v>43522</v>
+        <v>43543</v>
       </c>
       <c r="B240">
-        <v>0.8308809077187962</v>
+        <v>0.9354935867077376</v>
       </c>
       <c r="C240">
-        <v>0.9170245267846948</v>
+        <v>0.9881619415793176</v>
       </c>
       <c r="D240">
-        <v>0.962714466350739</v>
+        <v>0.9645651854395449</v>
       </c>
       <c r="E240">
-        <v>1.058473299275975</v>
+        <v>1.040192574221315</v>
       </c>
       <c r="F240">
-        <v>1.044198631564445</v>
+        <v>1.038319558672681</v>
       </c>
       <c r="G240">
-        <v>1.028108252637479</v>
+        <v>1.022794310014928</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="2">
-        <v>43523</v>
+        <v>43544</v>
       </c>
       <c r="B241">
-        <v>0.8274740862957333</v>
+        <v>0.9344103163992952</v>
       </c>
       <c r="C241">
-        <v>0.9154562719615783</v>
+        <v>0.9885426479544676</v>
       </c>
       <c r="D241">
-        <v>0.9622252804704771</v>
+        <v>0.9598085291159025</v>
       </c>
       <c r="E241">
-        <v>1.058069021279724</v>
+        <v>1.037967758406886</v>
       </c>
       <c r="F241">
-        <v>1.04527776698446</v>
+        <v>1.037941373382948</v>
       </c>
       <c r="G241">
-        <v>1.027965564626743</v>
+        <v>1.022662217411601</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="2">
-        <v>43524</v>
+        <v>43545</v>
       </c>
       <c r="B242">
-        <v>0.828695553962245</v>
+        <v>0.9468942930789224</v>
       </c>
       <c r="C242">
-        <v>0.9132109802227277</v>
+        <v>0.9889167819834215</v>
       </c>
       <c r="D242">
-        <v>0.9580675350887164</v>
+        <v>0.9516442069517042</v>
       </c>
       <c r="E242">
-        <v>1.051196295343453</v>
+        <v>1.044933984973376</v>
       </c>
       <c r="F242">
-        <v>1.044737316184911</v>
+        <v>1.038573144632618</v>
       </c>
       <c r="G242">
-        <v>1.027609487338689</v>
+        <v>1.022778920585414</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="2">
-        <v>43525</v>
+        <v>43546</v>
       </c>
       <c r="B243">
-        <v>0.8356106298606685</v>
+        <v>0.9524274843320951</v>
       </c>
       <c r="C243">
-        <v>0.9332065154225997</v>
+        <v>0.9881203682678886</v>
       </c>
       <c r="D243">
-        <v>0.9640565488170388</v>
+        <v>0.9530125108146749</v>
       </c>
       <c r="E243">
-        <v>1.045573155941049</v>
+        <v>1.044933984973376</v>
       </c>
       <c r="F243">
-        <v>1.04402907837243</v>
+        <v>1.039859501093751</v>
       </c>
       <c r="G243">
-        <v>1.027065730324802</v>
+        <v>1.022894341306768</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="2">
-        <v>43528</v>
+        <v>43549</v>
       </c>
       <c r="B244">
-        <v>0.8356106298606685</v>
+        <v>0.9524274843320951</v>
       </c>
       <c r="C244">
-        <v>0.9332065154225997</v>
+        <v>0.9881203682678886</v>
       </c>
       <c r="D244">
-        <v>0.9640565488170388</v>
+        <v>0.9530125108146749</v>
       </c>
       <c r="E244">
-        <v>1.045573155941049</v>
+        <v>1.044933984973376</v>
       </c>
       <c r="F244">
-        <v>1.04402907837243</v>
+        <v>1.039859501093751</v>
       </c>
       <c r="G244">
-        <v>1.027065730324802</v>
+        <v>1.022894341306768</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/nav.xlsx
+++ b/correlation/data/nav.xlsx
@@ -423,7 +423,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>43185</v>
+        <v>43192</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -446,5568 +446,5568 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>43186</v>
+        <v>43193</v>
       </c>
       <c r="B3">
-        <v>1.022330530241885</v>
+        <v>0.9898308291316044</v>
       </c>
       <c r="C3">
-        <v>1.008602273310115</v>
+        <v>0.9937124234827744</v>
       </c>
       <c r="D3">
-        <v>1.007923723279202</v>
+        <v>1.002881696904768</v>
       </c>
       <c r="E3">
-        <v>0.9997082208767963</v>
+        <v>1.005907546891154</v>
       </c>
       <c r="F3">
-        <v>0.9992550364014309</v>
+        <v>1.000131734717894</v>
       </c>
       <c r="G3">
-        <v>0.9998307162753477</v>
+        <v>1.000494538298532</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>43187</v>
+        <v>43194</v>
       </c>
       <c r="B4">
-        <v>1.011923274816013</v>
+        <v>0.9829665942835798</v>
       </c>
       <c r="C4">
-        <v>0.9904179058546203</v>
+        <v>0.9917527479155791</v>
       </c>
       <c r="D4">
-        <v>0.9827737745251282</v>
+        <v>0.980903108922959</v>
       </c>
       <c r="E4">
-        <v>0.9939455831935224</v>
+        <v>1.004873726185202</v>
       </c>
       <c r="F4">
-        <v>0.9991874719761189</v>
+        <v>1.000673603524167</v>
       </c>
       <c r="G4">
-        <v>1.000255208039438</v>
+        <v>1.000976264724045</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>43188</v>
+        <v>43199</v>
       </c>
       <c r="B5">
-        <v>1.022344455461895</v>
+        <v>0.9842673206092907</v>
       </c>
       <c r="C5">
-        <v>1.003648760416846</v>
+        <v>0.9912553616696247</v>
       </c>
       <c r="D5">
-        <v>0.9850930168383212</v>
+        <v>1.004525912343512</v>
       </c>
       <c r="E5">
-        <v>0.9843898169086001</v>
+        <v>1.002436863092601</v>
       </c>
       <c r="F5">
-        <v>0.998869831431146</v>
+        <v>1.00334606183452</v>
       </c>
       <c r="G5">
-        <v>1.000442446098523</v>
+        <v>1.001901281956014</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>43189</v>
+        <v>43200</v>
       </c>
       <c r="B6">
-        <v>1.035876821637312</v>
+        <v>0.9904896699657276</v>
       </c>
       <c r="C6">
-        <v>1.004795158010801</v>
+        <v>1.010356274734726</v>
       </c>
       <c r="D6">
-        <v>0.9850930168383212</v>
+        <v>1.021112949093787</v>
       </c>
       <c r="E6">
-        <v>0.9867969946750309</v>
+        <v>1.004172204991877</v>
       </c>
       <c r="F6">
-        <v>0.9988593019103182</v>
+        <v>1.003295124410267</v>
       </c>
       <c r="G6">
-        <v>1.000332155187007</v>
+        <v>1.002506002362509</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>43192</v>
+        <v>43201</v>
       </c>
       <c r="B7">
-        <v>1.037100953508264</v>
+        <v>0.9942254481004642</v>
       </c>
       <c r="C7">
-        <v>1.001810848907431</v>
+        <v>1.013230144832711</v>
       </c>
       <c r="D7">
-        <v>0.9850930168383212</v>
+        <v>1.02672780525152</v>
       </c>
       <c r="E7">
-        <v>0.9878182216062439</v>
+        <v>1.00760596662236</v>
       </c>
       <c r="F7">
-        <v>0.999121662470945</v>
+        <v>1.003739509525298</v>
       </c>
       <c r="G7">
-        <v>1.000987488393805</v>
+        <v>1.002593123099038</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>43193</v>
+        <v>43202</v>
       </c>
       <c r="B8">
-        <v>1.026554496704263</v>
+        <v>0.9884629184861943</v>
       </c>
       <c r="C8">
-        <v>0.9955118865391389</v>
+        <v>1.003014341256258</v>
       </c>
       <c r="D8">
-        <v>0.9879317563358523</v>
+        <v>1.024520343012317</v>
       </c>
       <c r="E8">
-        <v>0.9936538040703187</v>
+        <v>1.011962782454586</v>
       </c>
       <c r="F8">
-        <v>0.9992532814812928</v>
+        <v>1.004255909619445</v>
       </c>
       <c r="G8">
-        <v>1.001482515043167</v>
+        <v>1.002981322851513</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>43194</v>
+        <v>43203</v>
       </c>
       <c r="B9">
-        <v>1.019435592198272</v>
+        <v>0.9845184491604835</v>
       </c>
       <c r="C9">
-        <v>0.9935486622955838</v>
+        <v>0.9959416184371636</v>
       </c>
       <c r="D9">
-        <v>0.9662808027950059</v>
+        <v>1.023759378308452</v>
       </c>
       <c r="E9">
-        <v>0.9926325771391057</v>
+        <v>1.004652193176783</v>
       </c>
       <c r="F9">
-        <v>0.999794674343857</v>
+        <v>1.005077934259106</v>
       </c>
       <c r="G9">
-        <v>1.001964717167934</v>
+        <v>1.003205530629345</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>43199</v>
+        <v>43206</v>
       </c>
       <c r="B10">
-        <v>1.02078457671092</v>
+        <v>0.9821039626464984</v>
       </c>
       <c r="C10">
-        <v>0.9930503753582893</v>
+        <v>0.9799183101041803</v>
       </c>
       <c r="D10">
-        <v>0.9895514614827371</v>
+        <v>1.00738401601947</v>
       </c>
       <c r="E10">
-        <v>0.9902253993726748</v>
+        <v>1.00756904445429</v>
       </c>
       <c r="F10">
-        <v>1.002464785333781</v>
+        <v>1.006595518209251</v>
       </c>
       <c r="G10">
-        <v>1.002890647843684</v>
+        <v>1.003770534229481</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>43200</v>
+        <v>43207</v>
       </c>
       <c r="B11">
-        <v>1.027237781161542</v>
+        <v>0.9622495178916597</v>
       </c>
       <c r="C11">
-        <v>1.012185877290946</v>
+        <v>0.9644248558929284</v>
       </c>
       <c r="D11">
-        <v>1.005891235555474</v>
+        <v>0.9989821681712054</v>
       </c>
       <c r="E11">
-        <v>0.9919396017214968</v>
+        <v>1.009821296706543</v>
       </c>
       <c r="F11">
-        <v>1.00241389264978</v>
+        <v>1.007364848961755</v>
       </c>
       <c r="G11">
-        <v>1.003495965404562</v>
+        <v>1.004177951791484</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>43201</v>
+        <v>43208</v>
       </c>
       <c r="B12">
-        <v>1.031112160227173</v>
+        <v>0.9752846480219535</v>
       </c>
       <c r="C12">
-        <v>1.015064951533457</v>
+        <v>0.968963360671096</v>
       </c>
       <c r="D12">
-        <v>1.011422391147008</v>
+        <v>1.006342590961866</v>
       </c>
       <c r="E12">
-        <v>0.9953315340287401</v>
+        <v>1.008122876975336</v>
       </c>
       <c r="F12">
-        <v>1.002857887444687</v>
+        <v>1.01657661866839</v>
       </c>
       <c r="G12">
-        <v>1.003583172171807</v>
+        <v>1.008348216459157</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>43202</v>
+        <v>43209</v>
       </c>
       <c r="B13">
-        <v>1.025135835269594</v>
+        <v>0.9808507864191692</v>
       </c>
       <c r="C13">
-        <v>1.00483064868026</v>
+        <v>0.9806849841914632</v>
       </c>
       <c r="D13">
-        <v>1.009247835510235</v>
+        <v>1.020438382129226</v>
       </c>
       <c r="E13">
-        <v>0.9996352760959952</v>
+        <v>1.011999704622655</v>
       </c>
       <c r="F13">
-        <v>1.00337383396525</v>
+        <v>1.015327773542751</v>
       </c>
       <c r="G13">
-        <v>1.003971755267032</v>
+        <v>1.008418681760761</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>43203</v>
+        <v>43210</v>
       </c>
       <c r="B14">
-        <v>1.021045022370815</v>
+        <v>0.9606125922787985</v>
       </c>
       <c r="C14">
-        <v>0.9977451182287757</v>
+        <v>0.9675669590121883</v>
       </c>
       <c r="D14">
-        <v>1.008498214494397</v>
+        <v>1.010798055917946</v>
       </c>
       <c r="E14">
-        <v>0.992413742796703</v>
+        <v>1.00753212228622</v>
       </c>
       <c r="F14">
-        <v>1.004195136589821</v>
+        <v>1.015586851821277</v>
       </c>
       <c r="G14">
-        <v>1.004196184447442</v>
+        <v>1.008423806509969</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>43206</v>
+        <v>43213</v>
       </c>
       <c r="B15">
-        <v>1.018540956104928</v>
+        <v>0.9513156741426225</v>
       </c>
       <c r="C15">
-        <v>0.9816927941054041</v>
+        <v>0.9689746035092215</v>
       </c>
       <c r="D15">
-        <v>0.9923669594553232</v>
+        <v>1.005350678454863</v>
       </c>
       <c r="E15">
-        <v>0.9952950616383397</v>
+        <v>1.002252252252252</v>
       </c>
       <c r="F15">
-        <v>1.005711387589029</v>
+        <v>1.012765972395429</v>
       </c>
       <c r="G15">
-        <v>1.004761745982076</v>
+        <v>1.0080394503194</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>43207</v>
+        <v>43214</v>
       </c>
       <c r="B16">
-        <v>0.9979498925183076</v>
+        <v>0.97308519053411</v>
       </c>
       <c r="C16">
-        <v>0.9661712835895213</v>
+        <v>0.98882654845204</v>
       </c>
       <c r="D16">
-        <v>0.9840903578114599</v>
+        <v>1.018039183368568</v>
       </c>
       <c r="E16">
-        <v>0.9975198774527682</v>
+        <v>1.000923054201742</v>
       </c>
       <c r="F16">
-        <v>1.006480042609461</v>
+        <v>1.013501930352733</v>
       </c>
       <c r="G16">
-        <v>1.005169565864193</v>
+        <v>1.007698654497095</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>43208</v>
+        <v>43215</v>
       </c>
       <c r="B17">
-        <v>1.01146863840554</v>
+        <v>0.9734493383675782</v>
       </c>
       <c r="C17">
-        <v>0.9707180069141078</v>
+        <v>0.98502222415806</v>
       </c>
       <c r="D17">
-        <v>0.991341058903517</v>
+        <v>1.007801383560105</v>
       </c>
       <c r="E17">
-        <v>0.9958421474943467</v>
+        <v>0.9987815684536991</v>
       </c>
       <c r="F17">
-        <v>1.015683721273054</v>
+        <v>1.012476156016061</v>
       </c>
       <c r="G17">
-        <v>1.009343948619824</v>
+        <v>1.007798587106643</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43209</v>
+        <v>43216</v>
       </c>
       <c r="B18">
-        <v>1.017241285844651</v>
+        <v>0.9552451482810044</v>
       </c>
       <c r="C18">
-        <v>0.9824608565236203</v>
+        <v>0.9661879232931769</v>
       </c>
       <c r="D18">
-        <v>1.005226724349294</v>
+        <v>0.9971521975929589</v>
       </c>
       <c r="E18">
-        <v>0.9996717484863956</v>
+        <v>1.001587653226997</v>
       </c>
       <c r="F18">
-        <v>1.014435973054956</v>
+        <v>1.011834168824189</v>
       </c>
       <c r="G18">
-        <v>1.009414483505096</v>
+        <v>1.007214365696979</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>43210</v>
+        <v>43217</v>
       </c>
       <c r="B19">
-        <v>0.9962522354043872</v>
+        <v>0.9573697931784704</v>
       </c>
       <c r="C19">
-        <v>0.9693190765827817</v>
+        <v>0.9665435777422573</v>
       </c>
       <c r="D19">
-        <v>0.9957301063185193</v>
+        <v>1.006223627920825</v>
       </c>
       <c r="E19">
-        <v>0.9952585892479392</v>
+        <v>0.9980062029242354</v>
       </c>
       <c r="F19">
-        <v>1.014694823775307</v>
+        <v>1.01107976800638</v>
       </c>
       <c r="G19">
-        <v>1.009419613314934</v>
+        <v>1.006709577900031</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>43213</v>
+        <v>43222</v>
       </c>
       <c r="B20">
-        <v>0.9866103927406709</v>
+        <v>0.9564452043022401</v>
       </c>
       <c r="C20">
-        <v>0.9707292701113145</v>
+        <v>0.9682852142863078</v>
       </c>
       <c r="D20">
-        <v>0.9903639328195536</v>
+        <v>1.020951451781089</v>
       </c>
       <c r="E20">
-        <v>0.9900430374206723</v>
+        <v>0.9963077831930286</v>
       </c>
       <c r="F20">
-        <v>1.011876422033724</v>
+        <v>1.009986369847855</v>
       </c>
       <c r="G20">
-        <v>1.009034877577087</v>
+        <v>1.005628255817231</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>43214</v>
+        <v>43223</v>
       </c>
       <c r="B21">
-        <v>1.009187578947696</v>
+        <v>0.9654753943187058</v>
       </c>
       <c r="C21">
-        <v>0.9906171639269431</v>
+        <v>0.9758372113192277</v>
       </c>
       <c r="D21">
-        <v>1.002863290404163</v>
+        <v>1.007310245642065</v>
       </c>
       <c r="E21">
-        <v>0.9887300313662555</v>
+        <v>0.9946832077979614</v>
       </c>
       <c r="F21">
-        <v>1.012611733571534</v>
+        <v>1.010263890986886</v>
       </c>
       <c r="G21">
-        <v>1.008693745222864</v>
+        <v>1.005205464007605</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>43215</v>
+        <v>43224</v>
       </c>
       <c r="B22">
-        <v>1.009565237013004</v>
+        <v>0.9652611820239001</v>
       </c>
       <c r="C22">
-        <v>0.9868059505764718</v>
+        <v>0.9711028701936643</v>
       </c>
       <c r="D22">
-        <v>0.9927781053050581</v>
+        <v>0.994454594332707</v>
       </c>
       <c r="E22">
-        <v>0.9866146327230284</v>
+        <v>0.9949785851425191</v>
       </c>
       <c r="F22">
-        <v>1.011586860210959</v>
+        <v>1.01091290403038</v>
       </c>
       <c r="G22">
-        <v>1.008793776514704</v>
+        <v>1.004955632483735</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>43216</v>
+        <v>43227</v>
       </c>
       <c r="B23">
-        <v>0.9906856541163728</v>
+        <v>0.9832041977638485</v>
       </c>
       <c r="C23">
-        <v>0.9679375436384453</v>
+        <v>0.9864336762982113</v>
       </c>
       <c r="D23">
-        <v>0.9822876665738096</v>
+        <v>0.996706252338554</v>
       </c>
       <c r="E23">
-        <v>0.9893865343934638</v>
+        <v>0.9968616157140742</v>
       </c>
       <c r="F23">
-        <v>1.01094543690053</v>
+        <v>1.010336784197454</v>
       </c>
       <c r="G23">
-        <v>1.008208978193178</v>
+        <v>1.004922321613886</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>43217</v>
+        <v>43228</v>
       </c>
       <c r="B24">
-        <v>0.9928891253654013</v>
+        <v>0.9869078130185734</v>
       </c>
       <c r="C24">
-        <v>0.9682938421239963</v>
+        <v>0.9978795029657037</v>
       </c>
       <c r="D24">
-        <v>0.9912238692425258</v>
+        <v>1.010282327874104</v>
       </c>
       <c r="E24">
-        <v>0.9858487125246187</v>
+        <v>0.9981908137645837</v>
       </c>
       <c r="F24">
-        <v>1.010191698701271</v>
+        <v>1.008853451273963</v>
       </c>
       <c r="G24">
-        <v>1.00770369192414</v>
+        <v>1.003999866756521</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>43222</v>
+        <v>43229</v>
       </c>
       <c r="B25">
-        <v>0.9919302333602598</v>
+        <v>0.9848526882924276</v>
       </c>
       <c r="C25">
-        <v>0.9700386325086797</v>
+        <v>0.9960627683793455</v>
       </c>
       <c r="D25">
-        <v>1.005732145680497</v>
+        <v>1.014712870405385</v>
       </c>
       <c r="E25">
-        <v>0.9841709825661971</v>
+        <v>0.9954585733274252</v>
       </c>
       <c r="F25">
-        <v>1.009099260915384</v>
+        <v>1.008084998752911</v>
       </c>
       <c r="G25">
-        <v>1.006621302048332</v>
+        <v>1.003199124692835</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>43223</v>
+        <v>43230</v>
       </c>
       <c r="B26">
-        <v>1.001295452036697</v>
+        <v>0.9867048226123245</v>
       </c>
       <c r="C26">
-        <v>0.9776043050671757</v>
+        <v>1.001579039891982</v>
       </c>
       <c r="D26">
-        <v>0.9922942887716918</v>
+        <v>1.023787291424227</v>
       </c>
       <c r="E26">
-        <v>0.9825661973885765</v>
+        <v>0.997267759562841</v>
       </c>
       <c r="F26">
-        <v>1.009376538297183</v>
+        <v>1.008480202906595</v>
       </c>
       <c r="G26">
-        <v>1.006198092736702</v>
+        <v>1.002555968667283</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>43224</v>
+        <v>43231</v>
       </c>
       <c r="B27">
-        <v>1.001073292261501</v>
+        <v>0.9786634165550986</v>
       </c>
       <c r="C27">
-        <v>0.9728613907651575</v>
+        <v>0.9963774392102701</v>
       </c>
       <c r="D27">
-        <v>0.9796302764399352</v>
+        <v>1.034182933256417</v>
       </c>
       <c r="E27">
-        <v>0.9828579765117804</v>
+        <v>0.9998153891596508</v>
       </c>
       <c r="F27">
-        <v>1.010024981288164</v>
+        <v>1.008993090074931</v>
       </c>
       <c r="G27">
-        <v>1.005948014507102</v>
+        <v>1.002083210552884</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>43227</v>
+        <v>43234</v>
       </c>
       <c r="B28">
-        <v>1.019682010994215</v>
+        <v>0.9747776865470728</v>
       </c>
       <c r="C28">
-        <v>0.9882199586431891</v>
+        <v>1.005756333120303</v>
       </c>
       <c r="D28">
-        <v>0.9818483690178031</v>
+        <v>1.048106925842162</v>
       </c>
       <c r="E28">
-        <v>0.9847180684222041</v>
+        <v>0.9988184906217685</v>
       </c>
       <c r="F28">
-        <v>1.009449367482909</v>
+        <v>1.008546948496995</v>
       </c>
       <c r="G28">
-        <v>1.005914670743155</v>
+        <v>1.001815442406787</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>43228</v>
+        <v>43235</v>
       </c>
       <c r="B29">
-        <v>1.023523033906318</v>
+        <v>0.9834375869104234</v>
       </c>
       <c r="C29">
-        <v>0.999686511973397</v>
+        <v>1.009565056785723</v>
       </c>
       <c r="D29">
-        <v>0.9952220662239428</v>
+        <v>1.035178833351388</v>
       </c>
       <c r="E29">
-        <v>0.986031074476621</v>
+        <v>0.9949416629744492</v>
       </c>
       <c r="F29">
-        <v>1.007967337426392</v>
+        <v>1.007605484379776</v>
       </c>
       <c r="G29">
-        <v>1.004991304972324</v>
+        <v>1.001327310044765</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>43229</v>
+        <v>43236</v>
       </c>
       <c r="B30">
-        <v>1.021391662093254</v>
+        <v>0.9807423571670021</v>
       </c>
       <c r="C30">
-        <v>0.9978664875551979</v>
+        <v>1.001524420795093</v>
       </c>
       <c r="D30">
-        <v>0.9995865627323129</v>
+        <v>1.033788826645595</v>
       </c>
       <c r="E30">
-        <v>0.9833321175869864</v>
+        <v>0.9861911091419281</v>
       </c>
       <c r="F30">
-        <v>1.007199559866029</v>
+        <v>1.007539617020828</v>
       </c>
       <c r="G30">
-        <v>1.004189772185144</v>
+        <v>1.000964734038328</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>43230</v>
+        <v>43237</v>
       </c>
       <c r="B31">
-        <v>1.023312512362444</v>
+        <v>0.9757944190526303</v>
       </c>
       <c r="C31">
-        <v>1.003392748202077</v>
+        <v>0.9941166253816098</v>
       </c>
       <c r="D31">
-        <v>1.008525711509825</v>
+        <v>1.028204541995615</v>
       </c>
       <c r="E31">
-        <v>0.9851192647166093</v>
+        <v>0.9802466400827049</v>
       </c>
       <c r="F31">
-        <v>1.007594416897073</v>
+        <v>1.006896751597503</v>
       </c>
       <c r="G31">
-        <v>1.003545981050482</v>
+        <v>1.000766150006534</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>43231</v>
+        <v>43238</v>
       </c>
       <c r="B32">
-        <v>1.014972762472948</v>
+        <v>0.9792853247982078</v>
       </c>
       <c r="C32">
-        <v>0.998181728207453</v>
+        <v>1.004153624095424</v>
       </c>
       <c r="D32">
-        <v>1.018766385684268</v>
+        <v>1.031718936191282</v>
       </c>
       <c r="E32">
-        <v>0.9876358596542414</v>
+        <v>0.9813912272928659</v>
       </c>
       <c r="F32">
-        <v>1.008106853577361</v>
+        <v>1.007526443549039</v>
       </c>
       <c r="G32">
-        <v>1.003072756092931</v>
+        <v>1.000677748082703</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>43234</v>
+        <v>43241</v>
       </c>
       <c r="B33">
-        <v>1.010942868176549</v>
+        <v>0.991871056678182</v>
       </c>
       <c r="C33">
-        <v>1.007577605877275</v>
+        <v>1.008830438937123</v>
       </c>
       <c r="D33">
-        <v>1.032482813546994</v>
+        <v>1.037914318697335</v>
       </c>
       <c r="E33">
-        <v>0.9866511051134286</v>
+        <v>0.9796189632255198</v>
       </c>
       <c r="F33">
-        <v>1.007661103862316</v>
+        <v>1.008065677660954</v>
       </c>
       <c r="G33">
-        <v>1.002804723528898</v>
+        <v>1.000693122330326</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>43235</v>
+        <v>43242</v>
       </c>
       <c r="B34">
-        <v>1.019924059100667</v>
+        <v>0.9952535985100993</v>
       </c>
       <c r="C34">
-        <v>1.011393226565784</v>
+        <v>1.004962593894099</v>
       </c>
       <c r="D34">
-        <v>1.019747439913293</v>
+        <v>1.037914318697335</v>
       </c>
       <c r="E34">
-        <v>0.9828215041213797</v>
+        <v>0.9821665928223297</v>
       </c>
       <c r="F34">
-        <v>1.006720466668363</v>
+        <v>1.009164345208194</v>
       </c>
       <c r="G34">
-        <v>1.002316109141834</v>
+        <v>1.000526567981079</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>43236</v>
+        <v>43243</v>
       </c>
       <c r="B35">
-        <v>1.017128833763841</v>
+        <v>0.9823394916291738</v>
       </c>
       <c r="C35">
-        <v>1.003338030198256</v>
+        <v>0.9916807114241565</v>
       </c>
       <c r="D35">
-        <v>1.018378154014057</v>
+        <v>1.019016142420692</v>
       </c>
       <c r="E35">
-        <v>0.974177547596469</v>
+        <v>0.9839388568896758</v>
       </c>
       <c r="F35">
-        <v>1.006654657163189</v>
+        <v>1.010039941966466</v>
       </c>
       <c r="G35">
-        <v>1.001953175095799</v>
+        <v>1.000552191727117</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>43237</v>
+        <v>43244</v>
       </c>
       <c r="B36">
-        <v>1.011997322427526</v>
+        <v>0.9788722547577133</v>
       </c>
       <c r="C36">
-        <v>0.9959168203865415</v>
+        <v>0.9846403021169287</v>
       </c>
       <c r="D36">
-        <v>1.012877114201325</v>
+        <v>1.022165340018303</v>
       </c>
       <c r="E36">
-        <v>0.9683054927419938</v>
+        <v>0.9882218283857619</v>
       </c>
       <c r="F36">
-        <v>1.006012356392691</v>
+        <v>1.010055750132613</v>
       </c>
       <c r="G36">
-        <v>1.001754394964578</v>
+        <v>1.000816116311308</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>43238</v>
+        <v>43245</v>
       </c>
       <c r="B37">
-        <v>1.015617744104872</v>
+        <v>0.9666501806724059</v>
       </c>
       <c r="C37">
-        <v>1.005971994588511</v>
+        <v>0.9818825908613632</v>
       </c>
       <c r="D37">
-        <v>1.016339119381893</v>
+        <v>1.016437502201481</v>
       </c>
       <c r="E37">
-        <v>0.9694361368444083</v>
+        <v>0.9927263328902666</v>
       </c>
       <c r="F37">
-        <v>1.006641495262154</v>
+        <v>1.011614610961032</v>
       </c>
       <c r="G37">
-        <v>1.001665905744874</v>
+        <v>1.000726433200175</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>43241</v>
+        <v>43248</v>
       </c>
       <c r="B38">
-        <v>1.028670418638192</v>
+        <v>0.962315771137636</v>
       </c>
       <c r="C38">
-        <v>1.010657278435256</v>
+        <v>0.9861949782384191</v>
       </c>
       <c r="D38">
-        <v>1.022442147425248</v>
+        <v>1.02322371232477</v>
       </c>
       <c r="E38">
-        <v>0.9676854621051858</v>
+        <v>0.9887756609068078</v>
       </c>
       <c r="F38">
-        <v>1.007180255744511</v>
+        <v>1.011647983756231</v>
       </c>
       <c r="G38">
-        <v>1.001681295174387</v>
+        <v>1.000623938216023</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>43242</v>
+        <v>43249</v>
       </c>
       <c r="B39">
-        <v>1.032178455997355</v>
+        <v>0.9531982562067254</v>
       </c>
       <c r="C39">
-        <v>1.006782429309262</v>
+        <v>0.9786695832526889</v>
       </c>
       <c r="D39">
-        <v>1.022442147425248</v>
+        <v>1.012999536775198</v>
       </c>
       <c r="E39">
-        <v>0.9702020570428179</v>
+        <v>0.9909909909909902</v>
       </c>
       <c r="F39">
-        <v>1.008277958290813</v>
+        <v>1.011482876243137</v>
       </c>
       <c r="G39">
-        <v>1.001514576354654</v>
+        <v>1.00030364139055</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>43243</v>
+        <v>43250</v>
       </c>
       <c r="B40">
-        <v>1.01878522343744</v>
+        <v>0.9282295541682521</v>
       </c>
       <c r="C40">
-        <v>0.9934764953569598</v>
+        <v>0.9579238712698638</v>
       </c>
       <c r="D40">
-        <v>1.003825685944148</v>
+        <v>0.9987841179688025</v>
       </c>
       <c r="E40">
-        <v>0.9719527317820404</v>
+        <v>0.9926524885541272</v>
       </c>
       <c r="F40">
-        <v>1.009152785979591</v>
+        <v>1.011726146355515</v>
       </c>
       <c r="G40">
-        <v>1.001540225403844</v>
+        <v>1.000125556355586</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>43244</v>
+        <v>43251</v>
       </c>
       <c r="B41">
-        <v>1.015189348772009</v>
+        <v>0.939971945605301</v>
       </c>
       <c r="C41">
-        <v>0.9864233369322301</v>
+        <v>0.9782493532345119</v>
       </c>
       <c r="D41">
-        <v>1.006927938506198</v>
+        <v>1.01246719378149</v>
       </c>
       <c r="E41">
-        <v>0.9761835290684945</v>
+        <v>0.9952001181509371</v>
       </c>
       <c r="F41">
-        <v>1.009168580260833</v>
+        <v>1.010913782261833</v>
       </c>
       <c r="G41">
-        <v>1.001804410610498</v>
+        <v>0.999481119142732</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>43245</v>
+        <v>43252</v>
       </c>
       <c r="B42">
-        <v>1.002513824084288</v>
+        <v>0.9286423955239725</v>
       </c>
       <c r="C42">
-        <v>0.9836606318782505</v>
+        <v>0.9700714620004036</v>
       </c>
       <c r="D42">
-        <v>1.001285485471265</v>
+        <v>1.013276341839966</v>
       </c>
       <c r="E42">
-        <v>0.9806331606973516</v>
+        <v>0.9935386205878001</v>
       </c>
       <c r="F42">
-        <v>1.010726071883283</v>
+        <v>1.010111078714129</v>
       </c>
       <c r="G42">
-        <v>1.001714638938334</v>
+        <v>0.9991890084378995</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>43248</v>
+        <v>43255</v>
       </c>
       <c r="B43">
-        <v>0.9980186038228831</v>
+        <v>0.9283211097510177</v>
       </c>
       <c r="C43">
-        <v>0.9879808283372765</v>
+        <v>0.9795877397905062</v>
       </c>
       <c r="D43">
-        <v>1.007970533674515</v>
+        <v>1.030059767297658</v>
       </c>
       <c r="E43">
-        <v>0.9767306149245017</v>
+        <v>0.9892925712597836</v>
       </c>
       <c r="F43">
-        <v>1.010759415365905</v>
+        <v>1.008390623298427</v>
       </c>
       <c r="G43">
-        <v>1.001612042741575</v>
+        <v>0.9989353333521239</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>43249</v>
+        <v>43256</v>
       </c>
       <c r="B44">
-        <v>0.9885628203944098</v>
+        <v>0.9439907864864679</v>
       </c>
       <c r="C44">
-        <v>0.9804418059982585</v>
+        <v>0.9892967923771191</v>
       </c>
       <c r="D44">
-        <v>0.9978987697377015</v>
+        <v>1.033232225825082</v>
       </c>
       <c r="E44">
-        <v>0.9789189583485296</v>
+        <v>0.9876679958647165</v>
       </c>
       <c r="F44">
-        <v>1.010594452872935</v>
+        <v>1.00783733748327</v>
       </c>
       <c r="G44">
-        <v>1.001291429626703</v>
+        <v>0.9982985832630814</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>43250</v>
+        <v>43257</v>
       </c>
       <c r="B45">
-        <v>0.9626677557024454</v>
+        <v>0.9432034084746853</v>
       </c>
       <c r="C45">
-        <v>0.9596585266655553</v>
+        <v>0.987247534287376</v>
       </c>
       <c r="D45">
-        <v>0.9838952599400893</v>
+        <v>1.038736758715704</v>
       </c>
       <c r="E45">
-        <v>0.9805602159165507</v>
+        <v>0.9890341160832957</v>
       </c>
       <c r="F45">
-        <v>1.010837509312044</v>
+        <v>1.007163733959103</v>
       </c>
       <c r="G45">
-        <v>1.001113168734834</v>
+        <v>0.9982921773265722</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>43251</v>
+        <v>43258</v>
       </c>
       <c r="B46">
-        <v>0.9748458010582761</v>
+        <v>0.9372837560859961</v>
       </c>
       <c r="C46">
-        <v>0.9800208150070121</v>
+        <v>0.9856168596674347</v>
       </c>
       <c r="D46">
-        <v>0.9973743623720367</v>
+        <v>1.047161535194784</v>
       </c>
       <c r="E46">
-        <v>0.9830768108541829</v>
+        <v>0.9898464037808292</v>
       </c>
       <c r="F46">
-        <v>1.010025858748232</v>
+        <v>1.006941541401587</v>
       </c>
       <c r="G46">
-        <v>1.000468095147713</v>
+        <v>0.9978898845137766</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>43252</v>
+        <v>43259</v>
       </c>
       <c r="B47">
-        <v>0.9630959138661107</v>
+        <v>0.9260594990085046</v>
       </c>
       <c r="C47">
-        <v>0.9718281148474974</v>
+        <v>0.9723938155745929</v>
       </c>
       <c r="D47">
-        <v>0.9981714484740302</v>
+        <v>1.028738214185312</v>
       </c>
       <c r="E47">
-        <v>0.9814355532861617</v>
+        <v>0.989994092453108</v>
       </c>
       <c r="F47">
-        <v>1.009223860245179</v>
+        <v>1.007648517720954</v>
       </c>
       <c r="G47">
-        <v>1.000175695986949</v>
+        <v>0.9975170590089247</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>43255</v>
+        <v>43262</v>
       </c>
       <c r="B48">
-        <v>0.9627627080846305</v>
+        <v>0.9200244261474121</v>
       </c>
       <c r="C48">
-        <v>0.9813616251788391</v>
+        <v>0.9724879518324911</v>
       </c>
       <c r="D48">
-        <v>1.014704683691029</v>
+        <v>1.032243636308052</v>
       </c>
       <c r="E48">
-        <v>0.9772412283901082</v>
+        <v>0.9904740806380142</v>
       </c>
       <c r="F48">
-        <v>1.007504915970036</v>
+        <v>1.00745003741266</v>
       </c>
       <c r="G48">
-        <v>0.9999217703999707</v>
+        <v>0.9969597425325998</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>43256</v>
+        <v>43263</v>
       </c>
       <c r="B49">
-        <v>0.9790137447681323</v>
+        <v>0.9299868333107861</v>
       </c>
       <c r="C49">
-        <v>0.9910882593927207</v>
+        <v>0.9843152117220659</v>
       </c>
       <c r="D49">
-        <v>1.017829850432603</v>
+        <v>1.033551565161507</v>
       </c>
       <c r="E49">
-        <v>0.9756364432124877</v>
+        <v>0.9899202481169687</v>
       </c>
       <c r="F49">
-        <v>1.006952116126575</v>
+        <v>1.006161671871652</v>
       </c>
       <c r="G49">
-        <v>0.9992843915276055</v>
+        <v>0.9967137545706357</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>43257</v>
+        <v>43264</v>
       </c>
       <c r="B50">
-        <v>0.9781971542813411</v>
+        <v>0.9158853460789596</v>
       </c>
       <c r="C50">
-        <v>0.9890352904062047</v>
+        <v>0.9746380610102259</v>
       </c>
       <c r="D50">
-        <v>1.023252327344112</v>
+        <v>1.020993653753749</v>
       </c>
       <c r="E50">
-        <v>0.9769859216573049</v>
+        <v>0.988997193915226</v>
       </c>
       <c r="F50">
-        <v>1.006279104253662</v>
+        <v>1.00692222030963</v>
       </c>
       <c r="G50">
-        <v>0.9992779792653083</v>
+        <v>0.9963358043165763</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>43258</v>
+        <v>43265</v>
       </c>
       <c r="B51">
-        <v>0.9720578771445941</v>
+        <v>0.9126043892906138</v>
       </c>
       <c r="C51">
-        <v>0.9874016628809096</v>
+        <v>0.9707857552674947</v>
       </c>
       <c r="D51">
-        <v>1.031551515822077</v>
+        <v>1.011523796928095</v>
       </c>
       <c r="E51">
-        <v>0.9777883142461151</v>
+        <v>0.9929478658986849</v>
       </c>
       <c r="F51">
-        <v>1.006057106856209</v>
+        <v>1.007882127287354</v>
       </c>
       <c r="G51">
-        <v>0.9988752891930291</v>
+        <v>0.9962960875102175</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>43259</v>
+        <v>43266</v>
       </c>
       <c r="B52">
-        <v>0.9604171894271057</v>
+        <v>0.895781879939775</v>
       </c>
       <c r="C52">
-        <v>0.9741546738531194</v>
+        <v>0.9656578633528987</v>
       </c>
       <c r="D52">
-        <v>1.013402830948676</v>
+        <v>1.007181313631104</v>
       </c>
       <c r="E52">
-        <v>0.977934203807717</v>
+        <v>0.9919878895288725</v>
       </c>
       <c r="F52">
-        <v>1.006763462211743</v>
+        <v>1.008962351974089</v>
       </c>
       <c r="G52">
-        <v>0.9985020955273183</v>
+        <v>0.9962576518911606</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>43262</v>
+        <v>43270</v>
       </c>
       <c r="B53">
-        <v>0.9541582096083748</v>
+        <v>0.83987905385007</v>
       </c>
       <c r="C53">
-        <v>0.9742489805775574</v>
+        <v>0.9316161960569848</v>
       </c>
       <c r="D53">
-        <v>1.016855997802858</v>
+        <v>0.9792236697904989</v>
       </c>
       <c r="E53">
-        <v>0.9784083448829231</v>
+        <v>0.9888495052429472</v>
       </c>
       <c r="F53">
-        <v>1.006565156236152</v>
+        <v>1.010822446190759</v>
       </c>
       <c r="G53">
-        <v>0.9979442287074413</v>
+        <v>0.9963614280626144</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>43263</v>
+        <v>43271</v>
       </c>
       <c r="B54">
-        <v>0.9644902315767476</v>
+        <v>0.8491381736600161</v>
       </c>
       <c r="C54">
-        <v>0.9860976578477811</v>
+        <v>0.9353021489591665</v>
       </c>
       <c r="D54">
-        <v>1.018144429382918</v>
+        <v>0.9868007515274124</v>
       </c>
       <c r="E54">
-        <v>0.9778612590269161</v>
+        <v>0.9832373356963515</v>
       </c>
       <c r="F54">
-        <v>1.00527792231495</v>
+        <v>1.009693040542677</v>
       </c>
       <c r="G54">
-        <v>0.9976979978352197</v>
+        <v>0.9961615628435184</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>43264</v>
+        <v>43272</v>
       </c>
       <c r="B55">
-        <v>0.9498655657227357</v>
+        <v>0.8313103497076969</v>
       </c>
       <c r="C55">
-        <v>0.9764029832781475</v>
+        <v>0.9243735443000881</v>
       </c>
       <c r="D55">
-        <v>1.005773718549061</v>
+        <v>0.9735048040466043</v>
       </c>
       <c r="E55">
-        <v>0.9769494492669045</v>
+        <v>0.9812066164525175</v>
       </c>
       <c r="F55">
-        <v>1.006037802734691</v>
+        <v>1.010313950179686</v>
       </c>
       <c r="G55">
-        <v>0.9973196743596709</v>
+        <v>0.9961180024752539</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="B56">
-        <v>0.9464628823091229</v>
+        <v>0.8428867976718978</v>
       </c>
       <c r="C56">
-        <v>0.9725437015917709</v>
+        <v>0.9284743759382269</v>
       </c>
       <c r="D56">
-        <v>0.9964450287196506</v>
+        <v>0.9749220592701784</v>
       </c>
       <c r="E56">
-        <v>0.9808519950397545</v>
+        <v>0.9846403780830005</v>
       </c>
       <c r="F56">
-        <v>1.006996866590093</v>
+        <v>1.010699493787391</v>
       </c>
       <c r="G56">
-        <v>0.9972799183334268</v>
+        <v>0.9958041115862892</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>43266</v>
+        <v>43276</v>
       </c>
       <c r="B57">
-        <v>0.9290162418209662</v>
+        <v>0.8371550588289951</v>
       </c>
       <c r="C57">
-        <v>0.967406523839704</v>
+        <v>0.9160154332008315</v>
       </c>
       <c r="D57">
-        <v>0.9921672787480479</v>
+        <v>0.9623840858022595</v>
       </c>
       <c r="E57">
-        <v>0.9799037128893424</v>
+        <v>0.9864126421503466</v>
       </c>
       <c r="F57">
-        <v>1.008076142474945</v>
+        <v>1.010356105289412</v>
       </c>
       <c r="G57">
-        <v>0.9972414447596422</v>
+        <v>0.9954223177703242</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>43270</v>
+        <v>43277</v>
       </c>
       <c r="B58">
-        <v>0.8710393675795265</v>
+        <v>0.8429129494092766</v>
       </c>
       <c r="C58">
-        <v>0.9333032122277601</v>
+        <v>0.908460220253116</v>
       </c>
       <c r="D58">
-        <v>0.9646263990334146</v>
+        <v>0.9597260261226889</v>
       </c>
       <c r="E58">
-        <v>0.9768035597053026</v>
+        <v>0.9865603308226253</v>
       </c>
       <c r="F58">
-        <v>1.009934602901057</v>
+        <v>1.010631869965538</v>
       </c>
       <c r="G58">
-        <v>0.9973453234088608</v>
+        <v>0.9950738348242083</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>43271</v>
+        <v>43278</v>
       </c>
       <c r="B59">
-        <v>0.8806420095630688</v>
+        <v>0.8346173438910347</v>
       </c>
       <c r="C59">
-        <v>0.9369958398337277</v>
+        <v>0.8899753735535876</v>
       </c>
       <c r="D59">
-        <v>0.9720905293404613</v>
+        <v>0.9422756765773735</v>
       </c>
       <c r="E59">
-        <v>0.9712597563644317</v>
+        <v>0.987889528873135</v>
       </c>
       <c r="F59">
-        <v>1.008806189252341</v>
+        <v>1.011088550320906</v>
       </c>
       <c r="G59">
-        <v>0.9971452608251807</v>
+        <v>0.9950430863289629</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>43272</v>
+        <v>43279</v>
       </c>
       <c r="B60">
-        <v>0.8621527563431411</v>
+        <v>0.8257332344413257</v>
       </c>
       <c r="C60">
-        <v>0.9260474451228426</v>
+        <v>0.8807813046986909</v>
       </c>
       <c r="D60">
-        <v>0.9589927843248681</v>
+        <v>0.9469630862335837</v>
       </c>
       <c r="E60">
-        <v>0.9692537748924061</v>
+        <v>0.9858218874612312</v>
       </c>
       <c r="F60">
-        <v>1.009426553521114</v>
+        <v>1.013042615303008</v>
       </c>
       <c r="G60">
-        <v>0.9971016574415581</v>
+        <v>0.9954287237068338</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>43273</v>
+        <v>43280</v>
       </c>
       <c r="B61">
-        <v>0.8741587015650527</v>
+        <v>0.8523023215326876</v>
       </c>
       <c r="C61">
-        <v>0.9301557027474729</v>
+        <v>0.9032821600677081</v>
       </c>
       <c r="D61">
-        <v>0.9603889125486885</v>
+        <v>0.9621754020319421</v>
       </c>
       <c r="E61">
-        <v>0.9726457071996496</v>
+        <v>0.9872249298478801</v>
       </c>
       <c r="F61">
-        <v>1.009811758491399</v>
+        <v>1.016816375854958</v>
       </c>
       <c r="G61">
-        <v>0.9967874565889836</v>
+        <v>0.9958592026402707</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>43276</v>
+        <v>43283</v>
       </c>
       <c r="B62">
-        <v>0.8682143097458179</v>
+        <v>0.8394009556606036</v>
       </c>
       <c r="C62">
-        <v>0.9176741987472338</v>
+        <v>0.8767776965966539</v>
       </c>
       <c r="D62">
-        <v>0.9480378424401374</v>
+        <v>0.9621754020319421</v>
       </c>
       <c r="E62">
-        <v>0.9743963819388721</v>
+        <v>0.9873726185201591</v>
       </c>
       <c r="F62">
-        <v>1.009468671604426</v>
+        <v>1.017300281385358</v>
       </c>
       <c r="G62">
-        <v>0.9964052857560565</v>
+        <v>0.996634320957918</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>43277</v>
+        <v>43284</v>
       </c>
       <c r="B63">
-        <v>0.8741858235568242</v>
+        <v>0.8489319980015568</v>
       </c>
       <c r="C63">
-        <v>0.9101053044504065</v>
+        <v>0.877116345288295</v>
       </c>
       <c r="D63">
-        <v>0.9454194064114528</v>
+        <v>0.9485664288956577</v>
       </c>
       <c r="E63">
-        <v>0.9745422715004738</v>
+        <v>0.9889233495790868</v>
       </c>
       <c r="F63">
-        <v>1.009744194066087</v>
+        <v>1.01733453241201</v>
       </c>
       <c r="G63">
-        <v>0.9960564586870758</v>
+        <v>0.9972390413644131</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>43278</v>
+        <v>43285</v>
       </c>
       <c r="B64">
-        <v>0.865582443163927</v>
+        <v>0.8365523601069086</v>
       </c>
       <c r="C64">
-        <v>0.8915869844864281</v>
+        <v>0.8654019768717067</v>
       </c>
       <c r="D64">
-        <v>0.9282291889329749</v>
+        <v>0.9384678623670724</v>
       </c>
       <c r="E64">
-        <v>0.9758552775548908</v>
+        <v>0.9909909909909904</v>
       </c>
       <c r="F64">
-        <v>1.01020047330196</v>
+        <v>1.017001682691463</v>
       </c>
       <c r="G64">
-        <v>0.9960256798280481</v>
+        <v>0.9973671600946027</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>43279</v>
+        <v>43286</v>
       </c>
       <c r="B65">
-        <v>0.856368724782562</v>
+        <v>0.8139156873867381</v>
       </c>
       <c r="C65">
-        <v>0.8823762665619906</v>
+        <v>0.8599196396919935</v>
       </c>
       <c r="D65">
-        <v>0.9328467234523681</v>
+        <v>0.9364880249410339</v>
       </c>
       <c r="E65">
-        <v>0.9738128236924646</v>
+        <v>0.9905848471422237</v>
       </c>
       <c r="F65">
-        <v>1.012152821955454</v>
+        <v>1.017673529752725</v>
       </c>
       <c r="G65">
-        <v>0.9964116980183538</v>
+        <v>0.9981358724757406</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>43280</v>
+        <v>43287</v>
       </c>
       <c r="B66">
-        <v>0.8839235503388575</v>
+        <v>0.8161808427432492</v>
       </c>
       <c r="C66">
-        <v>0.9049178675803692</v>
+        <v>0.8657558304085015</v>
       </c>
       <c r="D66">
-        <v>0.9478322695152702</v>
+        <v>0.9409252134522611</v>
       </c>
       <c r="E66">
-        <v>0.9751987745276823</v>
+        <v>0.9939816866046367</v>
       </c>
       <c r="F66">
-        <v>1.015923267871886</v>
+        <v>1.016595939760348</v>
       </c>
       <c r="G66">
-        <v>0.9968426020447414</v>
+        <v>0.9984433574281959</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>43283</v>
+        <v>43290</v>
       </c>
       <c r="B67">
-        <v>0.8705435314913601</v>
+        <v>0.8342993413780501</v>
       </c>
       <c r="C67">
-        <v>0.8783654085305964</v>
+        <v>0.8899552033359891</v>
       </c>
       <c r="D67">
-        <v>0.9478322695152702</v>
+        <v>0.9533159784643668</v>
       </c>
       <c r="E67">
-        <v>0.9753446640892843</v>
+        <v>0.9935755427558701</v>
       </c>
       <c r="F67">
-        <v>1.016406748369898</v>
+        <v>1.015852955951423</v>
       </c>
       <c r="G67">
-        <v>0.9976184857827312</v>
+        <v>0.9985458524123476</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>43284</v>
+        <v>43291</v>
       </c>
       <c r="B68">
-        <v>0.8804281845910904</v>
+        <v>0.839033426559404</v>
       </c>
       <c r="C68">
-        <v>0.8787046704638507</v>
+        <v>0.8920987520475405</v>
       </c>
       <c r="D68">
-        <v>0.9344261651123761</v>
+        <v>0.9531082915910412</v>
       </c>
       <c r="E68">
-        <v>0.9768765044861037</v>
+        <v>0.9904371584699447</v>
       </c>
       <c r="F68">
-        <v>1.016440969312588</v>
+        <v>1.015576313043845</v>
       </c>
       <c r="G68">
-        <v>0.9982238033436092</v>
+        <v>0.9985637890345741</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>43285</v>
+        <v>43292</v>
       </c>
       <c r="B69">
-        <v>0.8675892503264637</v>
+        <v>0.8226373653083435</v>
       </c>
       <c r="C69">
-        <v>0.866969089096014</v>
+        <v>0.8766660143076305</v>
       </c>
       <c r="D69">
-        <v>0.9244781377449894</v>
+        <v>0.940794619946314</v>
       </c>
       <c r="E69">
-        <v>0.9789189583485298</v>
+        <v>0.993206321075173</v>
       </c>
       <c r="F69">
-        <v>1.016108411946442</v>
+        <v>1.016210396152644</v>
       </c>
       <c r="G69">
-        <v>0.9983520485895578</v>
+        <v>0.9985740385329893</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>43286</v>
+        <v>43293</v>
       </c>
       <c r="B70">
-        <v>0.8441127354641205</v>
+        <v>0.8449090897983366</v>
       </c>
       <c r="C70">
-        <v>0.8614768242320087</v>
+        <v>0.8955823338634616</v>
       </c>
       <c r="D70">
-        <v>0.9225278137221238</v>
+        <v>0.9464151251870015</v>
       </c>
       <c r="E70">
-        <v>0.9785177620541248</v>
+        <v>0.9894771821001325</v>
       </c>
       <c r="F70">
-        <v>1.016779668899216</v>
+        <v>1.016292071677738</v>
       </c>
       <c r="G70">
-        <v>0.9991215200652503</v>
+        <v>0.9986252860250652</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>43287</v>
+        <v>43294</v>
       </c>
       <c r="B71">
-        <v>0.8464619302442025</v>
+        <v>0.8500842752396365</v>
       </c>
       <c r="C71">
-        <v>0.8673235834080992</v>
+        <v>0.8985753986274319</v>
       </c>
       <c r="D71">
-        <v>0.9268988571389289</v>
+        <v>0.9478975110140504</v>
       </c>
       <c r="E71">
-        <v>0.9818732219709675</v>
+        <v>0.988775660906808</v>
       </c>
       <c r="F71">
-        <v>1.015703025394571</v>
+        <v>1.01785532366342</v>
       </c>
       <c r="G71">
-        <v>0.9994293086555274</v>
+        <v>0.9983690485646858</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>43290</v>
+        <v>43297</v>
       </c>
       <c r="B72">
-        <v>0.8652526424544926</v>
+        <v>0.8486165600249674</v>
       </c>
       <c r="C72">
-        <v>0.891566777743613</v>
+        <v>0.8932745934061035</v>
       </c>
       <c r="D72">
-        <v>0.9391049132256388</v>
+        <v>0.948370040188241</v>
       </c>
       <c r="E72">
-        <v>0.9814720256765626</v>
+        <v>0.9900679367892478</v>
       </c>
       <c r="F72">
-        <v>1.014960694176209</v>
+        <v>1.018382262534997</v>
       </c>
       <c r="G72">
-        <v>0.9995319048522864</v>
+        <v>0.998726499821915</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>43291</v>
+        <v>43298</v>
       </c>
       <c r="B73">
-        <v>0.8701623667100642</v>
+        <v>0.8487793672494852</v>
       </c>
       <c r="C73">
-        <v>0.8937142080980068</v>
+        <v>0.8874322795878244</v>
       </c>
       <c r="D73">
-        <v>0.9389003223370368</v>
+        <v>0.9364744006821436</v>
       </c>
       <c r="E73">
-        <v>0.9783718724925228</v>
+        <v>0.9890341160832959</v>
       </c>
       <c r="F73">
-        <v>1.014684294254478</v>
+        <v>1.018275118297777</v>
       </c>
       <c r="G73">
-        <v>0.9995498591867191</v>
+        <v>0.9984087653710447</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>43292</v>
+        <v>43299</v>
       </c>
       <c r="B74">
-        <v>0.8531579959528095</v>
+        <v>0.8423172909113061</v>
       </c>
       <c r="C74">
-        <v>0.8782535240018218</v>
+        <v>0.8827873151662616</v>
       </c>
       <c r="D74">
-        <v>0.926770210388176</v>
+        <v>0.9343390473253588</v>
       </c>
       <c r="E74">
-        <v>0.9811073017725579</v>
+        <v>0.9801727957465659</v>
       </c>
       <c r="F74">
-        <v>1.015317820424286</v>
+        <v>1.018915349026744</v>
       </c>
       <c r="G74">
-        <v>0.9995601188063951</v>
+        <v>0.9984010782472335</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>43293</v>
+        <v>43300</v>
       </c>
       <c r="B75">
-        <v>0.8762560226576546</v>
+        <v>0.834916202221503</v>
       </c>
       <c r="C75">
-        <v>0.8972040981542532</v>
+        <v>0.8820207182609339</v>
       </c>
       <c r="D75">
-        <v>0.9323069308518805</v>
+        <v>0.9307980692099062</v>
       </c>
       <c r="E75">
-        <v>0.9774235903421108</v>
+        <v>0.9832004135282819</v>
       </c>
       <c r="F75">
-        <v>1.015399424210701</v>
+        <v>1.020151898912047</v>
       </c>
       <c r="G75">
-        <v>0.9996114169047745</v>
+        <v>0.9994990557649586</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>43294</v>
+        <v>43301</v>
       </c>
       <c r="B76">
-        <v>0.8816232124134088</v>
+        <v>0.845358030679108</v>
       </c>
       <c r="C76">
-        <v>0.9002025829062811</v>
+        <v>0.8986279080842153</v>
       </c>
       <c r="D76">
-        <v>0.9337672187783665</v>
+        <v>0.9378966403906774</v>
       </c>
       <c r="E76">
-        <v>0.976730614924502</v>
+        <v>0.9875941515285772</v>
       </c>
       <c r="F76">
-        <v>1.016961303133497</v>
+        <v>1.018478867994787</v>
       </c>
       <c r="G76">
-        <v>0.9993549264128769</v>
+        <v>1.000625219403326</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>43297</v>
+        <v>43304</v>
       </c>
       <c r="B77">
-        <v>0.8801010435647969</v>
+        <v>0.851688057894883</v>
       </c>
       <c r="C77">
-        <v>0.8948921787276092</v>
+        <v>0.9070810044428763</v>
       </c>
       <c r="D77">
-        <v>0.9342327039681141</v>
+        <v>0.9389480344182011</v>
       </c>
       <c r="E77">
-        <v>0.9780071485885183</v>
+        <v>0.9909909909909902</v>
       </c>
       <c r="F77">
-        <v>1.017487779174888</v>
+        <v>1.017814925016598</v>
       </c>
       <c r="G77">
-        <v>0.9997127306490741</v>
+        <v>1.001012137968498</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>43298</v>
+        <v>43305</v>
       </c>
       <c r="B78">
-        <v>0.8802698910925824</v>
+        <v>0.8664933061843126</v>
       </c>
       <c r="C78">
-        <v>0.8890392853617355</v>
+        <v>0.9214768283433955</v>
       </c>
       <c r="D78">
-        <v>0.9225143925598315</v>
+        <v>0.9524543271643134</v>
       </c>
       <c r="E78">
-        <v>0.9769859216573054</v>
+        <v>0.9911017574951996</v>
       </c>
       <c r="F78">
-        <v>1.017380729046472</v>
+        <v>1.016143650562244</v>
       </c>
       <c r="G78">
-        <v>0.9993946824391213</v>
+        <v>1.001621983124201</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>43299</v>
+        <v>43306</v>
       </c>
       <c r="B79">
-        <v>0.8735680655606136</v>
+        <v>0.8671492884587598</v>
       </c>
       <c r="C79">
-        <v>0.8843859096114248</v>
+        <v>0.9204596988118274</v>
       </c>
       <c r="D79">
-        <v>0.9204108708795805</v>
+        <v>0.9610386071621071</v>
       </c>
       <c r="E79">
-        <v>0.9682325479611934</v>
+        <v>0.9895141042682021</v>
       </c>
       <c r="F79">
-        <v>1.018020397436763</v>
+        <v>1.015963613114454</v>
       </c>
       <c r="G79">
-        <v>0.9993869877243645</v>
+        <v>1.001879501771882</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>43300</v>
+        <v>43307</v>
       </c>
       <c r="B80">
-        <v>0.8658923894234195</v>
+        <v>0.8614030934712099</v>
       </c>
       <c r="C80">
-        <v>0.8836179245149286</v>
+        <v>0.9097811636872587</v>
       </c>
       <c r="D80">
-        <v>0.9169226780652708</v>
+        <v>0.9563943963755487</v>
       </c>
       <c r="E80">
-        <v>0.9712232839740316</v>
+        <v>0.9916555900162451</v>
       </c>
       <c r="F80">
-        <v>1.019255861213895</v>
+        <v>1.016400972377864</v>
       </c>
       <c r="G80">
-        <v>1.000486049482145</v>
+        <v>1.003131221765835</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>43301</v>
+        <v>43308</v>
       </c>
       <c r="B81">
-        <v>0.8767216196731714</v>
+        <v>0.8574519922870507</v>
       </c>
       <c r="C81">
-        <v>0.9002551874497571</v>
+        <v>0.9059172549239448</v>
       </c>
       <c r="D81">
-        <v>0.9239154309649784</v>
+        <v>0.9571633362553494</v>
       </c>
       <c r="E81">
-        <v>0.975563498431687</v>
+        <v>0.9904371584699448</v>
       </c>
       <c r="F81">
-        <v>1.017584299782476</v>
+        <v>1.017698998464851</v>
       </c>
       <c r="G81">
-        <v>1.001613325194034</v>
+        <v>1.003511734394498</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>43304</v>
+        <v>43311</v>
       </c>
       <c r="B82">
-        <v>0.883286496934385</v>
+        <v>0.8469750607166243</v>
       </c>
       <c r="C82">
-        <v>0.9087235910887236</v>
+        <v>0.9043356680274444</v>
       </c>
       <c r="D82">
-        <v>0.9249511518794375</v>
+        <v>0.9547990288894106</v>
       </c>
       <c r="E82">
-        <v>0.9789189583485297</v>
+        <v>0.9905848471422237</v>
       </c>
       <c r="F82">
-        <v>1.016920939970323</v>
+        <v>1.018233841419503</v>
       </c>
       <c r="G82">
-        <v>1.0020006258368</v>
+        <v>1.004163858731163</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>43305</v>
+        <v>43312</v>
       </c>
       <c r="B83">
-        <v>0.8986410340522791</v>
+        <v>0.8475574881669514</v>
       </c>
       <c r="C83">
-        <v>0.9231454836512246</v>
+        <v>0.904998763930989</v>
       </c>
       <c r="D83">
-        <v>0.9382561065470069</v>
+        <v>0.9498105563416276</v>
       </c>
       <c r="E83">
-        <v>0.9790283755197313</v>
+        <v>0.9919140451927332</v>
       </c>
       <c r="F83">
-        <v>1.015251133459043</v>
+        <v>1.020006990722362</v>
       </c>
       <c r="G83">
-        <v>1.002611073207516</v>
+        <v>1.00507350171551</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>43306</v>
+        <v>43313</v>
       </c>
       <c r="B84">
-        <v>0.8993213538945929</v>
+        <v>0.8339438018928631</v>
       </c>
       <c r="C84">
-        <v>0.9221265122517556</v>
+        <v>0.8869205374982223</v>
       </c>
       <c r="D84">
-        <v>0.9467124208274182</v>
+        <v>0.9417599485335317</v>
       </c>
       <c r="E84">
-        <v>0.9774600627325112</v>
+        <v>0.9904002363018752</v>
       </c>
       <c r="F84">
-        <v>1.015071254144901</v>
+        <v>1.020946698376676</v>
       </c>
       <c r="G84">
-        <v>1.002868846151872</v>
+        <v>1.006159948547518</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>43307</v>
+        <v>43314</v>
       </c>
       <c r="B85">
-        <v>0.8933619695939605</v>
+        <v>0.8160799110847463</v>
       </c>
       <c r="C85">
-        <v>0.9114286399135236</v>
+        <v>0.8672570708897474</v>
       </c>
       <c r="D85">
-        <v>0.9421374412128544</v>
+        <v>0.920952049919285</v>
       </c>
       <c r="E85">
-        <v>0.9795754613757381</v>
+        <v>0.9892556490917143</v>
       </c>
       <c r="F85">
-        <v>1.015508229259255</v>
+        <v>1.021081067788929</v>
       </c>
       <c r="G85">
-        <v>1.004121802204792</v>
+        <v>1.007206678573167</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>43308</v>
+        <v>43315</v>
       </c>
       <c r="B86">
-        <v>0.8892642787884614</v>
+        <v>0.805256260727562</v>
       </c>
       <c r="C86">
-        <v>0.9075577341952473</v>
+        <v>0.8529336436631078</v>
       </c>
       <c r="D86">
-        <v>0.9428949185188147</v>
+        <v>0.9196813385535294</v>
       </c>
       <c r="E86">
-        <v>0.9783718724925228</v>
+        <v>0.9888125830748777</v>
       </c>
       <c r="F86">
-        <v>1.016805115241217</v>
+        <v>1.021970716250443</v>
       </c>
       <c r="G86">
-        <v>1.004502690585259</v>
+        <v>1.00779602473204</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>43311</v>
+        <v>43318</v>
       </c>
       <c r="B87">
-        <v>0.8783986430669313</v>
+        <v>0.7881867064822105</v>
       </c>
       <c r="C87">
-        <v>0.9059732832838433</v>
+        <v>0.8421253142173867</v>
       </c>
       <c r="D87">
-        <v>0.9405658558429689</v>
+        <v>0.9244411893911555</v>
       </c>
       <c r="E87">
-        <v>0.9785177620541247</v>
+        <v>0.988037217545414</v>
       </c>
       <c r="F87">
-        <v>1.017339488423229</v>
+        <v>1.022259654398358</v>
       </c>
       <c r="G87">
-        <v>1.005155458887138</v>
+        <v>1.008932437868822</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>43312</v>
+        <v>43319</v>
       </c>
       <c r="B88">
-        <v>0.8790026791310149</v>
+        <v>0.8096865055172979</v>
       </c>
       <c r="C88">
-        <v>0.9066375799538804</v>
+        <v>0.8667197815730084</v>
       </c>
       <c r="D88">
-        <v>0.9356517463714582</v>
+        <v>0.938707449944141</v>
       </c>
       <c r="E88">
-        <v>0.9798307681085414</v>
+        <v>0.9880741397134838</v>
       </c>
       <c r="F88">
-        <v>1.019111080302511</v>
+        <v>1.022047122386822</v>
       </c>
       <c r="G88">
-        <v>1.006066000133374</v>
+        <v>1.010190563799284</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>43313</v>
+        <v>43320</v>
       </c>
       <c r="B89">
-        <v>0.8648839121153956</v>
+        <v>0.7972227932989221</v>
       </c>
       <c r="C89">
-        <v>0.8885266165845297</v>
+        <v>0.8527338967633203</v>
       </c>
       <c r="D89">
-        <v>0.927721148838399</v>
+        <v>0.9423713786886023</v>
       </c>
       <c r="E89">
-        <v>0.9783354001021224</v>
+        <v>0.9865603308226256</v>
       </c>
       <c r="F89">
-        <v>1.020049962576326</v>
+        <v>1.020208105725015</v>
       </c>
       <c r="G89">
-        <v>1.00715351981902</v>
+        <v>1.010368648834248</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>43314</v>
+        <v>43321</v>
       </c>
       <c r="B90">
-        <v>0.8463572539249301</v>
+        <v>0.8175110367355629</v>
       </c>
       <c r="C90">
-        <v>0.8688275424090305</v>
+        <v>0.8740933081984289</v>
       </c>
       <c r="D90">
-        <v>0.9072234332184247</v>
+        <v>0.9506177106061204</v>
       </c>
       <c r="E90">
-        <v>0.9772047559997079</v>
+        <v>0.9863387978142073</v>
       </c>
       <c r="F90">
-        <v>1.020184213966881</v>
+        <v>1.017356488198325</v>
       </c>
       <c r="G90">
-        <v>1.008201283478421</v>
+        <v>1.009707556186469</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>43315</v>
+        <v>43322</v>
       </c>
       <c r="B91">
-        <v>0.8351320358190542</v>
+        <v>0.8217158146726832</v>
       </c>
       <c r="C91">
-        <v>0.8544781776198469</v>
+        <v>0.8760201042527537</v>
       </c>
       <c r="D91">
-        <v>0.9059716643256017</v>
+        <v>0.9426199383385985</v>
       </c>
       <c r="E91">
-        <v>0.9767670873149022</v>
+        <v>0.9867080194949045</v>
       </c>
       <c r="F91">
-        <v>1.021073081016764</v>
+        <v>1.016869947973568</v>
       </c>
       <c r="G91">
-        <v>1.008791211609785</v>
+        <v>1.008564737113177</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>43318</v>
+        <v>43325</v>
       </c>
       <c r="B92">
-        <v>0.817429184835239</v>
+        <v>0.8257603499216805</v>
       </c>
       <c r="C92">
-        <v>0.8436502759225579</v>
+        <v>0.872244620282661</v>
       </c>
       <c r="D92">
-        <v>0.9106605601469393</v>
+        <v>0.9283294199588087</v>
       </c>
       <c r="E92">
-        <v>0.9760011671164925</v>
+        <v>0.9884802835622507</v>
       </c>
       <c r="F92">
-        <v>1.02136176537946</v>
+        <v>1.014444272701404</v>
       </c>
       <c r="G92">
-        <v>1.00992874694135</v>
+        <v>1.007611533760566</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>43319</v>
+        <v>43326</v>
       </c>
       <c r="B93">
-        <v>0.8397266469147643</v>
+        <v>0.8229193989732904</v>
       </c>
       <c r="C93">
-        <v>0.8682892801425195</v>
+        <v>0.8677602457823338</v>
       </c>
       <c r="D93">
-        <v>0.9247141537940813</v>
+        <v>0.9222270811720058</v>
       </c>
       <c r="E93">
-        <v>0.976037639506893</v>
+        <v>0.9803204844188449</v>
       </c>
       <c r="F93">
-        <v>1.021149420042766</v>
+        <v>1.015142466706245</v>
       </c>
       <c r="G93">
-        <v>1.011188115256567</v>
+        <v>1.006991439106449</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>43320</v>
+        <v>43327</v>
       </c>
       <c r="B94">
-        <v>0.8268005190888341</v>
+        <v>0.8057554959240043</v>
       </c>
       <c r="C94">
-        <v>0.8542780690086044</v>
+        <v>0.8469371460258661</v>
       </c>
       <c r="D94">
-        <v>0.9283234644144434</v>
+        <v>0.9079601560210258</v>
       </c>
       <c r="E94">
-        <v>0.9745422715004738</v>
+        <v>0.9783266873430807</v>
       </c>
       <c r="F94">
-        <v>1.019312018658309</v>
+        <v>1.014664708796015</v>
       </c>
       <c r="G94">
-        <v>1.011366376148436</v>
+        <v>1.006941472801675</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>43321</v>
+        <v>43328</v>
       </c>
       <c r="B95">
-        <v>0.8478414757019821</v>
+        <v>0.7984971882063603</v>
       </c>
       <c r="C95">
-        <v>0.8756761591105736</v>
+        <v>0.8430141416122675</v>
       </c>
       <c r="D95">
-        <v>0.9364468684009214</v>
+        <v>0.9005322765339093</v>
       </c>
       <c r="E95">
-        <v>0.974323437158071</v>
+        <v>0.9688007679810957</v>
       </c>
       <c r="F95">
-        <v>1.016462905814312</v>
+        <v>1.013423767753448</v>
       </c>
       <c r="G95">
-        <v>1.01070463067934</v>
+        <v>1.006534055239672</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>43322</v>
+        <v>43329</v>
       </c>
       <c r="B96">
-        <v>0.85220225490986</v>
+        <v>0.7845567767286193</v>
       </c>
       <c r="C96">
-        <v>0.8776064443014282</v>
+        <v>0.8308945679314274</v>
       </c>
       <c r="D96">
-        <v>0.9285683187899223</v>
+        <v>0.904298885668543</v>
       </c>
       <c r="E96">
-        <v>0.9746881610620758</v>
+        <v>0.9658469945355189</v>
       </c>
       <c r="F96">
-        <v>1.015976792936094</v>
+        <v>1.008574173672026</v>
       </c>
       <c r="G96">
-        <v>1.009560683085478</v>
+        <v>1.005480919277513</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>43325</v>
+        <v>43332</v>
       </c>
       <c r="B97">
-        <v>0.856396846273093</v>
+        <v>0.7893955341979948</v>
       </c>
       <c r="C97">
-        <v>0.8738241235003132</v>
+        <v>0.8405757578322509</v>
       </c>
       <c r="D97">
-        <v>0.9144908289269916</v>
+        <v>0.9170794374045063</v>
       </c>
       <c r="E97">
-        <v>0.9764388358012983</v>
+        <v>0.9717176192586027</v>
       </c>
       <c r="F97">
-        <v>1.013553248225555</v>
+        <v>1.008707664852825</v>
       </c>
       <c r="G97">
-        <v>1.008606538455619</v>
+        <v>1.004932571112301</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>43326</v>
+        <v>43333</v>
       </c>
       <c r="B98">
-        <v>0.8534504933356474</v>
+        <v>0.799086688550057</v>
       </c>
       <c r="C98">
-        <v>0.8693316284753216</v>
+        <v>0.8558575533953123</v>
       </c>
       <c r="D98">
-        <v>0.9084794576017304</v>
+        <v>0.9222224289860433</v>
       </c>
       <c r="E98">
-        <v>0.9683784375227951</v>
+        <v>0.9766282676118738</v>
       </c>
       <c r="F98">
-        <v>1.014250828980398</v>
+        <v>1.007502731299817</v>
       </c>
       <c r="G98">
-        <v>1.007985831465227</v>
+        <v>1.003987054883502</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>43327</v>
+        <v>43334</v>
       </c>
       <c r="B99">
-        <v>0.8356497931173095</v>
+        <v>0.7901088836814824</v>
       </c>
       <c r="C99">
-        <v>0.8484708212314106</v>
+        <v>0.8510479855908489</v>
       </c>
       <c r="D99">
-        <v>0.894425209263745</v>
+        <v>0.9280306831602172</v>
       </c>
       <c r="E99">
-        <v>0.96640892844117</v>
+        <v>0.9751144587210159</v>
       </c>
       <c r="F99">
-        <v>1.01377349070287</v>
+        <v>1.008611937624489</v>
       </c>
       <c r="G99">
-        <v>1.007935815819307</v>
+        <v>1.003644977873896</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>43328</v>
+        <v>43335</v>
       </c>
       <c r="B100">
-        <v>0.8281221952624844</v>
+        <v>0.7944615389942986</v>
       </c>
       <c r="C100">
-        <v>0.8445407128495558</v>
+        <v>0.8541535816453487</v>
       </c>
       <c r="D100">
-        <v>0.88710805705107</v>
+        <v>0.9234741993089515</v>
       </c>
       <c r="E100">
-        <v>0.9569990517178494</v>
+        <v>0.9757052134101309</v>
       </c>
       <c r="F100">
-        <v>1.012533639625393</v>
+        <v>1.00968777115396</v>
       </c>
       <c r="G100">
-        <v>1.00752799593719</v>
+        <v>1.004004991505729</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>43329</v>
+        <v>43336</v>
       </c>
       <c r="B101">
-        <v>0.8136645812266217</v>
+        <v>0.7926032465201283</v>
       </c>
       <c r="C101">
-        <v>0.8323991924519571</v>
+        <v>0.8555194449773569</v>
       </c>
       <c r="D101">
-        <v>0.890818517406757</v>
+        <v>0.9195334654997216</v>
       </c>
       <c r="E101">
-        <v>0.954081260485812</v>
+        <v>0.9769605671245011</v>
       </c>
       <c r="F101">
-        <v>1.007688305124453</v>
+        <v>1.009526176566677</v>
       </c>
       <c r="G101">
-        <v>1.006473820015492</v>
+        <v>1.004544371359827</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>43332</v>
+        <v>43339</v>
       </c>
       <c r="B102">
-        <v>0.8186828612119063</v>
+        <v>0.8102081844908534</v>
       </c>
       <c r="C102">
-        <v>0.8420979135249352</v>
+        <v>0.8764200096894224</v>
       </c>
       <c r="D102">
-        <v>0.9034085496731953</v>
+        <v>0.9394514673991426</v>
       </c>
       <c r="E102">
-        <v>0.9598803705594863</v>
+        <v>0.9795451188893807</v>
       </c>
       <c r="F102">
-        <v>1.007821679054939</v>
+        <v>1.009275002371224</v>
       </c>
       <c r="G102">
-        <v>1.005924930362831</v>
+        <v>1.004748080140828</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>43333</v>
+        <v>43340</v>
       </c>
       <c r="B103">
-        <v>0.8287335666310258</v>
+        <v>0.812518178397711</v>
       </c>
       <c r="C103">
-        <v>0.8574073821107957</v>
+        <v>0.8747726894944989</v>
       </c>
       <c r="D103">
-        <v>0.9084748747658258</v>
+        <v>0.9421214898426169</v>
       </c>
       <c r="E103">
-        <v>0.9647311984827482</v>
+        <v>0.9833850243686302</v>
       </c>
       <c r="F103">
-        <v>1.00661780384029</v>
+        <v>1.009523541872319</v>
       </c>
       <c r="G103">
-        <v>1.004978480447729</v>
+        <v>1.004352193264543</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>43334</v>
+        <v>43341</v>
       </c>
       <c r="B104">
-        <v>0.8194226766414159</v>
+        <v>0.8072508329924569</v>
       </c>
       <c r="C104">
-        <v>0.8525891049057284</v>
+        <v>0.8712745717437015</v>
       </c>
       <c r="D104">
-        <v>0.9141965453928265</v>
+        <v>0.9442754519432516</v>
       </c>
       <c r="E104">
-        <v>0.9632358304763292</v>
+        <v>0.9809850834440992</v>
       </c>
       <c r="F104">
-        <v>1.007726035907419</v>
+        <v>1.009267976519603</v>
       </c>
       <c r="G104">
-        <v>1.004636065641046</v>
+        <v>1.004162577543862</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>43335</v>
+        <v>43342</v>
       </c>
       <c r="B105">
-        <v>0.8239368196166303</v>
+        <v>0.7950261126976209</v>
       </c>
       <c r="C105">
-        <v>0.8557003247254503</v>
+        <v>0.8621466735516399</v>
       </c>
       <c r="D105">
-        <v>0.909707984969608</v>
+        <v>0.9358885575498668</v>
       </c>
       <c r="E105">
-        <v>0.9638193887227364</v>
+        <v>0.9821296706542602</v>
       </c>
       <c r="F105">
-        <v>1.008800924491927</v>
+        <v>1.010447441360485</v>
       </c>
       <c r="G105">
-        <v>1.004996434782162</v>
+        <v>1.004477749620128</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>43336</v>
+        <v>43343</v>
       </c>
       <c r="B106">
-        <v>0.8220095827197711</v>
+        <v>0.7864834786194929</v>
       </c>
       <c r="C106">
-        <v>0.8570686614295809</v>
+        <v>0.8578783570709435</v>
       </c>
       <c r="D106">
-        <v>0.905825995612917</v>
+        <v>0.9267337201736731</v>
       </c>
       <c r="E106">
-        <v>0.9650594499963524</v>
+        <v>0.9838650125535365</v>
       </c>
       <c r="F106">
-        <v>1.008639471839234</v>
+        <v>1.010961206760274</v>
       </c>
       <c r="G106">
-        <v>1.005536347267607</v>
+        <v>1.004887729556735</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>43339</v>
+        <v>43346</v>
       </c>
       <c r="B107">
-        <v>0.8402676806756639</v>
+        <v>0.7904118420032579</v>
       </c>
       <c r="C107">
-        <v>0.87800707390642</v>
+        <v>0.8546164418300569</v>
       </c>
       <c r="D107">
-        <v>0.9254470801934092</v>
+        <v>0.9208849255218261</v>
       </c>
       <c r="E107">
-        <v>0.967612517324385</v>
+        <v>0.9784374538472892</v>
       </c>
       <c r="F107">
-        <v>1.008388518259504</v>
+        <v>1.009840583426718</v>
       </c>
       <c r="G107">
-        <v>1.005740257208665</v>
+        <v>1.004716050458281</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>43340</v>
+        <v>43347</v>
       </c>
       <c r="B108">
-        <v>0.8426633775590643</v>
+        <v>0.7988090815689516</v>
       </c>
       <c r="C108">
-        <v>0.8763567706635214</v>
+        <v>0.8654408508497563</v>
       </c>
       <c r="D108">
-        <v>0.9280773006572772</v>
+        <v>0.9295512833719579</v>
       </c>
       <c r="E108">
-        <v>0.9714056459260334</v>
+        <v>0.9752621473932942</v>
       </c>
       <c r="F108">
-        <v>1.008636839459027</v>
+        <v>1.008899997540951</v>
       </c>
       <c r="G108">
-        <v>1.005343979398684</v>
+        <v>1.004753204890036</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>43341</v>
+        <v>43348</v>
       </c>
       <c r="B109">
-        <v>0.8372006086168179</v>
+        <v>0.7865178793433653</v>
       </c>
       <c r="C109">
-        <v>0.8728523183500168</v>
+        <v>0.8485232866577173</v>
       </c>
       <c r="D109">
-        <v>0.9301991536811468</v>
+        <v>0.9053104038163878</v>
       </c>
       <c r="E109">
-        <v>0.9690349405500032</v>
+        <v>0.9744129375276911</v>
       </c>
       <c r="F109">
-        <v>1.008381498578952</v>
+        <v>1.008863990051394</v>
       </c>
       <c r="G109">
-        <v>1.005154176434679</v>
+        <v>1.004990224540887</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>43342</v>
+        <v>43349</v>
       </c>
       <c r="B110">
-        <v>0.8245223395426716</v>
+        <v>0.7829750784886983</v>
       </c>
       <c r="C110">
-        <v>0.8637078909134869</v>
+        <v>0.8394517312928754</v>
       </c>
       <c r="D110">
-        <v>0.921937282581263</v>
+        <v>0.8963705638914609</v>
       </c>
       <c r="E110">
-        <v>0.9701655846524176</v>
+        <v>0.9776990104858951</v>
       </c>
       <c r="F110">
-        <v>1.0095599274516</v>
+        <v>1.008612815855942</v>
       </c>
       <c r="G110">
-        <v>1.005469659739713</v>
+        <v>1.005246462001266</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>43343</v>
+        <v>43350</v>
       </c>
       <c r="B111">
-        <v>0.8156627655947728</v>
+        <v>0.7827190332148628</v>
       </c>
       <c r="C111">
-        <v>0.8594318451565549</v>
+        <v>0.8432498553031295</v>
       </c>
       <c r="D111">
-        <v>0.9129189162116841</v>
+        <v>0.8963257035268225</v>
       </c>
       <c r="E111">
-        <v>0.9718797870012396</v>
+        <v>0.979249741544823</v>
       </c>
       <c r="F111">
-        <v>1.010073241591956</v>
+        <v>1.008053382420616</v>
       </c>
       <c r="G111">
-        <v>1.005880044526749</v>
+        <v>1.005168309575851</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>43346</v>
+        <v>43353</v>
       </c>
       <c r="B112">
-        <v>0.8197368750058024</v>
+        <v>0.7685242915990919</v>
       </c>
       <c r="C112">
-        <v>0.8561640230800183</v>
+        <v>0.8310099034996586</v>
       </c>
       <c r="D112">
-        <v>0.9071573094432284</v>
+        <v>0.8843612781282796</v>
       </c>
       <c r="E112">
-        <v>0.9665183456123708</v>
+        <v>0.9791389750406139</v>
       </c>
       <c r="F112">
-        <v>1.00895360254393</v>
+        <v>1.005864829640662</v>
       </c>
       <c r="G112">
-        <v>1.005708195897178</v>
+        <v>1.004983818604377</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>43347</v>
+        <v>43354</v>
       </c>
       <c r="B113">
-        <v>0.8284456601662207</v>
+        <v>0.7682016827213725</v>
       </c>
       <c r="C113">
-        <v>0.8670080334689646</v>
+        <v>0.8295031830996009</v>
       </c>
       <c r="D113">
-        <v>0.9156944780428152</v>
+        <v>0.8780186871664136</v>
       </c>
       <c r="E113">
-        <v>0.9633817200379307</v>
+        <v>0.9798404962339383</v>
       </c>
       <c r="F113">
-        <v>1.008013842810046</v>
+        <v>1.004867158710475</v>
       </c>
       <c r="G113">
-        <v>1.005745387018503</v>
+        <v>1.004552058483638</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>43348</v>
+        <v>43355</v>
       </c>
       <c r="B114">
-        <v>0.8156984426183022</v>
+        <v>0.7667431802361734</v>
       </c>
       <c r="C114">
-        <v>0.850059834124292</v>
+        <v>0.8237951144285515</v>
       </c>
       <c r="D114">
-        <v>0.8918149568706043</v>
+        <v>0.8754430376381785</v>
       </c>
       <c r="E114">
-        <v>0.9625428550587201</v>
+        <v>0.9791758972086835</v>
       </c>
       <c r="F114">
-        <v>1.007977866947218</v>
+        <v>1.005257971706895</v>
       </c>
       <c r="G114">
-        <v>1.005982640723508</v>
+        <v>1.004385504134392</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>43349</v>
+        <v>43356</v>
       </c>
       <c r="B115">
-        <v>0.8120242004738372</v>
+        <v>0.7711923731929045</v>
       </c>
       <c r="C115">
-        <v>0.840971851543329</v>
+        <v>0.8326816903743475</v>
       </c>
       <c r="D115">
-        <v>0.8830083829889064</v>
+        <v>0.8976887940138332</v>
       </c>
       <c r="E115">
-        <v>0.9657888978043615</v>
+        <v>0.9826835031753058</v>
       </c>
       <c r="F115">
-        <v>1.007726913367488</v>
+        <v>1.005721677913884</v>
       </c>
       <c r="G115">
-        <v>1.006239131215406</v>
+        <v>1.004372692261373</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>43350</v>
+        <v>43357</v>
       </c>
       <c r="B116">
-        <v>0.8117586556762011</v>
+        <v>0.7628401191891977</v>
       </c>
       <c r="C116">
-        <v>0.8447768533822972</v>
+        <v>0.8341028674408409</v>
       </c>
       <c r="D116">
-        <v>0.8829641913569684</v>
+        <v>0.9067246683489858</v>
       </c>
       <c r="E116">
-        <v>0.9673207382011813</v>
+        <v>0.9847880667552795</v>
       </c>
       <c r="F116">
-        <v>1.007167971303544</v>
+        <v>1.006577075348745</v>
       </c>
       <c r="G116">
-        <v>1.006160901615377</v>
+        <v>1.004480311994732</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>43353</v>
+        <v>43360</v>
       </c>
       <c r="B117">
-        <v>0.7970372756116816</v>
+        <v>0.7517832430317056</v>
       </c>
       <c r="C117">
-        <v>0.8325147368754761</v>
+        <v>0.8245405892055013</v>
       </c>
       <c r="D117">
-        <v>0.8711781194463807</v>
+        <v>0.8949759049997043</v>
       </c>
       <c r="E117">
-        <v>0.9672113210299798</v>
+        <v>0.9809850834440994</v>
       </c>
       <c r="F117">
-        <v>1.004981340811631</v>
+        <v>1.007063615573502</v>
       </c>
       <c r="G117">
-        <v>1.005976228461211</v>
+        <v>1.004853137499584</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>43354</v>
+        <v>43361</v>
       </c>
       <c r="B118">
-        <v>0.7967026976369885</v>
+        <v>0.7650331571687403</v>
       </c>
       <c r="C118">
-        <v>0.831005288032428</v>
+        <v>0.8411371536462978</v>
       </c>
       <c r="D118">
-        <v>0.8649300773811847</v>
+        <v>0.9000205360780346</v>
       </c>
       <c r="E118">
-        <v>0.9679042964475886</v>
+        <v>0.9813543051247966</v>
       </c>
       <c r="F118">
-        <v>1.003984546173263</v>
+        <v>1.006993357057292</v>
       </c>
       <c r="G118">
-        <v>1.005544041982363</v>
+        <v>1.005076064090114</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>43355</v>
+        <v>43362</v>
       </c>
       <c r="B119">
-        <v>0.7951900833188944</v>
+        <v>0.7737538550127427</v>
       </c>
       <c r="C119">
-        <v>0.8252868829114621</v>
+        <v>0.8522128671117883</v>
       </c>
       <c r="D119">
-        <v>0.8623928230170974</v>
+        <v>0.9107441570205806</v>
       </c>
       <c r="E119">
-        <v>0.9672477934203801</v>
+        <v>0.9846773002510704</v>
       </c>
       <c r="F119">
-        <v>1.004375015903962</v>
+        <v>1.005977243266599</v>
       </c>
       <c r="G119">
-        <v>1.00537732316263</v>
+        <v>1.005137561080605</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>43356</v>
+        <v>43363</v>
       </c>
       <c r="B120">
-        <v>0.7998043455766625</v>
+        <v>0.7731963868720436</v>
       </c>
       <c r="C120">
-        <v>0.8341895511036004</v>
+        <v>0.8516066028545124</v>
       </c>
       <c r="D120">
-        <v>0.8843069622770414</v>
+        <v>0.9130802189717472</v>
       </c>
       <c r="E120">
-        <v>0.9707126705084245</v>
+        <v>0.9841234677300248</v>
       </c>
       <c r="F120">
-        <v>1.004838314820386</v>
+        <v>1.005350186009421</v>
       </c>
       <c r="G120">
-        <v>1.005364498638035</v>
+        <v>1.005049159156775</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>43357</v>
+        <v>43364</v>
       </c>
       <c r="B121">
-        <v>0.7911422149854749</v>
+        <v>0.7849139496764782</v>
       </c>
       <c r="C121">
-        <v>0.835613301707032</v>
+        <v>0.8774264881111872</v>
       </c>
       <c r="D121">
-        <v>0.8932081389856289</v>
+        <v>0.9288946605532512</v>
       </c>
       <c r="E121">
-        <v>0.9727915967612514</v>
+        <v>0.9884064392261109</v>
       </c>
       <c r="F121">
-        <v>1.005692960927578</v>
+        <v>1.006162550103104</v>
       </c>
       <c r="G121">
-        <v>1.005472224644632</v>
+        <v>1.004912072115472</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>43360</v>
+        <v>43368</v>
       </c>
       <c r="B122">
-        <v>0.779675118179717</v>
+        <v>0.7828452672101547</v>
       </c>
       <c r="C122">
-        <v>0.8260337076305974</v>
+        <v>0.8695330123816061</v>
       </c>
       <c r="D122">
-        <v>0.8816345142537657</v>
+        <v>0.9138019723939284</v>
       </c>
       <c r="E122">
-        <v>0.9690349405500032</v>
+        <v>0.984086545561955</v>
       </c>
       <c r="F122">
-        <v>1.006179073805797</v>
+        <v>1.006585857663272</v>
       </c>
       <c r="G122">
-        <v>1.005845418310343</v>
+        <v>1.004810858318622</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>43361</v>
+        <v>43369</v>
       </c>
       <c r="B123">
-        <v>0.7934166167651384</v>
+        <v>0.7866152827224964</v>
       </c>
       <c r="C123">
-        <v>0.8426603259419786</v>
+        <v>0.8791645485579849</v>
       </c>
       <c r="D123">
-        <v>0.8866039451015545</v>
+        <v>0.9243518009608757</v>
       </c>
       <c r="E123">
-        <v>0.9693996644540079</v>
+        <v>0.9861911091419286</v>
       </c>
       <c r="F123">
-        <v>1.006108877000278</v>
+        <v>1.007502731299817</v>
       </c>
       <c r="G123">
-        <v>1.006068565038294</v>
+        <v>1.004917196864679</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>43362</v>
+        <v>43370</v>
       </c>
       <c r="B124">
-        <v>0.8024608608144108</v>
+        <v>0.7767736211198361</v>
       </c>
       <c r="C124">
-        <v>0.8537560958510971</v>
+        <v>0.8756524866006336</v>
       </c>
       <c r="D124">
-        <v>0.8971677092072778</v>
+        <v>0.9209889351079871</v>
       </c>
       <c r="E124">
-        <v>0.97268217959005</v>
+        <v>0.9832373356963519</v>
       </c>
       <c r="F124">
-        <v>1.005093655700461</v>
+        <v>1.008649701576952</v>
       </c>
       <c r="G124">
-        <v>1.006130122756349</v>
+        <v>1.005245180813965</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>43363</v>
+        <v>43371</v>
       </c>
       <c r="B125">
-        <v>0.8018827100741414</v>
+        <v>0.7841811129833135</v>
       </c>
       <c r="C125">
-        <v>0.8531487337408533</v>
+        <v>0.8847277209720016</v>
       </c>
       <c r="D125">
-        <v>0.8994689475222738</v>
+        <v>0.9234097333034705</v>
       </c>
       <c r="E125">
-        <v>0.9721350937340431</v>
+        <v>0.974966770048737</v>
       </c>
       <c r="F125">
-        <v>1.004467149211205</v>
+        <v>1.009123946561372</v>
       </c>
       <c r="G125">
-        <v>1.006041633536645</v>
+        <v>1.005589820198175</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>43364</v>
+        <v>43381</v>
       </c>
       <c r="B126">
-        <v>0.8140350056314134</v>
+        <v>0.7589872707847591</v>
       </c>
       <c r="C126">
-        <v>0.8790153749085351</v>
+        <v>0.8466600113524363</v>
       </c>
       <c r="D126">
-        <v>0.915047643489411</v>
+        <v>0.8707087738233457</v>
       </c>
       <c r="E126">
-        <v>0.9763658910204971</v>
+        <v>0.9857480431250921</v>
       </c>
       <c r="F126">
-        <v>1.005278799775017</v>
+        <v>1.009408493552024</v>
       </c>
       <c r="G126">
-        <v>1.00590441112348</v>
+        <v>1.005828121036327</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>43368</v>
+        <v>43382</v>
       </c>
       <c r="B127">
-        <v>0.8118895730730834</v>
+        <v>0.7570926174315101</v>
       </c>
       <c r="C127">
-        <v>0.8711076052870532</v>
+        <v>0.846091900708296</v>
       </c>
       <c r="D127">
-        <v>0.9001799417783437</v>
+        <v>0.8697231749972916</v>
       </c>
       <c r="E127">
-        <v>0.9720986213436424</v>
+        <v>0.9847880667552796</v>
       </c>
       <c r="F127">
-        <v>1.005701735528268</v>
+        <v>1.009455039819014</v>
       </c>
       <c r="G127">
-        <v>1.00580309737918</v>
+        <v>1.006008768445895</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>43369</v>
+        <v>43383</v>
       </c>
       <c r="B128">
-        <v>0.8157994597556739</v>
+        <v>0.7562748733486552</v>
       </c>
       <c r="C128">
-        <v>0.880756582720194</v>
+        <v>0.8442671134712894</v>
       </c>
       <c r="D128">
-        <v>0.9105725042284849</v>
+        <v>0.8703930897758907</v>
       </c>
       <c r="E128">
-        <v>0.9741775475964692</v>
+        <v>0.983828090385467</v>
       </c>
       <c r="F128">
-        <v>1.00661780384029</v>
+        <v>1.009808088862971</v>
       </c>
       <c r="G128">
-        <v>1.005909540933318</v>
+        <v>1.006439247379332</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>43370</v>
+        <v>43384</v>
       </c>
       <c r="B129">
-        <v>0.8055926631234492</v>
+        <v>0.7036011089382066</v>
       </c>
       <c r="C129">
-        <v>0.8772381609492843</v>
+        <v>0.8037507291443613</v>
       </c>
       <c r="D129">
-        <v>0.9072597685602404</v>
+        <v>0.8395989416941531</v>
       </c>
       <c r="E129">
-        <v>0.9712597563644318</v>
+        <v>0.990547924974154</v>
       </c>
       <c r="F129">
-        <v>1.007763766690386</v>
+        <v>1.011696286486126</v>
       </c>
       <c r="G129">
-        <v>1.006237848762947</v>
+        <v>1.006882538185788</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>43371</v>
+        <v>43385</v>
       </c>
       <c r="B130">
-        <v>0.8132749799981664</v>
+        <v>0.6988010972034108</v>
       </c>
       <c r="C130">
-        <v>0.8863298291988985</v>
+        <v>0.8157428239627019</v>
       </c>
       <c r="D130">
-        <v>0.909644479957786</v>
+        <v>0.8573809256387949</v>
       </c>
       <c r="E130">
-        <v>0.9630899409147272</v>
+        <v>1.001883030571555</v>
       </c>
       <c r="F130">
-        <v>1.008237595127638</v>
+        <v>1.011842072907262</v>
       </c>
       <c r="G130">
-        <v>1.006582828474549</v>
+        <v>1.007368108173207</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>43381</v>
+        <v>43388</v>
       </c>
       <c r="B131">
-        <v>0.7871464222315089</v>
+        <v>0.6859160006195399</v>
       </c>
       <c r="C131">
-        <v>0.8481931847089602</v>
+        <v>0.8043521566657845</v>
       </c>
       <c r="D131">
-        <v>0.8577291327932356</v>
+        <v>0.8455367924772822</v>
       </c>
       <c r="E131">
-        <v>0.9737398789116637</v>
+        <v>1.013328902673164</v>
       </c>
       <c r="F131">
-        <v>1.008521892189989</v>
+        <v>1.011534691898842</v>
       </c>
       <c r="G131">
-        <v>1.006821364632013</v>
+        <v>1.007553880331982</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>43382</v>
+        <v>43389</v>
       </c>
       <c r="B132">
-        <v>0.7851814754322867</v>
+        <v>0.6696679310865623</v>
       </c>
       <c r="C132">
-        <v>0.8476240453022807</v>
+        <v>0.7977974019473366</v>
       </c>
       <c r="D132">
-        <v>0.8567582262722857</v>
+        <v>0.8461083467526742</v>
       </c>
       <c r="E132">
-        <v>0.9727915967612515</v>
+        <v>1.01259045931177</v>
       </c>
       <c r="F132">
-        <v>1.008568397573646</v>
+        <v>1.01182802120402</v>
       </c>
       <c r="G132">
-        <v>1.007002190428801</v>
+        <v>1.007866490033644</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>43383</v>
+        <v>43390</v>
       </c>
       <c r="B133">
-        <v>0.784333392264232</v>
+        <v>0.6751727166258179</v>
       </c>
       <c r="C133">
-        <v>0.8457959536512997</v>
+        <v>0.8022411530119651</v>
       </c>
       <c r="D133">
-        <v>0.8574181546425604</v>
+        <v>0.8461083467526742</v>
       </c>
       <c r="E133">
-        <v>0.9718433146108392</v>
+        <v>1.010707428740215</v>
       </c>
       <c r="F133">
-        <v>1.008921136521378</v>
+        <v>1.011884228016988</v>
       </c>
       <c r="G133">
-        <v>1.007433094455189</v>
+        <v>1.008086854249571</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>43384</v>
+        <v>43391</v>
       </c>
       <c r="B134">
-        <v>0.7297053809692862</v>
+        <v>0.6564006695759511</v>
       </c>
       <c r="C134">
-        <v>0.8052062002740802</v>
+        <v>0.7832403706699409</v>
       </c>
       <c r="D134">
-        <v>0.8270830544077555</v>
+        <v>0.8458521442257397</v>
       </c>
       <c r="E134">
-        <v>0.9784812896637241</v>
+        <v>1.010375129227588</v>
       </c>
       <c r="F134">
-        <v>1.010807675669698</v>
+        <v>1.013171715326544</v>
       </c>
       <c r="G134">
-        <v>1.007876823006171</v>
+        <v>1.008536550992537</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>43385</v>
+        <v>43392</v>
       </c>
       <c r="B135">
-        <v>0.7247272842222785</v>
+        <v>0.6742910061447275</v>
       </c>
       <c r="C135">
-        <v>0.8172200109642204</v>
+        <v>0.806537409360406</v>
       </c>
       <c r="D135">
-        <v>0.8445999626171533</v>
+        <v>0.8494027590121147</v>
       </c>
       <c r="E135">
-        <v>0.9896783135166675</v>
+        <v>1.012405848471422</v>
       </c>
       <c r="F135">
-        <v>1.010953334041149</v>
+        <v>1.013782964417574</v>
       </c>
       <c r="G135">
-        <v>1.008362872488317</v>
+        <v>1.008664669722726</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>43388</v>
+        <v>43395</v>
       </c>
       <c r="B136">
-        <v>0.7113641382690999</v>
+        <v>0.7078029793117709</v>
       </c>
       <c r="C136">
-        <v>0.8058087168898734</v>
+        <v>0.8413535975757043</v>
       </c>
       <c r="D136">
-        <v>0.832932389749244</v>
+        <v>0.8690665521785852</v>
       </c>
       <c r="E136">
-        <v>1.000984754540812</v>
+        <v>1.014251956874907</v>
       </c>
       <c r="F136">
-        <v>1.010646223017004</v>
+        <v>1.012967965629534</v>
       </c>
       <c r="G136">
-        <v>1.008548828094943</v>
+        <v>1.00878894489101</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>43389</v>
+        <v>43396</v>
       </c>
       <c r="B137">
-        <v>0.6945132498637803</v>
+        <v>0.6948025112593769</v>
       </c>
       <c r="C137">
-        <v>0.7992420925010051</v>
+        <v>0.81901006475849</v>
       </c>
       <c r="D137">
-        <v>0.8334954238746768</v>
+        <v>0.8422633150546728</v>
       </c>
       <c r="E137">
-        <v>1.000255306732803</v>
+        <v>1.0202333481022</v>
       </c>
       <c r="F137">
-        <v>1.010939294680046</v>
+        <v>1.013264807860523</v>
       </c>
       <c r="G137">
-        <v>1.008861746495058</v>
+        <v>1.008750509271954</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>43390</v>
+        <v>43397</v>
       </c>
       <c r="B138">
-        <v>0.7002222681954007</v>
+        <v>0.6934846825794901</v>
       </c>
       <c r="C138">
-        <v>0.8036938905273938</v>
+        <v>0.8202388272109301</v>
       </c>
       <c r="D138">
-        <v>0.8334954238746768</v>
+        <v>0.8390476576575974</v>
       </c>
       <c r="E138">
-        <v>0.998395214822379</v>
+        <v>1.019827204253433</v>
       </c>
       <c r="F138">
-        <v>1.010995452124461</v>
+        <v>1.014520678837783</v>
       </c>
       <c r="G138">
-        <v>1.009082328318089</v>
+        <v>1.008922188370407</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>43391</v>
+        <v>43398</v>
       </c>
       <c r="B139">
-        <v>0.6807537603006818</v>
+        <v>0.691676831432631</v>
       </c>
       <c r="C139">
-        <v>0.7846587006394252</v>
+        <v>0.8218098916342194</v>
       </c>
       <c r="D139">
-        <v>0.8332430405544973</v>
+        <v>0.8305633996579975</v>
       </c>
       <c r="E139">
-        <v>0.9980669633087748</v>
+        <v>1.020897947127455</v>
       </c>
       <c r="F139">
-        <v>1.012281808585594</v>
+        <v>1.015308452450792</v>
       </c>
       <c r="G139">
-        <v>1.00953246913137</v>
+        <v>1.009159208021258</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>43392</v>
+        <v>43399</v>
       </c>
       <c r="B140">
-        <v>0.6993078454147436</v>
+        <v>0.6916013164533046</v>
       </c>
       <c r="C140">
-        <v>0.8079979267469494</v>
+        <v>0.8164911801993089</v>
       </c>
       <c r="D140">
-        <v>0.8367407263860381</v>
+        <v>0.8213643665151602</v>
       </c>
       <c r="E140">
-        <v>1.000072944780801</v>
+        <v>1.024516319598287</v>
       </c>
       <c r="F140">
-        <v>1.012892520793609</v>
+        <v>1.015556991951887</v>
       </c>
       <c r="G140">
-        <v>1.009660714377318</v>
+        <v>1.00903237047837</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>43395</v>
+        <v>43402</v>
       </c>
       <c r="B141">
-        <v>0.7340631447402277</v>
+        <v>0.6799330025484307</v>
       </c>
       <c r="C141">
-        <v>0.8428771618186383</v>
+        <v>0.7916010030463974</v>
       </c>
       <c r="D141">
-        <v>0.8561113917188813</v>
+        <v>0.8245016013488677</v>
       </c>
       <c r="E141">
-        <v>1.001896564300824</v>
+        <v>1.023482498892335</v>
       </c>
       <c r="F141">
-        <v>1.01207823784959</v>
+        <v>1.016733822098411</v>
       </c>
       <c r="G141">
-        <v>1.009785112265889</v>
+        <v>1.009492316719751</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>43396</v>
+        <v>43403</v>
       </c>
       <c r="B142">
-        <v>0.7205803469270361</v>
+        <v>0.6867963063227326</v>
       </c>
       <c r="C142">
-        <v>0.8204931682394339</v>
+        <v>0.8001866208219574</v>
       </c>
       <c r="D142">
-        <v>0.8297077099994535</v>
+        <v>0.8169746967605496</v>
       </c>
       <c r="E142">
-        <v>1.0078050915457</v>
+        <v>1.018313395362576</v>
       </c>
       <c r="F142">
-        <v>1.012374819352907</v>
+        <v>1.017444311343589</v>
       </c>
       <c r="G142">
-        <v>1.009746638692104</v>
+        <v>1.010154690554832</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>43397</v>
+        <v>43404</v>
       </c>
       <c r="B143">
-        <v>0.7192136255465651</v>
+        <v>0.6979053879472217</v>
       </c>
       <c r="C143">
-        <v>0.8217241557950185</v>
+        <v>0.8113941867940697</v>
       </c>
       <c r="D143">
-        <v>0.8265399883530501</v>
+        <v>0.8300725940389543</v>
       </c>
       <c r="E143">
-        <v>1.007403895251294</v>
+        <v>1.010928961748634</v>
       </c>
       <c r="F143">
-        <v>1.013629587251557</v>
+        <v>1.017589219533273</v>
       </c>
       <c r="G143">
-        <v>1.009918487321675</v>
+        <v>1.010155971742133</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>43398</v>
+        <v>43405</v>
       </c>
       <c r="B144">
-        <v>0.7173387013983565</v>
+        <v>0.7022229401472165</v>
       </c>
       <c r="C144">
-        <v>0.823298065178602</v>
+        <v>0.8173656002959052</v>
       </c>
       <c r="D144">
-        <v>0.8181822050445896</v>
+        <v>0.844571131591067</v>
       </c>
       <c r="E144">
-        <v>1.008461594572908</v>
+        <v>1.014805789395953</v>
       </c>
       <c r="F144">
-        <v>1.014416668933437</v>
+        <v>1.018022187639419</v>
       </c>
       <c r="G144">
-        <v>1.01015574102668</v>
+        <v>1.01061976154542</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>43399</v>
+        <v>43406</v>
       </c>
       <c r="B145">
-        <v>0.7172603847412929</v>
+        <v>0.7249218477951902</v>
       </c>
       <c r="C145">
-        <v>0.8179697223609007</v>
+        <v>0.8464919347815565</v>
       </c>
       <c r="D145">
-        <v>0.8091203017339162</v>
+        <v>0.8801387547693207</v>
       </c>
       <c r="E145">
-        <v>1.012035888832154</v>
+        <v>1.012922758824398</v>
       </c>
       <c r="F145">
-        <v>1.01466499013296</v>
+        <v>1.016244647179296</v>
       </c>
       <c r="G145">
-        <v>1.010028778233191</v>
+        <v>1.010433989386645</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>43402</v>
+        <v>43409</v>
       </c>
       <c r="B146">
-        <v>0.7051591652647146</v>
+        <v>0.7253925790680061</v>
       </c>
       <c r="C146">
-        <v>0.793034472857886</v>
+        <v>0.8394399739083827</v>
       </c>
       <c r="D146">
-        <v>0.8122107698607834</v>
+        <v>0.8617971793131904</v>
       </c>
       <c r="E146">
-        <v>1.011014661900941</v>
+        <v>1.017279574656624</v>
       </c>
       <c r="F146">
-        <v>1.015840786625401</v>
+        <v>1.016503725457822</v>
       </c>
       <c r="G146">
-        <v>1.010489178666147</v>
+        <v>1.010384023081871</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>43403</v>
+        <v>43410</v>
       </c>
       <c r="B147">
-        <v>0.71227710415326</v>
+        <v>0.7249464967469105</v>
       </c>
       <c r="C147">
-        <v>0.8016356378900145</v>
+        <v>0.8343756284701488</v>
       </c>
       <c r="D147">
-        <v>0.8047960687124229</v>
+        <v>0.8679968817062085</v>
       </c>
       <c r="E147">
-        <v>1.005908527244875</v>
+        <v>1.014842711564023</v>
       </c>
       <c r="F147">
-        <v>1.016550651821211</v>
+        <v>1.017296768459547</v>
       </c>
       <c r="G147">
-        <v>1.011152206587702</v>
+        <v>1.010508298250155</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>43404</v>
+        <v>43411</v>
       </c>
       <c r="B148">
-        <v>0.7237983432986187</v>
+        <v>0.7211959847788726</v>
       </c>
       <c r="C148">
-        <v>0.8128634990707224</v>
+        <v>0.8289110688674259</v>
       </c>
       <c r="D148">
-        <v>0.8176987158566451</v>
+        <v>0.8688851169260475</v>
       </c>
       <c r="E148">
-        <v>0.998614049164782</v>
+        <v>1.016171909614533</v>
       </c>
       <c r="F148">
-        <v>1.016695432732593</v>
+        <v>1.019067283068049</v>
       </c>
       <c r="G148">
-        <v>1.011153489040162</v>
+        <v>1.010998992986781</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>43405</v>
+        <v>43412</v>
       </c>
       <c r="B149">
-        <v>0.7282760808020551</v>
+        <v>0.7158370184523462</v>
       </c>
       <c r="C149">
-        <v>0.8188457259001736</v>
+        <v>0.8265605181523081</v>
       </c>
       <c r="D149">
-        <v>0.8319811239535996</v>
+        <v>0.8715445058016076</v>
       </c>
       <c r="E149">
-        <v>1.002443650156831</v>
+        <v>1.011150494757052</v>
       </c>
       <c r="F149">
-        <v>1.017128020546604</v>
+        <v>1.019400132788596</v>
       </c>
       <c r="G149">
-        <v>1.011617736830496</v>
+        <v>1.011471751101181</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>43406</v>
+        <v>43413</v>
       </c>
       <c r="B150">
-        <v>0.7518171395673645</v>
+        <v>0.7135968387400898</v>
       </c>
       <c r="C150">
-        <v>0.8480248037768057</v>
+        <v>0.8148984533739562</v>
       </c>
       <c r="D150">
-        <v>0.8670185411720341</v>
+        <v>0.850749234549259</v>
       </c>
       <c r="E150">
-        <v>1.000583558246407</v>
+        <v>1.009747452370403</v>
       </c>
       <c r="F150">
-        <v>1.015352041366976</v>
+        <v>1.019637255280806</v>
       </c>
       <c r="G150">
-        <v>1.01143178122387</v>
+        <v>1.011790766739353</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>43409</v>
+        <v>43416</v>
       </c>
       <c r="B151">
-        <v>0.752305335419248</v>
+        <v>0.7320670218881716</v>
       </c>
       <c r="C151">
-        <v>0.8409600728679893</v>
+        <v>0.8245967519414925</v>
       </c>
       <c r="D151">
-        <v>0.8489503832723871</v>
+        <v>0.8517880012148844</v>
       </c>
       <c r="E151">
-        <v>1.004887300313662</v>
+        <v>1.001513808890858</v>
       </c>
       <c r="F151">
-        <v>1.015610892087327</v>
+        <v>1.019884916550447</v>
       </c>
       <c r="G151">
-        <v>1.01138176557795</v>
+        <v>1.011981663647336</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>43410</v>
+        <v>43417</v>
       </c>
       <c r="B152">
-        <v>0.7518427030186966</v>
+        <v>0.7454364238196628</v>
       </c>
       <c r="C152">
-        <v>0.8358865566653518</v>
+        <v>0.8328916510195259</v>
       </c>
       <c r="D152">
-        <v>0.8550576668062251</v>
+        <v>0.8570944839031035</v>
       </c>
       <c r="E152">
-        <v>1.002480122547232</v>
+        <v>0.9991138679663272</v>
       </c>
       <c r="F152">
-        <v>1.016403238529621</v>
+        <v>1.020667420774741</v>
       </c>
       <c r="G152">
-        <v>1.011506163466521</v>
+        <v>1.012152061558488</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>43411</v>
+        <v>43418</v>
       </c>
       <c r="B153">
-        <v>0.7479530434805004</v>
+        <v>0.7424919113378681</v>
       </c>
       <c r="C153">
-        <v>0.8304121015708428</v>
+        <v>0.8245458118511295</v>
       </c>
       <c r="D153">
-        <v>0.8559326611185983</v>
+        <v>0.8524941365841915</v>
       </c>
       <c r="E153">
-        <v>1.003793128601649</v>
+        <v>0.9973785260670508</v>
       </c>
       <c r="F153">
-        <v>1.018172198028697</v>
+        <v>1.023998552674566</v>
       </c>
       <c r="G153">
-        <v>1.011997342758505</v>
+        <v>1.013009175863457</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>43412</v>
+        <v>43419</v>
       </c>
       <c r="B154">
-        <v>0.7423952543934411</v>
+        <v>0.7546293883913928</v>
       </c>
       <c r="C154">
-        <v>0.8280572943635307</v>
+        <v>0.8341752383874023</v>
       </c>
       <c r="D154">
-        <v>0.85855240652897</v>
+        <v>0.8674113708729287</v>
       </c>
       <c r="E154">
-        <v>0.998832883507185</v>
+        <v>1.004615271008714</v>
       </c>
       <c r="F154">
-        <v>1.018504755394842</v>
+        <v>1.025901680232415</v>
       </c>
       <c r="G154">
-        <v>1.012470567716055</v>
+        <v>1.013358939996874</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>43413</v>
+        <v>43420</v>
       </c>
       <c r="B155">
-        <v>0.7400719618778302</v>
+        <v>0.7610460217980372</v>
       </c>
       <c r="C155">
-        <v>0.8163741113479165</v>
+        <v>0.8381120326436445</v>
       </c>
       <c r="D155">
-        <v>0.8380671300350226</v>
+        <v>0.8700760765324459</v>
       </c>
       <c r="E155">
-        <v>0.9974469326719674</v>
+        <v>1.006830601092896</v>
       </c>
       <c r="F155">
-        <v>1.018741669613469</v>
+        <v>1.028951778067399</v>
       </c>
       <c r="G155">
-        <v>1.012789898378467</v>
+        <v>1.0141865869939</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>43416</v>
+        <v>43423</v>
       </c>
       <c r="B156">
-        <v>0.7592274064321781</v>
+        <v>0.762947454021375</v>
       </c>
       <c r="C156">
-        <v>0.8260899720688177</v>
+        <v>0.8476130284066382</v>
       </c>
       <c r="D156">
-        <v>0.8390904118234547</v>
+        <v>0.8763389157349548</v>
       </c>
       <c r="E156">
-        <v>0.9893135896126632</v>
+        <v>1.010596662236006</v>
       </c>
       <c r="F156">
-        <v>1.018989113352923</v>
+        <v>1.028811261034978</v>
       </c>
       <c r="G156">
-        <v>1.012980983794931</v>
+        <v>1.015075730981416</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>43417</v>
+        <v>43424</v>
       </c>
       <c r="B157">
-        <v>0.7730928259231629</v>
+        <v>0.7411754057627458</v>
       </c>
       <c r="C157">
-        <v>0.8343998919557838</v>
+        <v>0.8280099695416848</v>
       </c>
       <c r="D157">
-        <v>0.8443177908635927</v>
+        <v>0.8586719072433863</v>
       </c>
       <c r="E157">
-        <v>0.986942884236633</v>
+        <v>1.013218136168956</v>
       </c>
       <c r="F157">
-        <v>1.019770930274389</v>
+        <v>1.027337588657465</v>
       </c>
       <c r="G157">
-        <v>1.013151549972043</v>
+        <v>1.015434463425947</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>43418</v>
+        <v>43425</v>
       </c>
       <c r="B158">
-        <v>0.7700390692206767</v>
+        <v>0.7439891105537668</v>
       </c>
       <c r="C158">
-        <v>0.8260389397336477</v>
+        <v>0.8300898174129641</v>
       </c>
       <c r="D158">
-        <v>0.8397860208447017</v>
+        <v>0.8630293439952567</v>
       </c>
       <c r="E158">
-        <v>0.985228681887811</v>
+        <v>1.013070447496677</v>
       </c>
       <c r="F158">
-        <v>1.023099136316052</v>
+        <v>1.028033147967948</v>
       </c>
       <c r="G158">
-        <v>1.01400951066744</v>
+        <v>1.01547674260691</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>43419</v>
+        <v>43426</v>
       </c>
       <c r="B159">
-        <v>0.7826268582460718</v>
+        <v>0.7434421782473022</v>
       </c>
       <c r="C159">
-        <v>0.8356858037064429</v>
+        <v>0.826985945088795</v>
       </c>
       <c r="D159">
-        <v>0.8544808841730779</v>
+        <v>0.8646223853884135</v>
       </c>
       <c r="E159">
-        <v>0.9923772704063023</v>
+        <v>1.014067346034559</v>
       </c>
       <c r="F159">
-        <v>1.025000592285545</v>
+        <v>1.027373596147023</v>
       </c>
       <c r="G159">
-        <v>1.01435962018888</v>
+        <v>1.015629203895835</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>43420</v>
+        <v>43427</v>
       </c>
       <c r="B160">
-        <v>0.7892815548704156</v>
+        <v>0.7146014346179945</v>
       </c>
       <c r="C160">
-        <v>0.8396297269022629</v>
+        <v>0.8087318724350022</v>
       </c>
       <c r="D160">
-        <v>0.8571058671101978</v>
+        <v>0.8615742066859879</v>
       </c>
       <c r="E160">
-        <v>0.9945656138303304</v>
+        <v>1.01391965736228</v>
       </c>
       <c r="F160">
-        <v>1.028048011105133</v>
+        <v>1.026512929323445</v>
       </c>
       <c r="G160">
-        <v>1.015188084477709</v>
+        <v>1.015548489095816</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="B161">
-        <v>0.7912535320422706</v>
+        <v>0.713408598501769</v>
       </c>
       <c r="C161">
-        <v>0.8491479275330535</v>
+        <v>0.8081576901437277</v>
       </c>
       <c r="D161">
-        <v>0.8632753462741706</v>
+        <v>0.876477816715835</v>
       </c>
       <c r="E161">
-        <v>0.9982857976511779</v>
+        <v>1.015359621916999</v>
       </c>
       <c r="F161">
-        <v>1.027907617494095</v>
+        <v>1.025885872066267</v>
       </c>
       <c r="G161">
-        <v>1.016078106484593</v>
+        <v>1.015445994111664</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>43424</v>
+        <v>43431</v>
       </c>
       <c r="B162">
-        <v>0.7686737200334183</v>
+        <v>0.7167064942980234</v>
       </c>
       <c r="C162">
-        <v>0.8295093704903722</v>
+        <v>0.8071280571354342</v>
       </c>
       <c r="D162">
-        <v>0.8458716995807031</v>
+        <v>0.8750083905496815</v>
       </c>
       <c r="E162">
-        <v>1.000875337369611</v>
+        <v>1.012368926303352</v>
       </c>
       <c r="F162">
-        <v>1.026435239498337</v>
+        <v>1.026161636742393</v>
       </c>
       <c r="G162">
-        <v>1.01643719317325</v>
+        <v>1.015380653559267</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>43425</v>
+        <v>43432</v>
       </c>
       <c r="B163">
-        <v>0.7715918159550771</v>
+        <v>0.7255607440500882</v>
       </c>
       <c r="C163">
-        <v>0.8315929846518967</v>
+        <v>0.8178541106170234</v>
       </c>
       <c r="D163">
-        <v>0.8501641800962852</v>
+        <v>0.886658793395756</v>
       </c>
       <c r="E163">
-        <v>1.000729447808009</v>
+        <v>1.00760596662236</v>
       </c>
       <c r="F163">
-        <v>1.027130187872974</v>
+        <v>1.027014399482897</v>
       </c>
       <c r="G163">
-        <v>1.016479514104413</v>
+        <v>1.01561895439742</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>43426</v>
+        <v>43433</v>
       </c>
       <c r="B164">
-        <v>0.7710245919385382</v>
+        <v>0.7098543634083981</v>
       </c>
       <c r="C164">
-        <v>0.8284834916839205</v>
+        <v>0.807234285232964</v>
       </c>
       <c r="D164">
-        <v>0.8517334740482184</v>
+        <v>0.8789650747107827</v>
       </c>
       <c r="E164">
-        <v>1.001714202348822</v>
+        <v>1.01388273519421</v>
       </c>
       <c r="F164">
-        <v>1.026471215361165</v>
+        <v>1.028323842578768</v>
       </c>
       <c r="G164">
-        <v>1.016632125947092</v>
+        <v>1.015665077140288</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>43427</v>
+        <v>43434</v>
       </c>
       <c r="B165">
-        <v>0.7411138292206958</v>
+        <v>0.7149096200203201</v>
       </c>
       <c r="C165">
-        <v>0.8101963636626065</v>
+        <v>0.8162480570407578</v>
       </c>
       <c r="D165">
-        <v>0.8487307344943837</v>
+        <v>0.8808166447238553</v>
       </c>
       <c r="E165">
-        <v>1.00156831278722</v>
+        <v>1.014067346034559</v>
       </c>
       <c r="F165">
-        <v>1.025611304493559</v>
+        <v>1.028614537189589</v>
       </c>
       <c r="G165">
-        <v>1.016551331442144</v>
+        <v>1.015962312594328</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>43430</v>
+        <v>43437</v>
       </c>
       <c r="B166">
-        <v>0.7398767377471792</v>
+        <v>0.7375367369838594</v>
       </c>
       <c r="C166">
-        <v>0.8096211416139572</v>
+        <v>0.8389550396845171</v>
       </c>
       <c r="D166">
-        <v>0.8634121766604677</v>
+        <v>0.9032564637139455</v>
       </c>
       <c r="E166">
-        <v>1.002990736012838</v>
+        <v>1.01266430364791</v>
       </c>
       <c r="F166">
-        <v>1.024984798004303</v>
+        <v>1.028663718150936</v>
       </c>
       <c r="G166">
-        <v>1.016448735245385</v>
+        <v>1.0160109977118</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>43431</v>
+        <v>43438</v>
       </c>
       <c r="B167">
-        <v>0.7432969886220455</v>
+        <v>0.7409730360723121</v>
       </c>
       <c r="C167">
-        <v>0.8085896440958555</v>
+        <v>0.8406940263147757</v>
       </c>
       <c r="D167">
-        <v>0.8619646552054303</v>
+        <v>0.9058616878529422</v>
       </c>
       <c r="E167">
-        <v>1.0000364723904</v>
+        <v>1.011888938118446</v>
       </c>
       <c r="F167">
-        <v>1.025260320465965</v>
+        <v>1.031306316591899</v>
       </c>
       <c r="G167">
-        <v>1.016383330169951</v>
+        <v>1.016116055070556</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>43432</v>
+        <v>43439</v>
       </c>
       <c r="B168">
-        <v>0.7524797394825122</v>
+        <v>0.7354995803471055</v>
       </c>
       <c r="C168">
-        <v>0.819335120839673</v>
+        <v>0.8366534480562482</v>
       </c>
       <c r="D168">
-        <v>0.8734413856924517</v>
+        <v>0.8912152772470215</v>
       </c>
       <c r="E168">
-        <v>0.99533153402874</v>
+        <v>1.01270122581598</v>
       </c>
       <c r="F168">
-        <v>1.02611233419295</v>
+        <v>1.032534962394128</v>
       </c>
       <c r="G168">
-        <v>1.016621866327416</v>
+        <v>1.017293466200998</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>43433</v>
+        <v>43440</v>
       </c>
       <c r="B169">
-        <v>0.7361906371428517</v>
+        <v>0.7205348244277552</v>
       </c>
       <c r="C169">
-        <v>0.8086960645564197</v>
+        <v>0.8185591420495033</v>
       </c>
       <c r="D169">
-        <v>0.8658623571423659</v>
+        <v>0.8691738847547194</v>
       </c>
       <c r="E169">
-        <v>1.00153184039682</v>
+        <v>1.01646728695909</v>
       </c>
       <c r="F169">
-        <v>1.027420627155808</v>
+        <v>1.033979653133705</v>
       </c>
       <c r="G169">
-        <v>1.016668034615957</v>
+        <v>1.01724734345813</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>43434</v>
+        <v>43441</v>
       </c>
       <c r="B170">
-        <v>0.7414334485953049</v>
+        <v>0.7205137364246599</v>
       </c>
       <c r="C170">
-        <v>0.8177261589430433</v>
+        <v>0.8185312536363956</v>
       </c>
       <c r="D170">
-        <v>0.8676863258324311</v>
+        <v>0.8660961314415321</v>
       </c>
       <c r="E170">
-        <v>1.001714202348822</v>
+        <v>1.018313395362575</v>
       </c>
       <c r="F170">
-        <v>1.027711066438642</v>
+        <v>1.034910578473493</v>
       </c>
       <c r="G170">
-        <v>1.016965563586558</v>
+        <v>1.017754693629681</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
-        <v>43437</v>
+        <v>43444</v>
       </c>
       <c r="B171">
-        <v>0.7649000531733345</v>
+        <v>0.7120773754279719</v>
       </c>
       <c r="C171">
-        <v>0.8404742605015143</v>
+        <v>0.8090632145682277</v>
       </c>
       <c r="D171">
-        <v>0.889791634818685</v>
+        <v>0.8557490052629507</v>
       </c>
       <c r="E171">
-        <v>1.000328251513604</v>
+        <v>1.029500812287697</v>
       </c>
       <c r="F171">
-        <v>1.027760204202505</v>
+        <v>1.035952160976312</v>
       </c>
       <c r="G171">
-        <v>1.017014296780019</v>
+        <v>1.017987869718626</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
-        <v>43438</v>
+        <v>43445</v>
       </c>
       <c r="B172">
-        <v>0.7684638422345085</v>
+        <v>0.7179999843840975</v>
       </c>
       <c r="C172">
-        <v>0.8422163961738124</v>
+        <v>0.8129358706197856</v>
       </c>
       <c r="D172">
-        <v>0.8923580229253092</v>
+        <v>0.8563900100287828</v>
       </c>
       <c r="E172">
-        <v>0.9995623313151946</v>
+        <v>1.026768571850539</v>
       </c>
       <c r="F172">
-        <v>1.030400481550084</v>
+        <v>1.036698657711047</v>
       </c>
       <c r="G172">
-        <v>1.017119457881697</v>
+        <v>1.018196703248835</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
-        <v>43439</v>
+        <v>43446</v>
       </c>
       <c r="B173">
-        <v>0.7627873160829115</v>
+        <v>0.7176330759987135</v>
       </c>
       <c r="C173">
-        <v>0.83816850103856</v>
+        <v>0.8157127230002148</v>
       </c>
       <c r="D173">
-        <v>0.8779299461156701</v>
+        <v>0.8701817476135939</v>
       </c>
       <c r="E173">
-        <v>1.000364723904005</v>
+        <v>1.024405553094077</v>
       </c>
       <c r="F173">
-        <v>1.031628048186595</v>
+        <v>1.036717100571553</v>
       </c>
       <c r="G173">
-        <v>1.018298031691966</v>
+        <v>1.018303041794893</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
-        <v>43440</v>
+        <v>43447</v>
       </c>
       <c r="B174">
-        <v>0.7472673534499348</v>
+        <v>0.725773143201328</v>
       </c>
       <c r="C174">
-        <v>0.8200414289775521</v>
+        <v>0.828340514128041</v>
       </c>
       <c r="D174">
-        <v>0.8562171242901105</v>
+        <v>0.8814014909591403</v>
       </c>
       <c r="E174">
-        <v>1.004084907724852</v>
+        <v>1.027396248707724</v>
       </c>
       <c r="F174">
-        <v>1.033071470000077</v>
+        <v>1.033262138036906</v>
       </c>
       <c r="G174">
-        <v>1.018251863403424</v>
+        <v>1.017909717293211</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
-        <v>43441</v>
+        <v>43448</v>
       </c>
       <c r="B175">
-        <v>0.747245483061817</v>
+        <v>0.7084495038373474</v>
       </c>
       <c r="C175">
-        <v>0.8200134900627418</v>
+        <v>0.8145039764014627</v>
       </c>
       <c r="D175">
-        <v>0.8531852509937388</v>
+        <v>0.8671272552302193</v>
       </c>
       <c r="E175">
-        <v>1.005908527244876</v>
+        <v>1.024516319598286</v>
       </c>
       <c r="F175">
-        <v>1.034001577673202</v>
+        <v>1.032748372637118</v>
       </c>
       <c r="G175">
-        <v>1.018759714577381</v>
+        <v>1.01737546218832</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>43444</v>
+        <v>43451</v>
       </c>
       <c r="B176">
-        <v>0.738496125028012</v>
+        <v>0.7073949403363063</v>
       </c>
       <c r="C176">
-        <v>0.8105283058063719</v>
+        <v>0.8132911134317723</v>
       </c>
       <c r="D176">
-        <v>0.8429923692508733</v>
+        <v>0.8669009596130436</v>
       </c>
       <c r="E176">
-        <v>1.016959661536217</v>
+        <v>1.022005612169546</v>
       </c>
       <c r="F176">
-        <v>1.035042245315019</v>
+        <v>1.031403800283141</v>
       </c>
       <c r="G176">
-        <v>1.018993120925008</v>
+        <v>1.016865549642165</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2">
-        <v>43445</v>
+        <v>43452</v>
       </c>
       <c r="B177">
-        <v>0.7446384684236664</v>
+        <v>0.7035760679554453</v>
       </c>
       <c r="C177">
-        <v>0.8144079746529096</v>
+        <v>0.804860245476179</v>
       </c>
       <c r="D177">
-        <v>0.8436238185694545</v>
+        <v>0.8578049391593757</v>
       </c>
       <c r="E177">
-        <v>1.014260704646583</v>
+        <v>1.028614680254024</v>
       </c>
       <c r="F177">
-        <v>1.035788086373657</v>
+        <v>1.031604037054341</v>
       </c>
       <c r="G177">
-        <v>1.019202160675904</v>
+        <v>1.016196769870575</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
-        <v>43446</v>
+        <v>43453</v>
       </c>
       <c r="B178">
-        <v>0.7442579473873345</v>
+        <v>0.6938784614258284</v>
       </c>
       <c r="C178">
-        <v>0.817189855493438</v>
+        <v>0.795263698452777</v>
       </c>
       <c r="D178">
-        <v>0.8572099629543185</v>
+        <v>0.8595043162316753</v>
       </c>
       <c r="E178">
-        <v>1.011926471660953</v>
+        <v>1.029722345296115</v>
       </c>
       <c r="F178">
-        <v>1.035806513035106</v>
+        <v>1.032159079332403</v>
       </c>
       <c r="G178">
-        <v>1.019308604230042</v>
+        <v>1.016187801559462</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
-        <v>43447</v>
+        <v>43454</v>
       </c>
       <c r="B179">
-        <v>0.7527000188447873</v>
+        <v>0.6958161238512311</v>
       </c>
       <c r="C179">
-        <v>0.8298405136430314</v>
+        <v>0.789164111450846</v>
       </c>
       <c r="D179">
-        <v>0.8682624537747345</v>
+        <v>0.8514673326824695</v>
       </c>
       <c r="E179">
-        <v>1.01488073528339</v>
+        <v>1.030091566976812</v>
       </c>
       <c r="F179">
-        <v>1.032354585123715</v>
+        <v>1.033930472172357</v>
       </c>
       <c r="G179">
-        <v>1.018914891324979</v>
+        <v>1.016704120042126</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
-        <v>43448</v>
+        <v>43455</v>
       </c>
       <c r="B180">
-        <v>0.7347336559421698</v>
+        <v>0.6911415783842714</v>
       </c>
       <c r="C180">
-        <v>0.8159789200372283</v>
+        <v>0.7793821219166677</v>
       </c>
       <c r="D180">
-        <v>0.8542010038374703</v>
+        <v>0.8557835643586721</v>
       </c>
       <c r="E180">
-        <v>1.012035888832154</v>
+        <v>1.037365234086545</v>
       </c>
       <c r="F180">
-        <v>1.031841270983358</v>
+        <v>1.034179011673452</v>
       </c>
       <c r="G180">
-        <v>1.018380108649373</v>
+        <v>1.016889892200901</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2">
-        <v>43451</v>
+        <v>43458</v>
       </c>
       <c r="B181">
-        <v>0.733639967129705</v>
+        <v>0.698259849347045</v>
       </c>
       <c r="C181">
-        <v>0.8147638607559543</v>
+        <v>0.781646897752356</v>
       </c>
       <c r="D181">
-        <v>0.8539780816052495</v>
+        <v>0.8523927853900086</v>
       </c>
       <c r="E181">
-        <v>1.009555766284922</v>
+        <v>1.040319007532122</v>
       </c>
       <c r="F181">
-        <v>1.030497879617741</v>
+        <v>1.033551954416274</v>
       </c>
       <c r="G181">
-        <v>1.017869692570497</v>
+        <v>1.01678739721675</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
-        <v>43452</v>
+        <v>43459</v>
       </c>
       <c r="B182">
-        <v>0.7296794109421877</v>
+        <v>0.6902216775459096</v>
       </c>
       <c r="C182">
-        <v>0.8063177257723348</v>
+        <v>0.7762656174791812</v>
       </c>
       <c r="D182">
-        <v>0.8450176553753227</v>
+        <v>0.8523927853900086</v>
       </c>
       <c r="E182">
-        <v>1.016084324166606</v>
+        <v>1.046374243095554</v>
       </c>
       <c r="F182">
-        <v>1.03069794051347</v>
+        <v>1.033839136101284</v>
       </c>
       <c r="G182">
-        <v>1.017200252386645</v>
+        <v>1.016702838854824</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
-        <v>43453</v>
+        <v>43460</v>
       </c>
       <c r="B183">
-        <v>0.7196220139635742</v>
+        <v>0.6874272966182983</v>
       </c>
       <c r="C183">
-        <v>0.7967038008522405</v>
+        <v>0.7723425101563092</v>
       </c>
       <c r="D183">
-        <v>0.8466916998622201</v>
+        <v>0.8523927853900086</v>
       </c>
       <c r="E183">
-        <v>1.01717849587862</v>
+        <v>1.049364938709201</v>
       </c>
       <c r="F183">
-        <v>1.031252495277069</v>
+        <v>1.034616370936861</v>
       </c>
       <c r="G183">
-        <v>1.017191275219428</v>
+        <v>1.016514504321446</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2">
-        <v>43454</v>
+        <v>43461</v>
       </c>
       <c r="B184">
-        <v>0.7216315655125364</v>
+        <v>0.6797279539792151</v>
       </c>
       <c r="C184">
-        <v>0.7905931684198512</v>
+        <v>0.769376922168353</v>
       </c>
       <c r="D184">
-        <v>0.838774523491453</v>
+        <v>0.8466606276862213</v>
       </c>
       <c r="E184">
-        <v>1.017543219782625</v>
+        <v>1.04441736818786</v>
       </c>
       <c r="F184">
-        <v>1.033022332236213</v>
+        <v>1.036192796394332</v>
       </c>
       <c r="G184">
-        <v>1.017708103560601</v>
+        <v>1.016501692448427</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2">
-        <v>43455</v>
+        <v>43462</v>
       </c>
       <c r="B185">
-        <v>0.7167835899515347</v>
+        <v>0.6808331711577148</v>
       </c>
       <c r="C185">
-        <v>0.7807934651806124</v>
+        <v>0.7745604365452543</v>
       </c>
       <c r="D185">
-        <v>0.8430264131747365</v>
+        <v>0.8475020087474381</v>
       </c>
       <c r="E185">
-        <v>1.024728280691517</v>
+        <v>1.05080490326392</v>
       </c>
       <c r="F185">
-        <v>1.033270653435736</v>
+        <v>1.038814317280432</v>
       </c>
       <c r="G185">
-        <v>1.017894059167227</v>
+        <v>1.017584295718529</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2">
-        <v>43458</v>
+        <v>43467</v>
       </c>
       <c r="B186">
-        <v>0.7241659555543574</v>
+        <v>0.6749397031756577</v>
       </c>
       <c r="C186">
-        <v>0.7830623421831484</v>
+        <v>0.7639818005978977</v>
       </c>
       <c r="D186">
-        <v>0.8396861804910638</v>
+        <v>0.8350790107325923</v>
       </c>
       <c r="E186">
-        <v>1.027646071923554</v>
+        <v>1.055235563432285</v>
       </c>
       <c r="F186">
-        <v>1.03264414694648</v>
+        <v>1.042145449180258</v>
       </c>
       <c r="G186">
-        <v>1.017791462970468</v>
+        <v>1.018674586112443</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2">
-        <v>43459</v>
+        <v>43468</v>
       </c>
       <c r="B187">
-        <v>0.7158295599149366</v>
+        <v>0.6718116711626642</v>
       </c>
       <c r="C187">
-        <v>0.7776713172244704</v>
+        <v>0.7627743660923822</v>
       </c>
       <c r="D187">
-        <v>0.8396861804910638</v>
+        <v>0.8328861696492711</v>
       </c>
       <c r="E187">
-        <v>1.033627543949231</v>
+        <v>1.060810810810811</v>
       </c>
       <c r="F187">
-        <v>1.032931076389038</v>
+        <v>1.042689952680888</v>
       </c>
       <c r="G187">
-        <v>1.017706821108142</v>
+        <v>1.019832779433357</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="2">
-        <v>43460</v>
+        <v>43469</v>
       </c>
       <c r="B188">
-        <v>0.7129315047904455</v>
+        <v>0.6878313009409631</v>
       </c>
       <c r="C188">
-        <v>0.773741105746989</v>
+        <v>0.7810489948735487</v>
       </c>
       <c r="D188">
-        <v>0.8396861804910638</v>
+        <v>0.8515504074318</v>
       </c>
       <c r="E188">
-        <v>1.036581807571668</v>
+        <v>1.061475409836065</v>
       </c>
       <c r="F188">
-        <v>1.033707628550091</v>
+        <v>1.042100659376174</v>
       </c>
       <c r="G188">
-        <v>1.017518300596598</v>
+        <v>1.020879509459007</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="2">
-        <v>43461</v>
+        <v>43472</v>
       </c>
       <c r="B189">
-        <v>0.7049465091980656</v>
+        <v>0.7004816199349879</v>
       </c>
       <c r="C189">
-        <v>0.7707701475272648</v>
+        <v>0.7857902566477524</v>
       </c>
       <c r="D189">
-        <v>0.834039471965647</v>
+        <v>0.8585177205086296</v>
       </c>
       <c r="E189">
-        <v>1.031694507258006</v>
+        <v>1.056638605818934</v>
       </c>
       <c r="F189">
-        <v>1.035282669373921</v>
+        <v>1.041591285133648</v>
       </c>
       <c r="G189">
-        <v>1.017505476072003</v>
+        <v>1.0217532791989</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="2">
-        <v>43462</v>
+        <v>43473</v>
       </c>
       <c r="B190">
-        <v>0.7060927309877213</v>
+        <v>0.6986804496504573</v>
       </c>
       <c r="C190">
-        <v>0.7759630484655122</v>
+        <v>0.7840923822722413</v>
       </c>
       <c r="D190">
-        <v>0.8348683105735517</v>
+        <v>0.8598386090229806</v>
       </c>
       <c r="E190">
-        <v>1.038004230797287</v>
+        <v>1.051358735784965</v>
       </c>
       <c r="F190">
-        <v>1.037901887679844</v>
+        <v>1.043747343349855</v>
       </c>
       <c r="G190">
-        <v>1.01858914840027</v>
+        <v>1.022871755713456</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2">
-        <v>43467</v>
+        <v>43474</v>
       </c>
       <c r="B191">
-        <v>0.6999806097240594</v>
+        <v>0.7005548480665734</v>
       </c>
       <c r="C191">
-        <v>0.7653652562068082</v>
+        <v>0.792009295588853</v>
       </c>
       <c r="D191">
-        <v>0.8226305019809307</v>
+        <v>0.8793402402787585</v>
       </c>
       <c r="E191">
-        <v>1.042380917645343</v>
+        <v>1.048146507162901</v>
       </c>
       <c r="F191">
-        <v>1.041230093721507</v>
+        <v>1.042958691505393</v>
       </c>
       <c r="G191">
-        <v>1.019680515443293</v>
+        <v>1.02321895747227</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="2">
-        <v>43468</v>
+        <v>43475</v>
       </c>
       <c r="B192">
-        <v>0.6967365247407795</v>
+        <v>0.6994259456793298</v>
       </c>
       <c r="C192">
-        <v>0.7641556352198376</v>
+        <v>0.7905198124921</v>
       </c>
       <c r="D192">
-        <v>0.8204703495427148</v>
+        <v>0.8813044596519229</v>
       </c>
       <c r="E192">
-        <v>1.047888248595813</v>
+        <v>1.047998818490622</v>
       </c>
       <c r="F192">
-        <v>1.041774118964278</v>
+        <v>1.042401892764426</v>
       </c>
       <c r="G192">
-        <v>1.02083985246667</v>
+        <v>1.023707089834292</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2">
-        <v>43469</v>
+        <v>43476</v>
       </c>
       <c r="B193">
-        <v>0.7133504980587028</v>
+        <v>0.7048188390255535</v>
       </c>
       <c r="C193">
-        <v>0.7824633565925663</v>
+        <v>0.7962034402107026</v>
       </c>
       <c r="D193">
-        <v>0.838856359846894</v>
+        <v>0.8861507082288526</v>
       </c>
       <c r="E193">
-        <v>1.048544751623022</v>
+        <v>1.04563579973416</v>
       </c>
       <c r="F193">
-        <v>1.041185343257989</v>
+        <v>1.042323730165142</v>
       </c>
       <c r="G193">
-        <v>1.021887616126071</v>
+        <v>1.023922329301011</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2">
-        <v>43472</v>
+        <v>43479</v>
       </c>
       <c r="B194">
-        <v>0.7264701559495896</v>
+        <v>0.7001915169644414</v>
       </c>
       <c r="C194">
-        <v>0.7872132040754736</v>
+        <v>0.7892586850731564</v>
       </c>
       <c r="D194">
-        <v>0.8457198113050052</v>
+        <v>0.8738908690216914</v>
       </c>
       <c r="E194">
-        <v>1.043766868480561</v>
+        <v>1.046743464776252</v>
       </c>
       <c r="F194">
-        <v>1.040676416417977</v>
+        <v>1.041345380326912</v>
       </c>
       <c r="G194">
-        <v>1.022762248703442</v>
+        <v>1.02395564017086</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="2">
-        <v>43473</v>
+        <v>43480</v>
       </c>
       <c r="B195">
-        <v>0.7246021605300722</v>
+        <v>0.7101242931149454</v>
       </c>
       <c r="C195">
-        <v>0.7855122551060046</v>
+        <v>0.8047480486407884</v>
       </c>
       <c r="D195">
-        <v>0.8470210093565143</v>
+        <v>0.8915678464831797</v>
       </c>
       <c r="E195">
-        <v>1.038551316653294</v>
+        <v>1.042386648944026</v>
       </c>
       <c r="F195">
-        <v>1.042830580887338</v>
+        <v>1.040846544861818</v>
       </c>
       <c r="G195">
-        <v>1.023881829700574</v>
+        <v>1.023740400704141</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="2">
-        <v>43474</v>
+        <v>43481</v>
       </c>
       <c r="B196">
-        <v>0.7265461009146806</v>
+        <v>0.7084128162657343</v>
       </c>
       <c r="C196">
-        <v>0.793443504756446</v>
+        <v>0.8049181833971374</v>
       </c>
       <c r="D196">
-        <v>0.8662319301235369</v>
+        <v>0.8939540855829418</v>
       </c>
       <c r="E196">
-        <v>1.035378218688453</v>
+        <v>1.044786589868557</v>
       </c>
       <c r="F196">
-        <v>1.042042621745388</v>
+        <v>1.044151329818065</v>
       </c>
       <c r="G196">
-        <v>1.024229374317095</v>
+        <v>1.024022261910558</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="2">
-        <v>43475</v>
+        <v>43482</v>
       </c>
       <c r="B197">
-        <v>0.7253753151724525</v>
+        <v>0.7029983612122401</v>
       </c>
       <c r="C197">
-        <v>0.7919513244308546</v>
+        <v>0.8004841058042141</v>
       </c>
       <c r="D197">
-        <v>0.8681668689115798</v>
+        <v>0.8890869021691811</v>
       </c>
       <c r="E197">
-        <v>1.035232329126851</v>
+        <v>1.045266578053464</v>
       </c>
       <c r="F197">
-        <v>1.041486312061651</v>
+        <v>1.044548290434654</v>
       </c>
       <c r="G197">
-        <v>1.02471798870416</v>
+        <v>1.024607764507525</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="2">
-        <v>43476</v>
+        <v>43483</v>
       </c>
       <c r="B198">
-        <v>0.7309682900039894</v>
+        <v>0.7101987300089083</v>
       </c>
       <c r="C198">
-        <v>0.7976452443405017</v>
+        <v>0.815086185616067</v>
       </c>
       <c r="D198">
-        <v>0.8729408745425759</v>
+        <v>0.9002248999613867</v>
       </c>
       <c r="E198">
-        <v>1.032898096141222</v>
+        <v>1.045931177078718</v>
       </c>
       <c r="F198">
-        <v>1.041408218115511</v>
+        <v>1.04342503240674</v>
       </c>
       <c r="G198">
-        <v>1.024933440717353</v>
+        <v>1.024743570361526</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="2">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B199">
-        <v>0.7261692898822202</v>
+        <v>0.7144166736551649</v>
       </c>
       <c r="C199">
-        <v>0.7906879133007024</v>
+        <v>0.8195788185855896</v>
       </c>
       <c r="D199">
-        <v>0.8608637925520408</v>
+        <v>0.9037382972600617</v>
       </c>
       <c r="E199">
-        <v>1.033992267853236</v>
+        <v>1.04186973859105</v>
       </c>
       <c r="F199">
-        <v>1.040430727598661</v>
+        <v>1.042919171090025</v>
       </c>
       <c r="G199">
-        <v>1.0249667844813</v>
+        <v>1.024514237834486</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="2">
-        <v>43480</v>
+        <v>43487</v>
       </c>
       <c r="B200">
-        <v>0.736470581498892</v>
+        <v>0.7037368496862498</v>
       </c>
       <c r="C200">
-        <v>0.8062053257654277</v>
+        <v>0.808691197544667</v>
       </c>
       <c r="D200">
-        <v>0.8782772596081612</v>
+        <v>0.8973883957202546</v>
       </c>
       <c r="E200">
-        <v>1.02968852578598</v>
+        <v>1.044232757347511</v>
       </c>
       <c r="F200">
-        <v>1.039932330279477</v>
+        <v>1.042864720739962</v>
       </c>
       <c r="G200">
-        <v>1.024751332468106</v>
+        <v>1.024307966678881</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="2">
-        <v>43481</v>
+        <v>43488</v>
       </c>
       <c r="B201">
-        <v>0.7346956072266678</v>
+        <v>0.7049509698210915</v>
       </c>
       <c r="C201">
-        <v>0.8063757686101143</v>
+        <v>0.8081087567841972</v>
       </c>
       <c r="D201">
-        <v>0.8806279270818433</v>
+        <v>0.8974797779445179</v>
       </c>
       <c r="E201">
-        <v>1.032059231162011</v>
+        <v>1.042460493280165</v>
       </c>
       <c r="F201">
-        <v>1.043234212519071</v>
+        <v>1.04274703772531</v>
       </c>
       <c r="G201">
-        <v>1.025033472009193</v>
+        <v>1.024213158818541</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="2">
-        <v>43482</v>
+        <v>43489</v>
       </c>
       <c r="B202">
-        <v>0.7290802707279613</v>
+        <v>0.7086238759775829</v>
       </c>
       <c r="C202">
-        <v>0.8019336615726265</v>
+        <v>0.8126698244205712</v>
       </c>
       <c r="D202">
-        <v>0.8758332986892764</v>
+        <v>0.9012274460363042</v>
       </c>
       <c r="E202">
-        <v>1.032533372237217</v>
+        <v>1.043420469649978</v>
       </c>
       <c r="F202">
-        <v>1.043630824470253</v>
+        <v>1.041913596076764</v>
       </c>
       <c r="G202">
-        <v>1.025619552783179</v>
+        <v>1.024013293599445</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="2">
-        <v>43483</v>
+        <v>43490</v>
       </c>
       <c r="B203">
-        <v>0.736547780072597</v>
+        <v>0.7054013318143877</v>
       </c>
       <c r="C203">
-        <v>0.816562183544753</v>
+        <v>0.8192786322349045</v>
       </c>
       <c r="D203">
-        <v>0.8868052625359387</v>
+        <v>0.9161214193952291</v>
       </c>
       <c r="E203">
-        <v>1.033189875264425</v>
+        <v>1.042645104120514</v>
       </c>
       <c r="F203">
-        <v>1.04250855304202</v>
+        <v>1.041398952445523</v>
       </c>
       <c r="G203">
-        <v>1.025755492743885</v>
+        <v>1.023737838329537</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="2">
-        <v>43486</v>
+        <v>43493</v>
       </c>
       <c r="B204">
-        <v>0.7409222134499739</v>
+        <v>0.7035682436692463</v>
       </c>
       <c r="C204">
-        <v>0.8210629519937799</v>
+        <v>0.8191006249191357</v>
       </c>
       <c r="D204">
-        <v>0.8902662856802421</v>
+        <v>0.9163796157161475</v>
       </c>
       <c r="E204">
-        <v>1.029177912320374</v>
+        <v>1.050251070742874</v>
       </c>
       <c r="F204">
-        <v>1.042003136042284</v>
+        <v>1.040523355687251</v>
       </c>
       <c r="G204">
-        <v>1.025525933753636</v>
+        <v>1.023594345351725</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2">
-        <v>43487</v>
+        <v>43494</v>
       </c>
       <c r="B205">
-        <v>0.7298461578285116</v>
+        <v>0.6949219827192068</v>
       </c>
       <c r="C205">
-        <v>0.8101556151161908</v>
+        <v>0.8217227789342348</v>
       </c>
       <c r="D205">
-        <v>0.8840110420157672</v>
+        <v>0.9148749658562779</v>
       </c>
       <c r="E205">
-        <v>1.031512145306004</v>
+        <v>1.055678629449121</v>
       </c>
       <c r="F205">
-        <v>1.041948733518007</v>
+        <v>1.041910083150953</v>
       </c>
       <c r="G205">
-        <v>1.025319458907659</v>
+        <v>1.023594345351725</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="2">
-        <v>43488</v>
+        <v>43495</v>
       </c>
       <c r="B206">
-        <v>0.7311053229780294</v>
+        <v>0.6879529775754001</v>
       </c>
       <c r="C206">
-        <v>0.8095721196435063</v>
+        <v>0.8151656830298156</v>
       </c>
       <c r="D206">
-        <v>0.8841010620067521</v>
+        <v>0.9185691338094955</v>
       </c>
       <c r="E206">
-        <v>1.029761470566781</v>
+        <v>1.058632402894698</v>
       </c>
       <c r="F206">
-        <v>1.041831153868763</v>
+        <v>1.042706639078489</v>
       </c>
       <c r="G206">
-        <v>1.025224557425657</v>
+        <v>1.023891580805765</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="2">
-        <v>43489</v>
+        <v>43496</v>
       </c>
       <c r="B207">
-        <v>0.7349144974550731</v>
+        <v>0.6822114216218387</v>
       </c>
       <c r="C207">
-        <v>0.8141414466842263</v>
+        <v>0.823694340522515</v>
       </c>
       <c r="D207">
-        <v>0.8877928636733986</v>
+        <v>0.9285254763672275</v>
       </c>
       <c r="E207">
-        <v>1.030709752717194</v>
+        <v>1.058558558558559</v>
       </c>
       <c r="F207">
-        <v>1.040998444263295</v>
+        <v>1.043213378626656</v>
       </c>
       <c r="G207">
-        <v>1.025024494841977</v>
+        <v>1.024301560742372</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2">
-        <v>43490</v>
+        <v>43497</v>
       </c>
       <c r="B208">
-        <v>0.7315723938307008</v>
+        <v>0.7014529095090105</v>
       </c>
       <c r="C208">
-        <v>0.8207622220509696</v>
+        <v>0.8354681904991637</v>
       </c>
       <c r="D208">
-        <v>0.9024648128222514</v>
+        <v>0.92813568964337</v>
       </c>
       <c r="E208">
-        <v>1.029943832518784</v>
+        <v>1.061216954659578</v>
       </c>
       <c r="F208">
-        <v>1.040484252662869</v>
+        <v>1.04329154122594</v>
       </c>
       <c r="G208">
-        <v>1.024748767563187</v>
+        <v>1.024715384240884</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2">
-        <v>43493</v>
+        <v>43507</v>
       </c>
       <c r="B209">
-        <v>0.72967129636751</v>
+        <v>0.7191918567573463</v>
       </c>
       <c r="C209">
-        <v>0.8205838923908476</v>
+        <v>0.8506667067326769</v>
       </c>
       <c r="D209">
-        <v>0.9027191602149615</v>
+        <v>0.9352169812762806</v>
       </c>
       <c r="E209">
-        <v>1.03745714494128</v>
+        <v>1.061253876827648</v>
       </c>
       <c r="F209">
-        <v>1.039609424974091</v>
+        <v>1.044362105366696</v>
       </c>
       <c r="G209">
-        <v>1.024605132887724</v>
+        <v>1.025025431567943</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="2">
-        <v>43494</v>
+        <v>43508</v>
       </c>
       <c r="B210">
-        <v>0.7207042508919428</v>
+        <v>0.7251733030389171</v>
       </c>
       <c r="C210">
-        <v>0.82321079473068</v>
+        <v>0.856805965259527</v>
       </c>
       <c r="D210">
-        <v>0.9012369401452173</v>
+        <v>0.936130471219916</v>
       </c>
       <c r="E210">
-        <v>1.042818586330148</v>
+        <v>1.062619997046227</v>
       </c>
       <c r="F210">
-        <v>1.040994934423019</v>
+        <v>1.044556194517727</v>
       </c>
       <c r="G210">
-        <v>1.024605132887724</v>
+        <v>1.025559686672834</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2">
-        <v>43495</v>
+        <v>43509</v>
       </c>
       <c r="B211">
-        <v>0.7134766890122968</v>
+        <v>0.7370851335589323</v>
       </c>
       <c r="C211">
-        <v>0.8166418249163063</v>
+        <v>0.873964105605599</v>
       </c>
       <c r="D211">
-        <v>0.9048760391989598</v>
+        <v>0.9469720583065111</v>
       </c>
       <c r="E211">
-        <v>1.045736377562186</v>
+        <v>1.059924678777138</v>
       </c>
       <c r="F211">
-        <v>1.041790790705589</v>
+        <v>1.044849523822906</v>
       </c>
       <c r="G211">
-        <v>1.024902661858325</v>
+        <v>1.025801831072892</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="2">
-        <v>43496</v>
+        <v>43510</v>
       </c>
       <c r="B212">
-        <v>0.7075221158582372</v>
+        <v>0.7403130354796916</v>
       </c>
       <c r="C212">
-        <v>0.8251859265191083</v>
+        <v>0.8752794662116564</v>
       </c>
       <c r="D212">
-        <v>0.9146839627258317</v>
+        <v>0.9447941706780691</v>
       </c>
       <c r="E212">
-        <v>1.045663432781385</v>
+        <v>1.057820115197165</v>
       </c>
       <c r="F212">
-        <v>1.042297085165394</v>
+        <v>1.04447364076118</v>
       </c>
       <c r="G212">
-        <v>1.025313046645361</v>
+        <v>1.026099066526932</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="2">
-        <v>43497</v>
+        <v>43511</v>
       </c>
       <c r="B213">
-        <v>0.7274774812929408</v>
+        <v>0.7355049217700428</v>
       </c>
       <c r="C213">
-        <v>0.8369810971591234</v>
+        <v>0.8589591874427837</v>
       </c>
       <c r="D213">
-        <v>0.9142999865461034</v>
+        <v>0.92714211564138</v>
       </c>
       <c r="E213">
-        <v>1.048289444890218</v>
+        <v>1.064872249298479</v>
       </c>
       <c r="F213">
-        <v>1.042375179111534</v>
+        <v>1.044239152963328</v>
       </c>
       <c r="G213">
-        <v>1.025727278789776</v>
+        <v>1.026259214939669</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2">
-        <v>43507</v>
+        <v>43514</v>
       </c>
       <c r="B214">
-        <v>0.7458745603984226</v>
+        <v>0.7613567880713844</v>
       </c>
       <c r="C214">
-        <v>0.8522071356091526</v>
+        <v>0.8864977347482086</v>
       </c>
       <c r="D214">
-        <v>0.9212757174838793</v>
+        <v>0.9419683000048514</v>
       </c>
       <c r="E214">
-        <v>1.048325917280619</v>
+        <v>1.070669029685424</v>
       </c>
       <c r="F214">
-        <v>1.043444802935628</v>
+        <v>1.042823443861688</v>
       </c>
       <c r="G214">
-        <v>1.026037632284971</v>
+        <v>1.026386052482557</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2">
-        <v>43508</v>
+        <v>43515</v>
       </c>
       <c r="B215">
-        <v>0.7520779240403982</v>
+        <v>0.7623833540222275</v>
       </c>
       <c r="C215">
-        <v>0.8583575114055986</v>
+        <v>0.8849188492201365</v>
       </c>
       <c r="D215">
-        <v>0.9221755900483065</v>
+        <v>0.9380179295246994</v>
       </c>
       <c r="E215">
-        <v>1.049675395725436</v>
+        <v>1.073216659282233</v>
       </c>
       <c r="F215">
-        <v>1.043638721610873</v>
+        <v>1.042744403030952</v>
       </c>
       <c r="G215">
-        <v>1.026572414960578</v>
+        <v>1.026211811009499</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="2">
-        <v>43509</v>
+        <v>43516</v>
       </c>
       <c r="B216">
-        <v>0.7644316948307348</v>
+        <v>0.7624390060954626</v>
       </c>
       <c r="C216">
-        <v>0.8755467225513698</v>
+        <v>0.8880883262061369</v>
       </c>
       <c r="D216">
-        <v>0.9328555617787559</v>
+        <v>0.9475190224561015</v>
       </c>
       <c r="E216">
-        <v>1.047012911226202</v>
+        <v>1.079345739181805</v>
       </c>
       <c r="F216">
-        <v>1.043931793273915</v>
+        <v>1.042795340455204</v>
       </c>
       <c r="G216">
-        <v>1.026814798475421</v>
+        <v>1.02646932965718</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2">
-        <v>43510</v>
+        <v>43517</v>
       </c>
       <c r="B217">
-        <v>0.7677793549905854</v>
+        <v>0.7610536337340887</v>
       </c>
       <c r="C217">
-        <v>0.8768644650767435</v>
+        <v>0.8857158300884536</v>
       </c>
       <c r="D217">
-        <v>0.9307101398845192</v>
+        <v>0.9513693709380601</v>
       </c>
       <c r="E217">
-        <v>1.044933984973375</v>
+        <v>1.073364347954512</v>
       </c>
       <c r="F217">
-        <v>1.043556240364389</v>
+        <v>1.042487959446784</v>
       </c>
       <c r="G217">
-        <v>1.027112327446022</v>
+        <v>1.026503921714331</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="2">
-        <v>43511</v>
+        <v>43518</v>
       </c>
       <c r="B218">
-        <v>0.7627928556777324</v>
+        <v>0.7803537465965587</v>
       </c>
       <c r="C218">
-        <v>0.8605146327488932</v>
+        <v>0.9056320161452298</v>
       </c>
       <c r="D218">
-        <v>0.9133212237350311</v>
+        <v>0.957562759650129</v>
       </c>
       <c r="E218">
-        <v>1.051900211539865</v>
+        <v>1.066718357701965</v>
       </c>
       <c r="F218">
-        <v>1.04332195852597</v>
+        <v>1.042855938425436</v>
       </c>
       <c r="G218">
-        <v>1.027272634003458</v>
+        <v>1.026301494120632</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2">
-        <v>43514</v>
+        <v>43521</v>
       </c>
       <c r="B219">
-        <v>0.7896038508688219</v>
+        <v>0.823975187571336</v>
       </c>
       <c r="C219">
-        <v>0.8881030482026184</v>
+        <v>0.9594959905132053</v>
       </c>
       <c r="D219">
-        <v>0.9279263944178442</v>
+        <v>0.9623146353118195</v>
       </c>
       <c r="E219">
-        <v>1.057626376832738</v>
+        <v>1.064576871953921</v>
       </c>
       <c r="F219">
-        <v>1.041907492894764</v>
+        <v>1.03994196646561</v>
       </c>
       <c r="G219">
-        <v>1.027399596796947</v>
+        <v>1.025887670622119</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="2">
-        <v>43515</v>
+        <v>43522</v>
       </c>
       <c r="B220">
-        <v>0.7906685033952804</v>
+        <v>0.8230272728481497</v>
       </c>
       <c r="C220">
-        <v>0.8865213035514129</v>
+        <v>0.9479728275267072</v>
       </c>
       <c r="D220">
-        <v>0.9240349120439222</v>
+        <v>0.9560926688859811</v>
       </c>
       <c r="E220">
-        <v>1.06014297177037</v>
+        <v>1.063358440407621</v>
       </c>
       <c r="F220">
-        <v>1.041828521488555</v>
+        <v>1.038454242384855</v>
       </c>
       <c r="G220">
-        <v>1.027225183262457</v>
+        <v>1.024676948621827</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="2">
-        <v>43516</v>
+        <v>43523</v>
       </c>
       <c r="B221">
-        <v>0.7907262202134971</v>
+        <v>0.8196526533101917</v>
       </c>
       <c r="C221">
-        <v>0.8896965199813505</v>
+        <v>0.9463516462872427</v>
       </c>
       <c r="D221">
-        <v>0.9333943723429784</v>
+        <v>0.9556068477518977</v>
       </c>
       <c r="E221">
-        <v>1.066197388576847</v>
+        <v>1.062952296558854</v>
       </c>
       <c r="F221">
-        <v>1.041879414172557</v>
+        <v>1.039527441219968</v>
       </c>
       <c r="G221">
-        <v>1.027482956206814</v>
+        <v>1.024534736831317</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="2">
-        <v>43517</v>
+        <v>43524</v>
       </c>
       <c r="B222">
-        <v>0.7892894492165523</v>
+        <v>0.8208625754459662</v>
       </c>
       <c r="C222">
-        <v>0.8873197276316646</v>
+        <v>0.9440305790789714</v>
       </c>
       <c r="D222">
-        <v>0.9371873237449497</v>
+        <v>0.951477700411187</v>
       </c>
       <c r="E222">
-        <v>1.060288861331972</v>
+        <v>1.056047851129818</v>
       </c>
       <c r="F222">
-        <v>1.041572303148412</v>
+        <v>1.038989963570959</v>
       </c>
       <c r="G222">
-        <v>1.02751758242322</v>
+        <v>1.024179847948691</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="2">
-        <v>43518</v>
+        <v>43525</v>
       </c>
       <c r="B223">
-        <v>0.8093056146690369</v>
+        <v>0.8277122888108369</v>
       </c>
       <c r="C223">
-        <v>0.907271978892202</v>
+        <v>0.9647009357463049</v>
       </c>
       <c r="D223">
-        <v>0.9432883877157742</v>
+        <v>0.9574255201642355</v>
       </c>
       <c r="E223">
-        <v>1.053723831059888</v>
+        <v>1.050398759415153</v>
       </c>
       <c r="F223">
-        <v>1.041939958917317</v>
+        <v>1.03828562194595</v>
       </c>
       <c r="G223">
-        <v>1.027314954934621</v>
+        <v>1.023637905719989</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2">
-        <v>43521</v>
+        <v>43528</v>
       </c>
       <c r="B224">
-        <v>0.854545452697383</v>
+        <v>0.8425803437400047</v>
       </c>
       <c r="C224">
-        <v>0.9612334927793118</v>
+        <v>0.9761212151866606</v>
       </c>
       <c r="D224">
-        <v>0.9479694272469894</v>
+        <v>0.962324271982742</v>
       </c>
       <c r="E224">
-        <v>1.051608432416661</v>
+        <v>1.036442179884803</v>
       </c>
       <c r="F224">
-        <v>1.039028546408422</v>
+        <v>1.037676129317824</v>
       </c>
       <c r="G224">
-        <v>1.026900722790206</v>
+        <v>1.022634736062604</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2">
-        <v>43522</v>
+        <v>43529</v>
       </c>
       <c r="B225">
-        <v>0.8535623694341219</v>
+        <v>0.8649654958779411</v>
       </c>
       <c r="C225">
-        <v>0.9496894630857095</v>
+        <v>0.9817578648219284</v>
       </c>
       <c r="D225">
-        <v>0.9418402115698935</v>
+        <v>0.9623910640812035</v>
       </c>
       <c r="E225">
-        <v>1.050404843533445</v>
+        <v>1.031974597548368</v>
       </c>
       <c r="F225">
-        <v>1.037542129051559</v>
+        <v>1.036925241425826</v>
       </c>
       <c r="G225">
-        <v>1.025688805215991</v>
+        <v>1.021931364233863</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2">
-        <v>43523</v>
+        <v>43530</v>
       </c>
       <c r="B226">
-        <v>0.8500625482935781</v>
+        <v>0.8804411825864653</v>
       </c>
       <c r="C226">
-        <v>0.9480653461319687</v>
+        <v>0.9900104424612509</v>
       </c>
       <c r="D226">
-        <v>0.9413616325632755</v>
+        <v>0.9649165364608431</v>
       </c>
       <c r="E226">
-        <v>1.05000364723904</v>
+        <v>1.038435976960567</v>
       </c>
       <c r="F226">
-        <v>1.03861438525586</v>
+        <v>1.036907676796773</v>
       </c>
       <c r="G226">
-        <v>1.025546452992988</v>
+        <v>1.021472699179784</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2">
-        <v>43524</v>
+        <v>43531</v>
       </c>
       <c r="B227">
-        <v>0.8513173596942606</v>
+        <v>0.891644433333995</v>
       </c>
       <c r="C227">
-        <v>0.9457400758216792</v>
+        <v>0.9799148883708377</v>
       </c>
       <c r="D227">
-        <v>0.9372940383524448</v>
+        <v>0.9563382378450014</v>
       </c>
       <c r="E227">
-        <v>1.043183310234153</v>
+        <v>1.033820705951854</v>
       </c>
       <c r="F227">
-        <v>1.038077379693641</v>
+        <v>1.03843931245016</v>
       </c>
       <c r="G227">
-        <v>1.025191213661709</v>
+        <v>1.021714843579843</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2">
-        <v>43525</v>
+        <v>43532</v>
       </c>
       <c r="B228">
-        <v>0.8584212039562263</v>
+        <v>0.8568654975146708</v>
       </c>
       <c r="C228">
-        <v>0.9664478633818</v>
+        <v>0.9409969937885762</v>
       </c>
       <c r="D228">
-        <v>0.943153194056586</v>
+        <v>0.9380275661956219</v>
       </c>
       <c r="E228">
-        <v>1.037603034502881</v>
+        <v>1.04319893664156</v>
       </c>
       <c r="F228">
-        <v>1.037373656718314</v>
+        <v>1.039477382027169</v>
       </c>
       <c r="G228">
-        <v>1.024648736271346</v>
+        <v>1.022242692748224</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2">
-        <v>43528</v>
+        <v>43535</v>
       </c>
       <c r="B229">
-        <v>0.8738408779000795</v>
+        <v>0.8912794687691908</v>
       </c>
       <c r="C229">
-        <v>0.9778888232227028</v>
+        <v>0.9596172948192975</v>
       </c>
       <c r="D229">
-        <v>0.9479789202642207</v>
+        <v>0.9471618010339818</v>
       </c>
       <c r="E229">
-        <v>1.023816470931505</v>
+        <v>1.046743464776252</v>
       </c>
       <c r="F229">
-        <v>1.036764699430438</v>
+        <v>1.039697818121779</v>
       </c>
       <c r="G229">
-        <v>1.023644575995568</v>
+        <v>1.02258476975783</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2">
-        <v>43529</v>
+        <v>43536</v>
       </c>
       <c r="B230">
-        <v>0.8970565405267609</v>
+        <v>0.9067356029295311</v>
       </c>
       <c r="C230">
-        <v>0.9835356799788041</v>
+        <v>0.9661513390464617</v>
       </c>
       <c r="D230">
-        <v>0.948044716693995</v>
+        <v>0.961037610265115</v>
       </c>
       <c r="E230">
-        <v>1.019403311693049</v>
+        <v>1.044158913011372</v>
       </c>
       <c r="F230">
-        <v>1.036014471071455</v>
+        <v>1.039415027594032</v>
       </c>
       <c r="G230">
-        <v>1.022940509595309</v>
+        <v>1.02238234216413</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2">
-        <v>43530</v>
+        <v>43537</v>
       </c>
       <c r="B231">
-        <v>0.9131063899683665</v>
+        <v>0.8861313171351124</v>
       </c>
       <c r="C231">
-        <v>0.9918032017893283</v>
+        <v>0.9581352726448704</v>
       </c>
       <c r="D231">
-        <v>0.9505325418993961</v>
+        <v>0.9572686750375002</v>
       </c>
       <c r="E231">
-        <v>1.02578598001313</v>
+        <v>1.051764879633732</v>
       </c>
       <c r="F231">
-        <v>1.035996921870076</v>
+        <v>1.03938428949319</v>
       </c>
       <c r="G231">
-        <v>1.022481391614813</v>
+        <v>1.022238849186318</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2">
-        <v>43531</v>
+        <v>43538</v>
       </c>
       <c r="B232">
-        <v>0.9247252920010217</v>
+        <v>0.8654905887884815</v>
       </c>
       <c r="C232">
-        <v>0.9816893661758206</v>
+        <v>0.9515212164575905</v>
       </c>
       <c r="D232">
-        <v>0.9420821198365765</v>
+        <v>0.9587287968317286</v>
       </c>
       <c r="E232">
-        <v>1.021226931213072</v>
+        <v>1.049106483532713</v>
       </c>
       <c r="F232">
-        <v>1.037527212230387</v>
+        <v>1.038869645861949</v>
       </c>
       <c r="G232">
-        <v>1.022723775129656</v>
+        <v>1.022120979954544</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2">
-        <v>43532</v>
+        <v>43539</v>
       </c>
       <c r="B233">
-        <v>0.8886560245007978</v>
+        <v>0.8753740670355449</v>
       </c>
       <c r="C233">
-        <v>0.9427009971666752</v>
+        <v>0.9634893591425332</v>
       </c>
       <c r="D233">
-        <v>0.9240444050611534</v>
+        <v>0.9640744908016315</v>
       </c>
       <c r="E233">
-        <v>1.030490918374791</v>
+        <v>1.049660316053759</v>
       </c>
       <c r="F233">
-        <v>1.038564370031928</v>
+        <v>1.039158584009864</v>
       </c>
       <c r="G233">
-        <v>1.023252145542965</v>
+        <v>1.02184808705924</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2">
-        <v>43535</v>
+        <v>43542</v>
       </c>
       <c r="B234">
-        <v>0.9243467869028666</v>
+        <v>0.8985977082322707</v>
       </c>
       <c r="C234">
-        <v>0.961355016749174</v>
+        <v>0.9909514448577766</v>
       </c>
       <c r="D234">
-        <v>0.933042476014583</v>
+        <v>0.9772584535203425</v>
       </c>
       <c r="E234">
-        <v>1.033992267853235</v>
+        <v>1.049623393885689</v>
       </c>
       <c r="F234">
-        <v>1.038784612509244</v>
+        <v>1.039114672437233</v>
       </c>
       <c r="G234">
-        <v>1.023594560349648</v>
+        <v>1.021836556373523</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="2">
-        <v>43536</v>
+        <v>43543</v>
       </c>
       <c r="B235">
-        <v>0.9403763583781073</v>
+        <v>0.9020275061392888</v>
       </c>
       <c r="C235">
-        <v>0.9679008931431881</v>
+        <v>0.9863757641045713</v>
       </c>
       <c r="D235">
-        <v>0.9467114387911529</v>
+        <v>0.979161529878</v>
       </c>
       <c r="E235">
-        <v>1.031439200525203</v>
+        <v>1.053020233348102</v>
       </c>
       <c r="F235">
-        <v>1.03850207036703</v>
+        <v>1.039232355451885</v>
       </c>
       <c r="G235">
-        <v>1.023391932861049</v>
+        <v>1.021785308881447</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2">
-        <v>43537</v>
+        <v>43544</v>
       </c>
       <c r="B236">
-        <v>0.9190076339343588</v>
+        <v>0.9009829884336806</v>
       </c>
       <c r="C236">
-        <v>0.9598703108565116</v>
+        <v>0.9867557823241435</v>
       </c>
       <c r="D236">
-        <v>0.9429986870175137</v>
+        <v>0.9743328931479286</v>
       </c>
       <c r="E236">
-        <v>1.038952512947699</v>
+        <v>1.05076798109585</v>
       </c>
       <c r="F236">
-        <v>1.038471359264616</v>
+        <v>1.038853837695802</v>
       </c>
       <c r="G236">
-        <v>1.023248298185586</v>
+        <v>1.021653346589351</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2">
-        <v>43538</v>
+        <v>43545</v>
       </c>
       <c r="B237">
-        <v>0.8976011148849629</v>
+        <v>0.9130203668946655</v>
       </c>
       <c r="C237">
-        <v>0.9532442776128113</v>
+        <v>0.9871292400775327</v>
       </c>
       <c r="D237">
-        <v>0.9444370428007415</v>
+        <v>0.9660450238557454</v>
       </c>
       <c r="E237">
-        <v>1.036326500838865</v>
+        <v>1.057820115197165</v>
       </c>
       <c r="F237">
-        <v>1.03795716766419</v>
+        <v>1.039486164341695</v>
       </c>
       <c r="G237">
-        <v>1.023130312559314</v>
+        <v>1.021769934633824</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2">
-        <v>43539</v>
+        <v>43546</v>
       </c>
       <c r="B238">
-        <v>0.9078512795989704</v>
+        <v>0.9183556153431943</v>
       </c>
       <c r="C238">
-        <v>0.965234092795859</v>
+        <v>0.9863342659400481</v>
       </c>
       <c r="D238">
-        <v>0.9497030486006476</v>
+        <v>0.9674340336645473</v>
       </c>
       <c r="E238">
-        <v>1.036873586694872</v>
+        <v>1.057820115197165</v>
       </c>
       <c r="F238">
-        <v>1.038245852026886</v>
+        <v>1.040773651651251</v>
       </c>
       <c r="G238">
-        <v>1.022857150185443</v>
+        <v>1.021885241490994</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2">
-        <v>43542</v>
+        <v>43549</v>
       </c>
       <c r="B239">
-        <v>0.9319365400280285</v>
+        <v>0.9065180583708748</v>
       </c>
       <c r="C239">
-        <v>0.9927459081990156</v>
+        <v>0.9629285550568085</v>
       </c>
       <c r="D239">
-        <v>0.9626904782091065</v>
+        <v>0.9478280605236106</v>
       </c>
       <c r="E239">
-        <v>1.036837114304472</v>
+        <v>1.060441589130114</v>
       </c>
       <c r="F239">
-        <v>1.038201979023437</v>
+        <v>1.041946090640512</v>
       </c>
       <c r="G239">
-        <v>1.022845608113307</v>
+        <v>1.022273441243469</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2">
-        <v>43543</v>
+        <v>43550</v>
       </c>
       <c r="B240">
-        <v>0.9354935867077376</v>
+        <v>0.881233297639997</v>
       </c>
       <c r="C240">
-        <v>0.9881619415793176</v>
+        <v>0.9520236709852627</v>
       </c>
       <c r="D240">
-        <v>0.9645651854395449</v>
+        <v>0.9492755549559408</v>
       </c>
       <c r="E240">
-        <v>1.040192574221315</v>
+        <v>1.062066164525181</v>
       </c>
       <c r="F240">
-        <v>1.038319558672681</v>
+        <v>1.0425432880283</v>
       </c>
       <c r="G240">
-        <v>1.022794310014928</v>
+        <v>1.022556583637188</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="2">
-        <v>43544</v>
+        <v>43551</v>
       </c>
       <c r="B241">
-        <v>0.9344103163992952</v>
+        <v>0.8898907804785932</v>
       </c>
       <c r="C241">
-        <v>0.9885426479544676</v>
+        <v>0.9630732969499312</v>
       </c>
       <c r="D241">
-        <v>0.9598085291159025</v>
+        <v>0.954636866978718</v>
       </c>
       <c r="E241">
-        <v>1.037967758406886</v>
+        <v>1.060035445281347</v>
       </c>
       <c r="F241">
-        <v>1.037941373382948</v>
+        <v>1.042199021298869</v>
       </c>
       <c r="G241">
-        <v>1.022662217411601</v>
+        <v>1.022888411148379</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="2">
-        <v>43545</v>
+        <v>43552</v>
       </c>
       <c r="B242">
-        <v>0.9468942930789224</v>
+        <v>0.8771896117915891</v>
       </c>
       <c r="C242">
-        <v>0.9889167819834215</v>
+        <v>0.9592161287440291</v>
       </c>
       <c r="D242">
-        <v>0.9516442069517042</v>
+        <v>0.9561973430701374</v>
       </c>
       <c r="E242">
-        <v>1.044933984973376</v>
+        <v>1.057783193029095</v>
       </c>
       <c r="F242">
-        <v>1.038573144632618</v>
+        <v>1.04273035132771</v>
       </c>
       <c r="G242">
-        <v>1.022778920585414</v>
+        <v>1.02290891014521</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="2">
-        <v>43546</v>
+        <v>43553</v>
       </c>
       <c r="B243">
-        <v>0.9524274843320951</v>
+        <v>0.9061889156424674</v>
       </c>
       <c r="C243">
-        <v>0.9881203682678886</v>
+        <v>0.9962495487106766</v>
       </c>
       <c r="D243">
-        <v>0.9530125108146749</v>
+        <v>0.965373779881157</v>
       </c>
       <c r="E243">
-        <v>1.044933984973376</v>
+        <v>1.037512922758824</v>
       </c>
       <c r="F243">
-        <v>1.039859501093751</v>
+        <v>1.043377607908298</v>
       </c>
       <c r="G243">
-        <v>1.022894341306768</v>
+        <v>1.023279173275458</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="2">
-        <v>43549</v>
+        <v>43556</v>
       </c>
       <c r="B244">
-        <v>0.9524274843320951</v>
+        <v>0.9061889156424674</v>
       </c>
       <c r="C244">
-        <v>0.9881203682678886</v>
+        <v>0.9962495487106766</v>
       </c>
       <c r="D244">
-        <v>0.9530125108146749</v>
+        <v>0.965373779881157</v>
       </c>
       <c r="E244">
-        <v>1.044933984973376</v>
+        <v>1.037512922758824</v>
       </c>
       <c r="F244">
-        <v>1.039859501093751</v>
+        <v>1.043377607908298</v>
       </c>
       <c r="G244">
-        <v>1.022894341306768</v>
+        <v>1.023279173275458</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/nav.xlsx
+++ b/correlation/data/nav.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G244"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,7 +423,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>43192</v>
+        <v>43199</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -446,5568 +446,5591 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>43193</v>
+        <v>43200</v>
       </c>
       <c r="B3">
-        <v>0.9898308291316044</v>
+        <v>1.006321808340223</v>
       </c>
       <c r="C3">
-        <v>0.9937124234827744</v>
+        <v>1.019269417148906</v>
       </c>
       <c r="D3">
-        <v>1.002881696904768</v>
+        <v>1.016512303511991</v>
       </c>
       <c r="E3">
-        <v>1.005907546891154</v>
+        <v>1.001731123388582</v>
       </c>
       <c r="F3">
-        <v>1.000131734717894</v>
+        <v>0.9999492324471185</v>
       </c>
       <c r="G3">
-        <v>1.000494538298532</v>
+        <v>1.000603572844337</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>43194</v>
+        <v>43201</v>
       </c>
       <c r="B4">
-        <v>0.9829665942835798</v>
+        <v>1.010117299724032</v>
       </c>
       <c r="C4">
-        <v>0.9917527479155791</v>
+        <v>1.022168639901299</v>
       </c>
       <c r="D4">
-        <v>0.980903108922959</v>
+        <v>1.022101861818788</v>
       </c>
       <c r="E4">
-        <v>1.004873726185202</v>
+        <v>1.005156537753223</v>
       </c>
       <c r="F4">
-        <v>1.000673603524167</v>
+        <v>1.000392135580877</v>
       </c>
       <c r="G4">
-        <v>1.000976264724045</v>
+        <v>1.000690528254114</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>43199</v>
+        <v>43202</v>
       </c>
       <c r="B5">
-        <v>0.9842673206092907</v>
+        <v>1.004262660955061</v>
       </c>
       <c r="C5">
-        <v>0.9912553616696247</v>
+        <v>1.011862714736622</v>
       </c>
       <c r="D5">
-        <v>1.004525912343512</v>
+        <v>1.019904345346511</v>
       </c>
       <c r="E5">
-        <v>1.002436863092601</v>
+        <v>1.009502762430939</v>
       </c>
       <c r="F5">
-        <v>1.00334606183452</v>
+        <v>1.000906813530778</v>
       </c>
       <c r="G5">
-        <v>1.001901281956014</v>
+        <v>1.001077991330034</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>43200</v>
+        <v>43203</v>
       </c>
       <c r="B6">
-        <v>0.9904896699657276</v>
+        <v>1.000255142628364</v>
       </c>
       <c r="C6">
-        <v>1.010356274734726</v>
+        <v>1.004727597901358</v>
       </c>
       <c r="D6">
-        <v>1.021112949093787</v>
+        <v>1.019146809184911</v>
       </c>
       <c r="E6">
-        <v>1.004172204991877</v>
+        <v>1.002209944751381</v>
       </c>
       <c r="F6">
-        <v>1.003295124410267</v>
+        <v>1.001726096797968</v>
       </c>
       <c r="G6">
-        <v>1.002506002362509</v>
+        <v>1.001301773634608</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>43201</v>
+        <v>43206</v>
       </c>
       <c r="B7">
-        <v>0.9942254481004642</v>
+        <v>0.997802062592657</v>
       </c>
       <c r="C7">
-        <v>1.013230144832711</v>
+        <v>0.9885629354414297</v>
       </c>
       <c r="D7">
-        <v>1.02672780525152</v>
+        <v>1.002845226430536</v>
       </c>
       <c r="E7">
-        <v>1.00760596662236</v>
+        <v>1.0051197053407</v>
       </c>
       <c r="F7">
-        <v>1.003739509525298</v>
+        <v>1.003238619752779</v>
       </c>
       <c r="G7">
-        <v>1.002593123099038</v>
+        <v>1.001865705042135</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>43202</v>
+        <v>43207</v>
       </c>
       <c r="B8">
-        <v>0.9884629184861943</v>
+        <v>0.9776302613562325</v>
       </c>
       <c r="C8">
-        <v>1.003014341256258</v>
+        <v>0.9729328013605855</v>
       </c>
       <c r="D8">
-        <v>1.024520343012317</v>
+        <v>0.9944812332821028</v>
       </c>
       <c r="E8">
-        <v>1.011962782454586</v>
+        <v>1.007366482504604</v>
       </c>
       <c r="F8">
-        <v>1.004255909619445</v>
+        <v>1.004005384861816</v>
       </c>
       <c r="G8">
-        <v>1.002981322851513</v>
+        <v>1.002272349458447</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>43203</v>
+        <v>43208</v>
       </c>
       <c r="B9">
-        <v>0.9845184491604835</v>
+        <v>0.9908737470001779</v>
       </c>
       <c r="C9">
-        <v>0.9959416184371636</v>
+        <v>0.9775113438367877</v>
       </c>
       <c r="D9">
-        <v>1.023759378308452</v>
+        <v>1.00180849353514</v>
       </c>
       <c r="E9">
-        <v>1.004652193176783</v>
+        <v>1.005672191528545</v>
       </c>
       <c r="F9">
-        <v>1.005077934259106</v>
+        <v>1.013186434209628</v>
       </c>
       <c r="G9">
-        <v>1.003205530629345</v>
+        <v>1.006434700323525</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>43206</v>
+        <v>43209</v>
       </c>
       <c r="B10">
-        <v>0.9821039626464984</v>
+        <v>0.996528855404844</v>
       </c>
       <c r="C10">
-        <v>0.9799183101041803</v>
+        <v>0.9893363729600844</v>
       </c>
       <c r="D10">
-        <v>1.00738401601947</v>
+        <v>1.015840775822886</v>
       </c>
       <c r="E10">
-        <v>1.00756904445429</v>
+        <v>1.009539594843462</v>
       </c>
       <c r="F10">
-        <v>1.006595518209251</v>
+        <v>1.011941753861397</v>
       </c>
       <c r="G10">
-        <v>1.003770534229481</v>
+        <v>1.006505031904963</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>43207</v>
+        <v>43210</v>
       </c>
       <c r="B11">
-        <v>0.9622495178916597</v>
+        <v>0.9759671708740169</v>
       </c>
       <c r="C11">
-        <v>0.9644248558929284</v>
+        <v>0.9761026234273912</v>
       </c>
       <c r="D11">
-        <v>0.9989821681712054</v>
+        <v>1.006243884301403</v>
       </c>
       <c r="E11">
-        <v>1.009821296706543</v>
+        <v>1.005082872928177</v>
       </c>
       <c r="F11">
-        <v>1.007364848961755</v>
+        <v>1.012199968138984</v>
       </c>
       <c r="G11">
-        <v>1.004177951791484</v>
+        <v>1.006510146929067</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>43208</v>
+        <v>43213</v>
       </c>
       <c r="B12">
-        <v>0.9752846480219535</v>
+        <v>0.9665216493764415</v>
       </c>
       <c r="C12">
-        <v>0.968963360671096</v>
+        <v>0.9775226858567759</v>
       </c>
       <c r="D12">
-        <v>1.006342590961866</v>
+        <v>1.000821050110521</v>
       </c>
       <c r="E12">
-        <v>1.008122876975336</v>
+        <v>0.9998158379373849</v>
       </c>
       <c r="F12">
-        <v>1.01657661866839</v>
+        <v>1.009388496072517</v>
       </c>
       <c r="G12">
-        <v>1.008348216459157</v>
+        <v>1.006126520121226</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>43209</v>
+        <v>43214</v>
       </c>
       <c r="B13">
-        <v>0.9808507864191692</v>
+        <v>0.9886391330474543</v>
       </c>
       <c r="C13">
-        <v>0.9806849841914632</v>
+        <v>0.9975497603226137</v>
       </c>
       <c r="D13">
-        <v>1.020438382129226</v>
+        <v>1.013452386702032</v>
       </c>
       <c r="E13">
-        <v>1.011999704622655</v>
+        <v>0.9984898710865562</v>
       </c>
       <c r="F13">
-        <v>1.015327773542751</v>
+        <v>1.01012199968139</v>
       </c>
       <c r="G13">
-        <v>1.008418681760761</v>
+        <v>1.005786371018273</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>43210</v>
+        <v>43215</v>
       </c>
       <c r="B14">
-        <v>0.9606125922787985</v>
+        <v>0.9890091014755871</v>
       </c>
       <c r="C14">
-        <v>0.9675669590121883</v>
+        <v>0.9937118751105002</v>
       </c>
       <c r="D14">
-        <v>1.010798055917946</v>
+        <v>1.003260713513056</v>
       </c>
       <c r="E14">
-        <v>1.00753212228622</v>
+        <v>0.996353591160221</v>
       </c>
       <c r="F14">
-        <v>1.015586851821277</v>
+        <v>1.009099646202674</v>
       </c>
       <c r="G14">
-        <v>1.008423806509969</v>
+        <v>1.005886113988312</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>43213</v>
+        <v>43216</v>
       </c>
       <c r="B15">
-        <v>0.9513156741426225</v>
+        <v>0.9705139328304421</v>
       </c>
       <c r="C15">
-        <v>0.9689746035092215</v>
+        <v>0.9747114221564204</v>
       </c>
       <c r="D15">
-        <v>1.005350678454863</v>
+        <v>0.9926595076742714</v>
       </c>
       <c r="E15">
-        <v>1.002252252252252</v>
+        <v>0.9991528545119704</v>
       </c>
       <c r="F15">
-        <v>1.012765972395429</v>
+        <v>1.008459799975841</v>
       </c>
       <c r="G15">
-        <v>1.0080394503194</v>
+        <v>1.005303001240393</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>43214</v>
+        <v>43217</v>
       </c>
       <c r="B16">
-        <v>0.97308519053411</v>
+        <v>0.9726725383769016</v>
       </c>
       <c r="C16">
-        <v>0.98882654845204</v>
+        <v>0.9750702141113827</v>
       </c>
       <c r="D16">
-        <v>1.018039183368568</v>
+        <v>1.001690066484549</v>
       </c>
       <c r="E16">
-        <v>1.000923054201742</v>
+        <v>0.9955801104972376</v>
       </c>
       <c r="F16">
-        <v>1.013501930352733</v>
+        <v>1.007707915011615</v>
       </c>
       <c r="G16">
-        <v>1.007698654497095</v>
+        <v>1.004799171366095</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>43215</v>
+        <v>43222</v>
       </c>
       <c r="B17">
-        <v>0.9734493383675782</v>
+        <v>0.9717331707306631</v>
       </c>
       <c r="C17">
-        <v>0.98502222415806</v>
+        <v>0.9768272149926863</v>
       </c>
       <c r="D17">
-        <v>1.007801383560105</v>
+        <v>1.016351533828786</v>
       </c>
       <c r="E17">
-        <v>0.9987815684536991</v>
+        <v>0.9938858195211785</v>
       </c>
       <c r="F17">
-        <v>1.012476156016061</v>
+        <v>1.006618163229936</v>
       </c>
       <c r="G17">
-        <v>1.007798587106643</v>
+        <v>1.003719901280035</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>43216</v>
+        <v>43223</v>
       </c>
       <c r="B18">
-        <v>0.9552451482810044</v>
+        <v>0.9809077006854682</v>
       </c>
       <c r="C18">
-        <v>0.9661879232931769</v>
+        <v>0.9844458340942261</v>
       </c>
       <c r="D18">
-        <v>0.9971521975929589</v>
+        <v>1.002771788427097</v>
       </c>
       <c r="E18">
-        <v>1.001587653226997</v>
+        <v>0.9922651933701656</v>
       </c>
       <c r="F18">
-        <v>1.011834168824189</v>
+        <v>1.006894758862876</v>
       </c>
       <c r="G18">
-        <v>1.007214365696979</v>
+        <v>1.003297911791409</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>43217</v>
+        <v>43224</v>
       </c>
       <c r="B19">
-        <v>0.9573697931784704</v>
+        <v>0.9806900643885798</v>
       </c>
       <c r="C19">
-        <v>0.9665435777422573</v>
+        <v>0.9796697276451379</v>
       </c>
       <c r="D19">
-        <v>1.006223627920825</v>
+        <v>0.9899740585214879</v>
       </c>
       <c r="E19">
-        <v>0.9980062029242354</v>
+        <v>0.9925598526703499</v>
       </c>
       <c r="F19">
-        <v>1.01107976800638</v>
+        <v>1.007541607510796</v>
       </c>
       <c r="G19">
-        <v>1.006709577900031</v>
+        <v>1.003048554366313</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>43222</v>
+        <v>43227</v>
       </c>
       <c r="B20">
-        <v>0.9564452043022401</v>
+        <v>0.9989198840363978</v>
       </c>
       <c r="C20">
-        <v>0.9682852142863078</v>
+        <v>0.995135778773199</v>
       </c>
       <c r="D20">
-        <v>1.020951451781089</v>
+        <v>0.9922155716354643</v>
       </c>
       <c r="E20">
-        <v>0.9963077831930286</v>
+        <v>0.9944383057090237</v>
       </c>
       <c r="F20">
-        <v>1.009986369847855</v>
+        <v>1.006967408981655</v>
       </c>
       <c r="G20">
-        <v>1.005628255817231</v>
+        <v>1.003015306709633</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>43223</v>
+        <v>43228</v>
       </c>
       <c r="B21">
-        <v>0.9654753943187058</v>
+        <v>1.002682698443801</v>
       </c>
       <c r="C21">
-        <v>0.9758372113192277</v>
+        <v>1.006682578024013</v>
       </c>
       <c r="D21">
-        <v>1.007310245642065</v>
+        <v>1.005730479880964</v>
       </c>
       <c r="E21">
-        <v>0.9946832077979614</v>
+        <v>0.9957642725598526</v>
       </c>
       <c r="F21">
-        <v>1.010263890986886</v>
+        <v>1.005489022829643</v>
       </c>
       <c r="G21">
-        <v>1.005205464007605</v>
+        <v>1.002094602370814</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>43224</v>
+        <v>43229</v>
       </c>
       <c r="B22">
-        <v>0.9652611820239001</v>
+        <v>1.000594724289713</v>
       </c>
       <c r="C22">
-        <v>0.9711028701936643</v>
+        <v>1.004849816601872</v>
       </c>
       <c r="D22">
-        <v>0.994454594332707</v>
+        <v>1.01014106051093</v>
       </c>
       <c r="E22">
-        <v>0.9949785851425191</v>
+        <v>0.9930386740331489</v>
       </c>
       <c r="F22">
-        <v>1.01091290403038</v>
+        <v>1.004723133023242</v>
       </c>
       <c r="G22">
-        <v>1.004955632483735</v>
+        <v>1.001295379854478</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>43227</v>
+        <v>43230</v>
       </c>
       <c r="B23">
-        <v>0.9832041977638485</v>
+        <v>1.002476463407852</v>
       </c>
       <c r="C23">
-        <v>0.9864336762982113</v>
+        <v>1.010414751457151</v>
       </c>
       <c r="D23">
-        <v>0.996706252338554</v>
+        <v>1.019174596537564</v>
       </c>
       <c r="E23">
-        <v>0.9968616157140742</v>
+        <v>0.994843462246777</v>
       </c>
       <c r="F23">
-        <v>1.010336784197454</v>
+        <v>1.005117019209391</v>
       </c>
       <c r="G23">
-        <v>1.004922321613886</v>
+        <v>1.000653444329356</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>43228</v>
+        <v>43231</v>
       </c>
       <c r="B24">
-        <v>0.9869078130185734</v>
+        <v>0.9943065222863205</v>
       </c>
       <c r="C24">
-        <v>0.9978795029657037</v>
+        <v>1.00516726339015</v>
       </c>
       <c r="D24">
-        <v>1.010282327874104</v>
+        <v>1.029523400589754</v>
       </c>
       <c r="E24">
-        <v>0.9981908137645837</v>
+        <v>0.9973848987108653</v>
       </c>
       <c r="F24">
-        <v>1.008853451273963</v>
+        <v>1.005628195948749</v>
       </c>
       <c r="G24">
-        <v>1.003999866756521</v>
+        <v>1.000181583355712</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>43229</v>
+        <v>43234</v>
       </c>
       <c r="B25">
-        <v>0.9848526882924276</v>
+        <v>0.9903586821755461</v>
       </c>
       <c r="C25">
-        <v>0.9960627683793455</v>
+        <v>1.014628895854095</v>
       </c>
       <c r="D25">
-        <v>1.014712870405385</v>
+        <v>1.043384658337959</v>
       </c>
       <c r="E25">
-        <v>0.9954585733274252</v>
+        <v>0.9963904235727437</v>
       </c>
       <c r="F25">
-        <v>1.008084998752911</v>
+        <v>1.005183542209719</v>
       </c>
       <c r="G25">
-        <v>1.003199124692835</v>
+        <v>0.9999143233462487</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>43230</v>
+        <v>43235</v>
       </c>
       <c r="B26">
-        <v>0.9867048226123245</v>
+        <v>0.9991570037107871</v>
       </c>
       <c r="C26">
-        <v>1.001579039891982</v>
+        <v>1.018471219247942</v>
       </c>
       <c r="D26">
-        <v>1.023787291424227</v>
+        <v>1.03051481363618</v>
       </c>
       <c r="E26">
-        <v>0.997267759562841</v>
+        <v>0.9925230202578267</v>
       </c>
       <c r="F26">
-        <v>1.008480202906595</v>
+        <v>1.004245217784048</v>
       </c>
       <c r="G26">
-        <v>1.002555968667283</v>
+        <v>0.9994271173002902</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>43231</v>
+        <v>43236</v>
       </c>
       <c r="B27">
-        <v>0.9786634165550986</v>
+        <v>0.9964186930029268</v>
       </c>
       <c r="C27">
-        <v>0.9963774392102701</v>
+        <v>1.010359650522517</v>
       </c>
       <c r="D27">
-        <v>1.034182933256417</v>
+        <v>1.029131069634444</v>
       </c>
       <c r="E27">
-        <v>0.9998153891596508</v>
+        <v>0.9837937384898708</v>
       </c>
       <c r="F27">
-        <v>1.008993090074931</v>
+        <v>1.004179570086357</v>
       </c>
       <c r="G27">
-        <v>1.002083210552884</v>
+        <v>0.9990652293448932</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>43234</v>
+        <v>43237</v>
       </c>
       <c r="B28">
-        <v>0.9747776865470728</v>
+        <v>0.9913916662889759</v>
       </c>
       <c r="C28">
-        <v>1.005756333120303</v>
+        <v>1.00288650515561</v>
       </c>
       <c r="D28">
-        <v>1.048106925842162</v>
+        <v>1.023571945094838</v>
       </c>
       <c r="E28">
-        <v>0.9988184906217685</v>
+        <v>0.9778637200736645</v>
       </c>
       <c r="F28">
-        <v>1.008546948496995</v>
+        <v>1.003538848556888</v>
       </c>
       <c r="G28">
-        <v>1.001815442406787</v>
+        <v>0.9988670221608417</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>43235</v>
+        <v>43238</v>
       </c>
       <c r="B29">
-        <v>0.9834375869104234</v>
+        <v>0.9949383712059049</v>
       </c>
       <c r="C29">
-        <v>1.009565056785723</v>
+        <v>1.013012048080198</v>
       </c>
       <c r="D29">
-        <v>1.035178833351388</v>
+        <v>1.027070505114527</v>
       </c>
       <c r="E29">
-        <v>0.9949416629744492</v>
+        <v>0.9790055248618782</v>
       </c>
       <c r="F29">
-        <v>1.007605484379776</v>
+        <v>1.004166440546818</v>
       </c>
       <c r="G29">
-        <v>1.001327310044765</v>
+        <v>0.9987787879950384</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>43236</v>
+        <v>43241</v>
       </c>
       <c r="B30">
-        <v>0.9807423571670021</v>
+        <v>1.007725275349165</v>
       </c>
       <c r="C30">
-        <v>1.001524420795093</v>
+        <v>1.017730120761108</v>
       </c>
       <c r="D30">
-        <v>1.033788826645595</v>
+        <v>1.033237974196135</v>
       </c>
       <c r="E30">
-        <v>0.9861911091419281</v>
+        <v>0.9772375690607731</v>
       </c>
       <c r="F30">
-        <v>1.007539617020828</v>
+        <v>1.004703876365253</v>
       </c>
       <c r="G30">
-        <v>1.000964734038328</v>
+        <v>0.9987941330673519</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>43237</v>
+        <v>43242</v>
       </c>
       <c r="B31">
-        <v>0.9757944190526303</v>
+        <v>1.011161884247064</v>
       </c>
       <c r="C31">
-        <v>0.9941166253816098</v>
+        <v>1.013828154433774</v>
       </c>
       <c r="D31">
-        <v>1.028204541995615</v>
+        <v>1.033237974196135</v>
       </c>
       <c r="E31">
-        <v>0.9802466400827049</v>
+        <v>0.9797790055248614</v>
       </c>
       <c r="F31">
-        <v>1.006896751597503</v>
+        <v>1.005798879962746</v>
       </c>
       <c r="G31">
-        <v>1.000766150006534</v>
+        <v>0.9986278947839539</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>43238</v>
+        <v>43243</v>
       </c>
       <c r="B32">
-        <v>0.9792853247982078</v>
+        <v>0.9980413563066145</v>
       </c>
       <c r="C32">
-        <v>1.004153624095424</v>
+        <v>1.000429102097178</v>
       </c>
       <c r="D32">
-        <v>1.031718936191282</v>
+        <v>1.014424944044873</v>
       </c>
       <c r="E32">
-        <v>0.9813912272928659</v>
+        <v>0.9815469613259664</v>
       </c>
       <c r="F32">
-        <v>1.007526443549039</v>
+        <v>1.006671556690725</v>
       </c>
       <c r="G32">
-        <v>1.000677748082703</v>
+        <v>0.9986534699044766</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>43241</v>
+        <v>43244</v>
       </c>
       <c r="B33">
-        <v>0.991871056678182</v>
+        <v>0.9945186985907065</v>
       </c>
       <c r="C33">
-        <v>1.008830438937123</v>
+        <v>0.9933265838365262</v>
       </c>
       <c r="D33">
-        <v>1.037914318697335</v>
+        <v>1.017559952867357</v>
       </c>
       <c r="E33">
-        <v>0.9796189632255198</v>
+        <v>0.9858195211786367</v>
       </c>
       <c r="F33">
-        <v>1.008065677660954</v>
+        <v>1.006687312138171</v>
       </c>
       <c r="G33">
-        <v>1.000693122330326</v>
+        <v>0.9989168936458609</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>43242</v>
+        <v>43245</v>
       </c>
       <c r="B34">
-        <v>0.9952535985100993</v>
+        <v>0.9821012650039228</v>
       </c>
       <c r="C34">
-        <v>1.004962593894099</v>
+        <v>0.9905445446544929</v>
       </c>
       <c r="D34">
-        <v>1.037914318697335</v>
+        <v>1.01185792194268</v>
       </c>
       <c r="E34">
-        <v>0.9821665928223297</v>
+        <v>0.9903130755064453</v>
       </c>
       <c r="F34">
-        <v>1.009164345208194</v>
+        <v>1.008240974316869</v>
       </c>
       <c r="G34">
-        <v>1.000526567981079</v>
+        <v>0.9988273807240314</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>43243</v>
+        <v>43248</v>
       </c>
       <c r="B35">
-        <v>0.9823394916291738</v>
+        <v>0.9776975736042258</v>
       </c>
       <c r="C35">
-        <v>0.9916807114241565</v>
+        <v>0.9948949749712503</v>
       </c>
       <c r="D35">
-        <v>1.019016142420692</v>
+        <v>1.018613556655435</v>
       </c>
       <c r="E35">
-        <v>0.9839388568896758</v>
+        <v>0.9863720073664822</v>
       </c>
       <c r="F35">
-        <v>1.010039941966466</v>
+        <v>1.008274235817033</v>
       </c>
       <c r="G35">
-        <v>1.000552191727117</v>
+        <v>0.9987250802419403</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>43244</v>
+        <v>43249</v>
       </c>
       <c r="B36">
-        <v>0.9788722547577133</v>
+        <v>0.9684343229201875</v>
       </c>
       <c r="C36">
-        <v>0.9846403021169287</v>
+        <v>0.9873031925943513</v>
       </c>
       <c r="D36">
-        <v>1.022165340018303</v>
+        <v>1.008435446340968</v>
       </c>
       <c r="E36">
-        <v>0.9882218283857619</v>
+        <v>0.9885819521178633</v>
       </c>
       <c r="F36">
-        <v>1.010055750132613</v>
+        <v>1.008109678921487</v>
       </c>
       <c r="G36">
-        <v>1.000816116311308</v>
+        <v>0.9984053912354059</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>43245</v>
+        <v>43250</v>
       </c>
       <c r="B37">
-        <v>0.9666501806724059</v>
+        <v>0.9430665173295103</v>
       </c>
       <c r="C37">
-        <v>0.9818825908613632</v>
+        <v>0.9663744664708607</v>
       </c>
       <c r="D37">
-        <v>1.016437502201481</v>
+        <v>0.994284075398997</v>
       </c>
       <c r="E37">
-        <v>0.9927263328902666</v>
+        <v>0.9902394106813993</v>
       </c>
       <c r="F37">
-        <v>1.011614610961032</v>
+        <v>1.008352137751627</v>
       </c>
       <c r="G37">
-        <v>1.000726433200175</v>
+        <v>0.9982276441477728</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>43248</v>
+        <v>43251</v>
       </c>
       <c r="B38">
-        <v>0.962315771137636</v>
+        <v>0.9549966009472209</v>
       </c>
       <c r="C38">
-        <v>0.9861949782384191</v>
+        <v>0.9868792553987236</v>
       </c>
       <c r="D38">
-        <v>1.02322371232477</v>
+        <v>1.007905501829665</v>
       </c>
       <c r="E38">
-        <v>0.9887756609068078</v>
+        <v>0.9927808471454876</v>
       </c>
       <c r="F38">
-        <v>1.011647983756231</v>
+        <v>1.007542482813432</v>
       </c>
       <c r="G38">
-        <v>1.000623938216023</v>
+        <v>0.9975844298666255</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>43249</v>
+        <v>43252</v>
       </c>
       <c r="B39">
-        <v>0.9531982562067254</v>
+        <v>0.9434859576046023</v>
       </c>
       <c r="C39">
-        <v>0.9786695832526889</v>
+        <v>0.9786292205940352</v>
       </c>
       <c r="D39">
-        <v>1.012999536775198</v>
+        <v>1.008711004254773</v>
       </c>
       <c r="E39">
-        <v>0.9909909909909902</v>
+        <v>0.9911233885819516</v>
       </c>
       <c r="F39">
-        <v>1.011482876243137</v>
+        <v>1.006742456204232</v>
       </c>
       <c r="G39">
-        <v>1.00030364139055</v>
+        <v>0.997292873492666</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>43250</v>
+        <v>43255</v>
       </c>
       <c r="B40">
-        <v>0.9282295541682521</v>
+        <v>0.9431595363507136</v>
       </c>
       <c r="C40">
-        <v>0.9579238712698638</v>
+        <v>0.9882294489086381</v>
       </c>
       <c r="D40">
-        <v>0.9987841179688025</v>
+        <v>1.025418811640784</v>
       </c>
       <c r="E40">
-        <v>0.9926524885541272</v>
+        <v>0.9868876611418044</v>
       </c>
       <c r="F40">
-        <v>1.011726146355515</v>
+        <v>1.005027738340531</v>
       </c>
       <c r="G40">
-        <v>1.000125556355586</v>
+        <v>0.9970396797994907</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>43251</v>
+        <v>43256</v>
       </c>
       <c r="B41">
-        <v>0.939971945605301</v>
+        <v>0.9590796795956913</v>
       </c>
       <c r="C41">
-        <v>0.9782493532345119</v>
+        <v>0.9980241526369079</v>
       </c>
       <c r="D41">
-        <v>1.01246719378149</v>
+        <v>1.028576976590479</v>
       </c>
       <c r="E41">
-        <v>0.9952001181509371</v>
+        <v>0.9852670349907915</v>
       </c>
       <c r="F41">
-        <v>1.010913782261833</v>
+        <v>1.004476297679922</v>
       </c>
       <c r="G41">
-        <v>0.999481119142732</v>
+        <v>0.9964041380545002</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>43252</v>
+        <v>43257</v>
       </c>
       <c r="B42">
-        <v>0.9286423955239725</v>
+        <v>0.9582797160133434</v>
       </c>
       <c r="C42">
-        <v>0.9700714620004036</v>
+        <v>0.9959568164398139</v>
       </c>
       <c r="D42">
-        <v>1.013276341839966</v>
+        <v>1.034056708693935</v>
       </c>
       <c r="E42">
-        <v>0.9935386205878001</v>
+        <v>0.9866298342541432</v>
       </c>
       <c r="F42">
-        <v>1.010111078714129</v>
+        <v>1.003804940558197</v>
       </c>
       <c r="G42">
-        <v>0.9991890084378995</v>
+        <v>0.9963977442743698</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>43255</v>
+        <v>43258</v>
       </c>
       <c r="B43">
-        <v>0.9283211097510177</v>
+        <v>0.9522654429954962</v>
       </c>
       <c r="C43">
-        <v>0.9795877397905062</v>
+        <v>0.9943117563644822</v>
       </c>
       <c r="D43">
-        <v>1.030059767297658</v>
+        <v>1.042443527167761</v>
       </c>
       <c r="E43">
-        <v>0.9892925712597836</v>
+        <v>0.9874401473296496</v>
       </c>
       <c r="F43">
-        <v>1.008390623298427</v>
+        <v>1.003583488991318</v>
       </c>
       <c r="G43">
-        <v>0.9989353333521239</v>
+        <v>0.9959962148821625</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>43256</v>
+        <v>43259</v>
       </c>
       <c r="B44">
-        <v>0.9439907864864679</v>
+        <v>0.9408617756761917</v>
       </c>
       <c r="C44">
-        <v>0.9892967923771191</v>
+        <v>0.9809720614643008</v>
       </c>
       <c r="D44">
-        <v>1.033232225825082</v>
+        <v>1.02410321281341</v>
       </c>
       <c r="E44">
-        <v>0.9876679958647165</v>
+        <v>0.9875874769797416</v>
       </c>
       <c r="F44">
-        <v>1.00783733748327</v>
+        <v>1.004288107613207</v>
       </c>
       <c r="G44">
-        <v>0.9982985832630814</v>
+        <v>0.9956240968785564</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>43257</v>
+        <v>43262</v>
       </c>
       <c r="B45">
-        <v>0.9432034084746853</v>
+        <v>0.9347302372874574</v>
       </c>
       <c r="C45">
-        <v>0.987247534287376</v>
+        <v>0.9810670281717088</v>
       </c>
       <c r="D45">
-        <v>1.038736758715704</v>
+        <v>1.027592841184032</v>
       </c>
       <c r="E45">
-        <v>0.9890341160832957</v>
+        <v>0.9880662983425408</v>
       </c>
       <c r="F45">
-        <v>1.007163733959103</v>
+        <v>1.004090289217496</v>
       </c>
       <c r="G45">
-        <v>0.9982921773265722</v>
+        <v>0.9950678380071863</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>43258</v>
+        <v>43263</v>
       </c>
       <c r="B46">
-        <v>0.9372837560859961</v>
+        <v>0.9448518850906245</v>
       </c>
       <c r="C46">
-        <v>0.9856168596674347</v>
+        <v>0.9929986255651932</v>
       </c>
       <c r="D46">
-        <v>1.047161535194784</v>
+        <v>1.028894877136897</v>
       </c>
       <c r="E46">
-        <v>0.9898464037808292</v>
+        <v>0.9875138121546955</v>
       </c>
       <c r="F46">
-        <v>1.006941541401587</v>
+        <v>1.002806220250651</v>
       </c>
       <c r="G46">
-        <v>0.9978898845137766</v>
+        <v>0.994822316850168</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>43259</v>
+        <v>43264</v>
       </c>
       <c r="B47">
-        <v>0.9260594990085046</v>
+        <v>0.9305249975301421</v>
       </c>
       <c r="C47">
-        <v>0.9723938155745929</v>
+        <v>0.9832361051430688</v>
       </c>
       <c r="D47">
-        <v>1.028738214185312</v>
+        <v>1.016393545659583</v>
       </c>
       <c r="E47">
-        <v>0.989994092453108</v>
+        <v>0.98659300184162</v>
       </c>
       <c r="F47">
-        <v>1.007648517720954</v>
+        <v>1.003564232333329</v>
       </c>
       <c r="G47">
-        <v>0.9975170590089247</v>
+        <v>0.9944450838224573</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>43262</v>
+        <v>43265</v>
       </c>
       <c r="B48">
-        <v>0.9200244261474121</v>
+        <v>0.9271915974266877</v>
       </c>
       <c r="C48">
-        <v>0.9724879518324911</v>
+        <v>0.9793498152003415</v>
       </c>
       <c r="D48">
-        <v>1.032243636308052</v>
+        <v>1.00696635547037</v>
       </c>
       <c r="E48">
-        <v>0.9904740806380142</v>
+        <v>0.9905340699815832</v>
       </c>
       <c r="F48">
-        <v>1.00745003741266</v>
+        <v>1.004520938114352</v>
       </c>
       <c r="G48">
-        <v>0.9969597425325998</v>
+        <v>0.994405442385647</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>43263</v>
+        <v>43266</v>
       </c>
       <c r="B49">
-        <v>0.9299868333107861</v>
+        <v>0.9101001945134778</v>
       </c>
       <c r="C49">
-        <v>0.9843152117220659</v>
+        <v>0.9741766861431037</v>
       </c>
       <c r="D49">
-        <v>1.033551565161507</v>
+        <v>1.002643437321987</v>
       </c>
       <c r="E49">
-        <v>0.9899202481169687</v>
+        <v>0.9895764272559847</v>
       </c>
       <c r="F49">
-        <v>1.006161671871652</v>
+        <v>1.005597560356493</v>
       </c>
       <c r="G49">
-        <v>0.9967137545706357</v>
+        <v>0.9943670797048628</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>43264</v>
+        <v>43270</v>
       </c>
       <c r="B50">
-        <v>0.9158853460789596</v>
+        <v>0.8533038091015356</v>
       </c>
       <c r="C50">
-        <v>0.9746380610102259</v>
+        <v>0.9398347106923221</v>
       </c>
       <c r="D50">
-        <v>1.020993653753749</v>
+        <v>0.9748117572258695</v>
       </c>
       <c r="E50">
-        <v>0.988997193915226</v>
+        <v>0.9864456721915279</v>
       </c>
       <c r="F50">
-        <v>1.00692222030963</v>
+        <v>1.0074514513393</v>
       </c>
       <c r="G50">
-        <v>0.9963358043165763</v>
+        <v>0.9944706589429801</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>43265</v>
+        <v>43271</v>
       </c>
       <c r="B51">
-        <v>0.9126043892906138</v>
+        <v>0.8627109280986536</v>
       </c>
       <c r="C51">
-        <v>0.9707857552674947</v>
+        <v>0.9435531802660687</v>
       </c>
       <c r="D51">
-        <v>1.011523796928095</v>
+        <v>0.9823547002637814</v>
       </c>
       <c r="E51">
-        <v>0.9929478658986849</v>
+        <v>0.9808471454880289</v>
       </c>
       <c r="F51">
-        <v>1.007882127287354</v>
+        <v>1.00632581214955</v>
       </c>
       <c r="G51">
-        <v>0.9962960875102175</v>
+        <v>0.9942711730029025</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>43266</v>
+        <v>43272</v>
       </c>
       <c r="B52">
-        <v>0.895781879939775</v>
+        <v>0.8445981414816162</v>
       </c>
       <c r="C52">
-        <v>0.9656578633528987</v>
+        <v>0.9325281658432758</v>
       </c>
       <c r="D52">
-        <v>1.007181313631104</v>
+        <v>0.9691186579502593</v>
       </c>
       <c r="E52">
-        <v>0.9919878895288725</v>
+        <v>0.9788213627992627</v>
       </c>
       <c r="F52">
-        <v>1.008962351974089</v>
+        <v>1.006944651113121</v>
       </c>
       <c r="G52">
-        <v>0.9962576518911606</v>
+        <v>0.9942276952980138</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>43270</v>
+        <v>43273</v>
       </c>
       <c r="B53">
-        <v>0.83987905385007</v>
+        <v>0.8563596291606287</v>
       </c>
       <c r="C53">
-        <v>0.9316161960569848</v>
+        <v>0.936665174122587</v>
       </c>
       <c r="D53">
-        <v>0.9792236697904989</v>
+        <v>0.9705295277010133</v>
       </c>
       <c r="E53">
-        <v>0.9888495052429472</v>
+        <v>0.9822467771639037</v>
       </c>
       <c r="F53">
-        <v>1.010822446190759</v>
+        <v>1.007328908970275</v>
       </c>
       <c r="G53">
-        <v>0.9963614280626144</v>
+        <v>0.99391440007161</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>43271</v>
+        <v>43276</v>
       </c>
       <c r="B54">
-        <v>0.8491381736600161</v>
+        <v>0.8505362733274241</v>
       </c>
       <c r="C54">
-        <v>0.9353021489591665</v>
+        <v>0.9240963213131452</v>
       </c>
       <c r="D54">
-        <v>0.9868007515274124</v>
+        <v>0.9580480443327363</v>
       </c>
       <c r="E54">
-        <v>0.9832373356963515</v>
+        <v>0.9840147329650087</v>
       </c>
       <c r="F54">
-        <v>1.009693040542677</v>
+        <v>1.006986665639644</v>
       </c>
       <c r="G54">
-        <v>0.9961615628435184</v>
+        <v>0.9935333307758211</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>43272</v>
+        <v>43277</v>
       </c>
       <c r="B55">
-        <v>0.8313103497076969</v>
+        <v>0.8563861989113775</v>
       </c>
       <c r="C55">
-        <v>0.9243735443000881</v>
+        <v>0.9164744579267119</v>
       </c>
       <c r="D55">
-        <v>0.9735048040466043</v>
+        <v>0.9554019605962107</v>
       </c>
       <c r="E55">
-        <v>0.9812066164525175</v>
+        <v>0.9841620626151006</v>
       </c>
       <c r="F55">
-        <v>1.010313950179686</v>
+        <v>1.007261510667312</v>
       </c>
       <c r="G55">
-        <v>0.9961180024752539</v>
+        <v>0.9931855091367116</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>43273</v>
+        <v>43278</v>
       </c>
       <c r="B56">
-        <v>0.8428867976718978</v>
+        <v>0.8479579951657662</v>
       </c>
       <c r="C56">
-        <v>0.9284743759382269</v>
+        <v>0.8978265419463196</v>
       </c>
       <c r="D56">
-        <v>0.9749220592701784</v>
+        <v>0.9380302339628932</v>
       </c>
       <c r="E56">
-        <v>0.9846403780830005</v>
+        <v>0.9854880294659295</v>
       </c>
       <c r="F56">
-        <v>1.010699493787391</v>
+        <v>1.007716668037973</v>
       </c>
       <c r="G56">
-        <v>0.9958041115862892</v>
+        <v>0.9931548189920844</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>43276</v>
+        <v>43279</v>
       </c>
       <c r="B57">
-        <v>0.8371550588289951</v>
+        <v>0.838931880751839</v>
       </c>
       <c r="C57">
-        <v>0.9160154332008315</v>
+        <v>0.8885513650237851</v>
       </c>
       <c r="D57">
-        <v>0.9623840858022595</v>
+        <v>0.9426965243976264</v>
       </c>
       <c r="E57">
-        <v>0.9864126421503466</v>
+        <v>0.9834254143646404</v>
       </c>
       <c r="F57">
-        <v>1.010356105289412</v>
+        <v>1.00966421640282</v>
       </c>
       <c r="G57">
-        <v>0.9954223177703242</v>
+        <v>0.9935397245559519</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>43277</v>
+        <v>43280</v>
       </c>
       <c r="B58">
-        <v>0.8429129494092766</v>
+        <v>0.86592565219486</v>
       </c>
       <c r="C58">
-        <v>0.908460220253116</v>
+        <v>0.9112507180251327</v>
       </c>
       <c r="D58">
-        <v>0.9597260261226889</v>
+        <v>0.9578403007914765</v>
       </c>
       <c r="E58">
-        <v>0.9865603308226253</v>
+        <v>0.9848250460405151</v>
       </c>
       <c r="F58">
-        <v>1.010631869965538</v>
+        <v>1.013425391829224</v>
       </c>
       <c r="G58">
-        <v>0.9950738348242083</v>
+        <v>0.993969386580734</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>43278</v>
+        <v>43283</v>
       </c>
       <c r="B59">
-        <v>0.8346173438910347</v>
+        <v>0.8528180689174859</v>
       </c>
       <c r="C59">
-        <v>0.8899753735535876</v>
+        <v>0.8845124379653797</v>
       </c>
       <c r="D59">
-        <v>0.9422756765773735</v>
+        <v>0.9578403007914765</v>
       </c>
       <c r="E59">
-        <v>0.987889528873135</v>
+        <v>0.9849723756906074</v>
       </c>
       <c r="F59">
-        <v>1.011088550320906</v>
+        <v>1.013907683581597</v>
       </c>
       <c r="G59">
-        <v>0.9950430863289629</v>
+        <v>0.9947430339765473</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>43279</v>
+        <v>43284</v>
       </c>
       <c r="B60">
-        <v>0.8257332344413257</v>
+        <v>0.8625014568969357</v>
       </c>
       <c r="C60">
-        <v>0.8807813046986909</v>
+        <v>0.8848540741418243</v>
       </c>
       <c r="D60">
-        <v>0.9469630862335837</v>
+        <v>0.9442926431660646</v>
       </c>
       <c r="E60">
-        <v>0.9858218874612312</v>
+        <v>0.986519337016574</v>
       </c>
       <c r="F60">
-        <v>1.013042615303008</v>
+        <v>1.013941820384397</v>
       </c>
       <c r="G60">
-        <v>0.9954287237068338</v>
+        <v>0.9953466068208843</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>43280</v>
+        <v>43285</v>
       </c>
       <c r="B61">
-        <v>0.8523023215326876</v>
+        <v>0.8499239409767841</v>
       </c>
       <c r="C61">
-        <v>0.9032821600677081</v>
+        <v>0.8730363641252479</v>
       </c>
       <c r="D61">
-        <v>0.9621754020319421</v>
+        <v>0.9342395759385346</v>
       </c>
       <c r="E61">
-        <v>0.9872249298478801</v>
+        <v>0.9885819521178631</v>
       </c>
       <c r="F61">
-        <v>1.016816375854958</v>
+        <v>1.013610080685396</v>
       </c>
       <c r="G61">
-        <v>0.9958592026402707</v>
+        <v>0.995474482423498</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>43283</v>
+        <v>43286</v>
       </c>
       <c r="B62">
-        <v>0.8394009556606036</v>
+        <v>0.8269254402177042</v>
       </c>
       <c r="C62">
-        <v>0.8767776965966539</v>
+        <v>0.8675056629641675</v>
       </c>
       <c r="D62">
-        <v>0.9621754020319421</v>
+        <v>0.9322686587111038</v>
       </c>
       <c r="E62">
-        <v>0.9873726185201591</v>
+        <v>0.9881767955801101</v>
       </c>
       <c r="F62">
-        <v>1.017300281385358</v>
+        <v>1.014279687201849</v>
       </c>
       <c r="G62">
-        <v>0.996634320957918</v>
+        <v>0.9962417360391808</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>43284</v>
+        <v>43287</v>
       </c>
       <c r="B63">
-        <v>0.8489319980015568</v>
+        <v>0.8292268021638765</v>
       </c>
       <c r="C63">
-        <v>0.877116345288295</v>
+        <v>0.8733933392806696</v>
       </c>
       <c r="D63">
-        <v>0.9485664288956577</v>
+        <v>0.9366858553774152</v>
       </c>
       <c r="E63">
-        <v>0.9889233495790868</v>
+        <v>0.9915653775322277</v>
       </c>
       <c r="F63">
-        <v>1.01733453241201</v>
+        <v>1.013205690867617</v>
       </c>
       <c r="G63">
-        <v>0.9972390413644131</v>
+        <v>0.996548637485454</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>43285</v>
+        <v>43290</v>
       </c>
       <c r="B64">
-        <v>0.8365523601069086</v>
+        <v>0.8476349096519774</v>
       </c>
       <c r="C64">
-        <v>0.8654019768717067</v>
+        <v>0.8978061937914662</v>
       </c>
       <c r="D64">
-        <v>0.9384678623670724</v>
+        <v>0.9490207935406315</v>
       </c>
       <c r="E64">
-        <v>0.9909909909909904</v>
+        <v>0.9911602209944748</v>
       </c>
       <c r="F64">
-        <v>1.017001682691463</v>
+        <v>1.012465184837657</v>
       </c>
       <c r="G64">
-        <v>0.9973671600946027</v>
+        <v>0.996650937967545</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="B65">
-        <v>0.8139156873867381</v>
+        <v>0.8524446651749216</v>
       </c>
       <c r="C65">
-        <v>0.8599196396919935</v>
+        <v>0.8999686524216429</v>
       </c>
       <c r="D65">
-        <v>0.9364880249410339</v>
+        <v>0.9488140424048235</v>
       </c>
       <c r="E65">
-        <v>0.9905848471422237</v>
+        <v>0.9880294659300179</v>
       </c>
       <c r="F65">
-        <v>1.017673529752725</v>
+        <v>1.012189464507353</v>
       </c>
       <c r="G65">
-        <v>0.9981358724757406</v>
+        <v>0.9966688405519109</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>43287</v>
+        <v>43292</v>
       </c>
       <c r="B66">
-        <v>0.8161808427432492</v>
+        <v>0.8357865267731398</v>
       </c>
       <c r="C66">
-        <v>0.8657558304085015</v>
+        <v>0.8843997704395915</v>
       </c>
       <c r="D66">
-        <v>0.9409252134522611</v>
+        <v>0.9365558502632191</v>
       </c>
       <c r="E66">
-        <v>0.9939816866046367</v>
+        <v>0.9907918968692445</v>
       </c>
       <c r="F66">
-        <v>1.016595939760348</v>
+        <v>1.012821433010463</v>
       </c>
       <c r="G66">
-        <v>0.9984433574281959</v>
+        <v>0.99667907060012</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="B67">
-        <v>0.8342993413780501</v>
+        <v>0.8584142459137145</v>
       </c>
       <c r="C67">
-        <v>0.8899552033359891</v>
+        <v>0.9034829656355997</v>
       </c>
       <c r="D67">
-        <v>0.9533159784643668</v>
+        <v>0.9421510322009107</v>
       </c>
       <c r="E67">
-        <v>0.9935755427558701</v>
+        <v>0.9870718232044194</v>
       </c>
       <c r="F67">
-        <v>1.015852955951423</v>
+        <v>1.0129028361556</v>
       </c>
       <c r="G67">
-        <v>0.9985458524123476</v>
+        <v>0.9967302208411655</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>43291</v>
+        <v>43294</v>
       </c>
       <c r="B68">
-        <v>0.839033426559404</v>
+        <v>0.8636721523106233</v>
       </c>
       <c r="C68">
-        <v>0.8920987520475405</v>
+        <v>0.9065024345632924</v>
       </c>
       <c r="D68">
-        <v>0.9531082915910412</v>
+        <v>0.943626739107854</v>
       </c>
       <c r="E68">
-        <v>0.9904371584699447</v>
+        <v>0.9863720073664821</v>
       </c>
       <c r="F68">
-        <v>1.015576313043845</v>
+        <v>1.014460874847478</v>
       </c>
       <c r="G68">
-        <v>0.9985637890345741</v>
+        <v>0.9964744696359378</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>43292</v>
+        <v>43297</v>
       </c>
       <c r="B69">
-        <v>0.8226373653083435</v>
+        <v>0.8621809769114843</v>
       </c>
       <c r="C69">
-        <v>0.8766660143076305</v>
+        <v>0.9011548667958909</v>
       </c>
       <c r="D69">
-        <v>0.940794619946314</v>
+        <v>0.9440971392920445</v>
       </c>
       <c r="E69">
-        <v>0.993206321075173</v>
+        <v>0.9876611418047878</v>
       </c>
       <c r="F69">
-        <v>1.016210396152644</v>
+        <v>1.014986056429009</v>
       </c>
       <c r="G69">
-        <v>0.9985740385329893</v>
+        <v>0.9968312425672303</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>43293</v>
+        <v>43298</v>
       </c>
       <c r="B70">
-        <v>0.8449090897983366</v>
+        <v>0.8623463864715792</v>
       </c>
       <c r="C70">
-        <v>0.8955823338634616</v>
+        <v>0.8952610133609511</v>
       </c>
       <c r="D70">
-        <v>0.9464151251870015</v>
+        <v>0.9322550958365946</v>
       </c>
       <c r="E70">
-        <v>0.9894771821001325</v>
+        <v>0.9866298342541433</v>
       </c>
       <c r="F70">
-        <v>1.016292071677738</v>
+        <v>1.014879269507431</v>
       </c>
       <c r="G70">
-        <v>0.9986252860250652</v>
+        <v>0.9965141110727482</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>43294</v>
+        <v>43299</v>
       </c>
       <c r="B71">
-        <v>0.8500842752396365</v>
+        <v>0.8557810193168729</v>
       </c>
       <c r="C71">
-        <v>0.8985753986274319</v>
+        <v>0.8905750720776283</v>
       </c>
       <c r="D71">
-        <v>0.9478975110140504</v>
+        <v>0.9301293633586707</v>
       </c>
       <c r="E71">
-        <v>0.988775660906808</v>
+        <v>0.9777900552486185</v>
       </c>
       <c r="F71">
-        <v>1.01785532366342</v>
+        <v>1.015517365128992</v>
       </c>
       <c r="G71">
-        <v>0.9983690485646858</v>
+        <v>0.9965064385365916</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>43297</v>
+        <v>43300</v>
       </c>
       <c r="B72">
-        <v>0.8486165600249674</v>
+        <v>0.8482616304934976</v>
       </c>
       <c r="C72">
-        <v>0.8932745934061035</v>
+        <v>0.8898017124218111</v>
       </c>
       <c r="D72">
-        <v>0.948370040188241</v>
+        <v>0.926604339193598</v>
       </c>
       <c r="E72">
-        <v>0.9900679367892478</v>
+        <v>0.980810313075506</v>
       </c>
       <c r="F72">
-        <v>1.018382262534997</v>
+        <v>1.01674979124032</v>
       </c>
       <c r="G72">
-        <v>0.998726499821915</v>
+        <v>0.9976023324509915</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>43298</v>
+        <v>43301</v>
       </c>
       <c r="B73">
-        <v>0.8487793672494852</v>
+        <v>0.8588703627341873</v>
       </c>
       <c r="C73">
-        <v>0.8874322795878244</v>
+        <v>0.9065554072470365</v>
       </c>
       <c r="D73">
-        <v>0.9364744006821436</v>
+        <v>0.933670927614608</v>
       </c>
       <c r="E73">
-        <v>0.9890341160832959</v>
+        <v>0.9851933701657454</v>
       </c>
       <c r="F73">
-        <v>1.018275118297777</v>
+        <v>1.015082339718957</v>
       </c>
       <c r="G73">
-        <v>0.9984087653710447</v>
+        <v>0.9987263589979667</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>43299</v>
+        <v>43304</v>
       </c>
       <c r="B74">
-        <v>0.8423172909113061</v>
+        <v>0.8653015700731209</v>
       </c>
       <c r="C74">
-        <v>0.8827873151662616</v>
+        <v>0.9150830749757871</v>
       </c>
       <c r="D74">
-        <v>0.9343390473253588</v>
+        <v>0.9347175845645227</v>
       </c>
       <c r="E74">
-        <v>0.9801727957465659</v>
+        <v>0.988581952117863</v>
       </c>
       <c r="F74">
-        <v>1.018915349026744</v>
+        <v>1.014420610926227</v>
       </c>
       <c r="G74">
-        <v>0.9984010782472335</v>
+        <v>0.9991125433178603</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>43300</v>
+        <v>43305</v>
       </c>
       <c r="B75">
-        <v>0.834916202221503</v>
+        <v>0.8803434677155874</v>
       </c>
       <c r="C75">
-        <v>0.8820207182609339</v>
+        <v>0.9296058956909977</v>
       </c>
       <c r="D75">
-        <v>0.9307980692099062</v>
+        <v>0.9481630244283913</v>
       </c>
       <c r="E75">
-        <v>0.9832004135282819</v>
+        <v>0.9886924493554323</v>
       </c>
       <c r="F75">
-        <v>1.020151898912047</v>
+        <v>1.012754910010135</v>
       </c>
       <c r="G75">
-        <v>0.9994990557649586</v>
+        <v>0.9997212311863016</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>43301</v>
+        <v>43306</v>
       </c>
       <c r="B76">
-        <v>0.845358030679108</v>
+        <v>0.8810099353110381</v>
       </c>
       <c r="C76">
-        <v>0.8986279080842153</v>
+        <v>0.9285797932648229</v>
       </c>
       <c r="D76">
-        <v>0.9378966403906774</v>
+        <v>0.9567086277745179</v>
       </c>
       <c r="E76">
-        <v>0.9875941515285772</v>
+        <v>0.9871086556169424</v>
       </c>
       <c r="F76">
-        <v>1.018478867994787</v>
+        <v>1.012575472969778</v>
       </c>
       <c r="G76">
-        <v>1.000625219403326</v>
+        <v>0.9999782611475553</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="B77">
-        <v>0.851688057894883</v>
+        <v>0.8751718922639593</v>
       </c>
       <c r="C77">
-        <v>0.9070810044428763</v>
+        <v>0.9178070544353629</v>
       </c>
       <c r="D77">
-        <v>0.9389480344182011</v>
+        <v>0.9520853415760329</v>
       </c>
       <c r="E77">
-        <v>0.9909909909909902</v>
+        <v>0.9892449355432775</v>
       </c>
       <c r="F77">
-        <v>1.017814925016598</v>
+        <v>1.01301137368245</v>
       </c>
       <c r="G77">
-        <v>1.001012137968498</v>
+        <v>1.001227605785092</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>43305</v>
+        <v>43308</v>
       </c>
       <c r="B78">
-        <v>0.8664933061843126</v>
+        <v>0.8711576360741741</v>
       </c>
       <c r="C78">
-        <v>0.9214768283433955</v>
+        <v>0.9139090591127392</v>
       </c>
       <c r="D78">
-        <v>0.9524543271643134</v>
+        <v>0.9528508169812485</v>
       </c>
       <c r="E78">
-        <v>0.9911017574951996</v>
+        <v>0.9880294659300179</v>
       </c>
       <c r="F78">
-        <v>1.016143650562244</v>
+        <v>1.01430507097829</v>
       </c>
       <c r="G78">
-        <v>1.001621983124201</v>
+        <v>1.001607396324855</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>43306</v>
+        <v>43311</v>
       </c>
       <c r="B79">
-        <v>0.8671492884587598</v>
+        <v>0.8605132396271389</v>
       </c>
       <c r="C79">
-        <v>0.9204596988118274</v>
+        <v>0.9123135198020247</v>
       </c>
       <c r="D79">
-        <v>0.9610386071621071</v>
+        <v>0.9504971620512098</v>
       </c>
       <c r="E79">
-        <v>0.9895141042682021</v>
+        <v>0.9881767955801101</v>
       </c>
       <c r="F79">
-        <v>1.015963613114454</v>
+        <v>1.014838130283545</v>
       </c>
       <c r="G79">
-        <v>1.001879501771882</v>
+        <v>1.002258283142159</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>43307</v>
+        <v>43312</v>
       </c>
       <c r="B80">
-        <v>0.8614030934712099</v>
+        <v>0.861104976686911</v>
       </c>
       <c r="C80">
-        <v>0.9097811636872587</v>
+        <v>0.9129824653928236</v>
       </c>
       <c r="D80">
-        <v>0.9563943963755487</v>
+        <v>0.9455311651700092</v>
       </c>
       <c r="E80">
-        <v>0.9916555900162451</v>
+        <v>0.9895027624309387</v>
       </c>
       <c r="F80">
-        <v>1.016400972377864</v>
+        <v>1.016605366305399</v>
       </c>
       <c r="G80">
-        <v>1.003131221765835</v>
+        <v>1.003166199920717</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>43308</v>
+        <v>43313</v>
       </c>
       <c r="B81">
-        <v>0.8574519922870507</v>
+        <v>0.8472736871692818</v>
       </c>
       <c r="C81">
-        <v>0.9059172549239448</v>
+        <v>0.8947447567943888</v>
       </c>
       <c r="D81">
-        <v>0.9571633362553494</v>
+        <v>0.9375168295424552</v>
       </c>
       <c r="E81">
-        <v>0.9904371584699448</v>
+        <v>0.987992633517495</v>
       </c>
       <c r="F81">
-        <v>1.017698998464851</v>
+        <v>1.017541940125797</v>
       </c>
       <c r="G81">
-        <v>1.003511734394498</v>
+        <v>1.004250585030882</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>43311</v>
+        <v>43314</v>
       </c>
       <c r="B82">
-        <v>0.8469750607166243</v>
+        <v>0.8291242571983074</v>
       </c>
       <c r="C82">
-        <v>0.9043356680274444</v>
+        <v>0.8749078233776003</v>
       </c>
       <c r="D82">
-        <v>0.9547990288894106</v>
+        <v>0.9168026813472107</v>
       </c>
       <c r="E82">
-        <v>0.9905848471422237</v>
+        <v>0.9868508287292814</v>
       </c>
       <c r="F82">
-        <v>1.018233841419503</v>
+        <v>1.017675861429088</v>
       </c>
       <c r="G82">
-        <v>1.004163858731163</v>
+        <v>1.005295328704236</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>43312</v>
+        <v>43315</v>
       </c>
       <c r="B83">
-        <v>0.8475574881669514</v>
+        <v>0.818127599958398</v>
       </c>
       <c r="C83">
-        <v>0.904998763930989</v>
+        <v>0.8604580380039163</v>
       </c>
       <c r="D83">
-        <v>0.9498105563416276</v>
+        <v>0.9155376951978826</v>
       </c>
       <c r="E83">
-        <v>0.9919140451927332</v>
+        <v>0.9864088397790052</v>
       </c>
       <c r="F83">
-        <v>1.020006990722362</v>
+        <v>1.018562542999241</v>
       </c>
       <c r="G83">
-        <v>1.00507350171551</v>
+        <v>1.00588355647626</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>43313</v>
+        <v>43318</v>
       </c>
       <c r="B84">
-        <v>0.8339438018928631</v>
+        <v>0.8007852033472975</v>
       </c>
       <c r="C84">
-        <v>0.8869205374982223</v>
+        <v>0.8495543598361472</v>
       </c>
       <c r="D84">
-        <v>0.9417599485335317</v>
+        <v>0.9202761004287857</v>
       </c>
       <c r="E84">
-        <v>0.9904002363018752</v>
+        <v>0.9856353591160218</v>
       </c>
       <c r="F84">
-        <v>1.020946698376676</v>
+        <v>1.018850517566448</v>
       </c>
       <c r="G84">
-        <v>1.006159948547518</v>
+        <v>1.007017813071444</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>43314</v>
+        <v>43319</v>
       </c>
       <c r="B85">
-        <v>0.8160799110847463</v>
+        <v>0.8226286584584339</v>
       </c>
       <c r="C85">
-        <v>0.8672570708897474</v>
+        <v>0.8743657942118422</v>
       </c>
       <c r="D85">
-        <v>0.920952049919285</v>
+        <v>0.9344780840488029</v>
       </c>
       <c r="E85">
-        <v>0.9892556490917143</v>
+        <v>0.9856721915285449</v>
       </c>
       <c r="F85">
-        <v>1.021081067788929</v>
+        <v>1.018638694328563</v>
       </c>
       <c r="G85">
-        <v>1.007206678573167</v>
+        <v>1.008273551489111</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>43315</v>
+        <v>43320</v>
       </c>
       <c r="B86">
-        <v>0.805256260727562</v>
+        <v>0.8099657243577056</v>
       </c>
       <c r="C86">
-        <v>0.8529336436631078</v>
+        <v>0.8602565289805997</v>
       </c>
       <c r="D86">
-        <v>0.9196813385535294</v>
+        <v>0.938125504886274</v>
       </c>
       <c r="E86">
-        <v>0.9888125830748777</v>
+        <v>0.984162062615101</v>
       </c>
       <c r="F86">
-        <v>1.021970716250443</v>
+        <v>1.016805810609017</v>
       </c>
       <c r="G86">
-        <v>1.00779602473204</v>
+        <v>1.008451298576744</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>43318</v>
+        <v>43321</v>
       </c>
       <c r="B87">
-        <v>0.7881867064822105</v>
+        <v>0.8305782581804092</v>
       </c>
       <c r="C87">
-        <v>0.8421253142173867</v>
+        <v>0.8818043684789221</v>
       </c>
       <c r="D87">
-        <v>0.9244411893911555</v>
+        <v>0.9463346827842137</v>
       </c>
       <c r="E87">
-        <v>0.988037217545414</v>
+        <v>0.9839410681399628</v>
       </c>
       <c r="F87">
-        <v>1.022259654398358</v>
+        <v>1.013963702950294</v>
       </c>
       <c r="G87">
-        <v>1.008932437868822</v>
+        <v>1.007791460467257</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>43319</v>
+        <v>43322</v>
       </c>
       <c r="B88">
-        <v>0.8096865055172979</v>
+        <v>0.8348502459311732</v>
       </c>
       <c r="C88">
-        <v>0.8667197815730084</v>
+        <v>0.8837481623072645</v>
       </c>
       <c r="D88">
-        <v>0.938707449944141</v>
+        <v>0.9383729446456091</v>
       </c>
       <c r="E88">
-        <v>0.9880741397134838</v>
+        <v>0.9843093922651931</v>
       </c>
       <c r="F88">
-        <v>1.022047122386822</v>
+        <v>1.013478785290013</v>
       </c>
       <c r="G88">
-        <v>1.010190563799284</v>
+        <v>1.006650810091942</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>43320</v>
+        <v>43325</v>
       </c>
       <c r="B89">
-        <v>0.7972227932989221</v>
+        <v>0.8389594296501791</v>
       </c>
       <c r="C89">
-        <v>0.8527338967633203</v>
+        <v>0.8799393718420776</v>
       </c>
       <c r="D89">
-        <v>0.9423713786886023</v>
+        <v>0.9241468124929295</v>
       </c>
       <c r="E89">
-        <v>0.9865603308226256</v>
+        <v>0.9860773480662982</v>
       </c>
       <c r="F89">
-        <v>1.020208105725015</v>
+        <v>1.011061199409695</v>
       </c>
       <c r="G89">
-        <v>1.010368648834248</v>
+        <v>1.005699415608496</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>43321</v>
+        <v>43326</v>
       </c>
       <c r="B90">
-        <v>0.8175110367355629</v>
+        <v>0.8360730685073227</v>
       </c>
       <c r="C90">
-        <v>0.8740933081984289</v>
+        <v>0.8754154371692059</v>
       </c>
       <c r="D90">
-        <v>0.9506177106061204</v>
+        <v>0.9180719679201634</v>
       </c>
       <c r="E90">
-        <v>0.9863387978142073</v>
+        <v>0.9779373848987106</v>
       </c>
       <c r="F90">
-        <v>1.017356488198325</v>
+        <v>1.011757065005224</v>
       </c>
       <c r="G90">
-        <v>1.009707556186469</v>
+        <v>1.005080497691845</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>43322</v>
+        <v>43327</v>
       </c>
       <c r="B91">
-        <v>0.8217158146726832</v>
+        <v>0.8186348150065755</v>
       </c>
       <c r="C91">
-        <v>0.8760201042527537</v>
+        <v>0.8544086405740337</v>
       </c>
       <c r="D91">
-        <v>0.9426199383385985</v>
+        <v>0.9038693226965117</v>
       </c>
       <c r="E91">
-        <v>0.9867080194949045</v>
+        <v>0.9759484346224677</v>
       </c>
       <c r="F91">
-        <v>1.016869947973568</v>
+        <v>1.011280900371302</v>
       </c>
       <c r="G91">
-        <v>1.008564737113177</v>
+        <v>1.005030626206825</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>43325</v>
+        <v>43328</v>
       </c>
       <c r="B92">
-        <v>0.8257603499216805</v>
+        <v>0.8112604893882558</v>
       </c>
       <c r="C92">
-        <v>0.872244620282661</v>
+        <v>0.8504510282722038</v>
       </c>
       <c r="D92">
-        <v>0.9283294199588087</v>
+        <v>0.8964749096745643</v>
       </c>
       <c r="E92">
-        <v>0.9884802835622507</v>
+        <v>0.9664456721915284</v>
       </c>
       <c r="F92">
-        <v>1.014444272701404</v>
+        <v>1.010044097746795</v>
       </c>
       <c r="G92">
-        <v>1.007611533760566</v>
+        <v>1.004623981790514</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>43326</v>
+        <v>43329</v>
       </c>
       <c r="B93">
-        <v>0.8229193989732904</v>
+        <v>0.7970972522413479</v>
       </c>
       <c r="C93">
-        <v>0.8677602457823338</v>
+        <v>0.8382245383590229</v>
       </c>
       <c r="D93">
-        <v>0.9222270811720058</v>
+        <v>0.900224548273579</v>
       </c>
       <c r="E93">
-        <v>0.9803204844188449</v>
+        <v>0.9634990791896868</v>
       </c>
       <c r="F93">
-        <v>1.015142466706245</v>
+        <v>1.00521067659143</v>
       </c>
       <c r="G93">
-        <v>1.006991439106449</v>
+        <v>1.003572844337029</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>43327</v>
+        <v>43332</v>
       </c>
       <c r="B94">
-        <v>0.8057554959240043</v>
+        <v>0.8020133531501743</v>
       </c>
       <c r="C94">
-        <v>0.8469371460258661</v>
+        <v>0.847991133602974</v>
       </c>
       <c r="D94">
-        <v>0.9079601560210258</v>
+        <v>0.9129475169684799</v>
       </c>
       <c r="E94">
-        <v>0.9783266873430807</v>
+        <v>0.969355432780847</v>
       </c>
       <c r="F94">
-        <v>1.014664708796015</v>
+        <v>1.005343722592085</v>
       </c>
       <c r="G94">
-        <v>1.006941472801675</v>
+        <v>1.003025536757842</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>43328</v>
+        <v>43333</v>
       </c>
       <c r="B95">
-        <v>0.7984971882063603</v>
+        <v>0.8118594123956069</v>
       </c>
       <c r="C95">
-        <v>0.8430141416122675</v>
+        <v>0.8634077418292553</v>
       </c>
       <c r="D95">
-        <v>0.9005322765339093</v>
+        <v>0.9180673366947214</v>
       </c>
       <c r="E95">
-        <v>0.9688007679810957</v>
+        <v>0.9742541436464086</v>
       </c>
       <c r="F95">
-        <v>1.013423767753448</v>
+        <v>1.004142807375649</v>
       </c>
       <c r="G95">
-        <v>1.006534055239672</v>
+        <v>1.002081814810552</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>43329</v>
+        <v>43334</v>
       </c>
       <c r="B96">
-        <v>0.7845567767286193</v>
+        <v>0.8027381049209087</v>
       </c>
       <c r="C96">
-        <v>0.8308945679314274</v>
+        <v>0.858555745067934</v>
       </c>
       <c r="D96">
-        <v>0.904298885668543</v>
+        <v>0.9238494216591833</v>
       </c>
       <c r="E96">
-        <v>0.9658469945355189</v>
+        <v>0.9727440147329649</v>
       </c>
       <c r="F96">
-        <v>1.008574173672026</v>
+        <v>1.005248314604773</v>
       </c>
       <c r="G96">
-        <v>1.005480919277513</v>
+        <v>1.001740386951573</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>43332</v>
+        <v>43335</v>
       </c>
       <c r="B97">
-        <v>0.7893955341979948</v>
+        <v>0.8071603337419588</v>
       </c>
       <c r="C97">
-        <v>0.8405757578322509</v>
+        <v>0.8616887380126267</v>
       </c>
       <c r="D97">
-        <v>0.9170794374045063</v>
+        <v>0.9193134671404634</v>
       </c>
       <c r="E97">
-        <v>0.9717176192586027</v>
+        <v>0.9733333333333331</v>
       </c>
       <c r="F97">
-        <v>1.008707664852825</v>
+        <v>1.006320560333734</v>
       </c>
       <c r="G97">
-        <v>1.004932571112301</v>
+        <v>1.002099717394918</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>43333</v>
+        <v>43336</v>
       </c>
       <c r="B98">
-        <v>0.799086688550057</v>
+        <v>0.8052723380366661</v>
       </c>
       <c r="C98">
-        <v>0.8558575533953123</v>
+        <v>0.8630666506926727</v>
       </c>
       <c r="D98">
-        <v>0.9222224289860433</v>
+        <v>0.9153904883891872</v>
       </c>
       <c r="E98">
-        <v>0.9766282676118738</v>
+        <v>0.9745856353591158</v>
       </c>
       <c r="F98">
-        <v>1.007502731299817</v>
+        <v>1.006159504648731</v>
       </c>
       <c r="G98">
-        <v>1.003987054883502</v>
+        <v>1.002638073681922</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>43334</v>
+        <v>43339</v>
       </c>
       <c r="B99">
-        <v>0.7901088836814824</v>
+        <v>0.8231586760284905</v>
       </c>
       <c r="C99">
-        <v>0.8510479855908489</v>
+        <v>0.8841515956223642</v>
       </c>
       <c r="D99">
-        <v>0.9280306831602172</v>
+        <v>0.9352187493177215</v>
       </c>
       <c r="E99">
-        <v>0.9751144587210159</v>
+        <v>0.9771639042357272</v>
       </c>
       <c r="F99">
-        <v>1.008611937624489</v>
+        <v>1.005909168094867</v>
       </c>
       <c r="G99">
-        <v>1.003644977873896</v>
+        <v>1.002841395890078</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>43335</v>
+        <v>43340</v>
       </c>
       <c r="B100">
-        <v>0.7944615389942986</v>
+        <v>0.8255055932312557</v>
       </c>
       <c r="C100">
-        <v>0.8541535816453487</v>
+        <v>0.8824897431284228</v>
       </c>
       <c r="D100">
-        <v>0.9234741993089515</v>
+        <v>0.9378767419196696</v>
       </c>
       <c r="E100">
-        <v>0.9757052134101309</v>
+        <v>0.9809944751381211</v>
       </c>
       <c r="F100">
-        <v>1.00968777115396</v>
+        <v>1.006156878740823</v>
       </c>
       <c r="G100">
-        <v>1.004004991505729</v>
+        <v>1.002446260278002</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>43336</v>
+        <v>43341</v>
       </c>
       <c r="B101">
-        <v>0.7926032465201283</v>
+        <v>0.8201540537714335</v>
       </c>
       <c r="C101">
-        <v>0.8555194449773569</v>
+        <v>0.8789607657467464</v>
       </c>
       <c r="D101">
-        <v>0.9195334654997216</v>
+        <v>0.9400209992993619</v>
       </c>
       <c r="E101">
-        <v>0.9769605671245011</v>
+        <v>0.9786003683241249</v>
       </c>
       <c r="F101">
-        <v>1.009526176566677</v>
+        <v>1.00590216567378</v>
       </c>
       <c r="G101">
-        <v>1.004544371359827</v>
+        <v>1.002257004386133</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>43339</v>
+        <v>43342</v>
       </c>
       <c r="B102">
-        <v>0.8102081844908534</v>
+        <v>0.8077339316777032</v>
       </c>
       <c r="C102">
-        <v>0.8764200096894224</v>
+        <v>0.8697523432301841</v>
       </c>
       <c r="D102">
-        <v>0.9394514673991426</v>
+        <v>0.9316718922327074</v>
       </c>
       <c r="E102">
-        <v>0.9795451188893807</v>
+        <v>0.9797421731123386</v>
       </c>
       <c r="F102">
-        <v>1.009275002371224</v>
+        <v>1.007077697113776</v>
       </c>
       <c r="G102">
-        <v>1.004748080140828</v>
+        <v>1.002571578368563</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>43340</v>
+        <v>43343</v>
       </c>
       <c r="B103">
-        <v>0.812518178397711</v>
+        <v>0.7990547508299231</v>
       </c>
       <c r="C103">
-        <v>0.8747726894944989</v>
+        <v>0.8654463725936097</v>
       </c>
       <c r="D103">
-        <v>0.9421214898426169</v>
+        <v>0.922558302166289</v>
       </c>
       <c r="E103">
-        <v>0.9833850243686302</v>
+        <v>0.9814732965009205</v>
       </c>
       <c r="F103">
-        <v>1.009523541872319</v>
+        <v>1.007589749155769</v>
       </c>
       <c r="G103">
-        <v>1.004352193264543</v>
+        <v>1.002980780296927</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>43341</v>
+        <v>43346</v>
       </c>
       <c r="B104">
-        <v>0.8072508329924569</v>
+        <v>0.803045905774835</v>
       </c>
       <c r="C104">
-        <v>0.8712745717437015</v>
+        <v>0.8621556814488048</v>
       </c>
       <c r="D104">
-        <v>0.9442754519432516</v>
+        <v>0.9167358593801174</v>
       </c>
       <c r="E104">
-        <v>0.9809850834440992</v>
+        <v>0.9760589318600364</v>
       </c>
       <c r="F104">
-        <v>1.009267976519603</v>
+        <v>1.006472862992378</v>
       </c>
       <c r="G104">
-        <v>1.004162577543862</v>
+        <v>1.002809426989424</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>43342</v>
+        <v>43347</v>
       </c>
       <c r="B105">
-        <v>0.7950261126976209</v>
+        <v>0.8115773681020568</v>
       </c>
       <c r="C105">
-        <v>0.8621466735516399</v>
+        <v>0.8730755810410424</v>
       </c>
       <c r="D105">
-        <v>0.9358885575498668</v>
+        <v>0.9253631707751152</v>
       </c>
       <c r="E105">
-        <v>0.9821296706542602</v>
+        <v>0.9728913443830567</v>
       </c>
       <c r="F105">
-        <v>1.010447441360485</v>
+        <v>1.005535413869344</v>
       </c>
       <c r="G105">
-        <v>1.004477749620128</v>
+        <v>1.002846510914182</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>43343</v>
+        <v>43348</v>
       </c>
       <c r="B106">
-        <v>0.7864834786194929</v>
+        <v>0.7990897014202273</v>
       </c>
       <c r="C106">
-        <v>0.8578783570709435</v>
+        <v>0.8560087737921577</v>
       </c>
       <c r="D106">
-        <v>0.9267337201736731</v>
+        <v>0.901231509005418</v>
       </c>
       <c r="E106">
-        <v>0.9838650125535365</v>
+        <v>0.9720441988950275</v>
       </c>
       <c r="F106">
-        <v>1.010961206760274</v>
+        <v>1.005499526461272</v>
       </c>
       <c r="G106">
-        <v>1.004887729556735</v>
+        <v>1.003083080779018</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>43346</v>
+        <v>43349</v>
       </c>
       <c r="B107">
-        <v>0.7904118420032579</v>
+        <v>0.7954902718948481</v>
       </c>
       <c r="C107">
-        <v>0.8546164418300569</v>
+        <v>0.8468571911469328</v>
       </c>
       <c r="D107">
-        <v>0.9208849255218261</v>
+        <v>0.8923319477147882</v>
       </c>
       <c r="E107">
-        <v>0.9784374538472892</v>
+        <v>0.9753222836095762</v>
       </c>
       <c r="F107">
-        <v>1.009840583426718</v>
+        <v>1.005249189907409</v>
       </c>
       <c r="G107">
-        <v>1.004716050458281</v>
+        <v>1.003338831984246</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>43347</v>
+        <v>43350</v>
       </c>
       <c r="B108">
-        <v>0.7988090815689516</v>
+        <v>0.795230133954195</v>
       </c>
       <c r="C108">
-        <v>0.8654408508497563</v>
+        <v>0.8506888213777712</v>
       </c>
       <c r="D108">
-        <v>0.9295512833719579</v>
+        <v>0.8922872894694537</v>
       </c>
       <c r="E108">
-        <v>0.9752621473932942</v>
+        <v>0.9768692449355432</v>
       </c>
       <c r="F108">
-        <v>1.008899997540951</v>
+        <v>1.004691622128349</v>
       </c>
       <c r="G108">
-        <v>1.004753204890036</v>
+        <v>1.003260827866651</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>43348</v>
+        <v>43353</v>
       </c>
       <c r="B109">
-        <v>0.7865178793433653</v>
+        <v>0.7808085014174324</v>
       </c>
       <c r="C109">
-        <v>0.8485232866577173</v>
+        <v>0.83834089139245</v>
       </c>
       <c r="D109">
-        <v>0.9053104038163878</v>
+        <v>0.880376770037824</v>
       </c>
       <c r="E109">
-        <v>0.9744129375276911</v>
+        <v>0.976758747697974</v>
       </c>
       <c r="F109">
-        <v>1.008863990051394</v>
+        <v>1.00251036795972</v>
       </c>
       <c r="G109">
-        <v>1.004990224540887</v>
+        <v>1.003076686998887</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>43349</v>
+        <v>43354</v>
       </c>
       <c r="B110">
-        <v>0.7829750784886983</v>
+        <v>0.7804807359100704</v>
       </c>
       <c r="C110">
-        <v>0.8394517312928754</v>
+        <v>0.8368208790340604</v>
       </c>
       <c r="D110">
-        <v>0.8963705638914609</v>
+        <v>0.8740627557511552</v>
       </c>
       <c r="E110">
-        <v>0.9776990104858951</v>
+        <v>0.9774585635359113</v>
       </c>
       <c r="F110">
-        <v>1.008612815855942</v>
+        <v>1.001516024165354</v>
       </c>
       <c r="G110">
-        <v>1.005246462001266</v>
+        <v>1.002645746218079</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>43350</v>
+        <v>43355</v>
       </c>
       <c r="B111">
-        <v>0.7827190332148628</v>
+        <v>0.7789989204980782</v>
       </c>
       <c r="C111">
-        <v>0.8432498553031295</v>
+        <v>0.8310624550277227</v>
       </c>
       <c r="D111">
-        <v>0.8963257035268225</v>
+        <v>0.8714987108653183</v>
       </c>
       <c r="E111">
-        <v>0.979249741544823</v>
+        <v>0.9767955801104969</v>
       </c>
       <c r="F111">
-        <v>1.008053382420616</v>
+        <v>1.001905533838323</v>
       </c>
       <c r="G111">
-        <v>1.005168309575851</v>
+        <v>1.002479507934681</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>43353</v>
+        <v>43356</v>
       </c>
       <c r="B112">
-        <v>0.7685242915990919</v>
+        <v>0.7835192300355084</v>
       </c>
       <c r="C112">
-        <v>0.8310099034996586</v>
+        <v>0.8400274264058627</v>
       </c>
       <c r="D112">
-        <v>0.8843612781282796</v>
+        <v>0.893644238523989</v>
       </c>
       <c r="E112">
-        <v>0.9791389750406139</v>
+        <v>0.9802946593001839</v>
       </c>
       <c r="F112">
-        <v>1.005864829640662</v>
+        <v>1.002367693630071</v>
       </c>
       <c r="G112">
-        <v>1.004983818604377</v>
+        <v>1.00246672037442</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>43354</v>
+        <v>43357</v>
       </c>
       <c r="B113">
-        <v>0.7682016827213725</v>
+        <v>0.7750334723263765</v>
       </c>
       <c r="C113">
-        <v>0.8295031830996009</v>
+        <v>0.8414611407860801</v>
       </c>
       <c r="D113">
-        <v>0.8780186871664136</v>
+        <v>0.9026394015398164</v>
       </c>
       <c r="E113">
-        <v>0.9798404962339383</v>
+        <v>0.9823941068139963</v>
       </c>
       <c r="F113">
-        <v>1.004867158710475</v>
+        <v>1.003220238397424</v>
       </c>
       <c r="G113">
-        <v>1.004552058483638</v>
+        <v>1.002574135880615</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>43355</v>
+        <v>43360</v>
       </c>
       <c r="B114">
-        <v>0.7667431802361734</v>
+        <v>0.7637998613692968</v>
       </c>
       <c r="C114">
-        <v>0.8237951144285515</v>
+        <v>0.831814506220358</v>
       </c>
       <c r="D114">
-        <v>0.8754430376381785</v>
+        <v>0.8909435724876099</v>
       </c>
       <c r="E114">
-        <v>0.9791758972086835</v>
+        <v>0.9786003683241251</v>
       </c>
       <c r="F114">
-        <v>1.005257971706895</v>
+        <v>1.003705156057705</v>
       </c>
       <c r="G114">
-        <v>1.004385504134392</v>
+        <v>1.002946253884221</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>43356</v>
+        <v>43361</v>
       </c>
       <c r="B115">
-        <v>0.7711923731929045</v>
+        <v>0.7772615641603969</v>
       </c>
       <c r="C115">
-        <v>0.8326816903743475</v>
+        <v>0.8485574819282947</v>
       </c>
       <c r="D115">
-        <v>0.8976887940138332</v>
+        <v>0.895965474875933</v>
       </c>
       <c r="E115">
-        <v>0.9826835031753058</v>
+        <v>0.9789686924493555</v>
       </c>
       <c r="F115">
-        <v>1.005721677913884</v>
+        <v>1.003635131846835</v>
       </c>
       <c r="G115">
-        <v>1.004372692261373</v>
+        <v>1.003168757432769</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>43357</v>
+        <v>43362</v>
       </c>
       <c r="B116">
-        <v>0.7628401191891977</v>
+        <v>0.7861216549725191</v>
       </c>
       <c r="C116">
-        <v>0.8341028674408409</v>
+        <v>0.8597309029192644</v>
       </c>
       <c r="D116">
-        <v>0.9067246683489858</v>
+        <v>0.906640780321791</v>
       </c>
       <c r="E116">
-        <v>0.9847880667552795</v>
+        <v>0.9822836095764272</v>
       </c>
       <c r="F116">
-        <v>1.006577075348745</v>
+        <v>1.002622406697114</v>
       </c>
       <c r="G116">
-        <v>1.004480311994732</v>
+        <v>1.003230137722024</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>43360</v>
+        <v>43363</v>
       </c>
       <c r="B117">
-        <v>0.7517832430317056</v>
+        <v>0.7855552761757975</v>
       </c>
       <c r="C117">
-        <v>0.8245405892055013</v>
+        <v>0.8591192903311067</v>
       </c>
       <c r="D117">
-        <v>0.8949759049997043</v>
+        <v>0.9089663170973598</v>
       </c>
       <c r="E117">
-        <v>0.9809850834440994</v>
+        <v>0.981731123388582</v>
       </c>
       <c r="F117">
-        <v>1.007063615573502</v>
+        <v>1.001997440615091</v>
       </c>
       <c r="G117">
-        <v>1.004853137499584</v>
+        <v>1.003141903556221</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>43361</v>
+        <v>43364</v>
       </c>
       <c r="B118">
-        <v>0.7650331571687403</v>
+        <v>0.7974601342962327</v>
       </c>
       <c r="C118">
-        <v>0.8411371536462978</v>
+        <v>0.8851669529769711</v>
       </c>
       <c r="D118">
-        <v>0.9000205360780346</v>
+        <v>0.9247095063841445</v>
       </c>
       <c r="E118">
-        <v>0.9813543051247966</v>
+        <v>0.9860036832412523</v>
       </c>
       <c r="F118">
-        <v>1.006993357057292</v>
+        <v>1.002807095553286</v>
       </c>
       <c r="G118">
-        <v>1.005076064090114</v>
+        <v>1.003005076661424</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>43362</v>
+        <v>43368</v>
       </c>
       <c r="B119">
-        <v>0.7737538550127427</v>
+        <v>0.7953583856929742</v>
       </c>
       <c r="C119">
-        <v>0.8522128671117883</v>
+        <v>0.8772038427282803</v>
       </c>
       <c r="D119">
-        <v>0.9107441570205806</v>
+        <v>0.9096848186445199</v>
       </c>
       <c r="E119">
-        <v>0.9846773002510704</v>
+        <v>0.9816942909760589</v>
       </c>
       <c r="F119">
-        <v>1.005977243266599</v>
+        <v>1.003228991423783</v>
       </c>
       <c r="G119">
-        <v>1.005137561080605</v>
+        <v>1.002904054935359</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>43363</v>
+        <v>43369</v>
       </c>
       <c r="B120">
-        <v>0.7731963868720436</v>
+        <v>0.7991886617098677</v>
       </c>
       <c r="C120">
-        <v>0.8516066028545124</v>
+        <v>0.886920346213473</v>
       </c>
       <c r="D120">
-        <v>0.9130802189717472</v>
+        <v>0.9201871147399338</v>
       </c>
       <c r="E120">
-        <v>0.9841234677300248</v>
+        <v>0.9837937384898713</v>
       </c>
       <c r="F120">
-        <v>1.005350186009421</v>
+        <v>1.004142807375649</v>
       </c>
       <c r="G120">
-        <v>1.005049159156775</v>
+        <v>1.003010191685528</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>43364</v>
+        <v>43370</v>
       </c>
       <c r="B121">
-        <v>0.7849139496764782</v>
+        <v>0.7891896894829243</v>
       </c>
       <c r="C121">
-        <v>0.8774264881111872</v>
+        <v>0.8833773016124978</v>
       </c>
       <c r="D121">
-        <v>0.9288946605532512</v>
+        <v>0.91683940034893</v>
       </c>
       <c r="E121">
-        <v>0.9884064392261109</v>
+        <v>0.9808471454880296</v>
       </c>
       <c r="F121">
-        <v>1.006162550103104</v>
+        <v>1.005285952618116</v>
       </c>
       <c r="G121">
-        <v>1.004912072115472</v>
+        <v>1.00333755322822</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>43368</v>
+        <v>43371</v>
       </c>
       <c r="B122">
-        <v>0.7828452672101547</v>
+        <v>0.7967155838292814</v>
       </c>
       <c r="C122">
-        <v>0.8695330123816061</v>
+        <v>0.8925325957196411</v>
       </c>
       <c r="D122">
-        <v>0.9138019723939284</v>
+        <v>0.9192492915879085</v>
       </c>
       <c r="E122">
-        <v>0.984086545561955</v>
+        <v>0.972596685082873</v>
       </c>
       <c r="F122">
-        <v>1.006585857663272</v>
+        <v>1.005758616041495</v>
       </c>
       <c r="G122">
-        <v>1.004810858318622</v>
+        <v>1.003681538599251</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>43369</v>
+        <v>43381</v>
       </c>
       <c r="B123">
-        <v>0.7866152827224964</v>
+        <v>0.7711190394037705</v>
       </c>
       <c r="C123">
-        <v>0.8791645485579849</v>
+        <v>0.8541290610790356</v>
       </c>
       <c r="D123">
-        <v>0.9243518009608757</v>
+        <v>0.8667857773743468</v>
       </c>
       <c r="E123">
-        <v>0.9861911091419286</v>
+        <v>0.983351749539595</v>
       </c>
       <c r="F123">
-        <v>1.007502731299817</v>
+        <v>1.006042214095522</v>
       </c>
       <c r="G123">
-        <v>1.004917196864679</v>
+        <v>1.003919387220112</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>43370</v>
+        <v>43382</v>
       </c>
       <c r="B124">
-        <v>0.7767736211198361</v>
+        <v>0.7691941016215467</v>
       </c>
       <c r="C124">
-        <v>0.8756524866006336</v>
+        <v>0.8535559386868568</v>
       </c>
       <c r="D124">
-        <v>0.9209889351079871</v>
+        <v>0.8658046191842562</v>
       </c>
       <c r="E124">
-        <v>0.9832373356963519</v>
+        <v>0.9823941068139965</v>
       </c>
       <c r="F124">
-        <v>1.008649701576952</v>
+        <v>1.006088605135224</v>
       </c>
       <c r="G124">
-        <v>1.005245180813965</v>
+        <v>1.004099691819798</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
-        <v>43371</v>
+        <v>43383</v>
       </c>
       <c r="B125">
-        <v>0.7841811129833135</v>
+        <v>0.768363286592202</v>
       </c>
       <c r="C125">
-        <v>0.8847277209720016</v>
+        <v>0.8517150535753422</v>
       </c>
       <c r="D125">
-        <v>0.9234097333034705</v>
+        <v>0.8664715156479186</v>
       </c>
       <c r="E125">
-        <v>0.974966770048737</v>
+        <v>0.9814364640883978</v>
       </c>
       <c r="F125">
-        <v>1.009123946561372</v>
+        <v>1.006440476794851</v>
       </c>
       <c r="G125">
-        <v>1.005589820198175</v>
+        <v>1.00452935384458</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2">
-        <v>43381</v>
+        <v>43384</v>
       </c>
       <c r="B126">
-        <v>0.7589872707847591</v>
+        <v>0.714847576675264</v>
       </c>
       <c r="C126">
-        <v>0.8466600113524363</v>
+        <v>0.810841242553847</v>
       </c>
       <c r="D126">
-        <v>0.8707087738233457</v>
+        <v>0.8358161112393888</v>
       </c>
       <c r="E126">
-        <v>0.9857480431250921</v>
+        <v>0.9881399631675873</v>
       </c>
       <c r="F126">
-        <v>1.009408493552024</v>
+        <v>1.008322377462006</v>
       </c>
       <c r="G126">
-        <v>1.005828121036327</v>
+        <v>1.004971803429623</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
-        <v>43382</v>
+        <v>43385</v>
       </c>
       <c r="B127">
-        <v>0.7570926174315101</v>
+        <v>0.7099708408187646</v>
       </c>
       <c r="C127">
-        <v>0.846091900708296</v>
+        <v>0.8229391290138423</v>
       </c>
       <c r="D127">
-        <v>0.8697231749972916</v>
+        <v>0.8535179780863646</v>
       </c>
       <c r="E127">
-        <v>0.9847880667552796</v>
+        <v>0.9994475138121547</v>
       </c>
       <c r="F127">
-        <v>1.009455039819014</v>
+        <v>1.008467677699564</v>
       </c>
       <c r="G127">
-        <v>1.006008768445895</v>
+        <v>1.005456451963529</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>43383</v>
+        <v>43388</v>
       </c>
       <c r="B128">
-        <v>0.7562748733486552</v>
+        <v>0.6968797868803949</v>
       </c>
       <c r="C128">
-        <v>0.8442671134712894</v>
+        <v>0.8114479757375246</v>
       </c>
       <c r="D128">
-        <v>0.8703930897758907</v>
+        <v>0.8417272089125951</v>
       </c>
       <c r="E128">
-        <v>0.983828090385467</v>
+        <v>1.010865561694291</v>
       </c>
       <c r="F128">
-        <v>1.009808088862971</v>
+        <v>1.008161321777003</v>
       </c>
       <c r="G128">
-        <v>1.006439247379332</v>
+        <v>1.005641871587319</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2">
-        <v>43384</v>
+        <v>43389</v>
       </c>
       <c r="B129">
-        <v>0.7036011089382066</v>
+        <v>0.6803720057189523</v>
       </c>
       <c r="C129">
-        <v>0.8037507291443613</v>
+        <v>0.8048353964043774</v>
       </c>
       <c r="D129">
-        <v>0.8395989416941531</v>
+        <v>0.8422961880383387</v>
       </c>
       <c r="E129">
-        <v>0.990547924974154</v>
+        <v>1.010128913443831</v>
       </c>
       <c r="F129">
-        <v>1.011696286486126</v>
+        <v>1.008453672857389</v>
       </c>
       <c r="G129">
-        <v>1.006882538185788</v>
+        <v>1.005953888057697</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2">
-        <v>43385</v>
+        <v>43390</v>
       </c>
       <c r="B130">
-        <v>0.6988010972034108</v>
+        <v>0.685964780592193</v>
       </c>
       <c r="C130">
-        <v>0.8157428239627019</v>
+        <v>0.809318349270472</v>
       </c>
       <c r="D130">
-        <v>0.8573809256387949</v>
+        <v>0.8422961880383387</v>
       </c>
       <c r="E130">
-        <v>1.001883030571555</v>
+        <v>1.008250460405157</v>
       </c>
       <c r="F130">
-        <v>1.011842072907262</v>
+        <v>1.008509692226086</v>
       </c>
       <c r="G130">
-        <v>1.007368108173207</v>
+        <v>1.006173834094193</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="B131">
-        <v>0.6859160006195399</v>
+        <v>0.6668926782712032</v>
       </c>
       <c r="C131">
-        <v>0.8043521566657845</v>
+        <v>0.790149946176016</v>
       </c>
       <c r="D131">
-        <v>0.8455367924772822</v>
+        <v>0.8420411398372059</v>
       </c>
       <c r="E131">
-        <v>1.013328902673164</v>
+        <v>1.007918968692449</v>
       </c>
       <c r="F131">
-        <v>1.011534691898842</v>
+        <v>1.009792885890296</v>
       </c>
       <c r="G131">
-        <v>1.007553880331982</v>
+        <v>1.006622677459367</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>43389</v>
+        <v>43392</v>
       </c>
       <c r="B132">
-        <v>0.6696679310865623</v>
+        <v>0.6850689767159202</v>
       </c>
       <c r="C132">
-        <v>0.7977974019473366</v>
+        <v>0.8136525062542027</v>
       </c>
       <c r="D132">
-        <v>0.8461083467526742</v>
+        <v>0.8455757572549801</v>
       </c>
       <c r="E132">
-        <v>1.01259045931177</v>
+        <v>1.009944751381216</v>
       </c>
       <c r="F132">
-        <v>1.01182802120402</v>
+        <v>1.010402096524873</v>
       </c>
       <c r="G132">
-        <v>1.007866490033644</v>
+        <v>1.006750553061981</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>43390</v>
+        <v>43395</v>
       </c>
       <c r="B133">
-        <v>0.6751727166258179</v>
+        <v>0.7191166103875314</v>
       </c>
       <c r="C133">
-        <v>0.8022411530119651</v>
+        <v>0.8487758352787796</v>
       </c>
       <c r="D133">
-        <v>0.8461083467526742</v>
+        <v>0.8651509547932853</v>
       </c>
       <c r="E133">
-        <v>1.010707428740215</v>
+        <v>1.011786372007367</v>
       </c>
       <c r="F133">
-        <v>1.011884228016988</v>
+        <v>1.00958981567877</v>
       </c>
       <c r="G133">
-        <v>1.008086854249571</v>
+        <v>1.006874592396516</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>43391</v>
+        <v>43396</v>
       </c>
       <c r="B134">
-        <v>0.6564006695759511</v>
+        <v>0.7059083408654401</v>
       </c>
       <c r="C134">
-        <v>0.7832403706699409</v>
+        <v>0.826235192694431</v>
       </c>
       <c r="D134">
-        <v>0.8458521442257397</v>
+        <v>0.8384684802104428</v>
       </c>
       <c r="E134">
-        <v>1.010375129227588</v>
+        <v>1.017753222836096</v>
       </c>
       <c r="F134">
-        <v>1.013171715326544</v>
+        <v>1.009885667969699</v>
       </c>
       <c r="G134">
-        <v>1.008536550992537</v>
+        <v>1.006836229715732</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>43392</v>
+        <v>43397</v>
       </c>
       <c r="B135">
-        <v>0.6742910061447275</v>
+        <v>0.7045694478103797</v>
       </c>
       <c r="C135">
-        <v>0.806537409360406</v>
+        <v>0.8274747950208895</v>
       </c>
       <c r="D135">
-        <v>0.8494027590121147</v>
+        <v>0.8352673110244998</v>
       </c>
       <c r="E135">
-        <v>1.012405848471422</v>
+        <v>1.017348066298343</v>
       </c>
       <c r="F135">
-        <v>1.013782964417574</v>
+        <v>1.011137350739017</v>
       </c>
       <c r="G135">
-        <v>1.008664669722726</v>
+        <v>1.007007583023235</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>43395</v>
+        <v>43398</v>
       </c>
       <c r="B136">
-        <v>0.7078029793117709</v>
+        <v>0.7027326996942886</v>
       </c>
       <c r="C136">
-        <v>0.8413535975757043</v>
+        <v>0.8290597190314321</v>
       </c>
       <c r="D136">
-        <v>0.8690665521785852</v>
+        <v>0.8268212790253784</v>
       </c>
       <c r="E136">
-        <v>1.014251956874907</v>
+        <v>1.018416206261511</v>
       </c>
       <c r="F136">
-        <v>1.012967965629534</v>
+        <v>1.011922497203407</v>
       </c>
       <c r="G136">
-        <v>1.00878894489101</v>
+        <v>1.00724415288807</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>43396</v>
+        <v>43399</v>
       </c>
       <c r="B137">
-        <v>0.6948025112593769</v>
+        <v>0.7026559776719831</v>
       </c>
       <c r="C137">
-        <v>0.81901006475849</v>
+        <v>0.8236940870857425</v>
       </c>
       <c r="D137">
-        <v>0.8422633150546728</v>
+        <v>0.8176636923172601</v>
       </c>
       <c r="E137">
-        <v>1.0202333481022</v>
+        <v>1.022025782688767</v>
       </c>
       <c r="F137">
-        <v>1.013264807860523</v>
+        <v>1.012170207849363</v>
       </c>
       <c r="G137">
-        <v>1.008750509271954</v>
+        <v>1.007117556041482</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="2">
-        <v>43397</v>
+        <v>43402</v>
       </c>
       <c r="B138">
-        <v>0.6934846825794901</v>
+        <v>0.6908011556530514</v>
       </c>
       <c r="C138">
-        <v>0.8202388272109301</v>
+        <v>0.7985843342255031</v>
       </c>
       <c r="D138">
-        <v>0.8390476576575974</v>
+        <v>0.8207867922743219</v>
       </c>
       <c r="E138">
-        <v>1.019827204253433</v>
+        <v>1.020994475138122</v>
       </c>
       <c r="F138">
-        <v>1.014520678837783</v>
+        <v>1.013343113381451</v>
       </c>
       <c r="G138">
-        <v>1.008922188370407</v>
+        <v>1.007576629454866</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>43398</v>
+        <v>43403</v>
       </c>
       <c r="B139">
-        <v>0.691676831432631</v>
+        <v>0.6977741635245851</v>
       </c>
       <c r="C139">
-        <v>0.8218098916342194</v>
+        <v>0.8072456924461525</v>
       </c>
       <c r="D139">
-        <v>0.8305633996579975</v>
+        <v>0.8132938003108212</v>
       </c>
       <c r="E139">
-        <v>1.020897947127455</v>
+        <v>1.015837937384899</v>
       </c>
       <c r="F139">
-        <v>1.015308452450792</v>
+        <v>1.014051233213883</v>
       </c>
       <c r="G139">
-        <v>1.009159208021258</v>
+        <v>1.008237746320379</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="2">
-        <v>43399</v>
+        <v>43404</v>
       </c>
       <c r="B140">
-        <v>0.6916013164533046</v>
+        <v>0.7090608144088308</v>
       </c>
       <c r="C140">
-        <v>0.8164911801993089</v>
+        <v>0.8185521291177634</v>
       </c>
       <c r="D140">
-        <v>0.8213643665151602</v>
+        <v>0.8263326847412367</v>
       </c>
       <c r="E140">
-        <v>1.024516319598287</v>
+        <v>1.008471454880295</v>
       </c>
       <c r="F140">
-        <v>1.015556991951887</v>
+        <v>1.014195658148804</v>
       </c>
       <c r="G140">
-        <v>1.00903237047837</v>
+        <v>1.008239025076405</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>43402</v>
+        <v>43405</v>
       </c>
       <c r="B141">
-        <v>0.6799330025484307</v>
+        <v>0.7134473790235355</v>
       </c>
       <c r="C141">
-        <v>0.7916010030463974</v>
+        <v>0.8245762211254754</v>
       </c>
       <c r="D141">
-        <v>0.8245016013488677</v>
+        <v>0.8407658988315416</v>
       </c>
       <c r="E141">
-        <v>1.023482498892335</v>
+        <v>1.012338858195213</v>
       </c>
       <c r="F141">
-        <v>1.016733822098411</v>
+        <v>1.014627182348296</v>
       </c>
       <c r="G141">
-        <v>1.009492316719751</v>
+        <v>1.008701934757867</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="2">
-        <v>43403</v>
+        <v>43406</v>
       </c>
       <c r="B142">
-        <v>0.6867963063227326</v>
+        <v>0.7365091094830232</v>
       </c>
       <c r="C142">
-        <v>0.8001866208219574</v>
+        <v>0.8539595017733522</v>
       </c>
       <c r="D142">
-        <v>0.8169746967605496</v>
+        <v>0.8761732713454832</v>
       </c>
       <c r="E142">
-        <v>1.018313395362576</v>
+        <v>1.010460405156538</v>
       </c>
       <c r="F142">
-        <v>1.017444311343589</v>
+        <v>1.012855569813262</v>
       </c>
       <c r="G142">
-        <v>1.010154690554832</v>
+        <v>1.008516515134077</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>43404</v>
+        <v>43409</v>
       </c>
       <c r="B143">
-        <v>0.6979053879472217</v>
+        <v>0.7369873649964995</v>
       </c>
       <c r="C143">
-        <v>0.8113941867940697</v>
+        <v>0.8468453300413619</v>
       </c>
       <c r="D143">
-        <v>0.8300725940389543</v>
+        <v>0.8579143342381863</v>
       </c>
       <c r="E143">
-        <v>1.010928961748634</v>
+        <v>1.014806629834255</v>
       </c>
       <c r="F143">
-        <v>1.017589219533273</v>
+        <v>1.013113784090848</v>
       </c>
       <c r="G143">
-        <v>1.010155971742133</v>
+        <v>1.008466643649058</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="2">
-        <v>43405</v>
+        <v>43410</v>
       </c>
       <c r="B144">
-        <v>0.7022229401472165</v>
+        <v>0.7365341524273578</v>
       </c>
       <c r="C144">
-        <v>0.8173656002959052</v>
+        <v>0.8417363080536233</v>
       </c>
       <c r="D144">
-        <v>0.844571131591067</v>
+        <v>0.8640861037434193</v>
       </c>
       <c r="E144">
-        <v>1.014805789395953</v>
+        <v>1.012375690607736</v>
       </c>
       <c r="F144">
-        <v>1.018022187639419</v>
+        <v>1.013904182371054</v>
       </c>
       <c r="G144">
-        <v>1.01061976154542</v>
+        <v>1.008590682983593</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="2">
-        <v>43406</v>
+        <v>43411</v>
       </c>
       <c r="B145">
-        <v>0.7249218477951902</v>
+        <v>0.7327236917024033</v>
       </c>
       <c r="C145">
-        <v>0.8464919347815565</v>
+        <v>0.8362235412994354</v>
       </c>
       <c r="D145">
-        <v>0.8801387547693207</v>
+        <v>0.8649703370010432</v>
       </c>
       <c r="E145">
-        <v>1.012922758824398</v>
+        <v>1.013701657458564</v>
       </c>
       <c r="F145">
-        <v>1.016244647179296</v>
+        <v>1.015668792485</v>
       </c>
       <c r="G145">
-        <v>1.010433989386645</v>
+        <v>1.009080446541604</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="2">
-        <v>43409</v>
+        <v>43412</v>
       </c>
       <c r="B146">
-        <v>0.7253925790680061</v>
+        <v>0.7272790668384902</v>
       </c>
       <c r="C146">
-        <v>0.8394399739083827</v>
+        <v>0.833852254539222</v>
       </c>
       <c r="D146">
-        <v>0.8617971793131904</v>
+        <v>0.867617743944838</v>
       </c>
       <c r="E146">
-        <v>1.017279574656624</v>
+        <v>1.008692449355434</v>
       </c>
       <c r="F146">
-        <v>1.016503725457822</v>
+        <v>1.016000532184001</v>
       </c>
       <c r="G146">
-        <v>1.010384023081871</v>
+        <v>1.009552307515249</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>43410</v>
+        <v>43413</v>
       </c>
       <c r="B147">
-        <v>0.7249464967469105</v>
+        <v>0.7250030797510904</v>
       </c>
       <c r="C147">
-        <v>0.8343756284701488</v>
+        <v>0.8220873095721563</v>
       </c>
       <c r="D147">
-        <v>0.8679968817062085</v>
+        <v>0.8469161662186505</v>
       </c>
       <c r="E147">
-        <v>1.014842711564023</v>
+        <v>1.007292817679559</v>
       </c>
       <c r="F147">
-        <v>1.017296768459547</v>
+        <v>1.016236863895691</v>
       </c>
       <c r="G147">
-        <v>1.010508298250155</v>
+        <v>1.009870717765757</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>43411</v>
+        <v>43416</v>
       </c>
       <c r="B148">
-        <v>0.7211959847788726</v>
+        <v>0.7437684931315206</v>
       </c>
       <c r="C148">
-        <v>0.8289110688674259</v>
+        <v>0.8318711644117416</v>
       </c>
       <c r="D148">
-        <v>0.8688851169260475</v>
+        <v>0.847950252699508</v>
       </c>
       <c r="E148">
-        <v>1.016171909614533</v>
+        <v>0.9990791896869254</v>
       </c>
       <c r="F148">
-        <v>1.019067283068049</v>
+        <v>1.016483699239011</v>
       </c>
       <c r="G148">
-        <v>1.010998992986781</v>
+        <v>1.010061252413651</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="2">
-        <v>43412</v>
+        <v>43417</v>
       </c>
       <c r="B149">
-        <v>0.7158370184523462</v>
+        <v>0.7573515936282587</v>
       </c>
       <c r="C149">
-        <v>0.8265605181523081</v>
+        <v>0.8402392392780019</v>
       </c>
       <c r="D149">
-        <v>0.8715445058016076</v>
+        <v>0.8532328269198576</v>
       </c>
       <c r="E149">
-        <v>1.011150494757052</v>
+        <v>0.9966850828729292</v>
       </c>
       <c r="F149">
-        <v>1.019400132788596</v>
+        <v>1.017263593887585</v>
       </c>
       <c r="G149">
-        <v>1.011471751101181</v>
+        <v>1.010231326965128</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="2">
-        <v>43413</v>
+        <v>43418</v>
       </c>
       <c r="B150">
-        <v>0.7135968387400898</v>
+        <v>0.7543600156086085</v>
       </c>
       <c r="C150">
-        <v>0.8148984533739562</v>
+        <v>0.8318197749390257</v>
       </c>
       <c r="D150">
-        <v>0.850749234549259</v>
+        <v>0.8486532065612552</v>
       </c>
       <c r="E150">
-        <v>1.009747452370403</v>
+        <v>0.9949539594843472</v>
       </c>
       <c r="F150">
-        <v>1.019637255280806</v>
+        <v>1.020583616785502</v>
       </c>
       <c r="G150">
-        <v>1.011790766739353</v>
+        <v>1.011086814746614</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="2">
-        <v>43416</v>
+        <v>43419</v>
       </c>
       <c r="B151">
-        <v>0.7320670218881716</v>
+        <v>0.7666914999517149</v>
       </c>
       <c r="C151">
-        <v>0.8245967519414925</v>
+        <v>0.841534150173328</v>
       </c>
       <c r="D151">
-        <v>0.8517880012148844</v>
+        <v>0.8635032309413492</v>
       </c>
       <c r="E151">
-        <v>1.001513808890858</v>
+        <v>1.002173112338859</v>
       </c>
       <c r="F151">
-        <v>1.019884916550447</v>
+        <v>1.022480397597468</v>
       </c>
       <c r="G151">
-        <v>1.011981663647336</v>
+        <v>1.011435915141749</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>43417</v>
+        <v>43420</v>
       </c>
       <c r="B152">
-        <v>0.7454364238196628</v>
+        <v>0.7732106978081187</v>
       </c>
       <c r="C152">
-        <v>0.8328916510195259</v>
+        <v>0.8455056739687821</v>
       </c>
       <c r="D152">
-        <v>0.8570944839031035</v>
+        <v>0.8661559307142207</v>
       </c>
       <c r="E152">
-        <v>0.9991138679663272</v>
+        <v>1.00438305709024</v>
       </c>
       <c r="F152">
-        <v>1.020667420774741</v>
+        <v>1.025520323651901</v>
       </c>
       <c r="G152">
-        <v>1.012152061558488</v>
+        <v>1.012261991534634</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="2">
-        <v>43418</v>
+        <v>43423</v>
       </c>
       <c r="B153">
-        <v>0.7424919113378681</v>
+        <v>0.7751425228149276</v>
       </c>
       <c r="C153">
-        <v>0.8245458118511295</v>
+        <v>0.8550904854415701</v>
       </c>
       <c r="D153">
-        <v>0.8524941365841915</v>
+        <v>0.8723905525647393</v>
       </c>
       <c r="E153">
-        <v>0.9973785260670508</v>
+        <v>1.008139963167588</v>
       </c>
       <c r="F153">
-        <v>1.023998552674566</v>
+        <v>1.025380275230159</v>
       </c>
       <c r="G153">
-        <v>1.013009175863457</v>
+        <v>1.013149448216774</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>43419</v>
+        <v>43424</v>
       </c>
       <c r="B154">
-        <v>0.7546293883913928</v>
+        <v>0.7530224668070215</v>
       </c>
       <c r="C154">
-        <v>0.8341752383874023</v>
+        <v>0.8353144926722247</v>
       </c>
       <c r="D154">
-        <v>0.8674113708729287</v>
+        <v>0.8548031431465469</v>
       </c>
       <c r="E154">
-        <v>1.004615271008714</v>
+        <v>1.010755064456723</v>
       </c>
       <c r="F154">
-        <v>1.025901680232415</v>
+        <v>1.023911517407142</v>
       </c>
       <c r="G154">
-        <v>1.013358939996874</v>
+        <v>1.013507499904093</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
-        <v>43420</v>
+        <v>43425</v>
       </c>
       <c r="B155">
-        <v>0.7610460217980372</v>
+        <v>0.7558811462857624</v>
       </c>
       <c r="C155">
-        <v>0.8381120326436445</v>
+        <v>0.8374126885072273</v>
       </c>
       <c r="D155">
-        <v>0.8700760765324459</v>
+        <v>0.8591409473767082</v>
       </c>
       <c r="E155">
-        <v>1.006830601092896</v>
+        <v>1.01060773480663</v>
       </c>
       <c r="F155">
-        <v>1.028951778067399</v>
+        <v>1.024604757094764</v>
       </c>
       <c r="G155">
-        <v>1.0141865869939</v>
+        <v>1.013549698852955</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>43423</v>
+        <v>43426</v>
       </c>
       <c r="B156">
-        <v>0.762947454021375</v>
+        <v>0.7553254717296611</v>
       </c>
       <c r="C156">
-        <v>0.8476130284066382</v>
+        <v>0.8342814344992378</v>
       </c>
       <c r="D156">
-        <v>0.8763389157349548</v>
+        <v>0.8607268112888101</v>
       </c>
       <c r="E156">
-        <v>1.010596662236006</v>
+        <v>1.011602209944752</v>
       </c>
       <c r="F156">
-        <v>1.028811261034978</v>
+        <v>1.023947404815214</v>
       </c>
       <c r="G156">
-        <v>1.015075730981416</v>
+        <v>1.013701870820066</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
-        <v>43424</v>
+        <v>43427</v>
       </c>
       <c r="B157">
-        <v>0.7411754057627458</v>
+        <v>0.7260237332431548</v>
       </c>
       <c r="C157">
-        <v>0.8280099695416848</v>
+        <v>0.8158663284028164</v>
       </c>
       <c r="D157">
-        <v>0.8586719072433863</v>
+        <v>0.8576923662187828</v>
       </c>
       <c r="E157">
-        <v>1.013218136168956</v>
+        <v>1.01145488029466</v>
       </c>
       <c r="F157">
-        <v>1.027337588657465</v>
+        <v>1.023089608232045</v>
       </c>
       <c r="G157">
-        <v>1.015434463425947</v>
+        <v>1.013621309190419</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>43425</v>
+        <v>43430</v>
       </c>
       <c r="B158">
-        <v>0.7439891105537668</v>
+        <v>0.72481183065201</v>
       </c>
       <c r="C158">
-        <v>0.8300898174129641</v>
+        <v>0.8152870808007582</v>
       </c>
       <c r="D158">
-        <v>0.8630293439952567</v>
+        <v>0.8725288277243677</v>
       </c>
       <c r="E158">
-        <v>1.013070447496677</v>
+        <v>1.012891344383058</v>
       </c>
       <c r="F158">
-        <v>1.028033147967948</v>
+        <v>1.022464642150022</v>
       </c>
       <c r="G158">
-        <v>1.01547674260691</v>
+        <v>1.013519008708328</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>43426</v>
+        <v>43431</v>
       </c>
       <c r="B159">
-        <v>0.7434421782473022</v>
+        <v>0.7281624405190662</v>
       </c>
       <c r="C159">
-        <v>0.826985945088795</v>
+        <v>0.8142483645949167</v>
       </c>
       <c r="D159">
-        <v>0.8646223853884135</v>
+        <v>0.8710660220882986</v>
       </c>
       <c r="E159">
-        <v>1.014067346034559</v>
+        <v>1.009907918968693</v>
       </c>
       <c r="F159">
-        <v>1.027373596147023</v>
+        <v>1.02273948717769</v>
       </c>
       <c r="G159">
-        <v>1.015629203895835</v>
+        <v>1.013453792150995</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>43427</v>
+        <v>43432</v>
       </c>
       <c r="B160">
-        <v>0.7146014346179945</v>
+        <v>0.7371582179533752</v>
       </c>
       <c r="C160">
-        <v>0.8087318724350022</v>
+        <v>0.8250690409779656</v>
       </c>
       <c r="D160">
-        <v>0.8615742066859879</v>
+        <v>0.8826639338025866</v>
       </c>
       <c r="E160">
-        <v>1.01391965736228</v>
+        <v>1.005156537753223</v>
       </c>
       <c r="F160">
-        <v>1.026512929323445</v>
+        <v>1.023589406037136</v>
       </c>
       <c r="G160">
-        <v>1.015548489095816</v>
+        <v>1.013691640771856</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
-        <v>43430</v>
+        <v>43433</v>
       </c>
       <c r="B161">
-        <v>0.713408598501769</v>
+        <v>0.7212007841213067</v>
       </c>
       <c r="C161">
-        <v>0.8081576901437277</v>
+        <v>0.8143555298135248</v>
       </c>
       <c r="D161">
-        <v>0.876477816715835</v>
+        <v>0.8750048793268048</v>
       </c>
       <c r="E161">
-        <v>1.015359621916999</v>
+        <v>1.011418047882137</v>
       </c>
       <c r="F161">
-        <v>1.025885872066267</v>
+        <v>1.024894482267243</v>
       </c>
       <c r="G161">
-        <v>1.015445994111664</v>
+        <v>1.013737675988797</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
-        <v>43431</v>
+        <v>43434</v>
       </c>
       <c r="B162">
-        <v>0.7167064942980234</v>
+        <v>0.7263368447280864</v>
       </c>
       <c r="C162">
-        <v>0.8071280571354342</v>
+        <v>0.82344881914778</v>
       </c>
       <c r="D162">
-        <v>0.8750083905496815</v>
+        <v>0.8768481070527607</v>
       </c>
       <c r="E162">
-        <v>1.012368926303352</v>
+        <v>1.011602209944752</v>
       </c>
       <c r="F162">
-        <v>1.026161636742393</v>
+        <v>1.025184207439721</v>
       </c>
       <c r="G162">
-        <v>1.015380653559267</v>
+        <v>1.014034347386861</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>43432</v>
+        <v>43437</v>
       </c>
       <c r="B163">
-        <v>0.7255607440500882</v>
+        <v>0.7493256369898598</v>
       </c>
       <c r="C163">
-        <v>0.8178541106170234</v>
+        <v>0.8463561178336735</v>
       </c>
       <c r="D163">
-        <v>0.886658793395756</v>
+        <v>0.8991868229727306</v>
       </c>
       <c r="E163">
-        <v>1.00760596662236</v>
+        <v>1.010202578268877</v>
       </c>
       <c r="F163">
-        <v>1.027014399482897</v>
+        <v>1.025233224387331</v>
       </c>
       <c r="G163">
-        <v>1.01561895439742</v>
+        <v>1.014082940115854</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>43433</v>
+        <v>43438</v>
       </c>
       <c r="B164">
-        <v>0.7098543634083981</v>
+        <v>0.7528168624085048</v>
       </c>
       <c r="C164">
-        <v>0.807234285232964</v>
+        <v>0.8481104454242245</v>
       </c>
       <c r="D164">
-        <v>0.8789650747107827</v>
+        <v>0.9017803092203066</v>
       </c>
       <c r="E164">
-        <v>1.01388273519421</v>
+        <v>1.009429097605894</v>
       </c>
       <c r="F164">
-        <v>1.028323842578768</v>
+        <v>1.027867010018713</v>
       </c>
       <c r="G164">
-        <v>1.015665077140288</v>
+        <v>1.014187798109998</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
-        <v>43434</v>
+        <v>43439</v>
       </c>
       <c r="B165">
-        <v>0.7149096200203201</v>
+        <v>0.7472559181298526</v>
       </c>
       <c r="C165">
-        <v>0.8162480570407578</v>
+        <v>0.8440342220666814</v>
       </c>
       <c r="D165">
-        <v>0.8808166447238553</v>
+        <v>0.8871998883213064</v>
       </c>
       <c r="E165">
-        <v>1.014067346034559</v>
+        <v>1.0102394106814</v>
       </c>
       <c r="F165">
-        <v>1.028614537189589</v>
+        <v>1.029091558406318</v>
       </c>
       <c r="G165">
-        <v>1.015962312594328</v>
+        <v>1.015362974898018</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
-        <v>43437</v>
+        <v>43440</v>
       </c>
       <c r="B166">
-        <v>0.7375367369838594</v>
+        <v>0.7320519632631131</v>
       </c>
       <c r="C166">
-        <v>0.8389550396845171</v>
+        <v>0.8257802920437782</v>
       </c>
       <c r="D166">
-        <v>0.9032564637139455</v>
+        <v>0.8652578037802707</v>
       </c>
       <c r="E166">
-        <v>1.01266430364791</v>
+        <v>1.013996316758748</v>
       </c>
       <c r="F166">
-        <v>1.028663718150936</v>
+        <v>1.030531431242351</v>
       </c>
       <c r="G166">
-        <v>1.0160109977118</v>
+        <v>1.015316939681077</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>43438</v>
+        <v>43441</v>
       </c>
       <c r="B167">
-        <v>0.7409730360723121</v>
+        <v>0.7320305381861509</v>
       </c>
       <c r="C167">
-        <v>0.8406940263147757</v>
+        <v>0.8257521576051803</v>
       </c>
       <c r="D167">
-        <v>0.9058616878529422</v>
+        <v>0.8621939173485041</v>
       </c>
       <c r="E167">
-        <v>1.011888938118446</v>
+        <v>1.015837937384899</v>
       </c>
       <c r="F167">
-        <v>1.031306316591899</v>
+        <v>1.03145925203639</v>
       </c>
       <c r="G167">
-        <v>1.016116055070556</v>
+        <v>1.015823327067428</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>43439</v>
+        <v>43444</v>
       </c>
       <c r="B168">
-        <v>0.7354995803471055</v>
+        <v>0.7234593291049984</v>
       </c>
       <c r="C168">
-        <v>0.8366534480562482</v>
+        <v>0.8162005935639828</v>
       </c>
       <c r="D168">
-        <v>0.8912152772470215</v>
+        <v>0.851893410361639</v>
       </c>
       <c r="E168">
-        <v>1.01270122581598</v>
+        <v>1.026998158379375</v>
       </c>
       <c r="F168">
-        <v>1.032534962394128</v>
+        <v>1.032497360962552</v>
       </c>
       <c r="G168">
-        <v>1.017293466200998</v>
+        <v>1.016056060664185</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
-        <v>43440</v>
+        <v>43445</v>
       </c>
       <c r="B169">
-        <v>0.7205348244277552</v>
+        <v>0.7294766059485082</v>
       </c>
       <c r="C169">
-        <v>0.8185591420495033</v>
+        <v>0.820107413341517</v>
       </c>
       <c r="D169">
-        <v>0.8691738847547194</v>
+        <v>0.8525315270671968</v>
       </c>
       <c r="E169">
-        <v>1.01646728695909</v>
+        <v>1.024272559852671</v>
       </c>
       <c r="F169">
-        <v>1.033979653133705</v>
+        <v>1.033241368203055</v>
       </c>
       <c r="G169">
-        <v>1.01724734345813</v>
+        <v>1.016264497896445</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>43441</v>
+        <v>43446</v>
       </c>
       <c r="B170">
-        <v>0.7205137364246599</v>
+        <v>0.7291038328433757</v>
       </c>
       <c r="C170">
-        <v>0.8185312536363956</v>
+        <v>0.8229087625072375</v>
       </c>
       <c r="D170">
-        <v>0.8660961314415321</v>
+        <v>0.8662611256921199</v>
       </c>
       <c r="E170">
-        <v>1.018313395362575</v>
+        <v>1.021915285451198</v>
       </c>
       <c r="F170">
-        <v>1.034910578473493</v>
+        <v>1.033259749558409</v>
       </c>
       <c r="G170">
-        <v>1.017754693629681</v>
+        <v>1.016370634646615</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
-        <v>43444</v>
+        <v>43447</v>
       </c>
       <c r="B171">
-        <v>0.7120773754279719</v>
+        <v>0.7373740121251338</v>
       </c>
       <c r="C171">
-        <v>0.8090632145682277</v>
+        <v>0.8356479532507373</v>
       </c>
       <c r="D171">
-        <v>0.8557490052629507</v>
+        <v>0.8774303182511961</v>
       </c>
       <c r="E171">
-        <v>1.029500812287697</v>
+        <v>1.024898710865562</v>
       </c>
       <c r="F171">
-        <v>1.035952160976312</v>
+        <v>1.029816308988832</v>
       </c>
       <c r="G171">
-        <v>1.017987869718626</v>
+        <v>1.015978056546591</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
-        <v>43445</v>
+        <v>43448</v>
       </c>
       <c r="B172">
-        <v>0.7179999843840975</v>
+        <v>0.7197734690600072</v>
       </c>
       <c r="C172">
-        <v>0.8129358706197856</v>
+        <v>0.8216893526099572</v>
       </c>
       <c r="D172">
-        <v>0.8563900100287828</v>
+        <v>0.863220395387564</v>
       </c>
       <c r="E172">
-        <v>1.026768571850539</v>
+        <v>1.022025782688767</v>
       </c>
       <c r="F172">
-        <v>1.036698657711047</v>
+        <v>1.029304256946838</v>
       </c>
       <c r="G172">
-        <v>1.018196703248835</v>
+        <v>1.015444815283691</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
-        <v>43446</v>
+        <v>43451</v>
       </c>
       <c r="B173">
-        <v>0.7176330759987135</v>
+        <v>0.718702049254676</v>
       </c>
       <c r="C173">
-        <v>0.8157127230002148</v>
+        <v>0.8204657900280131</v>
       </c>
       <c r="D173">
-        <v>0.8701817476135939</v>
+        <v>0.8629951193499875</v>
       </c>
       <c r="E173">
-        <v>1.024405553094077</v>
+        <v>1.019521178637201</v>
       </c>
       <c r="F173">
-        <v>1.036717100571553</v>
+        <v>1.027964168611296</v>
       </c>
       <c r="G173">
-        <v>1.018303041794893</v>
+        <v>1.014935870385288</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
-        <v>43447</v>
+        <v>43452</v>
       </c>
       <c r="B174">
-        <v>0.725773143201328</v>
+        <v>0.7148221354336044</v>
       </c>
       <c r="C174">
-        <v>0.828340514128041</v>
+        <v>0.8119605467964479</v>
       </c>
       <c r="D174">
-        <v>0.8814014909591403</v>
+        <v>0.85394008120523</v>
       </c>
       <c r="E174">
-        <v>1.027396248707724</v>
+        <v>1.026114180478822</v>
       </c>
       <c r="F174">
-        <v>1.033262138036906</v>
+        <v>1.028163737612278</v>
       </c>
       <c r="G174">
-        <v>1.017909717293211</v>
+        <v>1.014268359739644</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
-        <v>43448</v>
+        <v>43453</v>
       </c>
       <c r="B175">
-        <v>0.7084495038373474</v>
+        <v>0.7049695208780244</v>
       </c>
       <c r="C175">
-        <v>0.8145039764014627</v>
+        <v>0.8022793411308987</v>
       </c>
       <c r="D175">
-        <v>0.8671272552302193</v>
+        <v>0.8556318016988657</v>
       </c>
       <c r="E175">
-        <v>1.024516319598286</v>
+        <v>1.027219152854512</v>
       </c>
       <c r="F175">
-        <v>1.032748372637118</v>
+        <v>1.028716928878158</v>
       </c>
       <c r="G175">
-        <v>1.01737546218832</v>
+        <v>1.014259408447461</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>43451</v>
+        <v>43454</v>
       </c>
       <c r="B176">
-        <v>0.7073949403363063</v>
+        <v>0.7069381551959892</v>
       </c>
       <c r="C176">
-        <v>0.8132911134317723</v>
+        <v>0.796125944904464</v>
       </c>
       <c r="D176">
-        <v>0.8669009596130436</v>
+        <v>0.8476310289458204</v>
       </c>
       <c r="E176">
-        <v>1.022005612169546</v>
+        <v>1.027587476979743</v>
       </c>
       <c r="F176">
-        <v>1.031403800283141</v>
+        <v>1.030482414294741</v>
       </c>
       <c r="G176">
-        <v>1.016865549642165</v>
+        <v>1.014774747125995</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2">
-        <v>43452</v>
+        <v>43455</v>
       </c>
       <c r="B177">
-        <v>0.7035760679554453</v>
+        <v>0.7021888910793405</v>
       </c>
       <c r="C177">
-        <v>0.804860245476179</v>
+        <v>0.7862576607948053</v>
       </c>
       <c r="D177">
-        <v>0.8578049391593757</v>
+        <v>0.8519278137506375</v>
       </c>
       <c r="E177">
-        <v>1.028614680254024</v>
+        <v>1.034843462246778</v>
       </c>
       <c r="F177">
-        <v>1.031604037054341</v>
+        <v>1.030730124940697</v>
       </c>
       <c r="G177">
-        <v>1.016196769870575</v>
+        <v>1.014960166749785</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
-        <v>43453</v>
+        <v>43458</v>
       </c>
       <c r="B178">
-        <v>0.6938784614258284</v>
+        <v>0.7094209415738821</v>
       </c>
       <c r="C178">
-        <v>0.795263698452777</v>
+        <v>0.7885424159883345</v>
       </c>
       <c r="D178">
-        <v>0.8595043162316753</v>
+        <v>0.8485523120069812</v>
       </c>
       <c r="E178">
-        <v>1.029722345296115</v>
+        <v>1.037790055248619</v>
       </c>
       <c r="F178">
-        <v>1.032159079332403</v>
+        <v>1.030105158858674</v>
       </c>
       <c r="G178">
-        <v>1.016187801559462</v>
+        <v>1.014857866267694</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
-        <v>43454</v>
+        <v>43459</v>
       </c>
       <c r="B179">
-        <v>0.6958161238512311</v>
+        <v>0.7012542864052846</v>
       </c>
       <c r="C179">
-        <v>0.789164111450846</v>
+        <v>0.7831136632357534</v>
       </c>
       <c r="D179">
-        <v>0.8514673326824695</v>
+        <v>0.8485523120069812</v>
       </c>
       <c r="E179">
-        <v>1.030091566976812</v>
+        <v>1.043830570902395</v>
       </c>
       <c r="F179">
-        <v>1.033930472172357</v>
+        <v>1.030391382820608</v>
       </c>
       <c r="G179">
-        <v>1.016704120042126</v>
+        <v>1.014773468369969</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
-        <v>43455</v>
+        <v>43460</v>
       </c>
       <c r="B180">
-        <v>0.6911415783842714</v>
+        <v>0.6984152396655418</v>
       </c>
       <c r="C180">
-        <v>0.7793821219166677</v>
+        <v>0.7791559471168068</v>
       </c>
       <c r="D180">
-        <v>0.8557835643586721</v>
+        <v>0.8485523120069812</v>
       </c>
       <c r="E180">
-        <v>1.037365234086545</v>
+        <v>1.046813996316759</v>
       </c>
       <c r="F180">
-        <v>1.034179011673452</v>
+        <v>1.031166025653368</v>
       </c>
       <c r="G180">
-        <v>1.016889892200901</v>
+        <v>1.014585491234127</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2">
-        <v>43458</v>
+        <v>43461</v>
       </c>
       <c r="B181">
-        <v>0.698259849347045</v>
+        <v>0.6905928295561448</v>
       </c>
       <c r="C181">
-        <v>0.781646897752356</v>
+        <v>0.7761641973592457</v>
       </c>
       <c r="D181">
-        <v>0.8523927853900086</v>
+        <v>0.8428459806586793</v>
       </c>
       <c r="E181">
-        <v>1.040319007532122</v>
+        <v>1.041878453038675</v>
       </c>
       <c r="F181">
-        <v>1.033551954416274</v>
+        <v>1.032737193884784</v>
       </c>
       <c r="G181">
-        <v>1.01678739721675</v>
+        <v>1.014572703673865</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
-        <v>43459</v>
+        <v>43462</v>
       </c>
       <c r="B182">
-        <v>0.6902216775459096</v>
+        <v>0.6917157126950623</v>
       </c>
       <c r="C182">
-        <v>0.7762656174791812</v>
+        <v>0.7813934395680046</v>
       </c>
       <c r="D182">
-        <v>0.8523927853900086</v>
+        <v>0.8436835708600648</v>
       </c>
       <c r="E182">
-        <v>1.046374243095554</v>
+        <v>1.048250460405157</v>
       </c>
       <c r="F182">
-        <v>1.033839136101284</v>
+        <v>1.035349972252905</v>
       </c>
       <c r="G182">
-        <v>1.016702838854824</v>
+        <v>1.015653252515952</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
-        <v>43460</v>
+        <v>43467</v>
       </c>
       <c r="B183">
-        <v>0.6874272966182983</v>
+        <v>0.6857280426194075</v>
       </c>
       <c r="C183">
-        <v>0.7723425101563092</v>
+        <v>0.7707214812044821</v>
       </c>
       <c r="D183">
-        <v>0.8523927853900086</v>
+        <v>0.8313165449205711</v>
       </c>
       <c r="E183">
-        <v>1.049364938709201</v>
+        <v>1.05267034990792</v>
       </c>
       <c r="F183">
-        <v>1.034616370936861</v>
+        <v>1.038669995150822</v>
       </c>
       <c r="G183">
-        <v>1.016514504321446</v>
+        <v>1.016741473894195</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2">
-        <v>43461</v>
+        <v>43468</v>
       </c>
       <c r="B184">
-        <v>0.6797279539792151</v>
+        <v>0.6825500116643035</v>
       </c>
       <c r="C184">
-        <v>0.769376922168353</v>
+        <v>0.7695033949754385</v>
       </c>
       <c r="D184">
-        <v>0.8466606276862213</v>
+        <v>0.8291335837282555</v>
       </c>
       <c r="E184">
-        <v>1.04441736818786</v>
+        <v>1.058232044198896</v>
       </c>
       <c r="F184">
-        <v>1.036192796394332</v>
+        <v>1.039212682785071</v>
       </c>
       <c r="G184">
-        <v>1.016501692448427</v>
+        <v>1.017897469341824</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2">
-        <v>43462</v>
+        <v>43469</v>
       </c>
       <c r="B185">
-        <v>0.6808331711577148</v>
+        <v>0.6988257016550902</v>
       </c>
       <c r="C185">
-        <v>0.7745604365452543</v>
+        <v>0.7879392385409004</v>
       </c>
       <c r="D185">
-        <v>0.8475020087474381</v>
+        <v>0.8477137294001438</v>
       </c>
       <c r="E185">
-        <v>1.05080490326392</v>
+        <v>1.05889502762431</v>
       </c>
       <c r="F185">
-        <v>1.038814317280432</v>
+        <v>1.038625354716392</v>
       </c>
       <c r="G185">
-        <v>1.017584295718529</v>
+        <v>1.018942213015179</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2">
-        <v>43467</v>
+        <v>43472</v>
       </c>
       <c r="B186">
-        <v>0.6749397031756577</v>
+        <v>0.7116782252827099</v>
       </c>
       <c r="C186">
-        <v>0.7639818005978977</v>
+        <v>0.7927223266910797</v>
       </c>
       <c r="D186">
-        <v>0.8350790107325923</v>
+        <v>0.8546496511033234</v>
       </c>
       <c r="E186">
-        <v>1.055235563432285</v>
+        <v>1.054069981583794</v>
       </c>
       <c r="F186">
-        <v>1.042145449180258</v>
+        <v>1.038117679187577</v>
       </c>
       <c r="G186">
-        <v>1.018674586112443</v>
+        <v>1.019814324625005</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2">
-        <v>43468</v>
+        <v>43473</v>
       </c>
       <c r="B187">
-        <v>0.6718116711626642</v>
+        <v>0.7098482648168726</v>
       </c>
       <c r="C187">
-        <v>0.7627743660923822</v>
+        <v>0.7910094740386096</v>
       </c>
       <c r="D187">
-        <v>0.8328861696492711</v>
+        <v>0.8559645883270625</v>
       </c>
       <c r="E187">
-        <v>1.060810810810811</v>
+        <v>1.048802946593002</v>
       </c>
       <c r="F187">
-        <v>1.042689952680888</v>
+        <v>1.040266547158679</v>
       </c>
       <c r="G187">
-        <v>1.019832779433357</v>
+        <v>1.020930678635823</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="2">
-        <v>43469</v>
+        <v>43474</v>
       </c>
       <c r="B188">
-        <v>0.6878313009409631</v>
+        <v>0.7117526239039506</v>
       </c>
       <c r="C188">
-        <v>0.7810489948735487</v>
+        <v>0.7989962286356055</v>
       </c>
       <c r="D188">
-        <v>0.8515504074318</v>
+        <v>0.8753783545785288</v>
       </c>
       <c r="E188">
-        <v>1.061475409836065</v>
+        <v>1.0455985267035</v>
       </c>
       <c r="F188">
-        <v>1.042100659376174</v>
+        <v>1.039480525391653</v>
       </c>
       <c r="G188">
-        <v>1.020879509459007</v>
+        <v>1.021277221518906</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="2">
-        <v>43472</v>
+        <v>43475</v>
       </c>
       <c r="B189">
-        <v>0.7004816199349879</v>
+        <v>0.71060567696829</v>
       </c>
       <c r="C189">
-        <v>0.7857902566477524</v>
+        <v>0.7974936056442461</v>
       </c>
       <c r="D189">
-        <v>0.8585177205086296</v>
+        <v>0.8773337241205469</v>
       </c>
       <c r="E189">
-        <v>1.056638605818934</v>
+        <v>1.045451197053407</v>
       </c>
       <c r="F189">
-        <v>1.041591285133648</v>
+        <v>1.038925583520501</v>
       </c>
       <c r="G189">
-        <v>1.0217532791989</v>
+        <v>1.021764427564865</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="2">
-        <v>43473</v>
+        <v>43476</v>
       </c>
       <c r="B190">
-        <v>0.6986804496504573</v>
+        <v>0.7160847711465722</v>
       </c>
       <c r="C190">
-        <v>0.7840923822722413</v>
+        <v>0.8032273730853919</v>
       </c>
       <c r="D190">
-        <v>0.8598386090229806</v>
+        <v>0.882158137823946</v>
       </c>
       <c r="E190">
-        <v>1.051358735784965</v>
+        <v>1.043093922651934</v>
       </c>
       <c r="F190">
-        <v>1.043747343349855</v>
+        <v>1.038847681585907</v>
       </c>
       <c r="G190">
-        <v>1.022871755713456</v>
+        <v>1.021979258577256</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2">
-        <v>43474</v>
+        <v>43479</v>
       </c>
       <c r="B191">
-        <v>0.7005548480665734</v>
+        <v>0.7113834852619126</v>
       </c>
       <c r="C191">
-        <v>0.792009295588853</v>
+        <v>0.7962213528346176</v>
       </c>
       <c r="D191">
-        <v>0.8793402402787585</v>
+        <v>0.8699535355767433</v>
       </c>
       <c r="E191">
-        <v>1.048146507162901</v>
+        <v>1.044198895027625</v>
       </c>
       <c r="F191">
-        <v>1.042958691505393</v>
+        <v>1.03787259444953</v>
       </c>
       <c r="G191">
-        <v>1.02321895747227</v>
+        <v>1.022012506233935</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="2">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B192">
-        <v>0.6994259456793298</v>
+        <v>0.721475028425568</v>
       </c>
       <c r="C192">
-        <v>0.7905198124921</v>
+        <v>0.8118473601850771</v>
       </c>
       <c r="D192">
-        <v>0.8813044596519229</v>
+        <v>0.8875508690494543</v>
       </c>
       <c r="E192">
-        <v>1.047998818490622</v>
+        <v>1.039852670349908</v>
       </c>
       <c r="F192">
-        <v>1.042401892764426</v>
+        <v>1.037375422552346</v>
       </c>
       <c r="G192">
-        <v>1.023707089834292</v>
+        <v>1.021797675221544</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2">
-        <v>43476</v>
+        <v>43481</v>
       </c>
       <c r="B193">
-        <v>0.7048188390255535</v>
+        <v>0.7197361950686384</v>
       </c>
       <c r="C193">
-        <v>0.7962034402107026</v>
+        <v>0.8120189958330926</v>
       </c>
       <c r="D193">
-        <v>0.8861507082288526</v>
+        <v>0.8899263568994343</v>
       </c>
       <c r="E193">
-        <v>1.04563579973416</v>
+        <v>1.042246777163905</v>
       </c>
       <c r="F193">
-        <v>1.042323730165142</v>
+        <v>1.040669186371187</v>
       </c>
       <c r="G193">
-        <v>1.023922329301011</v>
+        <v>1.022079001547294</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="2">
-        <v>43479</v>
+        <v>43482</v>
       </c>
       <c r="B194">
-        <v>0.7001915169644414</v>
+        <v>0.7142351945374591</v>
       </c>
       <c r="C194">
-        <v>0.7892586850731564</v>
+        <v>0.8075458017759581</v>
       </c>
       <c r="D194">
-        <v>0.8738908690216914</v>
+        <v>0.8850811026815458</v>
       </c>
       <c r="E194">
-        <v>1.046743464776252</v>
+        <v>1.042725598526704</v>
       </c>
       <c r="F194">
-        <v>1.041345380326912</v>
+        <v>1.041064823162607</v>
       </c>
       <c r="G194">
-        <v>1.02395564017086</v>
+        <v>1.022663393051239</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="2">
-        <v>43480</v>
+        <v>43483</v>
       </c>
       <c r="B195">
-        <v>0.7101242931149454</v>
+        <v>0.7215506551302286</v>
       </c>
       <c r="C195">
-        <v>0.8047480486407884</v>
+        <v>0.8222766979471101</v>
       </c>
       <c r="D195">
-        <v>0.8915678464831797</v>
+        <v>0.8961689179935681</v>
       </c>
       <c r="E195">
-        <v>1.042386648944026</v>
+        <v>1.043388581952118</v>
       </c>
       <c r="F195">
-        <v>1.040846544861818</v>
+        <v>1.039945311091309</v>
       </c>
       <c r="G195">
-        <v>1.023740400704141</v>
+        <v>1.02279894119001</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="2">
-        <v>43481</v>
+        <v>43486</v>
       </c>
       <c r="B196">
-        <v>0.7084128162657343</v>
+        <v>0.7258360190328375</v>
       </c>
       <c r="C196">
-        <v>0.8049181833971374</v>
+        <v>0.8268089639435889</v>
       </c>
       <c r="D196">
-        <v>0.8939540855829418</v>
+        <v>0.8996664856078056</v>
       </c>
       <c r="E196">
-        <v>1.044786589868557</v>
+        <v>1.039337016574586</v>
       </c>
       <c r="F196">
-        <v>1.044151329818065</v>
+        <v>1.039441136773038</v>
       </c>
       <c r="G196">
-        <v>1.024022261910558</v>
+        <v>1.022570043861331</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="2">
-        <v>43482</v>
+        <v>43487</v>
       </c>
       <c r="B197">
-        <v>0.7029983612122401</v>
+        <v>0.7149854871241849</v>
       </c>
       <c r="C197">
-        <v>0.8004841058042141</v>
+        <v>0.8158252946874812</v>
       </c>
       <c r="D197">
-        <v>0.8890869021691811</v>
+        <v>0.8933451936811563</v>
       </c>
       <c r="E197">
-        <v>1.045266578053464</v>
+        <v>1.041694290976059</v>
       </c>
       <c r="F197">
-        <v>1.044548290434654</v>
+        <v>1.039386868009613</v>
       </c>
       <c r="G197">
-        <v>1.024607764507525</v>
+        <v>1.022364164141123</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="2">
-        <v>43483</v>
+        <v>43488</v>
       </c>
       <c r="B198">
-        <v>0.7101987300089083</v>
+        <v>0.7162190139409547</v>
       </c>
       <c r="C198">
-        <v>0.815086185616067</v>
+        <v>0.8152377157618159</v>
       </c>
       <c r="D198">
-        <v>0.9002248999613867</v>
+        <v>0.8934361641809119</v>
       </c>
       <c r="E198">
-        <v>1.045931177078718</v>
+        <v>1.039926335174954</v>
       </c>
       <c r="F198">
-        <v>1.04342503240674</v>
+        <v>1.039269577456404</v>
       </c>
       <c r="G198">
-        <v>1.024743570361526</v>
+        <v>1.022269536195189</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="2">
-        <v>43486</v>
+        <v>43489</v>
       </c>
       <c r="B199">
-        <v>0.7144166736551649</v>
+        <v>0.7199506283912016</v>
       </c>
       <c r="C199">
-        <v>0.8195788185855896</v>
+        <v>0.8198390201408323</v>
       </c>
       <c r="D199">
-        <v>0.9037382972600617</v>
+        <v>0.8971669470763408</v>
       </c>
       <c r="E199">
-        <v>1.04186973859105</v>
+        <v>1.040883977900553</v>
       </c>
       <c r="F199">
-        <v>1.042919171090025</v>
+        <v>1.038438915254948</v>
       </c>
       <c r="G199">
-        <v>1.024514237834486</v>
+        <v>1.022070050255112</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="2">
-        <v>43487</v>
+        <v>43490</v>
       </c>
       <c r="B200">
-        <v>0.7037368496862498</v>
+        <v>0.7166765745892321</v>
       </c>
       <c r="C200">
-        <v>0.808691197544667</v>
+        <v>0.8265061294144728</v>
       </c>
       <c r="D200">
-        <v>0.8973883957202546</v>
+        <v>0.9119938153292243</v>
       </c>
       <c r="E200">
-        <v>1.044232757347511</v>
+        <v>1.040110497237569</v>
       </c>
       <c r="F200">
-        <v>1.042864720739962</v>
+        <v>1.037925987910319</v>
       </c>
       <c r="G200">
-        <v>1.024307966678881</v>
+        <v>1.021795117709492</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="2">
-        <v>43488</v>
+        <v>43493</v>
       </c>
       <c r="B201">
-        <v>0.7049509698210915</v>
+        <v>0.7148141860828183</v>
       </c>
       <c r="C201">
-        <v>0.8081087567841972</v>
+        <v>0.8263265517570375</v>
       </c>
       <c r="D201">
-        <v>0.8974797779445179</v>
+        <v>0.9122508483412608</v>
       </c>
       <c r="E201">
-        <v>1.042460493280165</v>
+        <v>1.047697974217312</v>
       </c>
       <c r="F201">
-        <v>1.04274703772531</v>
+        <v>1.03705331118234</v>
       </c>
       <c r="G201">
-        <v>1.024213158818541</v>
+        <v>1.021651897034564</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="2">
-        <v>43489</v>
+        <v>43494</v>
       </c>
       <c r="B202">
-        <v>0.7086238759775829</v>
+        <v>0.7060297219753568</v>
       </c>
       <c r="C202">
-        <v>0.8126698244205712</v>
+        <v>0.8289718378422321</v>
       </c>
       <c r="D202">
-        <v>0.9012274460363042</v>
+        <v>0.9107529777125587</v>
       </c>
       <c r="E202">
-        <v>1.043420469649978</v>
+        <v>1.053112338858196</v>
       </c>
       <c r="F202">
-        <v>1.041913596076764</v>
+        <v>1.038435414044405</v>
       </c>
       <c r="G202">
-        <v>1.024013293599445</v>
+        <v>1.021651897034564</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="2">
-        <v>43490</v>
+        <v>43495</v>
       </c>
       <c r="B203">
-        <v>0.7054013318143877</v>
+        <v>0.6989493231874618</v>
       </c>
       <c r="C203">
-        <v>0.8192786322349045</v>
+        <v>0.8223568966696821</v>
       </c>
       <c r="D203">
-        <v>0.9161214193952291</v>
+        <v>0.9144305015154034</v>
       </c>
       <c r="E203">
-        <v>1.042645104120514</v>
+        <v>1.056058931860037</v>
       </c>
       <c r="F203">
-        <v>1.041398952445523</v>
+        <v>1.039229313535154</v>
       </c>
       <c r="G203">
-        <v>1.023737838329537</v>
+        <v>1.021948568432629</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="2">
-        <v>43493</v>
+        <v>43496</v>
       </c>
       <c r="B204">
-        <v>0.7035682436692463</v>
+        <v>0.6931159933254003</v>
       </c>
       <c r="C204">
-        <v>0.8191006249191357</v>
+        <v>0.8309607921162946</v>
       </c>
       <c r="D204">
-        <v>0.9163796157161475</v>
+        <v>0.9243419855651323</v>
       </c>
       <c r="E204">
-        <v>1.050251070742874</v>
+        <v>1.055985267034991</v>
       </c>
       <c r="F204">
-        <v>1.040523355687251</v>
+        <v>1.03973436315606</v>
       </c>
       <c r="G204">
-        <v>1.023594345351725</v>
+        <v>1.022357770360993</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2">
-        <v>43494</v>
+        <v>43497</v>
       </c>
       <c r="B205">
-        <v>0.6949219827192068</v>
+        <v>0.7126650400978368</v>
       </c>
       <c r="C205">
-        <v>0.8217227789342348</v>
+        <v>0.8428385084262647</v>
       </c>
       <c r="D205">
-        <v>0.9148749658562779</v>
+        <v>0.9239539550334478</v>
       </c>
       <c r="E205">
-        <v>1.055678629449121</v>
+        <v>1.058637200736649</v>
       </c>
       <c r="F205">
-        <v>1.041910083150953</v>
+        <v>1.039812265090654</v>
       </c>
       <c r="G205">
-        <v>1.023594345351725</v>
+        <v>1.022770808557435</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="2">
-        <v>43495</v>
+        <v>43507</v>
       </c>
       <c r="B206">
-        <v>0.6879529775754001</v>
+        <v>0.7306875293920612</v>
       </c>
       <c r="C206">
-        <v>0.8151656830298156</v>
+        <v>0.8581711026509391</v>
       </c>
       <c r="D206">
-        <v>0.9185691338094955</v>
+        <v>0.9310033417599587</v>
       </c>
       <c r="E206">
-        <v>1.058632402894698</v>
+        <v>1.058674033149172</v>
       </c>
       <c r="F206">
-        <v>1.042706639078489</v>
+        <v>1.040879259003799</v>
       </c>
       <c r="G206">
-        <v>1.023891580805765</v>
+        <v>1.02308026751576</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="2">
-        <v>43496</v>
+        <v>43508</v>
       </c>
       <c r="B207">
-        <v>0.6822114216218387</v>
+        <v>0.7367645840258248</v>
       </c>
       <c r="C207">
-        <v>0.823694340522515</v>
+        <v>0.8643645203758223</v>
       </c>
       <c r="D207">
-        <v>0.9285254763672275</v>
+        <v>0.9319127159556967</v>
       </c>
       <c r="E207">
-        <v>1.058558558558559</v>
+        <v>1.060036832412523</v>
       </c>
       <c r="F207">
-        <v>1.043213378626656</v>
+        <v>1.04107270088633</v>
       </c>
       <c r="G207">
-        <v>1.024301560742372</v>
+        <v>1.02361350877866</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2">
-        <v>43497</v>
+        <v>43509</v>
       </c>
       <c r="B208">
-        <v>0.7014529095090105</v>
+        <v>0.7488668150667187</v>
       </c>
       <c r="C208">
-        <v>0.8354681904991637</v>
+        <v>0.8816740260890339</v>
       </c>
       <c r="D208">
-        <v>0.92813568964337</v>
+        <v>0.9427054560466936</v>
       </c>
       <c r="E208">
-        <v>1.061216954659578</v>
+        <v>1.057348066298343</v>
       </c>
       <c r="F208">
-        <v>1.04329154122594</v>
+        <v>1.041365051966716</v>
       </c>
       <c r="G208">
-        <v>1.024715384240884</v>
+        <v>1.0238551936676</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2">
-        <v>43507</v>
+        <v>43510</v>
       </c>
       <c r="B209">
-        <v>0.7191918567573463</v>
+        <v>0.7521463122654687</v>
       </c>
       <c r="C209">
-        <v>0.8506667067326769</v>
+        <v>0.8830009905191095</v>
       </c>
       <c r="D209">
-        <v>0.9352169812762806</v>
+        <v>0.9405373809361561</v>
       </c>
       <c r="E209">
-        <v>1.061253876827648</v>
+        <v>1.055248618784531</v>
       </c>
       <c r="F209">
-        <v>1.044362105366696</v>
+        <v>1.040990422438557</v>
       </c>
       <c r="G209">
-        <v>1.025025431567943</v>
+        <v>1.024151865065664</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="2">
-        <v>43508</v>
+        <v>43511</v>
       </c>
       <c r="B210">
-        <v>0.7251733030389171</v>
+        <v>0.7472613449309111</v>
       </c>
       <c r="C210">
-        <v>0.856805965259527</v>
+        <v>0.8665367378149591</v>
       </c>
       <c r="D210">
-        <v>0.936130471219916</v>
+        <v>0.922964857599742</v>
       </c>
       <c r="E210">
-        <v>1.062619997046227</v>
+        <v>1.062283609576428</v>
       </c>
       <c r="F210">
-        <v>1.044556194517727</v>
+        <v>1.040756716634775</v>
       </c>
       <c r="G210">
-        <v>1.025559686672834</v>
+        <v>1.024311709568931</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2">
-        <v>43509</v>
+        <v>43514</v>
       </c>
       <c r="B211">
-        <v>0.7370851335589323</v>
+        <v>0.7735264314171093</v>
       </c>
       <c r="C211">
-        <v>0.873964105605599</v>
+        <v>0.8943182241708465</v>
       </c>
       <c r="D211">
-        <v>0.9469720583065111</v>
+        <v>0.9377242422818978</v>
       </c>
       <c r="E211">
-        <v>1.059924678777138</v>
+        <v>1.068066298342542</v>
       </c>
       <c r="F211">
-        <v>1.044849523822906</v>
+        <v>1.039345728785726</v>
       </c>
       <c r="G211">
-        <v>1.025801831072892</v>
+        <v>1.024438306415518</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="2">
-        <v>43510</v>
+        <v>43515</v>
       </c>
       <c r="B212">
-        <v>0.7403130354796916</v>
+        <v>0.774569406155118</v>
       </c>
       <c r="C212">
-        <v>0.8752794662116564</v>
+        <v>0.8927254100594427</v>
       </c>
       <c r="D212">
-        <v>0.9447941706780691</v>
+        <v>0.9337916702779203</v>
       </c>
       <c r="E212">
-        <v>1.057820115197165</v>
+        <v>1.07060773480663</v>
       </c>
       <c r="F212">
-        <v>1.04447364076118</v>
+        <v>1.039266951548497</v>
       </c>
       <c r="G212">
-        <v>1.026099066526932</v>
+        <v>1.024264395595964</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="2">
-        <v>43511</v>
+        <v>43516</v>
       </c>
       <c r="B213">
-        <v>0.7355049217700428</v>
+        <v>0.7746259477796034</v>
       </c>
       <c r="C213">
-        <v>0.8589591874427837</v>
+        <v>0.8959228474792634</v>
       </c>
       <c r="D213">
-        <v>0.92714211564138</v>
+        <v>0.9432499558379578</v>
       </c>
       <c r="E213">
-        <v>1.064872249298479</v>
+        <v>1.076721915285451</v>
       </c>
       <c r="F213">
-        <v>1.044239152963328</v>
+        <v>1.039317719101378</v>
       </c>
       <c r="G213">
-        <v>1.026259214939669</v>
+        <v>1.024521425557217</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2">
-        <v>43514</v>
+        <v>43517</v>
       </c>
       <c r="B214">
-        <v>0.7613567880713844</v>
+        <v>0.7732184314145205</v>
       </c>
       <c r="C214">
-        <v>0.8864977347482086</v>
+        <v>0.8935294217189353</v>
       </c>
       <c r="D214">
-        <v>0.9419683000048514</v>
+        <v>0.9470829564949302</v>
       </c>
       <c r="E214">
-        <v>1.070669029685424</v>
+        <v>1.070755064456722</v>
       </c>
       <c r="F214">
-        <v>1.042823443861688</v>
+        <v>1.039011363178818</v>
       </c>
       <c r="G214">
-        <v>1.026386052482557</v>
+        <v>1.024555951969923</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2">
-        <v>43515</v>
+        <v>43518</v>
       </c>
       <c r="B215">
-        <v>0.7623833540222275</v>
+        <v>0.7928270402328267</v>
       </c>
       <c r="C215">
-        <v>0.8849188492201365</v>
+        <v>0.9136213040198092</v>
       </c>
       <c r="D215">
-        <v>0.9380179295246994</v>
+        <v>0.9532484407656346</v>
       </c>
       <c r="E215">
-        <v>1.073216659282233</v>
+        <v>1.064125230202578</v>
       </c>
       <c r="F215">
-        <v>1.042744403030952</v>
+        <v>1.039378114983255</v>
       </c>
       <c r="G215">
-        <v>1.026211811009499</v>
+        <v>1.024353908517794</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="2">
-        <v>43516</v>
+        <v>43521</v>
       </c>
       <c r="B216">
-        <v>0.7624390060954626</v>
+        <v>0.8371457329917963</v>
       </c>
       <c r="C216">
-        <v>0.8880883262061369</v>
+        <v>0.9679604546068483</v>
       </c>
       <c r="D216">
-        <v>0.9475190224561015</v>
+        <v>0.9579789067529226</v>
       </c>
       <c r="E216">
-        <v>1.079345739181805</v>
+        <v>1.061988950276243</v>
       </c>
       <c r="F216">
-        <v>1.042795340455204</v>
+        <v>1.036473860837384</v>
       </c>
       <c r="G216">
-        <v>1.02646932965718</v>
+        <v>1.023940870321351</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2">
-        <v>43517</v>
+        <v>43522</v>
       </c>
       <c r="B217">
-        <v>0.7610536337340887</v>
+        <v>0.8361826666546963</v>
       </c>
       <c r="C217">
-        <v>0.8857158300884536</v>
+        <v>0.9563356367929109</v>
       </c>
       <c r="D217">
-        <v>0.9513693709380601</v>
+        <v>0.9517849735259312</v>
       </c>
       <c r="E217">
-        <v>1.073364347954512</v>
+        <v>1.060773480662983</v>
       </c>
       <c r="F217">
-        <v>1.042487959446784</v>
+        <v>1.034991098172192</v>
       </c>
       <c r="G217">
-        <v>1.026503921714331</v>
+        <v>1.022732445876651</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="2">
-        <v>43518</v>
+        <v>43523</v>
       </c>
       <c r="B218">
-        <v>0.7803537465965587</v>
+        <v>0.8327541066819147</v>
       </c>
       <c r="C218">
-        <v>0.9056320161452298</v>
+        <v>0.9547001538465852</v>
       </c>
       <c r="D218">
-        <v>0.957562759650129</v>
+        <v>0.951301341269049</v>
       </c>
       <c r="E218">
-        <v>1.066718357701965</v>
+        <v>1.06036832412523</v>
       </c>
       <c r="F218">
-        <v>1.042855938425436</v>
+        <v>1.036060717993245</v>
       </c>
       <c r="G218">
-        <v>1.026301494120632</v>
+        <v>1.02259050395775</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="2">
-        <v>43521</v>
+        <v>43524</v>
       </c>
       <c r="B219">
-        <v>0.823975187571336</v>
+        <v>0.8339833683981581</v>
       </c>
       <c r="C219">
-        <v>0.9594959905132053</v>
+        <v>0.9523586106902771</v>
       </c>
       <c r="D219">
-        <v>0.9623146353118195</v>
+        <v>0.9471907978873679</v>
       </c>
       <c r="E219">
-        <v>1.064576871953921</v>
+        <v>1.053480662983425</v>
       </c>
       <c r="F219">
-        <v>1.03994196646561</v>
+        <v>1.035525032780083</v>
       </c>
       <c r="G219">
-        <v>1.025887670622119</v>
+        <v>1.022236288538509</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="2">
-        <v>43522</v>
+        <v>43525</v>
       </c>
       <c r="B220">
-        <v>0.8230272728481497</v>
+        <v>0.8409425686290777</v>
       </c>
       <c r="C220">
-        <v>0.9479728275267072</v>
+        <v>0.9732113167301388</v>
       </c>
       <c r="D220">
-        <v>0.9560926688859811</v>
+        <v>0.9531118196150927</v>
       </c>
       <c r="E220">
-        <v>1.063358440407621</v>
+        <v>1.047845303867403</v>
       </c>
       <c r="F220">
-        <v>1.038454242384855</v>
+        <v>1.034823040066102</v>
       </c>
       <c r="G220">
-        <v>1.024676948621827</v>
+        <v>1.021695374739453</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="2">
-        <v>43523</v>
+        <v>43528</v>
       </c>
       <c r="B221">
-        <v>0.8196526533101917</v>
+        <v>0.8560482768222177</v>
       </c>
       <c r="C221">
-        <v>0.9463516462872427</v>
+        <v>0.9847323433817575</v>
       </c>
       <c r="D221">
-        <v>0.9556068477518977</v>
+        <v>0.9579885000056242</v>
       </c>
       <c r="E221">
-        <v>1.062952296558854</v>
+        <v>1.033922651933701</v>
       </c>
       <c r="F221">
-        <v>1.039527441219968</v>
+        <v>1.034215580036797</v>
       </c>
       <c r="G221">
-        <v>1.024534736831317</v>
+        <v>1.020694108770987</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="2">
-        <v>43524</v>
+        <v>43529</v>
       </c>
       <c r="B222">
-        <v>0.8208625754459662</v>
+        <v>0.8787912366556087</v>
       </c>
       <c r="C222">
-        <v>0.9440305790789714</v>
+        <v>0.9904187183091765</v>
       </c>
       <c r="D222">
-        <v>0.951477700411187</v>
+        <v>0.9580549911709</v>
       </c>
       <c r="E222">
-        <v>1.056047851129818</v>
+        <v>1.029465930018416</v>
       </c>
       <c r="F222">
-        <v>1.038989963570959</v>
+        <v>1.033467196283114</v>
       </c>
       <c r="G222">
-        <v>1.024179847948691</v>
+        <v>1.019992071712638</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="2">
-        <v>43525</v>
+        <v>43530</v>
       </c>
       <c r="B223">
-        <v>0.8277122888108369</v>
+        <v>0.8945142891074002</v>
       </c>
       <c r="C223">
-        <v>0.9647009357463049</v>
+        <v>0.9987440983862359</v>
       </c>
       <c r="D223">
-        <v>0.9574255201642355</v>
+        <v>0.9605690849823257</v>
       </c>
       <c r="E223">
-        <v>1.050398759415153</v>
+        <v>1.035911602209945</v>
       </c>
       <c r="F223">
-        <v>1.03828562194595</v>
+        <v>1.033449690230396</v>
       </c>
       <c r="G223">
-        <v>1.023637905719989</v>
+        <v>1.01953427705528</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="2">
-        <v>43528</v>
+        <v>43531</v>
       </c>
       <c r="B224">
-        <v>0.8425803437400047</v>
+        <v>0.9058966143283519</v>
       </c>
       <c r="C224">
-        <v>0.9761212151866606</v>
+        <v>0.9885594835223034</v>
       </c>
       <c r="D224">
-        <v>0.962324271982742</v>
+        <v>0.9520294360689104</v>
       </c>
       <c r="E224">
-        <v>1.036442179884803</v>
+        <v>1.031307550644567</v>
       </c>
       <c r="F224">
-        <v>1.037676129317824</v>
+        <v>1.034976218027382</v>
       </c>
       <c r="G224">
-        <v>1.022634736062604</v>
+        <v>1.01977596194422</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2">
-        <v>43529</v>
+        <v>43532</v>
       </c>
       <c r="B225">
-        <v>0.8649654958779411</v>
+        <v>0.870561766679651</v>
       </c>
       <c r="C225">
-        <v>0.9817578648219284</v>
+        <v>0.9492982637729241</v>
       </c>
       <c r="D225">
-        <v>0.9623910640812035</v>
+        <v>0.9338012635306217</v>
       </c>
       <c r="E225">
-        <v>1.031974597548368</v>
+        <v>1.040662983425414</v>
       </c>
       <c r="F225">
-        <v>1.036925241425826</v>
+        <v>1.036010825743</v>
       </c>
       <c r="G225">
-        <v>1.021931364233863</v>
+        <v>1.020302809426989</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2">
-        <v>43530</v>
+        <v>43535</v>
       </c>
       <c r="B226">
-        <v>0.8804411825864653</v>
+        <v>0.9055258161141246</v>
       </c>
       <c r="C226">
-        <v>0.9900104424612509</v>
+        <v>0.9680828290330384</v>
       </c>
       <c r="D226">
-        <v>0.9649165364608431</v>
+        <v>0.942894343884368</v>
       </c>
       <c r="E226">
-        <v>1.038435976960567</v>
+        <v>1.044198895027624</v>
       </c>
       <c r="F226">
-        <v>1.036907676796773</v>
+        <v>1.036230526704607</v>
       </c>
       <c r="G226">
-        <v>1.021472699179784</v>
+        <v>1.020644237285968</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2">
-        <v>43531</v>
+        <v>43536</v>
       </c>
       <c r="B227">
-        <v>0.891644433333995</v>
+        <v>0.9212290034868117</v>
       </c>
       <c r="C227">
-        <v>0.9799148883708377</v>
+        <v>0.9746745151714705</v>
       </c>
       <c r="D227">
-        <v>0.9563382378450014</v>
+        <v>0.956707635369066</v>
       </c>
       <c r="E227">
-        <v>1.033820705951854</v>
+        <v>1.041620626151013</v>
       </c>
       <c r="F227">
-        <v>1.03843931245016</v>
+        <v>1.035948679255852</v>
       </c>
       <c r="G227">
-        <v>1.021714843579843</v>
+        <v>1.020442193833838</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2">
-        <v>43532</v>
+        <v>43537</v>
       </c>
       <c r="B228">
-        <v>0.8568654975146708</v>
+        <v>0.9002953756369465</v>
       </c>
       <c r="C228">
-        <v>0.9409969937885762</v>
+        <v>0.9665877327826324</v>
       </c>
       <c r="D228">
-        <v>0.9380275661956219</v>
+        <v>0.9529556811573304</v>
       </c>
       <c r="E228">
-        <v>1.04319893664156</v>
+        <v>1.049208103130755</v>
       </c>
       <c r="F228">
-        <v>1.039477382027169</v>
+        <v>1.035918043663596</v>
       </c>
       <c r="G228">
-        <v>1.022242692748224</v>
+        <v>1.02029897315891</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2">
-        <v>43535</v>
+        <v>43538</v>
       </c>
       <c r="B229">
-        <v>0.8912794687691908</v>
+        <v>0.8793247227315411</v>
       </c>
       <c r="C229">
-        <v>0.9596172948192975</v>
+        <v>0.9599153288360455</v>
       </c>
       <c r="D229">
-        <v>0.9471618010339818</v>
+        <v>0.9544092243425152</v>
       </c>
       <c r="E229">
-        <v>1.046743464776252</v>
+        <v>1.046556169429097</v>
       </c>
       <c r="F229">
-        <v>1.039697818121779</v>
+        <v>1.035405116318967</v>
       </c>
       <c r="G229">
-        <v>1.02258476975783</v>
+        <v>1.020181327604506</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2">
-        <v>43536</v>
+        <v>43539</v>
       </c>
       <c r="B230">
-        <v>0.9067356029295311</v>
+        <v>0.8893661800065272</v>
       </c>
       <c r="C230">
-        <v>0.9661513390464617</v>
+        <v>0.9719890518621526</v>
       </c>
       <c r="D230">
-        <v>0.961037610265115</v>
+        <v>0.9597308331773053</v>
       </c>
       <c r="E230">
-        <v>1.044158913011372</v>
+        <v>1.047108655616943</v>
       </c>
       <c r="F230">
-        <v>1.039415027594032</v>
+        <v>1.035693090886173</v>
       </c>
       <c r="G230">
-        <v>1.02238234216413</v>
+        <v>1.019908952570939</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2">
-        <v>43537</v>
+        <v>43542</v>
       </c>
       <c r="B231">
-        <v>0.8861313171351124</v>
+        <v>0.9129610314360653</v>
       </c>
       <c r="C231">
-        <v>0.9581352726448704</v>
+        <v>0.9996934021004076</v>
       </c>
       <c r="D231">
-        <v>0.9572686750375002</v>
+        <v>0.9728553952783997</v>
       </c>
       <c r="E231">
-        <v>1.051764879633732</v>
+        <v>1.04707182320442</v>
       </c>
       <c r="F231">
-        <v>1.03938428949319</v>
+        <v>1.035649325754379</v>
       </c>
       <c r="G231">
-        <v>1.022238849186318</v>
+        <v>1.019897443766703</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2">
-        <v>43538</v>
+        <v>43543</v>
       </c>
       <c r="B232">
-        <v>0.8654905887884815</v>
+        <v>0.9164456517573973</v>
       </c>
       <c r="C232">
-        <v>0.9515212164575905</v>
+        <v>0.9950773556908343</v>
       </c>
       <c r="D232">
-        <v>0.9587287968317286</v>
+        <v>0.974749897286036</v>
       </c>
       <c r="E232">
-        <v>1.049106483532713</v>
+        <v>1.050460405156538</v>
       </c>
       <c r="F232">
-        <v>1.038869645861949</v>
+        <v>1.035766616307588</v>
       </c>
       <c r="G232">
-        <v>1.022120979954544</v>
+        <v>1.019846293525658</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2">
-        <v>43539</v>
+        <v>43544</v>
       </c>
       <c r="B233">
-        <v>0.8753740670355449</v>
+        <v>0.9153844383210297</v>
       </c>
       <c r="C233">
-        <v>0.9634893591425332</v>
+        <v>0.9954607263481513</v>
       </c>
       <c r="D233">
-        <v>0.9640744908016315</v>
+        <v>0.9699430160789535</v>
       </c>
       <c r="E233">
-        <v>1.049660316053759</v>
+        <v>1.048213627992634</v>
       </c>
       <c r="F233">
-        <v>1.039158584009864</v>
+        <v>1.035389360871521</v>
       </c>
       <c r="G233">
-        <v>1.02184808705924</v>
+        <v>1.019714581654965</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2">
-        <v>43542</v>
+        <v>43545</v>
       </c>
       <c r="B234">
-        <v>0.8985977082322707</v>
+        <v>0.9276142240803834</v>
       </c>
       <c r="C234">
-        <v>0.9909514448577766</v>
+        <v>0.9958374786642852</v>
       </c>
       <c r="D234">
-        <v>0.9772584535203425</v>
+        <v>0.9616924879538522</v>
       </c>
       <c r="E234">
-        <v>1.049623393885689</v>
+        <v>1.05524861878453</v>
       </c>
       <c r="F234">
-        <v>1.039114672437233</v>
+        <v>1.036019578769359</v>
       </c>
       <c r="G234">
-        <v>1.021836556373523</v>
+        <v>1.019830948453344</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="2">
-        <v>43543</v>
+        <v>43546</v>
       </c>
       <c r="B235">
-        <v>0.9020275061392888</v>
+        <v>0.9330347519561095</v>
       </c>
       <c r="C235">
-        <v>0.9863757641045713</v>
+        <v>0.9950354914385662</v>
       </c>
       <c r="D235">
-        <v>0.979161529878</v>
+        <v>0.9630752395501364</v>
       </c>
       <c r="E235">
-        <v>1.053020233348102</v>
+        <v>1.05524861878453</v>
       </c>
       <c r="F235">
-        <v>1.039232355451885</v>
+        <v>1.037302772433568</v>
       </c>
       <c r="G235">
-        <v>1.021785308881447</v>
+        <v>1.019946036495696</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2">
-        <v>43544</v>
+        <v>43549</v>
       </c>
       <c r="B236">
-        <v>0.9009829884336806</v>
+        <v>0.9210079816626574</v>
       </c>
       <c r="C236">
-        <v>0.9867557823241435</v>
+        <v>0.9714233004852521</v>
       </c>
       <c r="D236">
-        <v>0.9743328931479286</v>
+        <v>0.94355760152804</v>
       </c>
       <c r="E236">
-        <v>1.05076798109585</v>
+        <v>1.057863720073665</v>
       </c>
       <c r="F236">
-        <v>1.038853837695802</v>
+        <v>1.038471301452477</v>
       </c>
       <c r="G236">
-        <v>1.021653346589351</v>
+        <v>1.020333499571616</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2">
-        <v>43545</v>
+        <v>43550</v>
       </c>
       <c r="B237">
-        <v>0.9130203668946655</v>
+        <v>0.8953190654490969</v>
       </c>
       <c r="C237">
-        <v>0.9871292400775327</v>
+        <v>0.9604222159078349</v>
       </c>
       <c r="D237">
-        <v>0.9660450238557454</v>
+        <v>0.9449985742441677</v>
       </c>
       <c r="E237">
-        <v>1.057820115197165</v>
+        <v>1.059484346224677</v>
       </c>
       <c r="F237">
-        <v>1.039486164341695</v>
+        <v>1.039066507244879</v>
       </c>
       <c r="G237">
-        <v>1.021769934633824</v>
+        <v>1.020616104653392</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2">
-        <v>43546</v>
+        <v>43551</v>
       </c>
       <c r="B238">
-        <v>0.9183556153431943</v>
+        <v>0.9041149308174979</v>
       </c>
       <c r="C238">
-        <v>0.9863342659400481</v>
+        <v>0.9715693192597471</v>
       </c>
       <c r="D238">
-        <v>0.9674340336645473</v>
+        <v>0.9503357307643708</v>
       </c>
       <c r="E238">
-        <v>1.057820115197165</v>
+        <v>1.057458563535911</v>
       </c>
       <c r="F238">
-        <v>1.040773651651251</v>
+        <v>1.038723388611612</v>
       </c>
       <c r="G238">
-        <v>1.021885241490994</v>
+        <v>1.020947302464162</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2">
-        <v>43549</v>
+        <v>43552</v>
       </c>
       <c r="B239">
-        <v>0.9065180583708748</v>
+        <v>0.8912107447076293</v>
       </c>
       <c r="C239">
-        <v>0.9629285550568085</v>
+        <v>0.9676781239582607</v>
       </c>
       <c r="D239">
-        <v>0.9478280605236106</v>
+        <v>0.9518891760983781</v>
       </c>
       <c r="E239">
-        <v>1.060441589130114</v>
+        <v>1.055211786372007</v>
       </c>
       <c r="F239">
-        <v>1.041946090640512</v>
+        <v>1.039252946706323</v>
       </c>
       <c r="G239">
-        <v>1.022273441243469</v>
+        <v>1.02096776256058</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2">
-        <v>43550</v>
+        <v>43553</v>
       </c>
       <c r="B240">
-        <v>0.881233297639997</v>
+        <v>0.9206735778665387</v>
       </c>
       <c r="C240">
-        <v>0.9520236709852627</v>
+        <v>1.005038244668498</v>
       </c>
       <c r="D240">
-        <v>0.9492755549559408</v>
+        <v>0.9610242682829205</v>
       </c>
       <c r="E240">
-        <v>1.062066164525181</v>
+        <v>1.034990791896869</v>
       </c>
       <c r="F240">
-        <v>1.0425432880283</v>
+        <v>1.039898044748971</v>
       </c>
       <c r="G240">
-        <v>1.022556583637188</v>
+        <v>1.021337323052134</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="2">
-        <v>43551</v>
+        <v>43556</v>
       </c>
       <c r="B241">
-        <v>0.8898907804785932</v>
+        <v>0.9555547648616066</v>
       </c>
       <c r="C241">
-        <v>0.9630732969499312</v>
+        <v>1.031404366319527</v>
       </c>
       <c r="D241">
-        <v>0.954636866978718</v>
+        <v>0.9779169938847979</v>
       </c>
       <c r="E241">
-        <v>1.060035445281347</v>
+        <v>1.038674033149171</v>
       </c>
       <c r="F241">
-        <v>1.042199021298869</v>
+        <v>1.036773214338857</v>
       </c>
       <c r="G241">
-        <v>1.022888411148379</v>
+        <v>1.021247810130304</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="2">
-        <v>43552</v>
+        <v>43557</v>
       </c>
       <c r="B242">
-        <v>0.8771896117915891</v>
+        <v>0.9584941659316289</v>
       </c>
       <c r="C242">
-        <v>0.9592161287440291</v>
+        <v>1.030718446630164</v>
       </c>
       <c r="D242">
-        <v>0.9561973430701374</v>
+        <v>0.9799894672701377</v>
       </c>
       <c r="E242">
-        <v>1.057783193029095</v>
+        <v>1.036869244935543</v>
       </c>
       <c r="F242">
-        <v>1.04273035132771</v>
+        <v>1.035635320912205</v>
       </c>
       <c r="G242">
-        <v>1.02290891014521</v>
+        <v>1.020273398038387</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="2">
-        <v>43553</v>
+        <v>43558</v>
       </c>
       <c r="B243">
-        <v>0.9061889156424674</v>
+        <v>0.9685324534237338</v>
       </c>
       <c r="C243">
-        <v>0.9962495487106766</v>
+        <v>1.043921751793415</v>
       </c>
       <c r="D243">
-        <v>0.965373779881157</v>
+        <v>0.9919552306052551</v>
       </c>
       <c r="E243">
-        <v>1.037512922758824</v>
+        <v>1.038858195211786</v>
       </c>
       <c r="F243">
-        <v>1.043377607908298</v>
+        <v>1.031800620064387</v>
       </c>
       <c r="G243">
-        <v>1.023279173275458</v>
+        <v>1.0197260904592</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="2">
-        <v>43556</v>
+        <v>43559</v>
       </c>
       <c r="B244">
-        <v>0.9061889156424674</v>
+        <v>0.9744273534140137</v>
       </c>
       <c r="C244">
-        <v>0.9962495487106766</v>
+        <v>1.054322747482617</v>
       </c>
       <c r="D244">
-        <v>0.965373779881157</v>
+        <v>0.9902989059060697</v>
       </c>
       <c r="E244">
-        <v>1.037512922758824</v>
+        <v>1.041289134438306</v>
       </c>
       <c r="F244">
-        <v>1.043377607908298</v>
+        <v>1.030490292018465</v>
       </c>
       <c r="G244">
-        <v>1.023279173275458</v>
+        <v>1.018975460671858</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="2">
+        <v>43563</v>
+      </c>
+      <c r="B245">
+        <v>0.9744273534140137</v>
+      </c>
+      <c r="C245">
+        <v>1.054322747482617</v>
+      </c>
+      <c r="D245">
+        <v>0.9902989059060697</v>
+      </c>
+      <c r="E245">
+        <v>1.041289134438306</v>
+      </c>
+      <c r="F245">
+        <v>1.030490292018465</v>
+      </c>
+      <c r="G245">
+        <v>1.018975460671858</v>
       </c>
     </row>
   </sheetData>
